--- a/database/industries/kashi/kehafez/product/monthly.xlsx
+++ b/database/industries/kashi/kehafez/product/monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\kashi\kehafez\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E61CA9-13D3-4742-8E2F-049E8E9B62A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDA175C-BBB4-4562-B442-73098D71C921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="80">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 6 منتهی به 1397/06</t>
   </si>
   <si>
     <t>ماه 7 منتهی به 1397/07</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 7 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 8 منتهی به 1401/08</t>
   </si>
   <si>
     <t>سایر</t>
@@ -1522,11 +1522,11 @@
       <c r="AM11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AN11" s="11" t="s">
-        <v>57</v>
+      <c r="AN11" s="11">
+        <v>8548</v>
       </c>
       <c r="AO11" s="11">
-        <v>8548</v>
+        <v>0</v>
       </c>
       <c r="AP11" s="11">
         <v>0</v>
@@ -1537,14 +1537,14 @@
       <c r="AR11" s="11">
         <v>0</v>
       </c>
-      <c r="AS11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU11" s="11" t="s">
-        <v>57</v>
+      <c r="AS11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU11" s="11">
+        <v>0</v>
       </c>
       <c r="AV11" s="11">
         <v>0</v>
@@ -1589,127 +1589,127 @@
         <v>0</v>
       </c>
       <c r="I12" s="13">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="J12" s="13">
-        <v>550</v>
+        <v>778</v>
       </c>
       <c r="K12" s="13">
-        <v>778</v>
+        <v>51807</v>
       </c>
       <c r="L12" s="13">
-        <v>51807</v>
+        <v>108968</v>
       </c>
       <c r="M12" s="13">
-        <v>108968</v>
+        <v>10195</v>
       </c>
       <c r="N12" s="13">
-        <v>10195</v>
+        <v>171032</v>
       </c>
       <c r="O12" s="13">
-        <v>171032</v>
+        <v>59681</v>
       </c>
       <c r="P12" s="13">
-        <v>59681</v>
+        <v>99665</v>
       </c>
       <c r="Q12" s="13">
-        <v>99665</v>
+        <v>112830</v>
       </c>
       <c r="R12" s="13">
-        <v>112830</v>
+        <v>123528</v>
       </c>
       <c r="S12" s="13">
-        <v>123528</v>
+        <v>142614</v>
       </c>
       <c r="T12" s="13">
-        <v>142614</v>
+        <v>155238</v>
       </c>
       <c r="U12" s="13">
-        <v>155238</v>
+        <v>163756</v>
       </c>
       <c r="V12" s="13">
+        <v>146894</v>
+      </c>
+      <c r="W12" s="13">
+        <v>13726</v>
+      </c>
+      <c r="X12" s="13">
+        <v>91375</v>
+      </c>
+      <c r="Y12" s="13">
+        <v>184180</v>
+      </c>
+      <c r="Z12" s="13">
+        <v>180311</v>
+      </c>
+      <c r="AA12" s="13">
         <v>163756</v>
       </c>
-      <c r="W12" s="13">
-        <v>146894</v>
-      </c>
-      <c r="X12" s="13">
-        <v>13726</v>
-      </c>
-      <c r="Y12" s="13">
-        <v>91375</v>
-      </c>
-      <c r="Z12" s="13">
-        <v>184180</v>
-      </c>
-      <c r="AA12" s="13">
-        <v>180311</v>
-      </c>
       <c r="AB12" s="13">
-        <v>163756</v>
+        <v>140756</v>
       </c>
       <c r="AC12" s="13">
-        <v>140756</v>
+        <v>114154</v>
       </c>
       <c r="AD12" s="13">
-        <v>114154</v>
+        <v>115458</v>
       </c>
       <c r="AE12" s="13">
-        <v>115458</v>
+        <v>129004</v>
       </c>
       <c r="AF12" s="13">
-        <v>129004</v>
+        <v>112421</v>
       </c>
       <c r="AG12" s="13">
-        <v>112421</v>
+        <v>105827</v>
       </c>
       <c r="AH12" s="13">
-        <v>105827</v>
+        <v>109669</v>
       </c>
       <c r="AI12" s="13">
-        <v>109669</v>
+        <v>144720</v>
       </c>
       <c r="AJ12" s="13">
-        <v>144720</v>
+        <v>170723</v>
       </c>
       <c r="AK12" s="13">
-        <v>170723</v>
+        <v>156453</v>
       </c>
       <c r="AL12" s="13">
-        <v>156453</v>
+        <v>164970</v>
       </c>
       <c r="AM12" s="13">
-        <v>164970</v>
+        <v>146620</v>
       </c>
       <c r="AN12" s="13">
-        <v>146620</v>
+        <v>152898</v>
       </c>
       <c r="AO12" s="13">
-        <v>152898</v>
+        <v>147979</v>
       </c>
       <c r="AP12" s="13">
-        <v>147979</v>
+        <v>158837</v>
       </c>
       <c r="AQ12" s="13">
-        <v>158837</v>
+        <v>153299</v>
       </c>
       <c r="AR12" s="13">
-        <v>153299</v>
-      </c>
-      <c r="AS12" s="13">
         <v>120479</v>
       </c>
-      <c r="AT12" s="13">
-        <v>162442</v>
-      </c>
-      <c r="AU12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV12" s="13">
-        <v>226465</v>
-      </c>
-      <c r="AW12" s="13">
-        <v>186037</v>
+      <c r="AS12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU12" s="13">
+        <v>133071</v>
+      </c>
+      <c r="AV12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW12" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AX12" s="13" t="s">
         <v>57</v>
@@ -1736,154 +1736,154 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>0</v>
+        <v>11837</v>
       </c>
       <c r="F13" s="11">
-        <v>11837</v>
+        <v>89548</v>
       </c>
       <c r="G13" s="11">
-        <v>89548</v>
+        <v>79900</v>
       </c>
       <c r="H13" s="11">
-        <v>79900</v>
+        <v>70422</v>
       </c>
       <c r="I13" s="11">
-        <v>70422</v>
+        <v>98280</v>
       </c>
       <c r="J13" s="11">
-        <v>98280</v>
+        <v>90851</v>
       </c>
       <c r="K13" s="11">
-        <v>90851</v>
+        <v>48535</v>
       </c>
       <c r="L13" s="11">
-        <v>48535</v>
+        <v>68758</v>
       </c>
       <c r="M13" s="11">
-        <v>68758</v>
+        <v>112136</v>
       </c>
       <c r="N13" s="11">
-        <v>112136</v>
+        <v>65686</v>
       </c>
       <c r="O13" s="11">
-        <v>65686</v>
+        <v>89018</v>
       </c>
       <c r="P13" s="11">
-        <v>89018</v>
+        <v>134728</v>
       </c>
       <c r="Q13" s="11">
-        <v>134728</v>
+        <v>139792</v>
       </c>
       <c r="R13" s="11">
-        <v>139792</v>
+        <v>145123</v>
       </c>
       <c r="S13" s="11">
-        <v>145123</v>
+        <v>145288</v>
       </c>
       <c r="T13" s="11">
-        <v>145288</v>
+        <v>149466</v>
       </c>
       <c r="U13" s="11">
-        <v>149466</v>
+        <v>141755</v>
       </c>
       <c r="V13" s="11">
-        <v>141755</v>
+        <v>125475</v>
       </c>
       <c r="W13" s="11">
-        <v>125475</v>
+        <v>81301</v>
       </c>
       <c r="X13" s="11">
-        <v>81301</v>
+        <v>103209</v>
       </c>
       <c r="Y13" s="11">
-        <v>103209</v>
+        <v>147825</v>
       </c>
       <c r="Z13" s="11">
-        <v>147825</v>
+        <v>149915</v>
       </c>
       <c r="AA13" s="11">
-        <v>149915</v>
+        <v>140115</v>
       </c>
       <c r="AB13" s="11">
-        <v>140115</v>
+        <v>125268</v>
       </c>
       <c r="AC13" s="11">
-        <v>125268</v>
+        <v>123117</v>
       </c>
       <c r="AD13" s="11">
-        <v>123117</v>
+        <v>125608</v>
       </c>
       <c r="AE13" s="11">
-        <v>125608</v>
+        <v>128398</v>
       </c>
       <c r="AF13" s="11">
-        <v>128398</v>
+        <v>133925</v>
       </c>
       <c r="AG13" s="11">
-        <v>133925</v>
+        <v>134039</v>
       </c>
       <c r="AH13" s="11">
-        <v>134039</v>
+        <v>109353</v>
       </c>
       <c r="AI13" s="11">
-        <v>109353</v>
+        <v>70283</v>
       </c>
       <c r="AJ13" s="11">
-        <v>70283</v>
+        <v>134856</v>
       </c>
       <c r="AK13" s="11">
-        <v>134856</v>
+        <v>94567</v>
       </c>
       <c r="AL13" s="11">
-        <v>94567</v>
+        <v>88076</v>
       </c>
       <c r="AM13" s="11">
-        <v>88076</v>
+        <v>133008</v>
       </c>
       <c r="AN13" s="11">
-        <v>133008</v>
+        <v>135791</v>
       </c>
       <c r="AO13" s="11">
-        <v>135791</v>
+        <v>88067</v>
       </c>
       <c r="AP13" s="11">
-        <v>88067</v>
+        <v>81059</v>
       </c>
       <c r="AQ13" s="11">
-        <v>81059</v>
+        <v>81470</v>
       </c>
       <c r="AR13" s="11">
-        <v>81470</v>
+        <v>121594</v>
       </c>
       <c r="AS13" s="11">
-        <v>121594</v>
+        <v>126187</v>
       </c>
       <c r="AT13" s="11">
-        <v>126187</v>
+        <v>118055</v>
       </c>
       <c r="AU13" s="11">
-        <v>118055</v>
+        <v>73028</v>
       </c>
       <c r="AV13" s="11">
-        <v>73028</v>
+        <v>86470</v>
       </c>
       <c r="AW13" s="11">
-        <v>86470</v>
+        <v>104245</v>
       </c>
       <c r="AX13" s="11">
-        <v>104245</v>
+        <v>131170</v>
       </c>
       <c r="AY13" s="11">
-        <v>131170</v>
+        <v>125825</v>
       </c>
       <c r="AZ13" s="11">
-        <v>125825</v>
+        <v>135448</v>
       </c>
       <c r="BA13" s="11">
-        <v>135448</v>
+        <v>101003</v>
       </c>
       <c r="BB13" s="11">
-        <v>101003</v>
+        <v>85022</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -1895,154 +1895,154 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>3650</v>
+        <v>6052</v>
       </c>
       <c r="F14" s="13">
-        <v>6052</v>
+        <v>22272</v>
       </c>
       <c r="G14" s="13">
-        <v>22272</v>
+        <v>21078</v>
       </c>
       <c r="H14" s="13">
-        <v>21078</v>
+        <v>28540</v>
       </c>
       <c r="I14" s="13">
-        <v>28540</v>
+        <v>20008</v>
       </c>
       <c r="J14" s="13">
-        <v>20008</v>
+        <v>27910</v>
       </c>
       <c r="K14" s="13">
-        <v>27910</v>
+        <v>17078</v>
       </c>
       <c r="L14" s="13">
-        <v>17078</v>
+        <v>41519</v>
       </c>
       <c r="M14" s="13">
-        <v>41519</v>
+        <v>44235</v>
       </c>
       <c r="N14" s="13">
-        <v>44235</v>
+        <v>46601</v>
       </c>
       <c r="O14" s="13">
-        <v>46601</v>
+        <v>36865</v>
       </c>
       <c r="P14" s="13">
-        <v>36865</v>
+        <v>48056</v>
       </c>
       <c r="Q14" s="13">
-        <v>48056</v>
+        <v>56247</v>
       </c>
       <c r="R14" s="13">
-        <v>56247</v>
+        <v>58991</v>
       </c>
       <c r="S14" s="13">
-        <v>58991</v>
+        <v>50837</v>
       </c>
       <c r="T14" s="13">
-        <v>50837</v>
+        <v>56724</v>
       </c>
       <c r="U14" s="13">
-        <v>56724</v>
+        <v>61063</v>
       </c>
       <c r="V14" s="13">
-        <v>61063</v>
+        <v>96648</v>
       </c>
       <c r="W14" s="13">
-        <v>96648</v>
+        <v>88869</v>
       </c>
       <c r="X14" s="13">
-        <v>88869</v>
+        <v>102636</v>
       </c>
       <c r="Y14" s="13">
-        <v>102636</v>
+        <v>69728</v>
       </c>
       <c r="Z14" s="13">
-        <v>69728</v>
+        <v>108530</v>
       </c>
       <c r="AA14" s="13">
-        <v>108530</v>
+        <v>108612</v>
       </c>
       <c r="AB14" s="13">
-        <v>108612</v>
+        <v>122932</v>
       </c>
       <c r="AC14" s="13">
-        <v>122932</v>
+        <v>121312</v>
       </c>
       <c r="AD14" s="13">
-        <v>121312</v>
+        <v>127250</v>
       </c>
       <c r="AE14" s="13">
-        <v>127250</v>
+        <v>133942</v>
       </c>
       <c r="AF14" s="13">
-        <v>133942</v>
+        <v>130366</v>
       </c>
       <c r="AG14" s="13">
-        <v>130366</v>
+        <v>99533</v>
       </c>
       <c r="AH14" s="13">
-        <v>99533</v>
+        <v>113656</v>
       </c>
       <c r="AI14" s="13">
-        <v>113656</v>
+        <v>106404</v>
       </c>
       <c r="AJ14" s="13">
-        <v>106404</v>
+        <v>109835</v>
       </c>
       <c r="AK14" s="13">
-        <v>109835</v>
+        <v>121797</v>
       </c>
       <c r="AL14" s="13">
-        <v>121797</v>
+        <v>129462</v>
       </c>
       <c r="AM14" s="13">
-        <v>129462</v>
+        <v>137344</v>
       </c>
       <c r="AN14" s="13">
-        <v>137344</v>
+        <v>126087</v>
       </c>
       <c r="AO14" s="13">
-        <v>126087</v>
+        <v>121924</v>
       </c>
       <c r="AP14" s="13">
-        <v>121924</v>
+        <v>103148</v>
       </c>
       <c r="AQ14" s="13">
-        <v>103148</v>
+        <v>112950</v>
       </c>
       <c r="AR14" s="13">
-        <v>112950</v>
+        <v>233492</v>
       </c>
       <c r="AS14" s="13">
-        <v>233492</v>
+        <v>169796</v>
       </c>
       <c r="AT14" s="13">
-        <v>169796</v>
+        <v>204235</v>
       </c>
       <c r="AU14" s="13">
-        <v>204235</v>
+        <v>171881</v>
       </c>
       <c r="AV14" s="13">
-        <v>171881</v>
+        <v>195845</v>
       </c>
       <c r="AW14" s="13">
-        <v>195845</v>
+        <v>266733</v>
       </c>
       <c r="AX14" s="13">
-        <v>266733</v>
+        <v>339709</v>
       </c>
       <c r="AY14" s="13">
-        <v>339709</v>
+        <v>361341</v>
       </c>
       <c r="AZ14" s="13">
-        <v>361341</v>
+        <v>393489</v>
       </c>
       <c r="BA14" s="13">
-        <v>393489</v>
+        <v>402687</v>
       </c>
       <c r="BB14" s="13">
-        <v>402687</v>
+        <v>388605</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2125,14 +2125,14 @@
       <c r="AB15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AC15" s="11" t="s">
-        <v>57</v>
+      <c r="AC15" s="11">
+        <v>38913</v>
       </c>
       <c r="AD15" s="11">
-        <v>38913</v>
+        <v>21560</v>
       </c>
       <c r="AE15" s="11">
-        <v>21560</v>
+        <v>0</v>
       </c>
       <c r="AF15" s="11">
         <v>0</v>
@@ -2143,8 +2143,8 @@
       <c r="AH15" s="11">
         <v>0</v>
       </c>
-      <c r="AI15" s="11">
-        <v>0</v>
+      <c r="AI15" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AJ15" s="11" t="s">
         <v>57</v>
@@ -2158,8 +2158,8 @@
       <c r="AM15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AN15" s="11" t="s">
-        <v>57</v>
+      <c r="AN15" s="11">
+        <v>0</v>
       </c>
       <c r="AO15" s="11">
         <v>0</v>
@@ -2173,14 +2173,14 @@
       <c r="AR15" s="11">
         <v>0</v>
       </c>
-      <c r="AS15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU15" s="11" t="s">
-        <v>57</v>
+      <c r="AS15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU15" s="11">
+        <v>0</v>
       </c>
       <c r="AV15" s="11">
         <v>0</v>
@@ -2213,25 +2213,25 @@
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
-        <v>54224</v>
+        <v>63622</v>
       </c>
       <c r="F16" s="13">
-        <v>63622</v>
+        <v>67798</v>
       </c>
       <c r="G16" s="13">
-        <v>67798</v>
+        <v>100401</v>
       </c>
       <c r="H16" s="13">
-        <v>100401</v>
+        <v>111132</v>
       </c>
       <c r="I16" s="13">
-        <v>111132</v>
+        <v>85099</v>
       </c>
       <c r="J16" s="13">
-        <v>85099</v>
-      </c>
-      <c r="K16" s="13">
         <v>82948</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="L16" s="13" t="s">
         <v>57</v>
@@ -2389,8 +2389,8 @@
       <c r="J17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K17" s="11" t="s">
-        <v>57</v>
+      <c r="K17" s="11">
+        <v>0</v>
       </c>
       <c r="L17" s="11">
         <v>0</v>
@@ -2425,11 +2425,11 @@
       <c r="V17" s="11">
         <v>0</v>
       </c>
-      <c r="W17" s="11">
-        <v>0</v>
-      </c>
-      <c r="X17" s="11" t="s">
-        <v>57</v>
+      <c r="W17" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X17" s="11">
+        <v>0</v>
       </c>
       <c r="Y17" s="11">
         <v>0</v>
@@ -2461,8 +2461,8 @@
       <c r="AH17" s="11">
         <v>0</v>
       </c>
-      <c r="AI17" s="11">
-        <v>0</v>
+      <c r="AI17" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AJ17" s="11" t="s">
         <v>57</v>
@@ -2650,35 +2650,35 @@
       <c r="AR18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AS18" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT18" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU18" s="13">
+      <c r="AS18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="13">
         <v>147575</v>
       </c>
-      <c r="AV18" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW18" s="13" t="s">
-        <v>57</v>
+      <c r="AU18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="13">
+        <v>166223</v>
       </c>
       <c r="AX18" s="13">
-        <v>166223</v>
+        <v>133940</v>
       </c>
       <c r="AY18" s="13">
-        <v>133940</v>
+        <v>132039</v>
       </c>
       <c r="AZ18" s="13">
-        <v>132039</v>
+        <v>156836</v>
       </c>
       <c r="BA18" s="13">
-        <v>156836</v>
+        <v>197046</v>
       </c>
       <c r="BB18" s="13">
-        <v>197046</v>
+        <v>186317</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
@@ -2807,8 +2807,8 @@
       <c r="Y20" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Z20" s="17" t="s">
-        <v>57</v>
+      <c r="Z20" s="17">
+        <v>0</v>
       </c>
       <c r="AA20" s="17">
         <v>0</v>
@@ -2902,154 +2902,154 @@
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19">
-        <v>57874</v>
+        <v>81511</v>
       </c>
       <c r="F21" s="19">
-        <v>81511</v>
+        <v>179618</v>
       </c>
       <c r="G21" s="19">
-        <v>179618</v>
+        <v>201379</v>
       </c>
       <c r="H21" s="19">
-        <v>201379</v>
+        <v>210094</v>
       </c>
       <c r="I21" s="19">
-        <v>210094</v>
+        <v>203937</v>
       </c>
       <c r="J21" s="19">
-        <v>203937</v>
+        <v>202487</v>
       </c>
       <c r="K21" s="19">
-        <v>202487</v>
+        <v>117420</v>
       </c>
       <c r="L21" s="19">
-        <v>117420</v>
+        <v>219245</v>
       </c>
       <c r="M21" s="19">
-        <v>219245</v>
+        <v>166566</v>
       </c>
       <c r="N21" s="19">
-        <v>166566</v>
+        <v>283319</v>
       </c>
       <c r="O21" s="19">
-        <v>283319</v>
+        <v>185564</v>
       </c>
       <c r="P21" s="19">
-        <v>185564</v>
+        <v>282449</v>
       </c>
       <c r="Q21" s="19">
-        <v>282449</v>
+        <v>308869</v>
       </c>
       <c r="R21" s="19">
-        <v>308869</v>
+        <v>327642</v>
       </c>
       <c r="S21" s="19">
-        <v>327642</v>
+        <v>338739</v>
       </c>
       <c r="T21" s="19">
-        <v>338739</v>
+        <v>361428</v>
       </c>
       <c r="U21" s="19">
-        <v>361428</v>
+        <v>366574</v>
       </c>
       <c r="V21" s="19">
-        <v>366574</v>
+        <v>369017</v>
       </c>
       <c r="W21" s="19">
-        <v>369017</v>
+        <v>183896</v>
       </c>
       <c r="X21" s="19">
-        <v>183896</v>
+        <v>297220</v>
       </c>
       <c r="Y21" s="19">
-        <v>297220</v>
+        <v>401733</v>
       </c>
       <c r="Z21" s="19">
-        <v>401733</v>
+        <v>438756</v>
       </c>
       <c r="AA21" s="19">
-        <v>438756</v>
+        <v>412483</v>
       </c>
       <c r="AB21" s="19">
-        <v>412483</v>
+        <v>388956</v>
       </c>
       <c r="AC21" s="19">
-        <v>388956</v>
+        <v>397496</v>
       </c>
       <c r="AD21" s="19">
-        <v>397496</v>
+        <v>389876</v>
       </c>
       <c r="AE21" s="19">
-        <v>389876</v>
+        <v>391344</v>
       </c>
       <c r="AF21" s="19">
-        <v>391344</v>
+        <v>376712</v>
       </c>
       <c r="AG21" s="19">
-        <v>376712</v>
+        <v>339399</v>
       </c>
       <c r="AH21" s="19">
-        <v>339399</v>
+        <v>332678</v>
       </c>
       <c r="AI21" s="19">
-        <v>332678</v>
+        <v>321407</v>
       </c>
       <c r="AJ21" s="19">
-        <v>321407</v>
+        <v>415414</v>
       </c>
       <c r="AK21" s="19">
-        <v>415414</v>
+        <v>372817</v>
       </c>
       <c r="AL21" s="19">
-        <v>372817</v>
+        <v>382508</v>
       </c>
       <c r="AM21" s="19">
-        <v>382508</v>
+        <v>416972</v>
       </c>
       <c r="AN21" s="19">
-        <v>416972</v>
+        <v>423324</v>
       </c>
       <c r="AO21" s="19">
-        <v>423324</v>
+        <v>357970</v>
       </c>
       <c r="AP21" s="19">
-        <v>357970</v>
+        <v>343044</v>
       </c>
       <c r="AQ21" s="19">
-        <v>343044</v>
+        <v>347719</v>
       </c>
       <c r="AR21" s="19">
-        <v>347719</v>
+        <v>475565</v>
       </c>
       <c r="AS21" s="19">
-        <v>475565</v>
+        <v>295983</v>
       </c>
       <c r="AT21" s="19">
-        <v>458425</v>
+        <v>469865</v>
       </c>
       <c r="AU21" s="19">
-        <v>469865</v>
+        <v>377980</v>
       </c>
       <c r="AV21" s="19">
-        <v>471374</v>
+        <v>282315</v>
       </c>
       <c r="AW21" s="19">
-        <v>468352</v>
+        <v>537201</v>
       </c>
       <c r="AX21" s="19">
-        <v>537201</v>
+        <v>604819</v>
       </c>
       <c r="AY21" s="19">
-        <v>604819</v>
+        <v>619205</v>
       </c>
       <c r="AZ21" s="19">
-        <v>619205</v>
+        <v>685773</v>
       </c>
       <c r="BA21" s="19">
-        <v>685773</v>
+        <v>700736</v>
       </c>
       <c r="BB21" s="19">
-        <v>700736</v>
+        <v>659944</v>
       </c>
     </row>
     <row r="22" spans="2:54" x14ac:dyDescent="0.3">
@@ -3599,11 +3599,11 @@
       <c r="AM28" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AN28" s="11" t="s">
-        <v>57</v>
+      <c r="AN28" s="11">
+        <v>8548</v>
       </c>
       <c r="AO28" s="11">
-        <v>8548</v>
+        <v>0</v>
       </c>
       <c r="AP28" s="11">
         <v>0</v>
@@ -3614,14 +3614,14 @@
       <c r="AR28" s="11">
         <v>0</v>
       </c>
-      <c r="AS28" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT28" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU28" s="11" t="s">
-        <v>57</v>
+      <c r="AS28" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT28" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU28" s="11">
+        <v>0</v>
       </c>
       <c r="AV28" s="11">
         <v>0</v>
@@ -3654,139 +3654,139 @@
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13">
-        <v>1402</v>
+        <v>774</v>
       </c>
       <c r="F29" s="13">
-        <v>774</v>
+        <v>909</v>
       </c>
       <c r="G29" s="13">
-        <v>909</v>
+        <v>8377</v>
       </c>
       <c r="H29" s="13">
-        <v>8377</v>
+        <v>14</v>
       </c>
       <c r="I29" s="13">
-        <v>14</v>
+        <v>991</v>
       </c>
       <c r="J29" s="13">
-        <v>991</v>
+        <v>1635</v>
       </c>
       <c r="K29" s="13">
-        <v>1635</v>
+        <v>39377</v>
       </c>
       <c r="L29" s="13">
-        <v>39377</v>
+        <v>86938</v>
       </c>
       <c r="M29" s="13">
-        <v>86938</v>
+        <v>68320</v>
       </c>
       <c r="N29" s="13">
-        <v>68320</v>
+        <v>106903</v>
       </c>
       <c r="O29" s="13">
-        <v>106903</v>
+        <v>96662</v>
       </c>
       <c r="P29" s="13">
-        <v>96662</v>
+        <v>95889</v>
       </c>
       <c r="Q29" s="13">
-        <v>95889</v>
+        <v>106471</v>
       </c>
       <c r="R29" s="13">
-        <v>106471</v>
+        <v>95859</v>
       </c>
       <c r="S29" s="13">
-        <v>95859</v>
+        <v>143789</v>
       </c>
       <c r="T29" s="13">
-        <v>143789</v>
+        <v>261084</v>
       </c>
       <c r="U29" s="13">
-        <v>261084</v>
+        <v>147625</v>
       </c>
       <c r="V29" s="13">
-        <v>147625</v>
+        <v>208816</v>
       </c>
       <c r="W29" s="13">
-        <v>208816</v>
+        <v>29869</v>
       </c>
       <c r="X29" s="13">
-        <v>29869</v>
+        <v>89823</v>
       </c>
       <c r="Y29" s="13">
-        <v>89823</v>
+        <v>239190</v>
       </c>
       <c r="Z29" s="13">
-        <v>239190</v>
+        <v>182868</v>
       </c>
       <c r="AA29" s="13">
-        <v>182868</v>
+        <v>181382</v>
       </c>
       <c r="AB29" s="13">
-        <v>181382</v>
+        <v>192099</v>
       </c>
       <c r="AC29" s="13">
-        <v>192099</v>
+        <v>101660</v>
       </c>
       <c r="AD29" s="13">
-        <v>101660</v>
+        <v>122012</v>
       </c>
       <c r="AE29" s="13">
-        <v>122012</v>
+        <v>140670</v>
       </c>
       <c r="AF29" s="13">
-        <v>140670</v>
+        <v>111246</v>
       </c>
       <c r="AG29" s="13">
-        <v>111246</v>
+        <v>99463</v>
       </c>
       <c r="AH29" s="13">
-        <v>99463</v>
+        <v>140974</v>
       </c>
       <c r="AI29" s="13">
-        <v>140974</v>
+        <v>97643</v>
       </c>
       <c r="AJ29" s="13">
-        <v>97643</v>
+        <v>174539</v>
       </c>
       <c r="AK29" s="13">
-        <v>174539</v>
+        <v>185918</v>
       </c>
       <c r="AL29" s="13">
-        <v>185918</v>
+        <v>136784</v>
       </c>
       <c r="AM29" s="13">
-        <v>136784</v>
+        <v>150795</v>
       </c>
       <c r="AN29" s="13">
-        <v>150795</v>
+        <v>147684</v>
       </c>
       <c r="AO29" s="13">
-        <v>147684</v>
+        <v>151056</v>
       </c>
       <c r="AP29" s="13">
-        <v>151056</v>
+        <v>199358</v>
       </c>
       <c r="AQ29" s="13">
-        <v>199358</v>
+        <v>153121</v>
       </c>
       <c r="AR29" s="13">
-        <v>153121</v>
-      </c>
-      <c r="AS29" s="13">
         <v>131225</v>
       </c>
-      <c r="AT29" s="13">
-        <v>174584</v>
-      </c>
-      <c r="AU29" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV29" s="13">
-        <v>121237</v>
-      </c>
-      <c r="AW29" s="13">
-        <v>219884</v>
+      <c r="AS29" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT29" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU29" s="13">
+        <v>132546</v>
+      </c>
+      <c r="AV29" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW29" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AX29" s="13" t="s">
         <v>57</v>
@@ -3813,154 +3813,154 @@
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
-        <v>80656</v>
+        <v>38540</v>
       </c>
       <c r="F30" s="11">
-        <v>38540</v>
+        <v>66739</v>
       </c>
       <c r="G30" s="11">
-        <v>66739</v>
+        <v>75678</v>
       </c>
       <c r="H30" s="11">
-        <v>75678</v>
+        <v>61098</v>
       </c>
       <c r="I30" s="11">
-        <v>61098</v>
+        <v>74288</v>
       </c>
       <c r="J30" s="11">
-        <v>74288</v>
+        <v>105298</v>
       </c>
       <c r="K30" s="11">
-        <v>105298</v>
+        <v>29449</v>
       </c>
       <c r="L30" s="11">
-        <v>29449</v>
+        <v>51205</v>
       </c>
       <c r="M30" s="11">
-        <v>51205</v>
+        <v>45238</v>
       </c>
       <c r="N30" s="11">
-        <v>45238</v>
+        <v>64854</v>
       </c>
       <c r="O30" s="11">
-        <v>64854</v>
+        <v>94911</v>
       </c>
       <c r="P30" s="11">
-        <v>94911</v>
+        <v>145513</v>
       </c>
       <c r="Q30" s="11">
-        <v>145513</v>
+        <v>164195</v>
       </c>
       <c r="R30" s="11">
-        <v>164195</v>
+        <v>132727</v>
       </c>
       <c r="S30" s="11">
-        <v>132727</v>
+        <v>126512</v>
       </c>
       <c r="T30" s="11">
-        <v>126512</v>
+        <v>94450</v>
       </c>
       <c r="U30" s="11">
-        <v>94450</v>
+        <v>332255</v>
       </c>
       <c r="V30" s="11">
-        <v>332255</v>
+        <v>275453</v>
       </c>
       <c r="W30" s="11">
-        <v>275453</v>
+        <v>103318</v>
       </c>
       <c r="X30" s="11">
-        <v>103318</v>
+        <v>71910</v>
       </c>
       <c r="Y30" s="11">
-        <v>71910</v>
+        <v>162379</v>
       </c>
       <c r="Z30" s="11">
-        <v>162379</v>
+        <v>172663</v>
       </c>
       <c r="AA30" s="11">
-        <v>172663</v>
+        <v>157585</v>
       </c>
       <c r="AB30" s="11">
-        <v>157585</v>
+        <v>147825</v>
       </c>
       <c r="AC30" s="11">
-        <v>147825</v>
+        <v>136227</v>
       </c>
       <c r="AD30" s="11">
-        <v>136227</v>
+        <v>127364</v>
       </c>
       <c r="AE30" s="11">
-        <v>127364</v>
+        <v>164289</v>
       </c>
       <c r="AF30" s="11">
-        <v>164289</v>
+        <v>163405</v>
       </c>
       <c r="AG30" s="11">
-        <v>163405</v>
+        <v>150378</v>
       </c>
       <c r="AH30" s="11">
-        <v>150378</v>
+        <v>136665</v>
       </c>
       <c r="AI30" s="11">
-        <v>136665</v>
+        <v>70703</v>
       </c>
       <c r="AJ30" s="11">
-        <v>70703</v>
+        <v>133310</v>
       </c>
       <c r="AK30" s="11">
-        <v>133310</v>
+        <v>98551</v>
       </c>
       <c r="AL30" s="11">
-        <v>98551</v>
+        <v>89771</v>
       </c>
       <c r="AM30" s="11">
-        <v>89771</v>
+        <v>128365</v>
       </c>
       <c r="AN30" s="11">
-        <v>128365</v>
+        <v>120621</v>
       </c>
       <c r="AO30" s="11">
-        <v>120621</v>
+        <v>97517</v>
       </c>
       <c r="AP30" s="11">
-        <v>97517</v>
+        <v>90743</v>
       </c>
       <c r="AQ30" s="11">
-        <v>90743</v>
+        <v>100404</v>
       </c>
       <c r="AR30" s="11">
-        <v>100404</v>
+        <v>136733</v>
       </c>
       <c r="AS30" s="11">
-        <v>136733</v>
+        <v>87955</v>
       </c>
       <c r="AT30" s="11">
-        <v>87955</v>
+        <v>48279</v>
       </c>
       <c r="AU30" s="11">
-        <v>48279</v>
+        <v>18641</v>
       </c>
       <c r="AV30" s="11">
-        <v>18641</v>
+        <v>136043</v>
       </c>
       <c r="AW30" s="11">
-        <v>128671</v>
+        <v>145766</v>
       </c>
       <c r="AX30" s="11">
-        <v>142932</v>
+        <v>273499</v>
       </c>
       <c r="AY30" s="11">
-        <v>273499</v>
+        <v>116670</v>
       </c>
       <c r="AZ30" s="11">
-        <v>116670</v>
+        <v>40170</v>
       </c>
       <c r="BA30" s="11">
-        <v>40170</v>
+        <v>87637</v>
       </c>
       <c r="BB30" s="11">
-        <v>87629</v>
+        <v>81461</v>
       </c>
     </row>
     <row r="31" spans="2:54" x14ac:dyDescent="0.3">
@@ -3972,154 +3972,154 @@
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="13">
-        <v>12887</v>
+        <v>12965</v>
       </c>
       <c r="F31" s="13">
-        <v>12965</v>
+        <v>10660</v>
       </c>
       <c r="G31" s="13">
-        <v>10660</v>
+        <v>11242</v>
       </c>
       <c r="H31" s="13">
-        <v>11242</v>
+        <v>6306</v>
       </c>
       <c r="I31" s="13">
-        <v>6306</v>
+        <v>35067</v>
       </c>
       <c r="J31" s="13">
-        <v>35067</v>
+        <v>23834</v>
       </c>
       <c r="K31" s="13">
-        <v>23834</v>
+        <v>9563</v>
       </c>
       <c r="L31" s="13">
-        <v>9563</v>
+        <v>20638</v>
       </c>
       <c r="M31" s="13">
-        <v>20638</v>
+        <v>41263</v>
       </c>
       <c r="N31" s="13">
-        <v>41263</v>
+        <v>15938</v>
       </c>
       <c r="O31" s="13">
-        <v>15938</v>
+        <v>47119</v>
       </c>
       <c r="P31" s="13">
-        <v>47119</v>
+        <v>72845</v>
       </c>
       <c r="Q31" s="13">
-        <v>72845</v>
+        <v>49130</v>
       </c>
       <c r="R31" s="13">
-        <v>49130</v>
+        <v>76327</v>
       </c>
       <c r="S31" s="13">
-        <v>76327</v>
+        <v>75310</v>
       </c>
       <c r="T31" s="13">
-        <v>75310</v>
+        <v>51795</v>
       </c>
       <c r="U31" s="13">
-        <v>51795</v>
+        <v>111578</v>
       </c>
       <c r="V31" s="13">
-        <v>111578</v>
+        <v>97984</v>
       </c>
       <c r="W31" s="13">
-        <v>97984</v>
+        <v>91824</v>
       </c>
       <c r="X31" s="13">
-        <v>91824</v>
+        <v>109364</v>
       </c>
       <c r="Y31" s="13">
-        <v>109364</v>
+        <v>64320</v>
       </c>
       <c r="Z31" s="13">
-        <v>64320</v>
+        <v>109216</v>
       </c>
       <c r="AA31" s="13">
-        <v>109216</v>
+        <v>107249</v>
       </c>
       <c r="AB31" s="13">
-        <v>107249</v>
+        <v>113522</v>
       </c>
       <c r="AC31" s="13">
-        <v>113522</v>
+        <v>123238</v>
       </c>
       <c r="AD31" s="13">
-        <v>123238</v>
+        <v>127014</v>
       </c>
       <c r="AE31" s="13">
-        <v>127014</v>
+        <v>166197</v>
       </c>
       <c r="AF31" s="13">
-        <v>166197</v>
+        <v>125560</v>
       </c>
       <c r="AG31" s="13">
-        <v>125560</v>
+        <v>105581</v>
       </c>
       <c r="AH31" s="13">
-        <v>105581</v>
+        <v>160713</v>
       </c>
       <c r="AI31" s="13">
-        <v>160713</v>
+        <v>104813</v>
       </c>
       <c r="AJ31" s="13">
-        <v>104813</v>
+        <v>99895</v>
       </c>
       <c r="AK31" s="13">
-        <v>99895</v>
+        <v>125781</v>
       </c>
       <c r="AL31" s="13">
-        <v>125781</v>
+        <v>131843</v>
       </c>
       <c r="AM31" s="13">
-        <v>131843</v>
+        <v>137472</v>
       </c>
       <c r="AN31" s="13">
-        <v>137472</v>
+        <v>143509</v>
       </c>
       <c r="AO31" s="13">
-        <v>143509</v>
+        <v>134946</v>
       </c>
       <c r="AP31" s="13">
-        <v>134946</v>
+        <v>108123</v>
       </c>
       <c r="AQ31" s="13">
-        <v>108123</v>
+        <v>114338</v>
       </c>
       <c r="AR31" s="13">
-        <v>114338</v>
+        <v>146556</v>
       </c>
       <c r="AS31" s="13">
-        <v>146556</v>
+        <v>207580</v>
       </c>
       <c r="AT31" s="13">
-        <v>208725</v>
+        <v>249378</v>
       </c>
       <c r="AU31" s="13">
-        <v>249378</v>
+        <v>127998</v>
       </c>
       <c r="AV31" s="13">
-        <v>127998</v>
+        <v>218992</v>
       </c>
       <c r="AW31" s="13">
-        <v>163468</v>
+        <v>347453</v>
       </c>
       <c r="AX31" s="13">
-        <v>346763</v>
+        <v>338573</v>
       </c>
       <c r="AY31" s="13">
-        <v>352440</v>
+        <v>394828</v>
       </c>
       <c r="AZ31" s="13">
-        <v>394828</v>
+        <v>375083</v>
       </c>
       <c r="BA31" s="13">
-        <v>375083</v>
+        <v>346884</v>
       </c>
       <c r="BB31" s="13">
-        <v>345992</v>
+        <v>364096</v>
       </c>
     </row>
     <row r="32" spans="2:54" x14ac:dyDescent="0.3">
@@ -4202,17 +4202,17 @@
       <c r="AB32" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AC32" s="11" t="s">
-        <v>57</v>
+      <c r="AC32" s="11">
+        <v>38913</v>
       </c>
       <c r="AD32" s="11">
-        <v>38913</v>
+        <v>21560</v>
       </c>
       <c r="AE32" s="11">
-        <v>21560</v>
+        <v>755</v>
       </c>
       <c r="AF32" s="11">
-        <v>755</v>
+        <v>0</v>
       </c>
       <c r="AG32" s="11">
         <v>0</v>
@@ -4220,8 +4220,8 @@
       <c r="AH32" s="11">
         <v>0</v>
       </c>
-      <c r="AI32" s="11">
-        <v>0</v>
+      <c r="AI32" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AJ32" s="11" t="s">
         <v>57</v>
@@ -4235,8 +4235,8 @@
       <c r="AM32" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AN32" s="11" t="s">
-        <v>57</v>
+      <c r="AN32" s="11">
+        <v>0</v>
       </c>
       <c r="AO32" s="11">
         <v>0</v>
@@ -4250,14 +4250,14 @@
       <c r="AR32" s="11">
         <v>0</v>
       </c>
-      <c r="AS32" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT32" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU32" s="11" t="s">
-        <v>57</v>
+      <c r="AS32" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT32" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU32" s="11">
+        <v>0</v>
       </c>
       <c r="AV32" s="11">
         <v>0</v>
@@ -4290,25 +4290,25 @@
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="13">
-        <v>63687</v>
+        <v>47405</v>
       </c>
       <c r="F33" s="13">
-        <v>47405</v>
+        <v>81726</v>
       </c>
       <c r="G33" s="13">
-        <v>81726</v>
+        <v>56776</v>
       </c>
       <c r="H33" s="13">
-        <v>56776</v>
+        <v>47401</v>
       </c>
       <c r="I33" s="13">
-        <v>47401</v>
+        <v>28420</v>
       </c>
       <c r="J33" s="13">
-        <v>28420</v>
-      </c>
-      <c r="K33" s="13">
         <v>114775</v>
+      </c>
+      <c r="K33" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="L33" s="13" t="s">
         <v>57</v>
@@ -4466,47 +4466,47 @@
       <c r="J34" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K34" s="11" t="s">
-        <v>57</v>
+      <c r="K34" s="11">
+        <v>15255</v>
       </c>
       <c r="L34" s="11">
-        <v>15255</v>
+        <v>18887</v>
       </c>
       <c r="M34" s="11">
-        <v>18887</v>
+        <v>20359</v>
       </c>
       <c r="N34" s="11">
-        <v>20359</v>
+        <v>86187</v>
       </c>
       <c r="O34" s="11">
-        <v>86187</v>
+        <v>27014</v>
       </c>
       <c r="P34" s="11">
-        <v>27014</v>
+        <v>33038</v>
       </c>
       <c r="Q34" s="11">
-        <v>33038</v>
+        <v>152</v>
       </c>
       <c r="R34" s="11">
-        <v>152</v>
+        <v>1322</v>
       </c>
       <c r="S34" s="11">
-        <v>1322</v>
+        <v>472</v>
       </c>
       <c r="T34" s="11">
-        <v>472</v>
+        <v>9</v>
       </c>
       <c r="U34" s="11">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="V34" s="11">
         <v>0</v>
       </c>
-      <c r="W34" s="11">
-        <v>0</v>
-      </c>
-      <c r="X34" s="11" t="s">
-        <v>57</v>
+      <c r="W34" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X34" s="11">
+        <v>0</v>
       </c>
       <c r="Y34" s="11">
         <v>0</v>
@@ -4538,8 +4538,8 @@
       <c r="AH34" s="11">
         <v>0</v>
       </c>
-      <c r="AI34" s="11">
-        <v>0</v>
+      <c r="AI34" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AJ34" s="11" t="s">
         <v>57</v>
@@ -4727,35 +4727,35 @@
       <c r="AR35" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AS35" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT35" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU35" s="13">
+      <c r="AS35" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT35" s="13">
         <v>171486</v>
       </c>
-      <c r="AV35" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW35" s="13" t="s">
-        <v>57</v>
+      <c r="AU35" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV35" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW35" s="13">
+        <v>199379</v>
       </c>
       <c r="AX35" s="13">
-        <v>198056</v>
+        <v>133583</v>
       </c>
       <c r="AY35" s="13">
-        <v>134533</v>
+        <v>127981</v>
       </c>
       <c r="AZ35" s="13">
-        <v>127981</v>
+        <v>73833</v>
       </c>
       <c r="BA35" s="13">
-        <v>73833</v>
+        <v>186423</v>
       </c>
       <c r="BB35" s="13">
-        <v>186418</v>
+        <v>242937</v>
       </c>
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.3">
@@ -4884,8 +4884,8 @@
       <c r="Y37" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Z37" s="17" t="s">
-        <v>57</v>
+      <c r="Z37" s="17">
+        <v>0</v>
       </c>
       <c r="AA37" s="17">
         <v>0</v>
@@ -5100,77 +5100,77 @@
       <c r="Y39" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Z39" s="11" t="s">
-        <v>57</v>
+      <c r="Z39" s="11">
+        <v>-464</v>
       </c>
       <c r="AA39" s="11">
-        <v>-464</v>
+        <v>-7607</v>
       </c>
       <c r="AB39" s="11">
-        <v>-7607</v>
+        <v>-176</v>
       </c>
       <c r="AC39" s="11">
-        <v>-176</v>
+        <v>-431</v>
       </c>
       <c r="AD39" s="11">
-        <v>-431</v>
+        <v>-10776</v>
       </c>
       <c r="AE39" s="11">
-        <v>-10776</v>
+        <v>-2346</v>
       </c>
       <c r="AF39" s="11">
-        <v>-2346</v>
+        <v>-123</v>
       </c>
       <c r="AG39" s="11">
-        <v>-123</v>
+        <v>-290</v>
       </c>
       <c r="AH39" s="11">
-        <v>-290</v>
+        <v>-4843</v>
       </c>
       <c r="AI39" s="11">
-        <v>-4843</v>
+        <v>-2116</v>
       </c>
       <c r="AJ39" s="11">
-        <v>-2116</v>
+        <v>-1102</v>
       </c>
       <c r="AK39" s="11">
-        <v>-1102</v>
+        <v>-11641</v>
       </c>
       <c r="AL39" s="11">
-        <v>-11641</v>
+        <v>-429</v>
       </c>
       <c r="AM39" s="11">
-        <v>-429</v>
+        <v>-2438</v>
       </c>
       <c r="AN39" s="11">
-        <v>-2438</v>
+        <v>-651</v>
       </c>
       <c r="AO39" s="11">
-        <v>-651</v>
+        <v>-5960</v>
       </c>
       <c r="AP39" s="11">
-        <v>-5960</v>
+        <v>-11146</v>
       </c>
       <c r="AQ39" s="11">
-        <v>-11146</v>
+        <v>-4086</v>
       </c>
       <c r="AR39" s="11">
-        <v>-4086</v>
-      </c>
-      <c r="AS39" s="11">
         <v>-4663</v>
       </c>
-      <c r="AT39" s="11">
-        <v>-12653</v>
-      </c>
-      <c r="AU39" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW39" s="11">
-        <v>-208</v>
+      <c r="AS39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU39" s="11">
+        <v>-12014</v>
+      </c>
+      <c r="AV39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW39" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AX39" s="11" t="s">
         <v>57</v>
@@ -5259,92 +5259,92 @@
       <c r="Y40" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Z40" s="13" t="s">
-        <v>57</v>
+      <c r="Z40" s="13">
+        <v>-421</v>
       </c>
       <c r="AA40" s="13">
-        <v>-421</v>
+        <v>-24337</v>
       </c>
       <c r="AB40" s="13">
-        <v>-24337</v>
+        <v>-21841</v>
       </c>
       <c r="AC40" s="13">
-        <v>-21841</v>
+        <v>-14762</v>
       </c>
       <c r="AD40" s="13">
-        <v>-14762</v>
+        <v>-19973</v>
       </c>
       <c r="AE40" s="13">
-        <v>-19973</v>
+        <v>-9722</v>
       </c>
       <c r="AF40" s="13">
-        <v>-9722</v>
+        <v>-6098</v>
       </c>
       <c r="AG40" s="13">
-        <v>-6098</v>
+        <v>-3575</v>
       </c>
       <c r="AH40" s="13">
-        <v>-3575</v>
+        <v>-13970</v>
       </c>
       <c r="AI40" s="13">
-        <v>-13970</v>
+        <v>-1251</v>
       </c>
       <c r="AJ40" s="13">
-        <v>-1251</v>
+        <v>-1953</v>
       </c>
       <c r="AK40" s="13">
-        <v>-1953</v>
+        <v>-5202</v>
       </c>
       <c r="AL40" s="13">
-        <v>-5202</v>
+        <v>-5333</v>
       </c>
       <c r="AM40" s="13">
-        <v>-5333</v>
+        <v>-385</v>
       </c>
       <c r="AN40" s="13">
-        <v>-385</v>
-      </c>
-      <c r="AO40" s="13">
         <v>-2869</v>
       </c>
-      <c r="AP40" s="13" t="s">
-        <v>57</v>
+      <c r="AO40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP40" s="13">
+        <v>-3265</v>
       </c>
       <c r="AQ40" s="13">
-        <v>-3265</v>
+        <v>-12598</v>
       </c>
       <c r="AR40" s="13">
-        <v>-12598</v>
+        <v>-11154</v>
       </c>
       <c r="AS40" s="13">
-        <v>-11154</v>
+        <v>-19180</v>
       </c>
       <c r="AT40" s="13">
-        <v>-19180</v>
+        <v>-7045</v>
       </c>
       <c r="AU40" s="13">
-        <v>-7045</v>
+        <v>-4917</v>
       </c>
       <c r="AV40" s="13">
-        <v>0</v>
+        <v>-2847</v>
       </c>
       <c r="AW40" s="13">
-        <v>-3116</v>
+        <v>-7140</v>
       </c>
       <c r="AX40" s="13">
-        <v>-7140</v>
+        <v>-9978</v>
       </c>
       <c r="AY40" s="13">
-        <v>-11844</v>
+        <v>-12150</v>
       </c>
       <c r="AZ40" s="13">
-        <v>-12150</v>
+        <v>-13879</v>
       </c>
       <c r="BA40" s="13">
-        <v>-10747</v>
+        <v>-5581</v>
       </c>
       <c r="BB40" s="13">
-        <v>-5581</v>
+        <v>-11947</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.3">
@@ -5418,92 +5418,92 @@
       <c r="Y41" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Z41" s="11" t="s">
-        <v>57</v>
+      <c r="Z41" s="11">
+        <v>0</v>
       </c>
       <c r="AA41" s="11">
         <v>0</v>
       </c>
       <c r="AB41" s="11">
-        <v>0</v>
+        <v>-376</v>
       </c>
       <c r="AC41" s="11">
-        <v>-376</v>
+        <v>-5034</v>
       </c>
       <c r="AD41" s="11">
-        <v>-5034</v>
+        <v>-356</v>
       </c>
       <c r="AE41" s="11">
-        <v>-356</v>
+        <v>-5137</v>
       </c>
       <c r="AF41" s="11">
-        <v>-5137</v>
+        <v>-4</v>
       </c>
       <c r="AG41" s="11">
-        <v>-4</v>
+        <v>-18858</v>
       </c>
       <c r="AH41" s="11">
-        <v>-18858</v>
+        <v>-679</v>
       </c>
       <c r="AI41" s="11">
-        <v>-679</v>
+        <v>-980</v>
       </c>
       <c r="AJ41" s="11">
-        <v>-980</v>
+        <v>-1472</v>
       </c>
       <c r="AK41" s="11">
-        <v>-1472</v>
+        <v>-1570</v>
       </c>
       <c r="AL41" s="11">
-        <v>-1570</v>
+        <v>-2199</v>
       </c>
       <c r="AM41" s="11">
-        <v>-2199</v>
+        <v>-5918</v>
       </c>
       <c r="AN41" s="11">
-        <v>-5918</v>
+        <v>-5967</v>
       </c>
       <c r="AO41" s="11">
-        <v>-5967</v>
+        <v>-2748</v>
       </c>
       <c r="AP41" s="11">
-        <v>-2748</v>
+        <v>-11144</v>
       </c>
       <c r="AQ41" s="11">
-        <v>-11144</v>
+        <v>-506</v>
       </c>
       <c r="AR41" s="11">
-        <v>-506</v>
+        <v>-453</v>
       </c>
       <c r="AS41" s="11">
-        <v>-453</v>
+        <v>-7790</v>
       </c>
       <c r="AT41" s="11">
-        <v>-7790</v>
+        <v>-17454</v>
       </c>
       <c r="AU41" s="11">
-        <v>-17454</v>
+        <v>-370</v>
       </c>
       <c r="AV41" s="11">
-        <v>0</v>
+        <v>-7802</v>
       </c>
       <c r="AW41" s="11">
-        <v>-1204</v>
+        <v>-18371</v>
       </c>
       <c r="AX41" s="11">
-        <v>-17703</v>
+        <v>-9789</v>
       </c>
       <c r="AY41" s="11">
-        <v>-11935</v>
+        <v>-33858</v>
       </c>
       <c r="AZ41" s="11">
-        <v>-33858</v>
+        <v>-13076</v>
       </c>
       <c r="BA41" s="11">
-        <v>-13076</v>
+        <v>-28613</v>
       </c>
       <c r="BB41" s="11">
-        <v>-27662</v>
+        <v>-19851</v>
       </c>
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.3">
@@ -5592,11 +5592,11 @@
       <c r="AD42" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AE42" s="13" t="s">
-        <v>57</v>
+      <c r="AE42" s="13">
+        <v>-40000</v>
       </c>
       <c r="AF42" s="13">
-        <v>-40000</v>
+        <v>0</v>
       </c>
       <c r="AG42" s="13">
         <v>0</v>
@@ -5604,8 +5604,8 @@
       <c r="AH42" s="13">
         <v>0</v>
       </c>
-      <c r="AI42" s="13">
-        <v>0</v>
+      <c r="AI42" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AJ42" s="13" t="s">
         <v>57</v>
@@ -5631,14 +5631,14 @@
       <c r="AQ42" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR42" s="13" t="s">
-        <v>57</v>
+      <c r="AR42" s="13">
+        <v>0</v>
       </c>
       <c r="AS42" s="13">
         <v>0</v>
       </c>
-      <c r="AT42" s="13">
-        <v>0</v>
+      <c r="AT42" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU42" s="13" t="s">
         <v>57</v>
@@ -5793,35 +5793,35 @@
       <c r="AR43" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AS43" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT43" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU43" s="11">
+      <c r="AS43" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT43" s="11">
         <v>-17028</v>
       </c>
-      <c r="AV43" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW43" s="11" t="s">
-        <v>57</v>
+      <c r="AU43" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV43" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW43" s="11">
+        <v>-11594</v>
       </c>
       <c r="AX43" s="11">
-        <v>-11605</v>
+        <v>-19520</v>
       </c>
       <c r="AY43" s="11">
-        <v>-11824</v>
+        <v>-14299</v>
       </c>
       <c r="AZ43" s="11">
-        <v>-14299</v>
+        <v>-352</v>
       </c>
       <c r="BA43" s="11">
-        <v>-352</v>
+        <v>-4591</v>
       </c>
       <c r="BB43" s="11">
-        <v>-4591</v>
+        <v>-11989</v>
       </c>
     </row>
     <row r="44" spans="2:54" x14ac:dyDescent="0.3">
@@ -5893,92 +5893,92 @@
       <c r="Y44" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="Z44" s="19" t="s">
-        <v>57</v>
+      <c r="Z44" s="19">
+        <v>-885</v>
       </c>
       <c r="AA44" s="19">
-        <v>-885</v>
+        <v>-31944</v>
       </c>
       <c r="AB44" s="19">
-        <v>-31944</v>
+        <v>-22393</v>
       </c>
       <c r="AC44" s="19">
-        <v>-22393</v>
+        <v>-20227</v>
       </c>
       <c r="AD44" s="19">
-        <v>-20227</v>
+        <v>-31105</v>
       </c>
       <c r="AE44" s="19">
-        <v>-31105</v>
+        <v>-57205</v>
       </c>
       <c r="AF44" s="19">
-        <v>-57205</v>
+        <v>-6225</v>
       </c>
       <c r="AG44" s="19">
-        <v>-6225</v>
+        <v>-22723</v>
       </c>
       <c r="AH44" s="19">
-        <v>-22723</v>
+        <v>-19492</v>
       </c>
       <c r="AI44" s="19">
-        <v>-19492</v>
+        <v>-4347</v>
       </c>
       <c r="AJ44" s="19">
-        <v>-4347</v>
+        <v>-4527</v>
       </c>
       <c r="AK44" s="19">
-        <v>-4527</v>
+        <v>-18413</v>
       </c>
       <c r="AL44" s="19">
-        <v>-18413</v>
+        <v>-7961</v>
       </c>
       <c r="AM44" s="19">
-        <v>-7961</v>
+        <v>-8741</v>
       </c>
       <c r="AN44" s="19">
-        <v>-8741</v>
+        <v>-9487</v>
       </c>
       <c r="AO44" s="19">
-        <v>-9487</v>
+        <v>-8708</v>
       </c>
       <c r="AP44" s="19">
-        <v>-8708</v>
+        <v>-25555</v>
       </c>
       <c r="AQ44" s="19">
-        <v>-25555</v>
+        <v>-17190</v>
       </c>
       <c r="AR44" s="19">
-        <v>-17190</v>
+        <v>-16270</v>
       </c>
       <c r="AS44" s="19">
-        <v>-16270</v>
+        <v>-39623</v>
       </c>
       <c r="AT44" s="19">
-        <v>-39623</v>
+        <v>-41527</v>
       </c>
       <c r="AU44" s="19">
-        <v>-41527</v>
+        <v>-17301</v>
       </c>
       <c r="AV44" s="19">
-        <v>0</v>
+        <v>-25744</v>
       </c>
       <c r="AW44" s="19">
-        <v>-4528</v>
+        <v>-37105</v>
       </c>
       <c r="AX44" s="19">
-        <v>-36448</v>
+        <v>-39287</v>
       </c>
       <c r="AY44" s="19">
-        <v>-35603</v>
+        <v>-60307</v>
       </c>
       <c r="AZ44" s="19">
-        <v>-60307</v>
+        <v>-27307</v>
       </c>
       <c r="BA44" s="19">
-        <v>-24175</v>
+        <v>-38785</v>
       </c>
       <c r="BB44" s="19">
-        <v>-37834</v>
+        <v>-43787</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.3">
@@ -5988,154 +5988,154 @@
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
       <c r="E45" s="17">
-        <v>158632</v>
+        <v>99684</v>
       </c>
       <c r="F45" s="17">
-        <v>99684</v>
+        <v>160034</v>
       </c>
       <c r="G45" s="17">
-        <v>160034</v>
+        <v>152073</v>
       </c>
       <c r="H45" s="17">
-        <v>152073</v>
+        <v>114819</v>
       </c>
       <c r="I45" s="17">
-        <v>114819</v>
+        <v>138766</v>
       </c>
       <c r="J45" s="17">
-        <v>138766</v>
+        <v>245542</v>
       </c>
       <c r="K45" s="17">
-        <v>245542</v>
+        <v>93644</v>
       </c>
       <c r="L45" s="17">
-        <v>93644</v>
+        <v>177668</v>
       </c>
       <c r="M45" s="17">
-        <v>177668</v>
+        <v>175180</v>
       </c>
       <c r="N45" s="17">
-        <v>175180</v>
+        <v>273882</v>
       </c>
       <c r="O45" s="17">
-        <v>273882</v>
+        <v>265706</v>
       </c>
       <c r="P45" s="17">
-        <v>265706</v>
+        <v>347285</v>
       </c>
       <c r="Q45" s="17">
-        <v>347285</v>
+        <v>319948</v>
       </c>
       <c r="R45" s="17">
-        <v>319948</v>
+        <v>306235</v>
       </c>
       <c r="S45" s="17">
-        <v>306235</v>
+        <v>346083</v>
       </c>
       <c r="T45" s="17">
-        <v>346083</v>
+        <v>407338</v>
       </c>
       <c r="U45" s="17">
-        <v>407338</v>
+        <v>591458</v>
       </c>
       <c r="V45" s="17">
-        <v>591458</v>
+        <v>582253</v>
       </c>
       <c r="W45" s="17">
-        <v>582253</v>
+        <v>225011</v>
       </c>
       <c r="X45" s="17">
-        <v>225011</v>
+        <v>271097</v>
       </c>
       <c r="Y45" s="17">
-        <v>271097</v>
+        <v>465889</v>
       </c>
       <c r="Z45" s="17">
-        <v>465889</v>
+        <v>463862</v>
       </c>
       <c r="AA45" s="17">
-        <v>463862</v>
+        <v>414272</v>
       </c>
       <c r="AB45" s="17">
-        <v>414272</v>
+        <v>431053</v>
       </c>
       <c r="AC45" s="17">
-        <v>431053</v>
+        <v>379811</v>
       </c>
       <c r="AD45" s="17">
-        <v>379811</v>
+        <v>366845</v>
       </c>
       <c r="AE45" s="17">
-        <v>366845</v>
+        <v>414706</v>
       </c>
       <c r="AF45" s="17">
-        <v>414706</v>
+        <v>393986</v>
       </c>
       <c r="AG45" s="17">
-        <v>393986</v>
+        <v>332699</v>
       </c>
       <c r="AH45" s="17">
-        <v>332699</v>
+        <v>418860</v>
       </c>
       <c r="AI45" s="17">
-        <v>418860</v>
+        <v>268812</v>
       </c>
       <c r="AJ45" s="17">
-        <v>268812</v>
+        <v>403217</v>
       </c>
       <c r="AK45" s="17">
-        <v>403217</v>
+        <v>391837</v>
       </c>
       <c r="AL45" s="17">
-        <v>391837</v>
+        <v>350437</v>
       </c>
       <c r="AM45" s="17">
-        <v>350437</v>
+        <v>407891</v>
       </c>
       <c r="AN45" s="17">
-        <v>407891</v>
+        <v>410875</v>
       </c>
       <c r="AO45" s="17">
-        <v>410875</v>
+        <v>374811</v>
       </c>
       <c r="AP45" s="17">
-        <v>374811</v>
+        <v>372669</v>
       </c>
       <c r="AQ45" s="17">
-        <v>372669</v>
+        <v>350673</v>
       </c>
       <c r="AR45" s="17">
-        <v>350673</v>
+        <v>398244</v>
       </c>
       <c r="AS45" s="17">
-        <v>398244</v>
+        <v>268565</v>
       </c>
       <c r="AT45" s="17">
-        <v>431641</v>
+        <v>427616</v>
       </c>
       <c r="AU45" s="17">
-        <v>427616</v>
+        <v>261884</v>
       </c>
       <c r="AV45" s="17">
-        <v>267876</v>
+        <v>344386</v>
       </c>
       <c r="AW45" s="17">
-        <v>507495</v>
+        <v>655493</v>
       </c>
       <c r="AX45" s="17">
-        <v>651303</v>
+        <v>706368</v>
       </c>
       <c r="AY45" s="17">
-        <v>724869</v>
+        <v>579172</v>
       </c>
       <c r="AZ45" s="17">
-        <v>579172</v>
+        <v>461779</v>
       </c>
       <c r="BA45" s="17">
-        <v>464911</v>
+        <v>582159</v>
       </c>
       <c r="BB45" s="17">
-        <v>582205</v>
+        <v>644707</v>
       </c>
     </row>
     <row r="46" spans="2:54" x14ac:dyDescent="0.3">
@@ -6685,11 +6685,11 @@
       <c r="AM52" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AN52" s="11" t="s">
-        <v>57</v>
+      <c r="AN52" s="11">
+        <v>1563</v>
       </c>
       <c r="AO52" s="11">
-        <v>1563</v>
+        <v>0</v>
       </c>
       <c r="AP52" s="11">
         <v>0</v>
@@ -6700,14 +6700,14 @@
       <c r="AR52" s="11">
         <v>0</v>
       </c>
-      <c r="AS52" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT52" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU52" s="11" t="s">
-        <v>57</v>
+      <c r="AS52" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT52" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU52" s="11">
+        <v>0</v>
       </c>
       <c r="AV52" s="11">
         <v>0</v>
@@ -6740,139 +6740,139 @@
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="13">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="F53" s="13">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="G53" s="13">
-        <v>70</v>
+        <v>596</v>
       </c>
       <c r="H53" s="13">
-        <v>596</v>
+        <v>1</v>
       </c>
       <c r="I53" s="13">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="J53" s="13">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="K53" s="13">
-        <v>67</v>
+        <v>7750</v>
       </c>
       <c r="L53" s="13">
-        <v>7750</v>
+        <v>16408</v>
       </c>
       <c r="M53" s="13">
-        <v>16408</v>
+        <v>12670</v>
       </c>
       <c r="N53" s="13">
-        <v>12670</v>
+        <v>20306</v>
       </c>
       <c r="O53" s="13">
-        <v>20306</v>
+        <v>19799</v>
       </c>
       <c r="P53" s="13">
-        <v>19799</v>
+        <v>18407</v>
       </c>
       <c r="Q53" s="13">
-        <v>18407</v>
+        <v>22046</v>
       </c>
       <c r="R53" s="13">
-        <v>22046</v>
+        <v>21757</v>
       </c>
       <c r="S53" s="13">
-        <v>21757</v>
+        <v>30279</v>
       </c>
       <c r="T53" s="13">
-        <v>30279</v>
+        <v>59574</v>
       </c>
       <c r="U53" s="13">
-        <v>59574</v>
+        <v>34749</v>
       </c>
       <c r="V53" s="13">
-        <v>34749</v>
+        <v>46683</v>
       </c>
       <c r="W53" s="13">
-        <v>46683</v>
+        <v>6487</v>
       </c>
       <c r="X53" s="13">
-        <v>6487</v>
+        <v>21073</v>
       </c>
       <c r="Y53" s="13">
-        <v>21073</v>
+        <v>57342</v>
       </c>
       <c r="Z53" s="13">
-        <v>57342</v>
+        <v>60885</v>
       </c>
       <c r="AA53" s="13">
-        <v>60885</v>
+        <v>64277</v>
       </c>
       <c r="AB53" s="13">
-        <v>64277</v>
+        <v>81944</v>
       </c>
       <c r="AC53" s="13">
-        <v>81944</v>
+        <v>43532</v>
       </c>
       <c r="AD53" s="13">
-        <v>43532</v>
+        <v>64192</v>
       </c>
       <c r="AE53" s="13">
-        <v>64192</v>
+        <v>83733</v>
       </c>
       <c r="AF53" s="13">
-        <v>83733</v>
+        <v>58123</v>
       </c>
       <c r="AG53" s="13">
-        <v>58123</v>
+        <v>76689</v>
       </c>
       <c r="AH53" s="13">
-        <v>76689</v>
+        <v>80315</v>
       </c>
       <c r="AI53" s="13">
-        <v>80315</v>
+        <v>52524</v>
       </c>
       <c r="AJ53" s="13">
-        <v>52524</v>
+        <v>119689</v>
       </c>
       <c r="AK53" s="13">
-        <v>119689</v>
+        <v>139802</v>
       </c>
       <c r="AL53" s="13">
-        <v>139802</v>
+        <v>98445</v>
       </c>
       <c r="AM53" s="13">
-        <v>98445</v>
+        <v>113808</v>
       </c>
       <c r="AN53" s="13">
-        <v>113808</v>
+        <v>116739</v>
       </c>
       <c r="AO53" s="13">
-        <v>116739</v>
+        <v>131973</v>
       </c>
       <c r="AP53" s="13">
-        <v>131973</v>
+        <v>157383</v>
       </c>
       <c r="AQ53" s="13">
-        <v>157383</v>
+        <v>121859</v>
       </c>
       <c r="AR53" s="13">
-        <v>121859</v>
-      </c>
-      <c r="AS53" s="13">
         <v>107824</v>
       </c>
-      <c r="AT53" s="13">
-        <v>149739</v>
-      </c>
-      <c r="AU53" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV53" s="13">
-        <v>85351</v>
-      </c>
-      <c r="AW53" s="13">
-        <v>214011</v>
+      <c r="AS53" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT53" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU53" s="13">
+        <v>96046</v>
+      </c>
+      <c r="AV53" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW53" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AX53" s="13" t="s">
         <v>57</v>
@@ -6899,154 +6899,154 @@
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11">
-        <v>5643</v>
+        <v>3802</v>
       </c>
       <c r="F54" s="11">
-        <v>3802</v>
+        <v>8906</v>
       </c>
       <c r="G54" s="11">
-        <v>8906</v>
+        <v>7662</v>
       </c>
       <c r="H54" s="11">
-        <v>7662</v>
+        <v>8682</v>
       </c>
       <c r="I54" s="11">
-        <v>8682</v>
+        <v>7854</v>
       </c>
       <c r="J54" s="11">
-        <v>7854</v>
+        <v>16396</v>
       </c>
       <c r="K54" s="11">
-        <v>16396</v>
+        <v>5360</v>
       </c>
       <c r="L54" s="11">
-        <v>5360</v>
+        <v>8916</v>
       </c>
       <c r="M54" s="11">
-        <v>8916</v>
+        <v>8559</v>
       </c>
       <c r="N54" s="11">
-        <v>8559</v>
+        <v>11574</v>
       </c>
       <c r="O54" s="11">
-        <v>11574</v>
+        <v>19203</v>
       </c>
       <c r="P54" s="11">
-        <v>19203</v>
+        <v>28049</v>
       </c>
       <c r="Q54" s="11">
-        <v>28049</v>
+        <v>29900</v>
       </c>
       <c r="R54" s="11">
-        <v>29900</v>
+        <v>28500</v>
       </c>
       <c r="S54" s="11">
-        <v>28500</v>
+        <v>25527</v>
       </c>
       <c r="T54" s="11">
-        <v>25527</v>
+        <v>18873</v>
       </c>
       <c r="U54" s="11">
-        <v>18873</v>
+        <v>61142</v>
       </c>
       <c r="V54" s="11">
-        <v>61142</v>
+        <v>52957</v>
       </c>
       <c r="W54" s="11">
-        <v>52957</v>
+        <v>20539</v>
       </c>
       <c r="X54" s="11">
-        <v>20539</v>
+        <v>23097</v>
       </c>
       <c r="Y54" s="11">
-        <v>23097</v>
+        <v>36231</v>
       </c>
       <c r="Z54" s="11">
-        <v>36231</v>
+        <v>46197</v>
       </c>
       <c r="AA54" s="11">
-        <v>46197</v>
+        <v>45820</v>
       </c>
       <c r="AB54" s="11">
-        <v>45820</v>
+        <v>47797</v>
       </c>
       <c r="AC54" s="11">
-        <v>47797</v>
+        <v>44440</v>
       </c>
       <c r="AD54" s="11">
-        <v>44440</v>
+        <v>54849</v>
       </c>
       <c r="AE54" s="11">
-        <v>54849</v>
+        <v>62347</v>
       </c>
       <c r="AF54" s="11">
-        <v>62347</v>
+        <v>73256</v>
       </c>
       <c r="AG54" s="11">
-        <v>73256</v>
+        <v>66174</v>
       </c>
       <c r="AH54" s="11">
-        <v>66174</v>
+        <v>58493</v>
       </c>
       <c r="AI54" s="11">
-        <v>58493</v>
+        <v>36099</v>
       </c>
       <c r="AJ54" s="11">
-        <v>36099</v>
+        <v>67701</v>
       </c>
       <c r="AK54" s="11">
-        <v>67701</v>
+        <v>79681</v>
       </c>
       <c r="AL54" s="11">
-        <v>79681</v>
+        <v>80104</v>
       </c>
       <c r="AM54" s="11">
-        <v>80104</v>
+        <v>67462</v>
       </c>
       <c r="AN54" s="11">
-        <v>67462</v>
+        <v>64859</v>
       </c>
       <c r="AO54" s="11">
-        <v>64859</v>
+        <v>67222</v>
       </c>
       <c r="AP54" s="11">
-        <v>67222</v>
+        <v>66837</v>
       </c>
       <c r="AQ54" s="11">
-        <v>66837</v>
+        <v>82176</v>
       </c>
       <c r="AR54" s="11">
-        <v>82176</v>
+        <v>88420</v>
       </c>
       <c r="AS54" s="11">
-        <v>88420</v>
+        <v>56093</v>
       </c>
       <c r="AT54" s="11">
-        <v>56443</v>
+        <v>28092</v>
       </c>
       <c r="AU54" s="11">
-        <v>28092</v>
+        <v>14264</v>
       </c>
       <c r="AV54" s="11">
-        <v>14264</v>
+        <v>90970</v>
       </c>
       <c r="AW54" s="11">
-        <v>84927</v>
+        <v>93747</v>
       </c>
       <c r="AX54" s="11">
-        <v>93239</v>
+        <v>195196</v>
       </c>
       <c r="AY54" s="11">
-        <v>195194</v>
+        <v>80804</v>
       </c>
       <c r="AZ54" s="11">
-        <v>80806</v>
+        <v>26209</v>
       </c>
       <c r="BA54" s="11">
-        <v>26209</v>
+        <v>60429</v>
       </c>
       <c r="BB54" s="11">
-        <v>60766</v>
+        <v>66505</v>
       </c>
     </row>
     <row r="55" spans="2:54" x14ac:dyDescent="0.3">
@@ -7058,154 +7058,154 @@
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="13">
-        <v>1955</v>
+        <v>2282</v>
       </c>
       <c r="F55" s="13">
-        <v>2282</v>
+        <v>2004</v>
       </c>
       <c r="G55" s="13">
-        <v>2004</v>
+        <v>2179</v>
       </c>
       <c r="H55" s="13">
-        <v>2179</v>
+        <v>2723</v>
       </c>
       <c r="I55" s="13">
-        <v>2723</v>
+        <v>4738</v>
       </c>
       <c r="J55" s="13">
-        <v>4738</v>
+        <v>9577</v>
       </c>
       <c r="K55" s="13">
-        <v>9577</v>
+        <v>4617</v>
       </c>
       <c r="L55" s="13">
-        <v>4617</v>
+        <v>9722</v>
       </c>
       <c r="M55" s="13">
-        <v>9722</v>
+        <v>18358</v>
       </c>
       <c r="N55" s="13">
-        <v>18358</v>
+        <v>7480</v>
       </c>
       <c r="O55" s="13">
-        <v>7480</v>
+        <v>25723</v>
       </c>
       <c r="P55" s="13">
-        <v>25723</v>
+        <v>43056</v>
       </c>
       <c r="Q55" s="13">
-        <v>43056</v>
+        <v>28523</v>
       </c>
       <c r="R55" s="13">
-        <v>28523</v>
+        <v>42759</v>
       </c>
       <c r="S55" s="13">
-        <v>42759</v>
+        <v>41972</v>
       </c>
       <c r="T55" s="13">
-        <v>41972</v>
+        <v>32527</v>
       </c>
       <c r="U55" s="13">
-        <v>32527</v>
+        <v>53013</v>
       </c>
       <c r="V55" s="13">
-        <v>53013</v>
+        <v>50393</v>
       </c>
       <c r="W55" s="13">
-        <v>50393</v>
+        <v>49569</v>
       </c>
       <c r="X55" s="13">
-        <v>49569</v>
+        <v>63579</v>
       </c>
       <c r="Y55" s="13">
-        <v>63579</v>
+        <v>48522</v>
       </c>
       <c r="Z55" s="13">
-        <v>48522</v>
+        <v>84990</v>
       </c>
       <c r="AA55" s="13">
-        <v>84990</v>
+        <v>86199</v>
       </c>
       <c r="AB55" s="13">
-        <v>86199</v>
+        <v>80325</v>
       </c>
       <c r="AC55" s="13">
-        <v>80325</v>
+        <v>105552</v>
       </c>
       <c r="AD55" s="13">
-        <v>105552</v>
+        <v>138740</v>
       </c>
       <c r="AE55" s="13">
-        <v>138740</v>
+        <v>194860</v>
       </c>
       <c r="AF55" s="13">
-        <v>194860</v>
+        <v>171803</v>
       </c>
       <c r="AG55" s="13">
-        <v>171803</v>
+        <v>118681</v>
       </c>
       <c r="AH55" s="13">
-        <v>118681</v>
+        <v>136778</v>
       </c>
       <c r="AI55" s="13">
-        <v>136778</v>
+        <v>109801</v>
       </c>
       <c r="AJ55" s="13">
-        <v>109801</v>
+        <v>141824</v>
       </c>
       <c r="AK55" s="13">
-        <v>141824</v>
+        <v>208221</v>
       </c>
       <c r="AL55" s="13">
-        <v>208221</v>
+        <v>250319</v>
       </c>
       <c r="AM55" s="13">
-        <v>250319</v>
+        <v>273055</v>
       </c>
       <c r="AN55" s="13">
-        <v>273055</v>
+        <v>257764</v>
       </c>
       <c r="AO55" s="13">
-        <v>257764</v>
+        <v>228599</v>
       </c>
       <c r="AP55" s="13">
-        <v>228599</v>
+        <v>183541</v>
       </c>
       <c r="AQ55" s="13">
-        <v>183541</v>
+        <v>232289</v>
       </c>
       <c r="AR55" s="13">
-        <v>232289</v>
+        <v>248217</v>
       </c>
       <c r="AS55" s="13">
-        <v>248217</v>
+        <v>334028</v>
       </c>
       <c r="AT55" s="13">
-        <v>334637</v>
+        <v>452298</v>
       </c>
       <c r="AU55" s="13">
-        <v>452298</v>
+        <v>234226</v>
       </c>
       <c r="AV55" s="13">
-        <v>262524</v>
+        <v>440920</v>
       </c>
       <c r="AW55" s="13">
-        <v>334900</v>
+        <v>724348</v>
       </c>
       <c r="AX55" s="13">
-        <v>724726</v>
+        <v>716450</v>
       </c>
       <c r="AY55" s="13">
-        <v>744070</v>
+        <v>951401</v>
       </c>
       <c r="AZ55" s="13">
-        <v>951218</v>
+        <v>1013746</v>
       </c>
       <c r="BA55" s="13">
-        <v>1014323</v>
+        <v>930004</v>
       </c>
       <c r="BB55" s="13">
-        <v>942024</v>
+        <v>838072</v>
       </c>
     </row>
     <row r="56" spans="2:54" x14ac:dyDescent="0.3">
@@ -7288,17 +7288,17 @@
       <c r="AB56" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AC56" s="11" t="s">
-        <v>57</v>
+      <c r="AC56" s="11">
+        <v>20055</v>
       </c>
       <c r="AD56" s="11">
-        <v>20055</v>
+        <v>13880</v>
       </c>
       <c r="AE56" s="11">
-        <v>13880</v>
+        <v>336</v>
       </c>
       <c r="AF56" s="11">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="AG56" s="11">
         <v>0</v>
@@ -7306,8 +7306,8 @@
       <c r="AH56" s="11">
         <v>0</v>
       </c>
-      <c r="AI56" s="11">
-        <v>0</v>
+      <c r="AI56" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AJ56" s="11" t="s">
         <v>57</v>
@@ -7321,8 +7321,8 @@
       <c r="AM56" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AN56" s="11" t="s">
-        <v>57</v>
+      <c r="AN56" s="11">
+        <v>0</v>
       </c>
       <c r="AO56" s="11">
         <v>0</v>
@@ -7336,14 +7336,14 @@
       <c r="AR56" s="11">
         <v>0</v>
       </c>
-      <c r="AS56" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT56" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU56" s="11" t="s">
-        <v>57</v>
+      <c r="AS56" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT56" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU56" s="11">
+        <v>0</v>
       </c>
       <c r="AV56" s="11">
         <v>0</v>
@@ -7376,25 +7376,25 @@
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="13">
-        <v>6677</v>
+        <v>6707</v>
       </c>
       <c r="F57" s="13">
-        <v>6707</v>
+        <v>10967</v>
       </c>
       <c r="G57" s="13">
-        <v>10967</v>
+        <v>9294</v>
       </c>
       <c r="H57" s="13">
-        <v>9294</v>
+        <v>8190</v>
       </c>
       <c r="I57" s="13">
-        <v>8190</v>
+        <v>4464</v>
       </c>
       <c r="J57" s="13">
-        <v>4464</v>
-      </c>
-      <c r="K57" s="13">
         <v>18426</v>
+      </c>
+      <c r="K57" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="L57" s="13" t="s">
         <v>57</v>
@@ -7552,47 +7552,47 @@
       <c r="J58" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K58" s="11" t="s">
-        <v>57</v>
+      <c r="K58" s="11">
+        <v>509</v>
       </c>
       <c r="L58" s="11">
-        <v>509</v>
+        <v>590</v>
       </c>
       <c r="M58" s="11">
-        <v>590</v>
+        <v>1659</v>
       </c>
       <c r="N58" s="11">
-        <v>1659</v>
+        <v>8093</v>
       </c>
       <c r="O58" s="11">
-        <v>8093</v>
+        <v>3380</v>
       </c>
       <c r="P58" s="11">
-        <v>3380</v>
+        <v>14347</v>
       </c>
       <c r="Q58" s="11">
-        <v>14347</v>
+        <v>24</v>
       </c>
       <c r="R58" s="11">
-        <v>24</v>
+        <v>183</v>
       </c>
       <c r="S58" s="11">
-        <v>183</v>
+        <v>75</v>
       </c>
       <c r="T58" s="11">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="U58" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V58" s="11">
         <v>0</v>
       </c>
-      <c r="W58" s="11">
-        <v>0</v>
-      </c>
-      <c r="X58" s="11" t="s">
-        <v>57</v>
+      <c r="W58" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X58" s="11">
+        <v>0</v>
       </c>
       <c r="Y58" s="11">
         <v>0</v>
@@ -7624,8 +7624,8 @@
       <c r="AH58" s="11">
         <v>0</v>
       </c>
-      <c r="AI58" s="11">
-        <v>0</v>
+      <c r="AI58" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AJ58" s="11" t="s">
         <v>57</v>
@@ -7813,35 +7813,35 @@
       <c r="AR59" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AS59" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT59" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU59" s="13">
+      <c r="AS59" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT59" s="13">
         <v>146692</v>
       </c>
-      <c r="AV59" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW59" s="13" t="s">
-        <v>57</v>
+      <c r="AU59" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV59" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW59" s="13">
+        <v>175277</v>
       </c>
       <c r="AX59" s="13">
-        <v>175879</v>
+        <v>148653</v>
       </c>
       <c r="AY59" s="13">
-        <v>150141</v>
+        <v>122905</v>
       </c>
       <c r="AZ59" s="13">
-        <v>122905</v>
+        <v>52360</v>
       </c>
       <c r="BA59" s="13">
-        <v>50667</v>
+        <v>151994</v>
       </c>
       <c r="BB59" s="13">
-        <v>152204</v>
+        <v>184554</v>
       </c>
     </row>
     <row r="60" spans="2:54" x14ac:dyDescent="0.3">
@@ -7972,8 +7972,8 @@
       <c r="Y61" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Z61" s="17" t="s">
-        <v>57</v>
+      <c r="Z61" s="17">
+        <v>0</v>
       </c>
       <c r="AA61" s="17">
         <v>0</v>
@@ -8188,77 +8188,77 @@
       <c r="Y63" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Z63" s="11" t="s">
-        <v>57</v>
+      <c r="Z63" s="11">
+        <v>-106</v>
       </c>
       <c r="AA63" s="11">
-        <v>-106</v>
+        <v>-2472</v>
       </c>
       <c r="AB63" s="11">
-        <v>-2472</v>
+        <v>-60</v>
       </c>
       <c r="AC63" s="11">
-        <v>-60</v>
+        <v>-137</v>
       </c>
       <c r="AD63" s="11">
-        <v>-137</v>
+        <v>-3833</v>
       </c>
       <c r="AE63" s="11">
-        <v>-3833</v>
+        <v>-812</v>
       </c>
       <c r="AF63" s="11">
-        <v>-812</v>
+        <v>-53</v>
       </c>
       <c r="AG63" s="11">
-        <v>-53</v>
+        <v>-129</v>
       </c>
       <c r="AH63" s="11">
-        <v>-129</v>
+        <v>-1322</v>
       </c>
       <c r="AI63" s="11">
-        <v>-1322</v>
+        <v>-768</v>
       </c>
       <c r="AJ63" s="11">
-        <v>-768</v>
+        <v>-532</v>
       </c>
       <c r="AK63" s="11">
-        <v>-532</v>
+        <v>-8083</v>
       </c>
       <c r="AL63" s="11">
-        <v>-8083</v>
+        <v>-229</v>
       </c>
       <c r="AM63" s="11">
-        <v>-229</v>
+        <v>-1726</v>
       </c>
       <c r="AN63" s="11">
-        <v>-1726</v>
+        <v>-523</v>
       </c>
       <c r="AO63" s="11">
-        <v>-523</v>
+        <v>-4920</v>
       </c>
       <c r="AP63" s="11">
-        <v>-4920</v>
+        <v>-9761</v>
       </c>
       <c r="AQ63" s="11">
-        <v>-9761</v>
+        <v>-3755</v>
       </c>
       <c r="AR63" s="11">
-        <v>-3755</v>
-      </c>
-      <c r="AS63" s="11">
         <v>-4874</v>
       </c>
-      <c r="AT63" s="11">
-        <v>-11994</v>
-      </c>
-      <c r="AU63" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV63" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW63" s="11">
-        <v>-171</v>
+      <c r="AS63" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT63" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU63" s="11">
+        <v>-13564</v>
+      </c>
+      <c r="AV63" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW63" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AX63" s="11" t="s">
         <v>57</v>
@@ -8347,92 +8347,92 @@
       <c r="Y64" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Z64" s="13" t="s">
-        <v>57</v>
+      <c r="Z64" s="13">
+        <v>-85</v>
       </c>
       <c r="AA64" s="13">
-        <v>-85</v>
+        <v>-5756</v>
       </c>
       <c r="AB64" s="13">
-        <v>-5756</v>
+        <v>-6318</v>
       </c>
       <c r="AC64" s="13">
-        <v>-6318</v>
+        <v>-2640</v>
       </c>
       <c r="AD64" s="13">
-        <v>-2640</v>
+        <v>-6145</v>
       </c>
       <c r="AE64" s="13">
-        <v>-6145</v>
+        <v>-3048</v>
       </c>
       <c r="AF64" s="13">
-        <v>-3048</v>
+        <v>-2505</v>
       </c>
       <c r="AG64" s="13">
-        <v>-2505</v>
+        <v>-1566</v>
       </c>
       <c r="AH64" s="13">
-        <v>-1566</v>
+        <v>-3535</v>
       </c>
       <c r="AI64" s="13">
-        <v>-3535</v>
+        <v>-305</v>
       </c>
       <c r="AJ64" s="13">
-        <v>-305</v>
+        <v>-291</v>
       </c>
       <c r="AK64" s="13">
-        <v>-291</v>
+        <v>-1972</v>
       </c>
       <c r="AL64" s="13">
-        <v>-1972</v>
+        <v>-3272</v>
       </c>
       <c r="AM64" s="13">
-        <v>-3272</v>
+        <v>-341</v>
       </c>
       <c r="AN64" s="13">
-        <v>-341</v>
+        <v>-2253</v>
       </c>
       <c r="AO64" s="13">
-        <v>-2253</v>
+        <v>0</v>
       </c>
       <c r="AP64" s="13">
-        <v>0</v>
+        <v>-3407</v>
       </c>
       <c r="AQ64" s="13">
-        <v>-3407</v>
+        <v>-9764</v>
       </c>
       <c r="AR64" s="13">
-        <v>-9764</v>
+        <v>-8583</v>
       </c>
       <c r="AS64" s="13">
-        <v>-8583</v>
+        <v>-14593</v>
       </c>
       <c r="AT64" s="13">
-        <v>-14577</v>
+        <v>-5521</v>
       </c>
       <c r="AU64" s="13">
-        <v>-5521</v>
+        <v>-3671</v>
       </c>
       <c r="AV64" s="13">
-        <v>0</v>
+        <v>-2060</v>
       </c>
       <c r="AW64" s="13">
-        <v>-2260</v>
+        <v>-5387</v>
       </c>
       <c r="AX64" s="13">
-        <v>-5376</v>
+        <v>-7822</v>
       </c>
       <c r="AY64" s="13">
-        <v>-9343</v>
+        <v>-9344</v>
       </c>
       <c r="AZ64" s="13">
-        <v>-8468</v>
+        <v>-9351</v>
       </c>
       <c r="BA64" s="13">
-        <v>-8103</v>
+        <v>-4197</v>
       </c>
       <c r="BB64" s="13">
-        <v>-4197</v>
+        <v>-9317</v>
       </c>
     </row>
     <row r="65" spans="2:54" x14ac:dyDescent="0.3">
@@ -8506,92 +8506,92 @@
       <c r="Y65" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Z65" s="11" t="s">
-        <v>57</v>
+      <c r="Z65" s="11">
+        <v>0</v>
       </c>
       <c r="AA65" s="11">
         <v>0</v>
       </c>
       <c r="AB65" s="11">
-        <v>0</v>
+        <v>-161</v>
       </c>
       <c r="AC65" s="11">
-        <v>-161</v>
+        <v>-2322</v>
       </c>
       <c r="AD65" s="11">
-        <v>-2322</v>
+        <v>-343</v>
       </c>
       <c r="AE65" s="11">
-        <v>-343</v>
+        <v>-5950</v>
       </c>
       <c r="AF65" s="11">
-        <v>-5950</v>
+        <v>-5</v>
       </c>
       <c r="AG65" s="11">
-        <v>-5</v>
+        <v>-21821</v>
       </c>
       <c r="AH65" s="11">
-        <v>-21821</v>
+        <v>-860</v>
       </c>
       <c r="AI65" s="11">
-        <v>-860</v>
+        <v>-797</v>
       </c>
       <c r="AJ65" s="11">
-        <v>-797</v>
+        <v>-1485</v>
       </c>
       <c r="AK65" s="11">
-        <v>-1485</v>
+        <v>-1533</v>
       </c>
       <c r="AL65" s="11">
-        <v>-1533</v>
+        <v>-2667</v>
       </c>
       <c r="AM65" s="11">
-        <v>-2667</v>
+        <v>-4119</v>
       </c>
       <c r="AN65" s="11">
-        <v>-4119</v>
+        <v>-5120</v>
       </c>
       <c r="AO65" s="11">
-        <v>-5120</v>
+        <v>-3819</v>
       </c>
       <c r="AP65" s="11">
-        <v>-3819</v>
+        <v>-8680</v>
       </c>
       <c r="AQ65" s="11">
-        <v>-8680</v>
+        <v>-850</v>
       </c>
       <c r="AR65" s="11">
-        <v>-850</v>
+        <v>-790</v>
       </c>
       <c r="AS65" s="11">
-        <v>-790</v>
+        <v>-12083</v>
       </c>
       <c r="AT65" s="11">
-        <v>-12081</v>
+        <v>-19728</v>
       </c>
       <c r="AU65" s="11">
-        <v>-19728</v>
+        <v>-94</v>
       </c>
       <c r="AV65" s="11">
-        <v>0</v>
+        <v>-11808</v>
       </c>
       <c r="AW65" s="11">
-        <v>-3561</v>
+        <v>-32717</v>
       </c>
       <c r="AX65" s="11">
-        <v>-31350</v>
+        <v>-18544</v>
       </c>
       <c r="AY65" s="11">
-        <v>-23236</v>
+        <v>-70834</v>
       </c>
       <c r="AZ65" s="11">
-        <v>-65685</v>
+        <v>-31331</v>
       </c>
       <c r="BA65" s="11">
-        <v>-31331</v>
+        <v>-75393</v>
       </c>
       <c r="BB65" s="11">
-        <v>-73776</v>
+        <v>-49444</v>
       </c>
     </row>
     <row r="66" spans="2:54" x14ac:dyDescent="0.3">
@@ -8680,11 +8680,11 @@
       <c r="AD66" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AE66" s="13" t="s">
-        <v>57</v>
+      <c r="AE66" s="13">
+        <v>-26000</v>
       </c>
       <c r="AF66" s="13">
-        <v>-26000</v>
+        <v>0</v>
       </c>
       <c r="AG66" s="13">
         <v>0</v>
@@ -8692,8 +8692,8 @@
       <c r="AH66" s="13">
         <v>0</v>
       </c>
-      <c r="AI66" s="13">
-        <v>0</v>
+      <c r="AI66" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AJ66" s="13" t="s">
         <v>57</v>
@@ -8716,8 +8716,8 @@
       <c r="AP66" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ66" s="13" t="s">
-        <v>57</v>
+      <c r="AQ66" s="13">
+        <v>0</v>
       </c>
       <c r="AR66" s="13">
         <v>0</v>
@@ -8728,8 +8728,8 @@
       <c r="AT66" s="13">
         <v>0</v>
       </c>
-      <c r="AU66" s="13">
-        <v>0</v>
+      <c r="AU66" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AV66" s="13" t="s">
         <v>57</v>
@@ -8881,35 +8881,35 @@
       <c r="AR67" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AS67" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT67" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU67" s="11">
+      <c r="AS67" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT67" s="11">
         <v>-17776</v>
       </c>
-      <c r="AV67" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW67" s="11" t="s">
-        <v>57</v>
+      <c r="AU67" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV67" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW67" s="11">
+        <v>-9915</v>
       </c>
       <c r="AX67" s="11">
-        <v>-9926</v>
+        <v>-25387</v>
       </c>
       <c r="AY67" s="11">
-        <v>-15485</v>
+        <v>-20478</v>
       </c>
       <c r="AZ67" s="11">
-        <v>-18435</v>
+        <v>-393</v>
       </c>
       <c r="BA67" s="11">
-        <v>-393</v>
+        <v>-5781</v>
       </c>
       <c r="BB67" s="11">
-        <v>-5781</v>
+        <v>-12182</v>
       </c>
     </row>
     <row r="68" spans="2:54" x14ac:dyDescent="0.3">
@@ -8983,92 +8983,92 @@
       <c r="Y68" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="Z68" s="19" t="s">
-        <v>57</v>
+      <c r="Z68" s="19">
+        <v>-191</v>
       </c>
       <c r="AA68" s="19">
-        <v>-191</v>
+        <v>-8228</v>
       </c>
       <c r="AB68" s="19">
-        <v>-8228</v>
+        <v>-6539</v>
       </c>
       <c r="AC68" s="19">
-        <v>-6539</v>
+        <v>-5099</v>
       </c>
       <c r="AD68" s="19">
-        <v>-5099</v>
+        <v>-10321</v>
       </c>
       <c r="AE68" s="19">
-        <v>-10321</v>
+        <v>-35810</v>
       </c>
       <c r="AF68" s="19">
-        <v>-35810</v>
+        <v>-2563</v>
       </c>
       <c r="AG68" s="19">
-        <v>-2563</v>
+        <v>-23516</v>
       </c>
       <c r="AH68" s="19">
-        <v>-23516</v>
+        <v>-5717</v>
       </c>
       <c r="AI68" s="19">
-        <v>-5717</v>
+        <v>-1870</v>
       </c>
       <c r="AJ68" s="19">
-        <v>-1870</v>
+        <v>-2308</v>
       </c>
       <c r="AK68" s="19">
-        <v>-2308</v>
+        <v>-11588</v>
       </c>
       <c r="AL68" s="19">
-        <v>-11588</v>
+        <v>-6168</v>
       </c>
       <c r="AM68" s="19">
-        <v>-6168</v>
+        <v>-6186</v>
       </c>
       <c r="AN68" s="19">
-        <v>-6186</v>
+        <v>-7896</v>
       </c>
       <c r="AO68" s="19">
-        <v>-7896</v>
+        <v>-8739</v>
       </c>
       <c r="AP68" s="19">
-        <v>-8739</v>
+        <v>-21848</v>
       </c>
       <c r="AQ68" s="19">
-        <v>-21848</v>
+        <v>-14369</v>
       </c>
       <c r="AR68" s="19">
-        <v>-14369</v>
+        <v>-14247</v>
       </c>
       <c r="AS68" s="19">
-        <v>-14247</v>
+        <v>-38670</v>
       </c>
       <c r="AT68" s="19">
-        <v>-38652</v>
+        <v>-43025</v>
       </c>
       <c r="AU68" s="19">
-        <v>-43025</v>
+        <v>-17329</v>
       </c>
       <c r="AV68" s="19">
-        <v>0</v>
+        <v>-30095</v>
       </c>
       <c r="AW68" s="19">
-        <v>-5992</v>
+        <v>-48019</v>
       </c>
       <c r="AX68" s="19">
-        <v>-46652</v>
+        <v>-51753</v>
       </c>
       <c r="AY68" s="19">
-        <v>-48064</v>
+        <v>-100656</v>
       </c>
       <c r="AZ68" s="19">
-        <v>-92588</v>
+        <v>-41075</v>
       </c>
       <c r="BA68" s="19">
-        <v>-39827</v>
+        <v>-85371</v>
       </c>
       <c r="BB68" s="19">
-        <v>-83754</v>
+        <v>-70943</v>
       </c>
     </row>
     <row r="69" spans="2:54" x14ac:dyDescent="0.3">
@@ -9199,86 +9199,86 @@
       <c r="Y70" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Z70" s="11" t="s">
-        <v>57</v>
+      <c r="Z70" s="11">
+        <v>-9160</v>
       </c>
       <c r="AA70" s="11">
-        <v>-9160</v>
+        <v>-5836</v>
       </c>
       <c r="AB70" s="11">
-        <v>-5836</v>
+        <v>-3438</v>
       </c>
       <c r="AC70" s="11">
-        <v>-3438</v>
+        <v>-4747</v>
       </c>
       <c r="AD70" s="11">
-        <v>-4747</v>
+        <v>-7266</v>
       </c>
       <c r="AE70" s="11">
-        <v>-7266</v>
+        <v>-12062</v>
       </c>
       <c r="AF70" s="11">
-        <v>-12062</v>
+        <v>-18287</v>
       </c>
       <c r="AG70" s="11">
-        <v>-18287</v>
+        <v>-21548</v>
       </c>
       <c r="AH70" s="11">
-        <v>-21548</v>
+        <v>-10130</v>
       </c>
       <c r="AI70" s="11">
-        <v>-10130</v>
+        <v>-10758</v>
       </c>
       <c r="AJ70" s="11">
-        <v>-10758</v>
+        <v>-40983</v>
       </c>
       <c r="AK70" s="11">
-        <v>-40983</v>
+        <v>-75350</v>
       </c>
       <c r="AL70" s="11">
-        <v>-75350</v>
+        <v>-77417</v>
       </c>
       <c r="AM70" s="11">
-        <v>-77417</v>
+        <v>-67116</v>
       </c>
       <c r="AN70" s="11">
-        <v>-67116</v>
+        <v>-48926</v>
       </c>
       <c r="AO70" s="11">
-        <v>-48926</v>
+        <v>-37210</v>
       </c>
       <c r="AP70" s="11">
-        <v>-37210</v>
+        <v>-37940</v>
       </c>
       <c r="AQ70" s="11">
-        <v>-37940</v>
+        <v>-43879</v>
       </c>
       <c r="AR70" s="11">
-        <v>-43879</v>
+        <v>-29439</v>
       </c>
       <c r="AS70" s="11">
-        <v>-29439</v>
+        <v>-420</v>
       </c>
       <c r="AT70" s="11">
-        <v>-453</v>
+        <v>1151</v>
       </c>
       <c r="AU70" s="11">
-        <v>1151</v>
+        <v>-493</v>
       </c>
       <c r="AV70" s="11">
-        <v>-493</v>
+        <v>-2327</v>
       </c>
       <c r="AW70" s="11">
-        <v>-1804</v>
+        <v>1</v>
       </c>
       <c r="AX70" s="11">
         <v>0</v>
       </c>
       <c r="AY70" s="11">
-        <v>0</v>
+        <v>-35</v>
       </c>
       <c r="AZ70" s="11">
-        <v>-34</v>
+        <v>0</v>
       </c>
       <c r="BA70" s="11">
         <v>0</v>
@@ -9294,154 +9294,154 @@
       <c r="C71" s="19"/>
       <c r="D71" s="19"/>
       <c r="E71" s="19">
-        <v>14408</v>
+        <v>12837</v>
       </c>
       <c r="F71" s="19">
-        <v>12837</v>
+        <v>21947</v>
       </c>
       <c r="G71" s="19">
-        <v>21947</v>
+        <v>19731</v>
       </c>
       <c r="H71" s="19">
-        <v>19731</v>
+        <v>19596</v>
       </c>
       <c r="I71" s="19">
-        <v>19596</v>
+        <v>17111</v>
       </c>
       <c r="J71" s="19">
-        <v>17111</v>
+        <v>44466</v>
       </c>
       <c r="K71" s="19">
-        <v>44466</v>
+        <v>18236</v>
       </c>
       <c r="L71" s="19">
-        <v>18236</v>
+        <v>35636</v>
       </c>
       <c r="M71" s="19">
-        <v>35636</v>
+        <v>41246</v>
       </c>
       <c r="N71" s="19">
-        <v>41246</v>
+        <v>47453</v>
       </c>
       <c r="O71" s="19">
-        <v>47453</v>
+        <v>68105</v>
       </c>
       <c r="P71" s="19">
-        <v>68105</v>
+        <v>103859</v>
       </c>
       <c r="Q71" s="19">
-        <v>103859</v>
+        <v>80493</v>
       </c>
       <c r="R71" s="19">
-        <v>80493</v>
+        <v>93199</v>
       </c>
       <c r="S71" s="19">
-        <v>93199</v>
+        <v>97853</v>
       </c>
       <c r="T71" s="19">
-        <v>97853</v>
+        <v>110975</v>
       </c>
       <c r="U71" s="19">
-        <v>110975</v>
+        <v>148904</v>
       </c>
       <c r="V71" s="19">
-        <v>148904</v>
+        <v>150033</v>
       </c>
       <c r="W71" s="19">
-        <v>150033</v>
+        <v>76595</v>
       </c>
       <c r="X71" s="19">
-        <v>76595</v>
+        <v>107749</v>
       </c>
       <c r="Y71" s="19">
-        <v>107749</v>
+        <v>142095</v>
       </c>
       <c r="Z71" s="19">
-        <v>142095</v>
+        <v>182721</v>
       </c>
       <c r="AA71" s="19">
-        <v>182721</v>
+        <v>182232</v>
       </c>
       <c r="AB71" s="19">
-        <v>182232</v>
+        <v>200089</v>
       </c>
       <c r="AC71" s="19">
-        <v>200089</v>
+        <v>203733</v>
       </c>
       <c r="AD71" s="19">
-        <v>203733</v>
+        <v>254074</v>
       </c>
       <c r="AE71" s="19">
-        <v>254074</v>
+        <v>293404</v>
       </c>
       <c r="AF71" s="19">
-        <v>293404</v>
+        <v>282332</v>
       </c>
       <c r="AG71" s="19">
-        <v>282332</v>
+        <v>216480</v>
       </c>
       <c r="AH71" s="19">
-        <v>216480</v>
+        <v>259739</v>
       </c>
       <c r="AI71" s="19">
-        <v>259739</v>
+        <v>185796</v>
       </c>
       <c r="AJ71" s="19">
-        <v>185796</v>
+        <v>285923</v>
       </c>
       <c r="AK71" s="19">
-        <v>285923</v>
+        <v>340766</v>
       </c>
       <c r="AL71" s="19">
-        <v>340766</v>
+        <v>345283</v>
       </c>
       <c r="AM71" s="19">
-        <v>345283</v>
+        <v>381023</v>
       </c>
       <c r="AN71" s="19">
-        <v>381023</v>
+        <v>384103</v>
       </c>
       <c r="AO71" s="19">
-        <v>384103</v>
+        <v>381845</v>
       </c>
       <c r="AP71" s="19">
-        <v>381845</v>
+        <v>347973</v>
       </c>
       <c r="AQ71" s="19">
-        <v>347973</v>
+        <v>378076</v>
       </c>
       <c r="AR71" s="19">
-        <v>378076</v>
+        <v>400775</v>
       </c>
       <c r="AS71" s="19">
-        <v>400775</v>
+        <v>363025</v>
       </c>
       <c r="AT71" s="19">
-        <v>501714</v>
+        <v>585208</v>
       </c>
       <c r="AU71" s="19">
-        <v>585208</v>
+        <v>326714</v>
       </c>
       <c r="AV71" s="19">
-        <v>361646</v>
+        <v>515695</v>
       </c>
       <c r="AW71" s="19">
-        <v>626042</v>
+        <v>945354</v>
       </c>
       <c r="AX71" s="19">
-        <v>947192</v>
+        <v>1008546</v>
       </c>
       <c r="AY71" s="19">
-        <v>1041341</v>
+        <v>1054419</v>
       </c>
       <c r="AZ71" s="19">
-        <v>1062307</v>
+        <v>1051240</v>
       </c>
       <c r="BA71" s="19">
-        <v>1051372</v>
+        <v>1057056</v>
       </c>
       <c r="BB71" s="19">
-        <v>1071240</v>
+        <v>1018188</v>
       </c>
     </row>
     <row r="72" spans="2:54" x14ac:dyDescent="0.3">
@@ -9991,11 +9991,11 @@
       <c r="AM78" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AN78" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO78" s="11">
+      <c r="AN78" s="11">
         <v>182850</v>
+      </c>
+      <c r="AO78" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AP78" s="11" t="s">
         <v>57</v>
@@ -10046,139 +10046,139 @@
       </c>
       <c r="D79" s="13"/>
       <c r="E79" s="13">
-        <v>94864</v>
+        <v>59432</v>
       </c>
       <c r="F79" s="13">
-        <v>59432</v>
+        <v>77008</v>
       </c>
       <c r="G79" s="13">
-        <v>77008</v>
+        <v>71147</v>
       </c>
       <c r="H79" s="13">
-        <v>71147</v>
+        <v>71429</v>
       </c>
       <c r="I79" s="13">
-        <v>71429</v>
+        <v>55499</v>
       </c>
       <c r="J79" s="13">
-        <v>55499</v>
+        <v>40979</v>
       </c>
       <c r="K79" s="13">
-        <v>40979</v>
+        <v>196815</v>
       </c>
       <c r="L79" s="13">
-        <v>196815</v>
+        <v>188732</v>
       </c>
       <c r="M79" s="13">
-        <v>188732</v>
+        <v>185451</v>
       </c>
       <c r="N79" s="13">
-        <v>185451</v>
+        <v>189948</v>
       </c>
       <c r="O79" s="13">
-        <v>189948</v>
+        <v>204827</v>
       </c>
       <c r="P79" s="13">
-        <v>204827</v>
+        <v>191962</v>
       </c>
       <c r="Q79" s="13">
-        <v>191962</v>
+        <v>207061</v>
       </c>
       <c r="R79" s="13">
-        <v>207061</v>
+        <v>226969</v>
       </c>
       <c r="S79" s="13">
-        <v>226969</v>
+        <v>210579</v>
       </c>
       <c r="T79" s="13">
-        <v>210579</v>
+        <v>228179</v>
       </c>
       <c r="U79" s="13">
-        <v>228179</v>
+        <v>235387</v>
       </c>
       <c r="V79" s="13">
-        <v>235387</v>
+        <v>223560</v>
       </c>
       <c r="W79" s="13">
-        <v>223560</v>
+        <v>217182</v>
       </c>
       <c r="X79" s="13">
-        <v>217182</v>
+        <v>234606</v>
       </c>
       <c r="Y79" s="13">
-        <v>234606</v>
+        <v>239734</v>
       </c>
       <c r="Z79" s="13">
-        <v>239734</v>
+        <v>332945</v>
       </c>
       <c r="AA79" s="13">
-        <v>332945</v>
+        <v>354374</v>
       </c>
       <c r="AB79" s="13">
-        <v>354374</v>
+        <v>426572</v>
       </c>
       <c r="AC79" s="13">
-        <v>426572</v>
+        <v>428212</v>
       </c>
       <c r="AD79" s="13">
-        <v>428212</v>
+        <v>526112</v>
       </c>
       <c r="AE79" s="13">
-        <v>526112</v>
+        <v>595244</v>
       </c>
       <c r="AF79" s="13">
-        <v>595244</v>
+        <v>522473</v>
       </c>
       <c r="AG79" s="13">
-        <v>522473</v>
+        <v>771030</v>
       </c>
       <c r="AH79" s="13">
-        <v>771030</v>
+        <v>569715</v>
       </c>
       <c r="AI79" s="13">
-        <v>569715</v>
+        <v>537919</v>
       </c>
       <c r="AJ79" s="13">
-        <v>537919</v>
+        <v>685744</v>
       </c>
       <c r="AK79" s="13">
-        <v>685744</v>
+        <v>751955</v>
       </c>
       <c r="AL79" s="13">
-        <v>751955</v>
+        <v>719711</v>
       </c>
       <c r="AM79" s="13">
-        <v>719711</v>
+        <v>754720</v>
       </c>
       <c r="AN79" s="13">
-        <v>754720</v>
+        <v>790465</v>
       </c>
       <c r="AO79" s="13">
-        <v>790465</v>
+        <v>873669</v>
       </c>
       <c r="AP79" s="13">
-        <v>873669</v>
+        <v>789449</v>
       </c>
       <c r="AQ79" s="13">
-        <v>789449</v>
+        <v>795835</v>
       </c>
       <c r="AR79" s="13">
-        <v>795835</v>
-      </c>
-      <c r="AS79" s="13">
         <v>821673</v>
       </c>
-      <c r="AT79" s="13">
-        <v>857690</v>
-      </c>
-      <c r="AU79" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV79" s="13">
-        <v>704001</v>
-      </c>
-      <c r="AW79" s="13">
-        <v>973290</v>
+      <c r="AS79" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT79" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU79" s="13">
+        <v>724624</v>
+      </c>
+      <c r="AV79" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW79" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AX79" s="13" t="s">
         <v>57</v>
@@ -10205,154 +10205,154 @@
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11">
-        <v>69964</v>
+        <v>98651</v>
       </c>
       <c r="F80" s="11">
-        <v>98651</v>
+        <v>133445</v>
       </c>
       <c r="G80" s="11">
-        <v>133445</v>
+        <v>101245</v>
       </c>
       <c r="H80" s="11">
-        <v>101245</v>
+        <v>142100</v>
       </c>
       <c r="I80" s="11">
-        <v>142100</v>
+        <v>105724</v>
       </c>
       <c r="J80" s="11">
-        <v>105724</v>
+        <v>155710</v>
       </c>
       <c r="K80" s="11">
-        <v>155710</v>
+        <v>182010</v>
       </c>
       <c r="L80" s="11">
-        <v>182010</v>
+        <v>174124</v>
       </c>
       <c r="M80" s="11">
-        <v>174124</v>
+        <v>189199</v>
       </c>
       <c r="N80" s="11">
-        <v>189199</v>
+        <v>178462</v>
       </c>
       <c r="O80" s="11">
-        <v>178462</v>
+        <v>202326</v>
       </c>
       <c r="P80" s="11">
-        <v>202326</v>
+        <v>192759</v>
       </c>
       <c r="Q80" s="11">
-        <v>192759</v>
+        <v>182101</v>
       </c>
       <c r="R80" s="11">
-        <v>182101</v>
+        <v>214726</v>
       </c>
       <c r="S80" s="11">
-        <v>214726</v>
+        <v>201775</v>
       </c>
       <c r="T80" s="11">
-        <v>201775</v>
+        <v>199820</v>
       </c>
       <c r="U80" s="11">
-        <v>199820</v>
+        <v>184021</v>
       </c>
       <c r="V80" s="11">
-        <v>184021</v>
+        <v>192254</v>
       </c>
       <c r="W80" s="11">
-        <v>192254</v>
+        <v>198794</v>
       </c>
       <c r="X80" s="11">
-        <v>198794</v>
+        <v>321193</v>
       </c>
       <c r="Y80" s="11">
-        <v>321193</v>
+        <v>223126</v>
       </c>
       <c r="Z80" s="11">
-        <v>223126</v>
+        <v>267556</v>
       </c>
       <c r="AA80" s="11">
-        <v>267556</v>
+        <v>290764</v>
       </c>
       <c r="AB80" s="11">
-        <v>290764</v>
+        <v>323335</v>
       </c>
       <c r="AC80" s="11">
-        <v>323335</v>
+        <v>326220</v>
       </c>
       <c r="AD80" s="11">
-        <v>326220</v>
+        <v>430648</v>
       </c>
       <c r="AE80" s="11">
-        <v>430648</v>
+        <v>379496</v>
       </c>
       <c r="AF80" s="11">
-        <v>379496</v>
+        <v>448309</v>
       </c>
       <c r="AG80" s="11">
-        <v>448309</v>
+        <v>440051</v>
       </c>
       <c r="AH80" s="11">
-        <v>440051</v>
+        <v>428003</v>
       </c>
       <c r="AI80" s="11">
-        <v>428003</v>
+        <v>510572</v>
       </c>
       <c r="AJ80" s="11">
-        <v>510572</v>
+        <v>507846</v>
       </c>
       <c r="AK80" s="11">
-        <v>507846</v>
+        <v>808526</v>
       </c>
       <c r="AL80" s="11">
-        <v>808526</v>
+        <v>892315</v>
       </c>
       <c r="AM80" s="11">
-        <v>892315</v>
+        <v>525548</v>
       </c>
       <c r="AN80" s="11">
-        <v>525548</v>
+        <v>537709</v>
       </c>
       <c r="AO80" s="11">
-        <v>537709</v>
+        <v>689336</v>
       </c>
       <c r="AP80" s="11">
-        <v>689336</v>
+        <v>736553</v>
       </c>
       <c r="AQ80" s="11">
-        <v>736553</v>
+        <v>818453</v>
       </c>
       <c r="AR80" s="11">
-        <v>818453</v>
+        <v>646662</v>
       </c>
       <c r="AS80" s="11">
-        <v>646662</v>
+        <v>641419</v>
       </c>
       <c r="AT80" s="11">
-        <v>641726</v>
+        <v>581868</v>
       </c>
       <c r="AU80" s="11">
-        <v>581868</v>
+        <v>765195</v>
       </c>
       <c r="AV80" s="11">
-        <v>765195</v>
+        <v>667009</v>
       </c>
       <c r="AW80" s="11">
-        <v>660032</v>
+        <v>647732</v>
       </c>
       <c r="AX80" s="11">
-        <v>652331</v>
+        <v>713695</v>
       </c>
       <c r="AY80" s="11">
-        <v>713692</v>
+        <v>692586</v>
       </c>
       <c r="AZ80" s="11">
-        <v>692603</v>
+        <v>652452</v>
       </c>
       <c r="BA80" s="11">
-        <v>652452</v>
+        <v>689538</v>
       </c>
       <c r="BB80" s="11">
-        <v>693446</v>
+        <v>816403</v>
       </c>
     </row>
     <row r="81" spans="2:54" x14ac:dyDescent="0.3">
@@ -10364,154 +10364,154 @@
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="13">
-        <v>151703</v>
+        <v>176012</v>
       </c>
       <c r="F81" s="13">
-        <v>176012</v>
+        <v>187992</v>
       </c>
       <c r="G81" s="13">
-        <v>187992</v>
+        <v>193827</v>
       </c>
       <c r="H81" s="13">
-        <v>193827</v>
+        <v>431811</v>
       </c>
       <c r="I81" s="13">
-        <v>431811</v>
+        <v>135113</v>
       </c>
       <c r="J81" s="13">
-        <v>135113</v>
+        <v>401821</v>
       </c>
       <c r="K81" s="13">
-        <v>401821</v>
+        <v>482798</v>
       </c>
       <c r="L81" s="13">
-        <v>482798</v>
+        <v>471073</v>
       </c>
       <c r="M81" s="13">
-        <v>471073</v>
+        <v>444902</v>
       </c>
       <c r="N81" s="13">
-        <v>444902</v>
+        <v>469319</v>
       </c>
       <c r="O81" s="13">
-        <v>469319</v>
+        <v>545916</v>
       </c>
       <c r="P81" s="13">
-        <v>545916</v>
+        <v>591063</v>
       </c>
       <c r="Q81" s="13">
-        <v>591063</v>
+        <v>580562</v>
       </c>
       <c r="R81" s="13">
-        <v>580562</v>
+        <v>560208</v>
       </c>
       <c r="S81" s="13">
-        <v>560208</v>
+        <v>557323</v>
       </c>
       <c r="T81" s="13">
-        <v>557323</v>
+        <v>627995</v>
       </c>
       <c r="U81" s="13">
-        <v>627995</v>
+        <v>475121</v>
       </c>
       <c r="V81" s="13">
-        <v>475121</v>
+        <v>514298</v>
       </c>
       <c r="W81" s="13">
-        <v>514298</v>
+        <v>539826</v>
       </c>
       <c r="X81" s="13">
-        <v>539826</v>
+        <v>581352</v>
       </c>
       <c r="Y81" s="13">
-        <v>581352</v>
+        <v>754384</v>
       </c>
       <c r="Z81" s="13">
-        <v>754384</v>
+        <v>778183</v>
       </c>
       <c r="AA81" s="13">
-        <v>778183</v>
+        <v>803728</v>
       </c>
       <c r="AB81" s="13">
-        <v>803728</v>
+        <v>707572</v>
       </c>
       <c r="AC81" s="13">
-        <v>707572</v>
+        <v>856489</v>
       </c>
       <c r="AD81" s="13">
-        <v>856489</v>
+        <v>1092321</v>
       </c>
       <c r="AE81" s="13">
-        <v>1092321</v>
+        <v>1172464</v>
       </c>
       <c r="AF81" s="13">
-        <v>1172464</v>
+        <v>1368294</v>
       </c>
       <c r="AG81" s="13">
-        <v>1368294</v>
+        <v>1124075</v>
       </c>
       <c r="AH81" s="13">
-        <v>1124075</v>
+        <v>851070</v>
       </c>
       <c r="AI81" s="13">
-        <v>851070</v>
+        <v>1047590</v>
       </c>
       <c r="AJ81" s="13">
-        <v>1047590</v>
+        <v>1419731</v>
       </c>
       <c r="AK81" s="13">
-        <v>1419731</v>
+        <v>1655425</v>
       </c>
       <c r="AL81" s="13">
-        <v>1655425</v>
+        <v>1898614</v>
       </c>
       <c r="AM81" s="13">
-        <v>1898614</v>
+        <v>1986259</v>
       </c>
       <c r="AN81" s="13">
-        <v>1986259</v>
+        <v>1796152</v>
       </c>
       <c r="AO81" s="13">
-        <v>1796152</v>
+        <v>1694004</v>
       </c>
       <c r="AP81" s="13">
-        <v>1694004</v>
+        <v>1697520</v>
       </c>
       <c r="AQ81" s="13">
-        <v>1697520</v>
+        <v>2031599</v>
       </c>
       <c r="AR81" s="13">
-        <v>2031599</v>
+        <v>1693667</v>
       </c>
       <c r="AS81" s="13">
-        <v>1693667</v>
+        <v>1604157</v>
       </c>
       <c r="AT81" s="13">
-        <v>1603244</v>
+        <v>1813705</v>
       </c>
       <c r="AU81" s="13">
-        <v>1813705</v>
+        <v>1829919</v>
       </c>
       <c r="AV81" s="13">
-        <v>2051001</v>
+        <v>2041808</v>
       </c>
       <c r="AW81" s="13">
-        <v>2048719</v>
+        <v>2087426</v>
       </c>
       <c r="AX81" s="13">
-        <v>2089975</v>
+        <v>2111945</v>
       </c>
       <c r="AY81" s="13">
-        <v>2111196</v>
+        <v>2409659</v>
       </c>
       <c r="AZ81" s="13">
-        <v>2409196</v>
+        <v>2702724</v>
       </c>
       <c r="BA81" s="13">
-        <v>2704263</v>
+        <v>2681023</v>
       </c>
       <c r="BB81" s="13">
-        <v>2722676</v>
+        <v>2301789</v>
       </c>
     </row>
     <row r="82" spans="2:54" x14ac:dyDescent="0.3">
@@ -10594,17 +10594,17 @@
       <c r="AB82" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AC82" s="11" t="s">
-        <v>57</v>
+      <c r="AC82" s="11">
+        <v>515380</v>
       </c>
       <c r="AD82" s="11">
-        <v>515380</v>
+        <v>643785</v>
       </c>
       <c r="AE82" s="11">
-        <v>643785</v>
-      </c>
-      <c r="AF82" s="11">
         <v>445033</v>
+      </c>
+      <c r="AF82" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AG82" s="11" t="s">
         <v>57</v>
@@ -10682,25 +10682,25 @@
       </c>
       <c r="D83" s="13"/>
       <c r="E83" s="13">
-        <v>104841</v>
+        <v>141483</v>
       </c>
       <c r="F83" s="13">
-        <v>141483</v>
+        <v>134192</v>
       </c>
       <c r="G83" s="13">
-        <v>134192</v>
+        <v>163696</v>
       </c>
       <c r="H83" s="13">
-        <v>163696</v>
+        <v>172781</v>
       </c>
       <c r="I83" s="13">
-        <v>172781</v>
+        <v>157072</v>
       </c>
       <c r="J83" s="13">
-        <v>157072</v>
-      </c>
-      <c r="K83" s="13">
         <v>160540</v>
+      </c>
+      <c r="K83" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="L83" s="13" t="s">
         <v>57</v>
@@ -10858,44 +10858,44 @@
       <c r="J84" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K84" s="11" t="s">
-        <v>57</v>
+      <c r="K84" s="11">
+        <v>33366</v>
       </c>
       <c r="L84" s="11">
-        <v>33366</v>
+        <v>31238</v>
       </c>
       <c r="M84" s="11">
-        <v>31238</v>
+        <v>81487</v>
       </c>
       <c r="N84" s="11">
-        <v>81487</v>
+        <v>93900</v>
       </c>
       <c r="O84" s="11">
-        <v>93900</v>
+        <v>125120</v>
       </c>
       <c r="P84" s="11">
-        <v>125120</v>
+        <v>434258</v>
       </c>
       <c r="Q84" s="11">
-        <v>434258</v>
+        <v>157895</v>
       </c>
       <c r="R84" s="11">
-        <v>157895</v>
+        <v>138427</v>
       </c>
       <c r="S84" s="11">
-        <v>138427</v>
+        <v>158898</v>
       </c>
       <c r="T84" s="11">
-        <v>158898</v>
+        <v>111111</v>
       </c>
       <c r="U84" s="11">
-        <v>111111</v>
+        <v>0</v>
       </c>
       <c r="V84" s="11">
         <v>0</v>
       </c>
-      <c r="W84" s="11">
-        <v>0</v>
+      <c r="W84" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="X84" s="11" t="s">
         <v>57</v>
@@ -11119,35 +11119,35 @@
       <c r="AR85" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AS85" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT85" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU85" s="13">
+      <c r="AS85" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT85" s="13">
         <v>855417</v>
       </c>
-      <c r="AV85" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AW85" s="13" t="s">
-        <v>57</v>
+      <c r="AU85" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV85" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW85" s="13">
+        <v>884910</v>
       </c>
       <c r="AX85" s="13">
-        <v>888027</v>
+        <v>1114964</v>
       </c>
       <c r="AY85" s="13">
-        <v>1116016</v>
+        <v>960338</v>
       </c>
       <c r="AZ85" s="13">
-        <v>960338</v>
+        <v>709168</v>
       </c>
       <c r="BA85" s="13">
-        <v>686238</v>
+        <v>815318</v>
       </c>
       <c r="BB85" s="13">
-        <v>816466</v>
+        <v>759678</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/kashi/kehafez/product/monthly.xlsx
+++ b/database/industries/kashi/kehafez/product/monthly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\kashi\kehafez\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDA175C-BBB4-4562-B442-73098D71C921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08E50AF-6813-43E2-92E3-C378AFC71B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="80">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>کحافظ-کاشی‌ وسرامیک‌ حافظ‌</t>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>سایر</t>
@@ -1519,11 +1519,11 @@
       <c r="AL11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AM11" s="11" t="s">
-        <v>57</v>
+      <c r="AM11" s="11">
+        <v>8548</v>
       </c>
       <c r="AN11" s="11">
-        <v>8548</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="11">
         <v>0</v>
@@ -1534,14 +1534,14 @@
       <c r="AQ11" s="11">
         <v>0</v>
       </c>
-      <c r="AR11" s="11">
-        <v>0</v>
+      <c r="AR11" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT11" s="11" t="s">
-        <v>57</v>
+      <c r="AT11" s="11">
+        <v>0</v>
       </c>
       <c r="AU11" s="11">
         <v>0</v>
@@ -1586,124 +1586,124 @@
         <v>0</v>
       </c>
       <c r="H12" s="13">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="I12" s="13">
-        <v>550</v>
+        <v>778</v>
       </c>
       <c r="J12" s="13">
-        <v>778</v>
+        <v>51807</v>
       </c>
       <c r="K12" s="13">
-        <v>51807</v>
+        <v>108968</v>
       </c>
       <c r="L12" s="13">
-        <v>108968</v>
+        <v>10195</v>
       </c>
       <c r="M12" s="13">
-        <v>10195</v>
+        <v>171032</v>
       </c>
       <c r="N12" s="13">
-        <v>171032</v>
+        <v>59681</v>
       </c>
       <c r="O12" s="13">
-        <v>59681</v>
+        <v>99665</v>
       </c>
       <c r="P12" s="13">
-        <v>99665</v>
+        <v>112830</v>
       </c>
       <c r="Q12" s="13">
-        <v>112830</v>
+        <v>123528</v>
       </c>
       <c r="R12" s="13">
-        <v>123528</v>
+        <v>142614</v>
       </c>
       <c r="S12" s="13">
-        <v>142614</v>
+        <v>155238</v>
       </c>
       <c r="T12" s="13">
-        <v>155238</v>
+        <v>163756</v>
       </c>
       <c r="U12" s="13">
+        <v>146894</v>
+      </c>
+      <c r="V12" s="13">
+        <v>13726</v>
+      </c>
+      <c r="W12" s="13">
+        <v>91375</v>
+      </c>
+      <c r="X12" s="13">
+        <v>184180</v>
+      </c>
+      <c r="Y12" s="13">
+        <v>180311</v>
+      </c>
+      <c r="Z12" s="13">
         <v>163756</v>
       </c>
-      <c r="V12" s="13">
-        <v>146894</v>
-      </c>
-      <c r="W12" s="13">
-        <v>13726</v>
-      </c>
-      <c r="X12" s="13">
-        <v>91375</v>
-      </c>
-      <c r="Y12" s="13">
-        <v>184180</v>
-      </c>
-      <c r="Z12" s="13">
-        <v>180311</v>
-      </c>
       <c r="AA12" s="13">
-        <v>163756</v>
+        <v>140756</v>
       </c>
       <c r="AB12" s="13">
-        <v>140756</v>
+        <v>114154</v>
       </c>
       <c r="AC12" s="13">
-        <v>114154</v>
+        <v>115458</v>
       </c>
       <c r="AD12" s="13">
-        <v>115458</v>
+        <v>129004</v>
       </c>
       <c r="AE12" s="13">
-        <v>129004</v>
+        <v>112421</v>
       </c>
       <c r="AF12" s="13">
-        <v>112421</v>
+        <v>105827</v>
       </c>
       <c r="AG12" s="13">
-        <v>105827</v>
+        <v>109669</v>
       </c>
       <c r="AH12" s="13">
-        <v>109669</v>
+        <v>144720</v>
       </c>
       <c r="AI12" s="13">
-        <v>144720</v>
+        <v>170723</v>
       </c>
       <c r="AJ12" s="13">
-        <v>170723</v>
+        <v>156453</v>
       </c>
       <c r="AK12" s="13">
-        <v>156453</v>
+        <v>164970</v>
       </c>
       <c r="AL12" s="13">
-        <v>164970</v>
+        <v>146620</v>
       </c>
       <c r="AM12" s="13">
-        <v>146620</v>
+        <v>152898</v>
       </c>
       <c r="AN12" s="13">
-        <v>152898</v>
+        <v>147979</v>
       </c>
       <c r="AO12" s="13">
-        <v>147979</v>
+        <v>158837</v>
       </c>
       <c r="AP12" s="13">
-        <v>158837</v>
+        <v>153299</v>
       </c>
       <c r="AQ12" s="13">
-        <v>153299</v>
-      </c>
-      <c r="AR12" s="13">
         <v>120479</v>
       </c>
+      <c r="AR12" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AS12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU12" s="13">
+      <c r="AT12" s="13">
         <v>133071</v>
+      </c>
+      <c r="AU12" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AV12" s="13" t="s">
         <v>57</v>
@@ -1736,154 +1736,154 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>11837</v>
+        <v>89548</v>
       </c>
       <c r="F13" s="11">
-        <v>89548</v>
+        <v>79900</v>
       </c>
       <c r="G13" s="11">
-        <v>79900</v>
+        <v>70422</v>
       </c>
       <c r="H13" s="11">
-        <v>70422</v>
+        <v>98280</v>
       </c>
       <c r="I13" s="11">
-        <v>98280</v>
+        <v>90851</v>
       </c>
       <c r="J13" s="11">
-        <v>90851</v>
+        <v>48535</v>
       </c>
       <c r="K13" s="11">
-        <v>48535</v>
+        <v>68758</v>
       </c>
       <c r="L13" s="11">
-        <v>68758</v>
+        <v>112136</v>
       </c>
       <c r="M13" s="11">
-        <v>112136</v>
+        <v>65686</v>
       </c>
       <c r="N13" s="11">
-        <v>65686</v>
+        <v>89018</v>
       </c>
       <c r="O13" s="11">
-        <v>89018</v>
+        <v>134728</v>
       </c>
       <c r="P13" s="11">
-        <v>134728</v>
+        <v>139792</v>
       </c>
       <c r="Q13" s="11">
-        <v>139792</v>
+        <v>145123</v>
       </c>
       <c r="R13" s="11">
-        <v>145123</v>
+        <v>145288</v>
       </c>
       <c r="S13" s="11">
-        <v>145288</v>
+        <v>149466</v>
       </c>
       <c r="T13" s="11">
-        <v>149466</v>
+        <v>141755</v>
       </c>
       <c r="U13" s="11">
-        <v>141755</v>
+        <v>125475</v>
       </c>
       <c r="V13" s="11">
-        <v>125475</v>
+        <v>81301</v>
       </c>
       <c r="W13" s="11">
-        <v>81301</v>
+        <v>103209</v>
       </c>
       <c r="X13" s="11">
-        <v>103209</v>
+        <v>147825</v>
       </c>
       <c r="Y13" s="11">
-        <v>147825</v>
+        <v>149915</v>
       </c>
       <c r="Z13" s="11">
-        <v>149915</v>
+        <v>140115</v>
       </c>
       <c r="AA13" s="11">
-        <v>140115</v>
+        <v>125268</v>
       </c>
       <c r="AB13" s="11">
-        <v>125268</v>
+        <v>123117</v>
       </c>
       <c r="AC13" s="11">
-        <v>123117</v>
+        <v>125608</v>
       </c>
       <c r="AD13" s="11">
-        <v>125608</v>
+        <v>128398</v>
       </c>
       <c r="AE13" s="11">
-        <v>128398</v>
+        <v>133925</v>
       </c>
       <c r="AF13" s="11">
-        <v>133925</v>
+        <v>134039</v>
       </c>
       <c r="AG13" s="11">
-        <v>134039</v>
+        <v>109353</v>
       </c>
       <c r="AH13" s="11">
-        <v>109353</v>
+        <v>70283</v>
       </c>
       <c r="AI13" s="11">
-        <v>70283</v>
+        <v>134856</v>
       </c>
       <c r="AJ13" s="11">
-        <v>134856</v>
+        <v>94567</v>
       </c>
       <c r="AK13" s="11">
-        <v>94567</v>
+        <v>88076</v>
       </c>
       <c r="AL13" s="11">
-        <v>88076</v>
+        <v>133008</v>
       </c>
       <c r="AM13" s="11">
-        <v>133008</v>
+        <v>135791</v>
       </c>
       <c r="AN13" s="11">
-        <v>135791</v>
+        <v>88067</v>
       </c>
       <c r="AO13" s="11">
-        <v>88067</v>
+        <v>81059</v>
       </c>
       <c r="AP13" s="11">
-        <v>81059</v>
+        <v>81470</v>
       </c>
       <c r="AQ13" s="11">
-        <v>81470</v>
+        <v>121594</v>
       </c>
       <c r="AR13" s="11">
-        <v>121594</v>
+        <v>126187</v>
       </c>
       <c r="AS13" s="11">
-        <v>126187</v>
+        <v>118055</v>
       </c>
       <c r="AT13" s="11">
-        <v>118055</v>
+        <v>73028</v>
       </c>
       <c r="AU13" s="11">
-        <v>73028</v>
+        <v>86470</v>
       </c>
       <c r="AV13" s="11">
-        <v>86470</v>
+        <v>104245</v>
       </c>
       <c r="AW13" s="11">
-        <v>104245</v>
+        <v>131170</v>
       </c>
       <c r="AX13" s="11">
-        <v>131170</v>
+        <v>125825</v>
       </c>
       <c r="AY13" s="11">
-        <v>125825</v>
+        <v>135448</v>
       </c>
       <c r="AZ13" s="11">
-        <v>135448</v>
+        <v>101003</v>
       </c>
       <c r="BA13" s="11">
-        <v>101003</v>
+        <v>85022</v>
       </c>
       <c r="BB13" s="11">
-        <v>85022</v>
+        <v>88925</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -1895,154 +1895,154 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>6052</v>
+        <v>22272</v>
       </c>
       <c r="F14" s="13">
-        <v>22272</v>
+        <v>21078</v>
       </c>
       <c r="G14" s="13">
-        <v>21078</v>
+        <v>28540</v>
       </c>
       <c r="H14" s="13">
-        <v>28540</v>
+        <v>20008</v>
       </c>
       <c r="I14" s="13">
-        <v>20008</v>
+        <v>27910</v>
       </c>
       <c r="J14" s="13">
-        <v>27910</v>
+        <v>17078</v>
       </c>
       <c r="K14" s="13">
-        <v>17078</v>
+        <v>41519</v>
       </c>
       <c r="L14" s="13">
-        <v>41519</v>
+        <v>44235</v>
       </c>
       <c r="M14" s="13">
-        <v>44235</v>
+        <v>46601</v>
       </c>
       <c r="N14" s="13">
-        <v>46601</v>
+        <v>36865</v>
       </c>
       <c r="O14" s="13">
-        <v>36865</v>
+        <v>48056</v>
       </c>
       <c r="P14" s="13">
-        <v>48056</v>
+        <v>56247</v>
       </c>
       <c r="Q14" s="13">
-        <v>56247</v>
+        <v>58991</v>
       </c>
       <c r="R14" s="13">
-        <v>58991</v>
+        <v>50837</v>
       </c>
       <c r="S14" s="13">
-        <v>50837</v>
+        <v>56724</v>
       </c>
       <c r="T14" s="13">
-        <v>56724</v>
+        <v>61063</v>
       </c>
       <c r="U14" s="13">
-        <v>61063</v>
+        <v>96648</v>
       </c>
       <c r="V14" s="13">
-        <v>96648</v>
+        <v>88869</v>
       </c>
       <c r="W14" s="13">
-        <v>88869</v>
+        <v>102636</v>
       </c>
       <c r="X14" s="13">
-        <v>102636</v>
+        <v>69728</v>
       </c>
       <c r="Y14" s="13">
-        <v>69728</v>
+        <v>108530</v>
       </c>
       <c r="Z14" s="13">
-        <v>108530</v>
+        <v>108612</v>
       </c>
       <c r="AA14" s="13">
-        <v>108612</v>
+        <v>122932</v>
       </c>
       <c r="AB14" s="13">
-        <v>122932</v>
+        <v>121312</v>
       </c>
       <c r="AC14" s="13">
-        <v>121312</v>
+        <v>127250</v>
       </c>
       <c r="AD14" s="13">
-        <v>127250</v>
+        <v>133942</v>
       </c>
       <c r="AE14" s="13">
-        <v>133942</v>
+        <v>130366</v>
       </c>
       <c r="AF14" s="13">
-        <v>130366</v>
+        <v>99533</v>
       </c>
       <c r="AG14" s="13">
-        <v>99533</v>
+        <v>113656</v>
       </c>
       <c r="AH14" s="13">
-        <v>113656</v>
+        <v>106404</v>
       </c>
       <c r="AI14" s="13">
-        <v>106404</v>
+        <v>109835</v>
       </c>
       <c r="AJ14" s="13">
-        <v>109835</v>
+        <v>121797</v>
       </c>
       <c r="AK14" s="13">
-        <v>121797</v>
+        <v>129462</v>
       </c>
       <c r="AL14" s="13">
-        <v>129462</v>
+        <v>137344</v>
       </c>
       <c r="AM14" s="13">
-        <v>137344</v>
+        <v>126087</v>
       </c>
       <c r="AN14" s="13">
-        <v>126087</v>
+        <v>121924</v>
       </c>
       <c r="AO14" s="13">
-        <v>121924</v>
+        <v>103148</v>
       </c>
       <c r="AP14" s="13">
-        <v>103148</v>
+        <v>112950</v>
       </c>
       <c r="AQ14" s="13">
-        <v>112950</v>
+        <v>233492</v>
       </c>
       <c r="AR14" s="13">
-        <v>233492</v>
+        <v>169796</v>
       </c>
       <c r="AS14" s="13">
-        <v>169796</v>
+        <v>204235</v>
       </c>
       <c r="AT14" s="13">
-        <v>204235</v>
+        <v>171881</v>
       </c>
       <c r="AU14" s="13">
-        <v>171881</v>
+        <v>195845</v>
       </c>
       <c r="AV14" s="13">
-        <v>195845</v>
+        <v>266733</v>
       </c>
       <c r="AW14" s="13">
-        <v>266733</v>
+        <v>339709</v>
       </c>
       <c r="AX14" s="13">
-        <v>339709</v>
+        <v>361341</v>
       </c>
       <c r="AY14" s="13">
-        <v>361341</v>
+        <v>393489</v>
       </c>
       <c r="AZ14" s="13">
-        <v>393489</v>
+        <v>402687</v>
       </c>
       <c r="BA14" s="13">
-        <v>402687</v>
+        <v>388605</v>
       </c>
       <c r="BB14" s="13">
-        <v>388605</v>
+        <v>489677</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2122,14 +2122,14 @@
       <c r="AA15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AB15" s="11" t="s">
-        <v>57</v>
+      <c r="AB15" s="11">
+        <v>38913</v>
       </c>
       <c r="AC15" s="11">
-        <v>38913</v>
+        <v>21560</v>
       </c>
       <c r="AD15" s="11">
-        <v>21560</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="11">
         <v>0</v>
@@ -2140,8 +2140,8 @@
       <c r="AG15" s="11">
         <v>0</v>
       </c>
-      <c r="AH15" s="11">
-        <v>0</v>
+      <c r="AH15" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI15" s="11" t="s">
         <v>57</v>
@@ -2155,8 +2155,8 @@
       <c r="AL15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AM15" s="11" t="s">
-        <v>57</v>
+      <c r="AM15" s="11">
+        <v>0</v>
       </c>
       <c r="AN15" s="11">
         <v>0</v>
@@ -2170,14 +2170,14 @@
       <c r="AQ15" s="11">
         <v>0</v>
       </c>
-      <c r="AR15" s="11">
-        <v>0</v>
+      <c r="AR15" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT15" s="11" t="s">
-        <v>57</v>
+      <c r="AT15" s="11">
+        <v>0</v>
       </c>
       <c r="AU15" s="11">
         <v>0</v>
@@ -2213,22 +2213,22 @@
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
-        <v>63622</v>
+        <v>67798</v>
       </c>
       <c r="F16" s="13">
-        <v>67798</v>
+        <v>100401</v>
       </c>
       <c r="G16" s="13">
-        <v>100401</v>
+        <v>111132</v>
       </c>
       <c r="H16" s="13">
-        <v>111132</v>
+        <v>85099</v>
       </c>
       <c r="I16" s="13">
-        <v>85099</v>
-      </c>
-      <c r="J16" s="13">
         <v>82948</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="K16" s="13" t="s">
         <v>57</v>
@@ -2386,8 +2386,8 @@
       <c r="I17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J17" s="11" t="s">
-        <v>57</v>
+      <c r="J17" s="11">
+        <v>0</v>
       </c>
       <c r="K17" s="11">
         <v>0</v>
@@ -2422,11 +2422,11 @@
       <c r="U17" s="11">
         <v>0</v>
       </c>
-      <c r="V17" s="11">
-        <v>0</v>
-      </c>
-      <c r="W17" s="11" t="s">
-        <v>57</v>
+      <c r="V17" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W17" s="11">
+        <v>0</v>
       </c>
       <c r="X17" s="11">
         <v>0</v>
@@ -2458,8 +2458,8 @@
       <c r="AG17" s="11">
         <v>0</v>
       </c>
-      <c r="AH17" s="11">
-        <v>0</v>
+      <c r="AH17" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI17" s="11" t="s">
         <v>57</v>
@@ -2647,38 +2647,38 @@
       <c r="AQ18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR18" s="13" t="s">
-        <v>57</v>
+      <c r="AR18" s="13">
+        <v>0</v>
       </c>
       <c r="AS18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT18" s="13">
         <v>147575</v>
       </c>
-      <c r="AU18" s="13" t="s">
-        <v>57</v>
+      <c r="AT18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU18" s="13">
+        <v>0</v>
       </c>
       <c r="AV18" s="13">
-        <v>0</v>
+        <v>166223</v>
       </c>
       <c r="AW18" s="13">
-        <v>166223</v>
+        <v>133940</v>
       </c>
       <c r="AX18" s="13">
-        <v>133940</v>
+        <v>132039</v>
       </c>
       <c r="AY18" s="13">
-        <v>132039</v>
+        <v>156836</v>
       </c>
       <c r="AZ18" s="13">
-        <v>156836</v>
+        <v>197046</v>
       </c>
       <c r="BA18" s="13">
-        <v>197046</v>
+        <v>186317</v>
       </c>
       <c r="BB18" s="13">
-        <v>186317</v>
+        <v>149174</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
@@ -2804,8 +2804,8 @@
       <c r="X20" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y20" s="17" t="s">
-        <v>57</v>
+      <c r="Y20" s="17">
+        <v>0</v>
       </c>
       <c r="Z20" s="17">
         <v>0</v>
@@ -2902,154 +2902,154 @@
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19">
-        <v>81511</v>
+        <v>179618</v>
       </c>
       <c r="F21" s="19">
-        <v>179618</v>
+        <v>201379</v>
       </c>
       <c r="G21" s="19">
-        <v>201379</v>
+        <v>210094</v>
       </c>
       <c r="H21" s="19">
-        <v>210094</v>
+        <v>203937</v>
       </c>
       <c r="I21" s="19">
-        <v>203937</v>
+        <v>202487</v>
       </c>
       <c r="J21" s="19">
-        <v>202487</v>
+        <v>117420</v>
       </c>
       <c r="K21" s="19">
-        <v>117420</v>
+        <v>219245</v>
       </c>
       <c r="L21" s="19">
-        <v>219245</v>
+        <v>166566</v>
       </c>
       <c r="M21" s="19">
-        <v>166566</v>
+        <v>283319</v>
       </c>
       <c r="N21" s="19">
-        <v>283319</v>
+        <v>185564</v>
       </c>
       <c r="O21" s="19">
-        <v>185564</v>
+        <v>282449</v>
       </c>
       <c r="P21" s="19">
-        <v>282449</v>
+        <v>308869</v>
       </c>
       <c r="Q21" s="19">
-        <v>308869</v>
+        <v>327642</v>
       </c>
       <c r="R21" s="19">
-        <v>327642</v>
+        <v>338739</v>
       </c>
       <c r="S21" s="19">
-        <v>338739</v>
+        <v>361428</v>
       </c>
       <c r="T21" s="19">
-        <v>361428</v>
+        <v>366574</v>
       </c>
       <c r="U21" s="19">
-        <v>366574</v>
+        <v>369017</v>
       </c>
       <c r="V21" s="19">
-        <v>369017</v>
+        <v>183896</v>
       </c>
       <c r="W21" s="19">
-        <v>183896</v>
+        <v>297220</v>
       </c>
       <c r="X21" s="19">
-        <v>297220</v>
+        <v>401733</v>
       </c>
       <c r="Y21" s="19">
-        <v>401733</v>
+        <v>438756</v>
       </c>
       <c r="Z21" s="19">
-        <v>438756</v>
+        <v>412483</v>
       </c>
       <c r="AA21" s="19">
-        <v>412483</v>
+        <v>388956</v>
       </c>
       <c r="AB21" s="19">
-        <v>388956</v>
+        <v>397496</v>
       </c>
       <c r="AC21" s="19">
-        <v>397496</v>
+        <v>389876</v>
       </c>
       <c r="AD21" s="19">
-        <v>389876</v>
+        <v>391344</v>
       </c>
       <c r="AE21" s="19">
-        <v>391344</v>
+        <v>376712</v>
       </c>
       <c r="AF21" s="19">
-        <v>376712</v>
+        <v>339399</v>
       </c>
       <c r="AG21" s="19">
-        <v>339399</v>
+        <v>332678</v>
       </c>
       <c r="AH21" s="19">
-        <v>332678</v>
+        <v>321407</v>
       </c>
       <c r="AI21" s="19">
-        <v>321407</v>
+        <v>415414</v>
       </c>
       <c r="AJ21" s="19">
-        <v>415414</v>
+        <v>372817</v>
       </c>
       <c r="AK21" s="19">
-        <v>372817</v>
+        <v>382508</v>
       </c>
       <c r="AL21" s="19">
-        <v>382508</v>
+        <v>416972</v>
       </c>
       <c r="AM21" s="19">
-        <v>416972</v>
+        <v>423324</v>
       </c>
       <c r="AN21" s="19">
-        <v>423324</v>
+        <v>357970</v>
       </c>
       <c r="AO21" s="19">
-        <v>357970</v>
+        <v>343044</v>
       </c>
       <c r="AP21" s="19">
-        <v>343044</v>
+        <v>347719</v>
       </c>
       <c r="AQ21" s="19">
-        <v>347719</v>
+        <v>475565</v>
       </c>
       <c r="AR21" s="19">
-        <v>475565</v>
+        <v>295983</v>
       </c>
       <c r="AS21" s="19">
-        <v>295983</v>
+        <v>469865</v>
       </c>
       <c r="AT21" s="19">
-        <v>469865</v>
+        <v>377980</v>
       </c>
       <c r="AU21" s="19">
-        <v>377980</v>
+        <v>282315</v>
       </c>
       <c r="AV21" s="19">
-        <v>282315</v>
+        <v>537201</v>
       </c>
       <c r="AW21" s="19">
-        <v>537201</v>
+        <v>604819</v>
       </c>
       <c r="AX21" s="19">
-        <v>604819</v>
+        <v>619205</v>
       </c>
       <c r="AY21" s="19">
-        <v>619205</v>
+        <v>685773</v>
       </c>
       <c r="AZ21" s="19">
-        <v>685773</v>
+        <v>700736</v>
       </c>
       <c r="BA21" s="19">
-        <v>700736</v>
+        <v>659944</v>
       </c>
       <c r="BB21" s="19">
-        <v>659944</v>
+        <v>727776</v>
       </c>
     </row>
     <row r="22" spans="2:54" x14ac:dyDescent="0.3">
@@ -3596,11 +3596,11 @@
       <c r="AL28" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AM28" s="11" t="s">
-        <v>57</v>
+      <c r="AM28" s="11">
+        <v>8548</v>
       </c>
       <c r="AN28" s="11">
-        <v>8548</v>
+        <v>0</v>
       </c>
       <c r="AO28" s="11">
         <v>0</v>
@@ -3611,14 +3611,14 @@
       <c r="AQ28" s="11">
         <v>0</v>
       </c>
-      <c r="AR28" s="11">
-        <v>0</v>
+      <c r="AR28" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS28" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT28" s="11" t="s">
-        <v>57</v>
+      <c r="AT28" s="11">
+        <v>0</v>
       </c>
       <c r="AU28" s="11">
         <v>0</v>
@@ -3654,133 +3654,133 @@
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13">
-        <v>774</v>
+        <v>909</v>
       </c>
       <c r="F29" s="13">
-        <v>909</v>
+        <v>8377</v>
       </c>
       <c r="G29" s="13">
-        <v>8377</v>
+        <v>14</v>
       </c>
       <c r="H29" s="13">
-        <v>14</v>
+        <v>991</v>
       </c>
       <c r="I29" s="13">
-        <v>991</v>
+        <v>1635</v>
       </c>
       <c r="J29" s="13">
-        <v>1635</v>
+        <v>39377</v>
       </c>
       <c r="K29" s="13">
-        <v>39377</v>
+        <v>86938</v>
       </c>
       <c r="L29" s="13">
-        <v>86938</v>
+        <v>68320</v>
       </c>
       <c r="M29" s="13">
-        <v>68320</v>
+        <v>106903</v>
       </c>
       <c r="N29" s="13">
-        <v>106903</v>
+        <v>96662</v>
       </c>
       <c r="O29" s="13">
-        <v>96662</v>
+        <v>95889</v>
       </c>
       <c r="P29" s="13">
-        <v>95889</v>
+        <v>106471</v>
       </c>
       <c r="Q29" s="13">
-        <v>106471</v>
+        <v>95859</v>
       </c>
       <c r="R29" s="13">
-        <v>95859</v>
+        <v>143789</v>
       </c>
       <c r="S29" s="13">
-        <v>143789</v>
+        <v>261084</v>
       </c>
       <c r="T29" s="13">
-        <v>261084</v>
+        <v>147625</v>
       </c>
       <c r="U29" s="13">
-        <v>147625</v>
+        <v>208816</v>
       </c>
       <c r="V29" s="13">
-        <v>208816</v>
+        <v>29869</v>
       </c>
       <c r="W29" s="13">
-        <v>29869</v>
+        <v>89823</v>
       </c>
       <c r="X29" s="13">
-        <v>89823</v>
+        <v>239190</v>
       </c>
       <c r="Y29" s="13">
-        <v>239190</v>
+        <v>182868</v>
       </c>
       <c r="Z29" s="13">
-        <v>182868</v>
+        <v>181382</v>
       </c>
       <c r="AA29" s="13">
-        <v>181382</v>
+        <v>192099</v>
       </c>
       <c r="AB29" s="13">
-        <v>192099</v>
+        <v>101660</v>
       </c>
       <c r="AC29" s="13">
-        <v>101660</v>
+        <v>122012</v>
       </c>
       <c r="AD29" s="13">
-        <v>122012</v>
+        <v>140670</v>
       </c>
       <c r="AE29" s="13">
-        <v>140670</v>
+        <v>111246</v>
       </c>
       <c r="AF29" s="13">
-        <v>111246</v>
+        <v>99463</v>
       </c>
       <c r="AG29" s="13">
-        <v>99463</v>
+        <v>140974</v>
       </c>
       <c r="AH29" s="13">
-        <v>140974</v>
+        <v>97643</v>
       </c>
       <c r="AI29" s="13">
-        <v>97643</v>
+        <v>174539</v>
       </c>
       <c r="AJ29" s="13">
-        <v>174539</v>
+        <v>185918</v>
       </c>
       <c r="AK29" s="13">
-        <v>185918</v>
+        <v>136784</v>
       </c>
       <c r="AL29" s="13">
-        <v>136784</v>
+        <v>150795</v>
       </c>
       <c r="AM29" s="13">
-        <v>150795</v>
+        <v>147684</v>
       </c>
       <c r="AN29" s="13">
-        <v>147684</v>
+        <v>151056</v>
       </c>
       <c r="AO29" s="13">
-        <v>151056</v>
+        <v>199358</v>
       </c>
       <c r="AP29" s="13">
-        <v>199358</v>
+        <v>153121</v>
       </c>
       <c r="AQ29" s="13">
-        <v>153121</v>
-      </c>
-      <c r="AR29" s="13">
         <v>131225</v>
       </c>
+      <c r="AR29" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AS29" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT29" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU29" s="13">
+      <c r="AT29" s="13">
         <v>132546</v>
+      </c>
+      <c r="AU29" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AV29" s="13" t="s">
         <v>57</v>
@@ -3813,154 +3813,154 @@
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
-        <v>38540</v>
+        <v>66739</v>
       </c>
       <c r="F30" s="11">
-        <v>66739</v>
+        <v>75678</v>
       </c>
       <c r="G30" s="11">
-        <v>75678</v>
+        <v>61098</v>
       </c>
       <c r="H30" s="11">
-        <v>61098</v>
+        <v>74288</v>
       </c>
       <c r="I30" s="11">
-        <v>74288</v>
+        <v>105298</v>
       </c>
       <c r="J30" s="11">
-        <v>105298</v>
+        <v>29449</v>
       </c>
       <c r="K30" s="11">
-        <v>29449</v>
+        <v>51205</v>
       </c>
       <c r="L30" s="11">
-        <v>51205</v>
+        <v>45238</v>
       </c>
       <c r="M30" s="11">
-        <v>45238</v>
+        <v>64854</v>
       </c>
       <c r="N30" s="11">
-        <v>64854</v>
+        <v>94911</v>
       </c>
       <c r="O30" s="11">
-        <v>94911</v>
+        <v>145513</v>
       </c>
       <c r="P30" s="11">
-        <v>145513</v>
+        <v>164195</v>
       </c>
       <c r="Q30" s="11">
-        <v>164195</v>
+        <v>132727</v>
       </c>
       <c r="R30" s="11">
-        <v>132727</v>
+        <v>126512</v>
       </c>
       <c r="S30" s="11">
-        <v>126512</v>
+        <v>94450</v>
       </c>
       <c r="T30" s="11">
-        <v>94450</v>
+        <v>332255</v>
       </c>
       <c r="U30" s="11">
-        <v>332255</v>
+        <v>275453</v>
       </c>
       <c r="V30" s="11">
-        <v>275453</v>
+        <v>103318</v>
       </c>
       <c r="W30" s="11">
-        <v>103318</v>
+        <v>71910</v>
       </c>
       <c r="X30" s="11">
-        <v>71910</v>
+        <v>162379</v>
       </c>
       <c r="Y30" s="11">
-        <v>162379</v>
+        <v>172663</v>
       </c>
       <c r="Z30" s="11">
-        <v>172663</v>
+        <v>157585</v>
       </c>
       <c r="AA30" s="11">
-        <v>157585</v>
+        <v>147825</v>
       </c>
       <c r="AB30" s="11">
-        <v>147825</v>
+        <v>136227</v>
       </c>
       <c r="AC30" s="11">
-        <v>136227</v>
+        <v>127364</v>
       </c>
       <c r="AD30" s="11">
-        <v>127364</v>
+        <v>164289</v>
       </c>
       <c r="AE30" s="11">
-        <v>164289</v>
+        <v>163405</v>
       </c>
       <c r="AF30" s="11">
-        <v>163405</v>
+        <v>150378</v>
       </c>
       <c r="AG30" s="11">
-        <v>150378</v>
+        <v>136665</v>
       </c>
       <c r="AH30" s="11">
-        <v>136665</v>
+        <v>70703</v>
       </c>
       <c r="AI30" s="11">
-        <v>70703</v>
+        <v>133310</v>
       </c>
       <c r="AJ30" s="11">
-        <v>133310</v>
+        <v>98551</v>
       </c>
       <c r="AK30" s="11">
-        <v>98551</v>
+        <v>89771</v>
       </c>
       <c r="AL30" s="11">
-        <v>89771</v>
+        <v>128365</v>
       </c>
       <c r="AM30" s="11">
-        <v>128365</v>
+        <v>120621</v>
       </c>
       <c r="AN30" s="11">
-        <v>120621</v>
+        <v>97517</v>
       </c>
       <c r="AO30" s="11">
-        <v>97517</v>
+        <v>90743</v>
       </c>
       <c r="AP30" s="11">
-        <v>90743</v>
+        <v>100404</v>
       </c>
       <c r="AQ30" s="11">
-        <v>100404</v>
+        <v>136733</v>
       </c>
       <c r="AR30" s="11">
-        <v>136733</v>
+        <v>87955</v>
       </c>
       <c r="AS30" s="11">
-        <v>87955</v>
+        <v>48279</v>
       </c>
       <c r="AT30" s="11">
-        <v>48279</v>
+        <v>18641</v>
       </c>
       <c r="AU30" s="11">
-        <v>18641</v>
+        <v>136043</v>
       </c>
       <c r="AV30" s="11">
-        <v>136043</v>
+        <v>145766</v>
       </c>
       <c r="AW30" s="11">
-        <v>145766</v>
+        <v>273499</v>
       </c>
       <c r="AX30" s="11">
-        <v>273499</v>
+        <v>116670</v>
       </c>
       <c r="AY30" s="11">
-        <v>116670</v>
+        <v>40170</v>
       </c>
       <c r="AZ30" s="11">
-        <v>40170</v>
+        <v>87637</v>
       </c>
       <c r="BA30" s="11">
-        <v>87637</v>
+        <v>81461</v>
       </c>
       <c r="BB30" s="11">
-        <v>81461</v>
+        <v>53080</v>
       </c>
     </row>
     <row r="31" spans="2:54" x14ac:dyDescent="0.3">
@@ -3972,154 +3972,154 @@
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="13">
-        <v>12965</v>
+        <v>10660</v>
       </c>
       <c r="F31" s="13">
-        <v>10660</v>
+        <v>11242</v>
       </c>
       <c r="G31" s="13">
-        <v>11242</v>
+        <v>6306</v>
       </c>
       <c r="H31" s="13">
-        <v>6306</v>
+        <v>35067</v>
       </c>
       <c r="I31" s="13">
-        <v>35067</v>
+        <v>23834</v>
       </c>
       <c r="J31" s="13">
-        <v>23834</v>
+        <v>9563</v>
       </c>
       <c r="K31" s="13">
-        <v>9563</v>
+        <v>20638</v>
       </c>
       <c r="L31" s="13">
-        <v>20638</v>
+        <v>41263</v>
       </c>
       <c r="M31" s="13">
-        <v>41263</v>
+        <v>15938</v>
       </c>
       <c r="N31" s="13">
-        <v>15938</v>
+        <v>47119</v>
       </c>
       <c r="O31" s="13">
-        <v>47119</v>
+        <v>72845</v>
       </c>
       <c r="P31" s="13">
-        <v>72845</v>
+        <v>49130</v>
       </c>
       <c r="Q31" s="13">
-        <v>49130</v>
+        <v>76327</v>
       </c>
       <c r="R31" s="13">
-        <v>76327</v>
+        <v>75310</v>
       </c>
       <c r="S31" s="13">
-        <v>75310</v>
+        <v>51795</v>
       </c>
       <c r="T31" s="13">
-        <v>51795</v>
+        <v>111578</v>
       </c>
       <c r="U31" s="13">
-        <v>111578</v>
+        <v>97984</v>
       </c>
       <c r="V31" s="13">
-        <v>97984</v>
+        <v>91824</v>
       </c>
       <c r="W31" s="13">
-        <v>91824</v>
+        <v>109364</v>
       </c>
       <c r="X31" s="13">
-        <v>109364</v>
+        <v>64320</v>
       </c>
       <c r="Y31" s="13">
-        <v>64320</v>
+        <v>109216</v>
       </c>
       <c r="Z31" s="13">
-        <v>109216</v>
+        <v>107249</v>
       </c>
       <c r="AA31" s="13">
-        <v>107249</v>
+        <v>113522</v>
       </c>
       <c r="AB31" s="13">
-        <v>113522</v>
+        <v>123238</v>
       </c>
       <c r="AC31" s="13">
-        <v>123238</v>
+        <v>127014</v>
       </c>
       <c r="AD31" s="13">
-        <v>127014</v>
+        <v>166197</v>
       </c>
       <c r="AE31" s="13">
-        <v>166197</v>
+        <v>125560</v>
       </c>
       <c r="AF31" s="13">
-        <v>125560</v>
+        <v>105581</v>
       </c>
       <c r="AG31" s="13">
-        <v>105581</v>
+        <v>160713</v>
       </c>
       <c r="AH31" s="13">
-        <v>160713</v>
+        <v>104813</v>
       </c>
       <c r="AI31" s="13">
-        <v>104813</v>
+        <v>99895</v>
       </c>
       <c r="AJ31" s="13">
-        <v>99895</v>
+        <v>125781</v>
       </c>
       <c r="AK31" s="13">
-        <v>125781</v>
+        <v>131843</v>
       </c>
       <c r="AL31" s="13">
-        <v>131843</v>
+        <v>137472</v>
       </c>
       <c r="AM31" s="13">
-        <v>137472</v>
+        <v>143509</v>
       </c>
       <c r="AN31" s="13">
-        <v>143509</v>
+        <v>134946</v>
       </c>
       <c r="AO31" s="13">
-        <v>134946</v>
+        <v>108123</v>
       </c>
       <c r="AP31" s="13">
-        <v>108123</v>
+        <v>114338</v>
       </c>
       <c r="AQ31" s="13">
-        <v>114338</v>
+        <v>146556</v>
       </c>
       <c r="AR31" s="13">
-        <v>146556</v>
+        <v>207580</v>
       </c>
       <c r="AS31" s="13">
-        <v>207580</v>
+        <v>249378</v>
       </c>
       <c r="AT31" s="13">
-        <v>249378</v>
+        <v>127998</v>
       </c>
       <c r="AU31" s="13">
-        <v>127998</v>
+        <v>218992</v>
       </c>
       <c r="AV31" s="13">
-        <v>218992</v>
+        <v>347453</v>
       </c>
       <c r="AW31" s="13">
-        <v>347453</v>
+        <v>338573</v>
       </c>
       <c r="AX31" s="13">
-        <v>338573</v>
+        <v>394828</v>
       </c>
       <c r="AY31" s="13">
-        <v>394828</v>
+        <v>375083</v>
       </c>
       <c r="AZ31" s="13">
-        <v>375083</v>
+        <v>346884</v>
       </c>
       <c r="BA31" s="13">
-        <v>346884</v>
+        <v>364096</v>
       </c>
       <c r="BB31" s="13">
-        <v>364096</v>
+        <v>437068</v>
       </c>
     </row>
     <row r="32" spans="2:54" x14ac:dyDescent="0.3">
@@ -4199,17 +4199,17 @@
       <c r="AA32" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AB32" s="11" t="s">
-        <v>57</v>
+      <c r="AB32" s="11">
+        <v>38913</v>
       </c>
       <c r="AC32" s="11">
-        <v>38913</v>
+        <v>21560</v>
       </c>
       <c r="AD32" s="11">
-        <v>21560</v>
+        <v>755</v>
       </c>
       <c r="AE32" s="11">
-        <v>755</v>
+        <v>0</v>
       </c>
       <c r="AF32" s="11">
         <v>0</v>
@@ -4217,8 +4217,8 @@
       <c r="AG32" s="11">
         <v>0</v>
       </c>
-      <c r="AH32" s="11">
-        <v>0</v>
+      <c r="AH32" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI32" s="11" t="s">
         <v>57</v>
@@ -4232,8 +4232,8 @@
       <c r="AL32" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AM32" s="11" t="s">
-        <v>57</v>
+      <c r="AM32" s="11">
+        <v>0</v>
       </c>
       <c r="AN32" s="11">
         <v>0</v>
@@ -4247,14 +4247,14 @@
       <c r="AQ32" s="11">
         <v>0</v>
       </c>
-      <c r="AR32" s="11">
-        <v>0</v>
+      <c r="AR32" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS32" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT32" s="11" t="s">
-        <v>57</v>
+      <c r="AT32" s="11">
+        <v>0</v>
       </c>
       <c r="AU32" s="11">
         <v>0</v>
@@ -4290,22 +4290,22 @@
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="13">
-        <v>47405</v>
+        <v>81726</v>
       </c>
       <c r="F33" s="13">
-        <v>81726</v>
+        <v>56776</v>
       </c>
       <c r="G33" s="13">
-        <v>56776</v>
+        <v>47401</v>
       </c>
       <c r="H33" s="13">
-        <v>47401</v>
+        <v>28420</v>
       </c>
       <c r="I33" s="13">
-        <v>28420</v>
-      </c>
-      <c r="J33" s="13">
         <v>114775</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="K33" s="13" t="s">
         <v>57</v>
@@ -4463,47 +4463,47 @@
       <c r="I34" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J34" s="11" t="s">
-        <v>57</v>
+      <c r="J34" s="11">
+        <v>15255</v>
       </c>
       <c r="K34" s="11">
-        <v>15255</v>
+        <v>18887</v>
       </c>
       <c r="L34" s="11">
-        <v>18887</v>
+        <v>20359</v>
       </c>
       <c r="M34" s="11">
-        <v>20359</v>
+        <v>86187</v>
       </c>
       <c r="N34" s="11">
-        <v>86187</v>
+        <v>27014</v>
       </c>
       <c r="O34" s="11">
-        <v>27014</v>
+        <v>33038</v>
       </c>
       <c r="P34" s="11">
-        <v>33038</v>
+        <v>152</v>
       </c>
       <c r="Q34" s="11">
-        <v>152</v>
+        <v>1322</v>
       </c>
       <c r="R34" s="11">
-        <v>1322</v>
+        <v>472</v>
       </c>
       <c r="S34" s="11">
-        <v>472</v>
+        <v>9</v>
       </c>
       <c r="T34" s="11">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="U34" s="11">
         <v>0</v>
       </c>
-      <c r="V34" s="11">
-        <v>0</v>
-      </c>
-      <c r="W34" s="11" t="s">
-        <v>57</v>
+      <c r="V34" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W34" s="11">
+        <v>0</v>
       </c>
       <c r="X34" s="11">
         <v>0</v>
@@ -4535,8 +4535,8 @@
       <c r="AG34" s="11">
         <v>0</v>
       </c>
-      <c r="AH34" s="11">
-        <v>0</v>
+      <c r="AH34" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI34" s="11" t="s">
         <v>57</v>
@@ -4724,38 +4724,38 @@
       <c r="AQ35" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR35" s="13" t="s">
-        <v>57</v>
+      <c r="AR35" s="13">
+        <v>0</v>
       </c>
       <c r="AS35" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT35" s="13">
         <v>171486</v>
       </c>
-      <c r="AU35" s="13" t="s">
-        <v>57</v>
+      <c r="AT35" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU35" s="13">
+        <v>0</v>
       </c>
       <c r="AV35" s="13">
-        <v>0</v>
+        <v>199379</v>
       </c>
       <c r="AW35" s="13">
-        <v>199379</v>
+        <v>133583</v>
       </c>
       <c r="AX35" s="13">
-        <v>133583</v>
+        <v>127981</v>
       </c>
       <c r="AY35" s="13">
-        <v>127981</v>
+        <v>73833</v>
       </c>
       <c r="AZ35" s="13">
-        <v>73833</v>
+        <v>186423</v>
       </c>
       <c r="BA35" s="13">
-        <v>186423</v>
+        <v>242937</v>
       </c>
       <c r="BB35" s="13">
-        <v>242937</v>
+        <v>169409</v>
       </c>
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.3">
@@ -4881,8 +4881,8 @@
       <c r="X37" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y37" s="17" t="s">
-        <v>57</v>
+      <c r="Y37" s="17">
+        <v>0</v>
       </c>
       <c r="Z37" s="17">
         <v>0</v>
@@ -5097,74 +5097,74 @@
       <c r="X39" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y39" s="11" t="s">
-        <v>57</v>
+      <c r="Y39" s="11">
+        <v>-464</v>
       </c>
       <c r="Z39" s="11">
-        <v>-464</v>
+        <v>-7607</v>
       </c>
       <c r="AA39" s="11">
-        <v>-7607</v>
+        <v>-176</v>
       </c>
       <c r="AB39" s="11">
-        <v>-176</v>
+        <v>-431</v>
       </c>
       <c r="AC39" s="11">
-        <v>-431</v>
+        <v>-10776</v>
       </c>
       <c r="AD39" s="11">
-        <v>-10776</v>
+        <v>-2346</v>
       </c>
       <c r="AE39" s="11">
-        <v>-2346</v>
+        <v>-123</v>
       </c>
       <c r="AF39" s="11">
-        <v>-123</v>
+        <v>-290</v>
       </c>
       <c r="AG39" s="11">
-        <v>-290</v>
+        <v>-4843</v>
       </c>
       <c r="AH39" s="11">
-        <v>-4843</v>
+        <v>-2116</v>
       </c>
       <c r="AI39" s="11">
-        <v>-2116</v>
+        <v>-1102</v>
       </c>
       <c r="AJ39" s="11">
-        <v>-1102</v>
+        <v>-11641</v>
       </c>
       <c r="AK39" s="11">
-        <v>-11641</v>
+        <v>-429</v>
       </c>
       <c r="AL39" s="11">
-        <v>-429</v>
+        <v>-2438</v>
       </c>
       <c r="AM39" s="11">
-        <v>-2438</v>
+        <v>-651</v>
       </c>
       <c r="AN39" s="11">
-        <v>-651</v>
+        <v>-5960</v>
       </c>
       <c r="AO39" s="11">
-        <v>-5960</v>
+        <v>-11146</v>
       </c>
       <c r="AP39" s="11">
-        <v>-11146</v>
+        <v>-4086</v>
       </c>
       <c r="AQ39" s="11">
-        <v>-4086</v>
-      </c>
-      <c r="AR39" s="11">
         <v>-4663</v>
       </c>
+      <c r="AR39" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AS39" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT39" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU39" s="11">
+      <c r="AT39" s="11">
         <v>-12014</v>
+      </c>
+      <c r="AU39" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AV39" s="11" t="s">
         <v>57</v>
@@ -5256,95 +5256,95 @@
       <c r="X40" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Y40" s="13" t="s">
-        <v>57</v>
+      <c r="Y40" s="13">
+        <v>-421</v>
       </c>
       <c r="Z40" s="13">
-        <v>-421</v>
+        <v>-24337</v>
       </c>
       <c r="AA40" s="13">
-        <v>-24337</v>
+        <v>-21841</v>
       </c>
       <c r="AB40" s="13">
-        <v>-21841</v>
+        <v>-14762</v>
       </c>
       <c r="AC40" s="13">
-        <v>-14762</v>
+        <v>-19973</v>
       </c>
       <c r="AD40" s="13">
-        <v>-19973</v>
+        <v>-9722</v>
       </c>
       <c r="AE40" s="13">
-        <v>-9722</v>
+        <v>-6098</v>
       </c>
       <c r="AF40" s="13">
-        <v>-6098</v>
+        <v>-3575</v>
       </c>
       <c r="AG40" s="13">
-        <v>-3575</v>
+        <v>-13970</v>
       </c>
       <c r="AH40" s="13">
-        <v>-13970</v>
+        <v>-1251</v>
       </c>
       <c r="AI40" s="13">
-        <v>-1251</v>
+        <v>-1953</v>
       </c>
       <c r="AJ40" s="13">
-        <v>-1953</v>
+        <v>-5202</v>
       </c>
       <c r="AK40" s="13">
-        <v>-5202</v>
+        <v>-5333</v>
       </c>
       <c r="AL40" s="13">
-        <v>-5333</v>
+        <v>-385</v>
       </c>
       <c r="AM40" s="13">
-        <v>-385</v>
-      </c>
-      <c r="AN40" s="13">
         <v>-2869</v>
       </c>
-      <c r="AO40" s="13" t="s">
-        <v>57</v>
+      <c r="AN40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO40" s="13">
+        <v>-3265</v>
       </c>
       <c r="AP40" s="13">
-        <v>-3265</v>
+        <v>-12598</v>
       </c>
       <c r="AQ40" s="13">
-        <v>-12598</v>
+        <v>-11154</v>
       </c>
       <c r="AR40" s="13">
-        <v>-11154</v>
+        <v>-19180</v>
       </c>
       <c r="AS40" s="13">
-        <v>-19180</v>
+        <v>-7045</v>
       </c>
       <c r="AT40" s="13">
-        <v>-7045</v>
+        <v>-4917</v>
       </c>
       <c r="AU40" s="13">
-        <v>-4917</v>
+        <v>-2847</v>
       </c>
       <c r="AV40" s="13">
-        <v>-2847</v>
+        <v>-7140</v>
       </c>
       <c r="AW40" s="13">
-        <v>-7140</v>
+        <v>-9978</v>
       </c>
       <c r="AX40" s="13">
-        <v>-9978</v>
+        <v>-12150</v>
       </c>
       <c r="AY40" s="13">
-        <v>-12150</v>
+        <v>-13879</v>
       </c>
       <c r="AZ40" s="13">
-        <v>-13879</v>
+        <v>-5581</v>
       </c>
       <c r="BA40" s="13">
-        <v>-5581</v>
+        <v>-11947</v>
       </c>
       <c r="BB40" s="13">
-        <v>-11947</v>
+        <v>-10506</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.3">
@@ -5415,95 +5415,95 @@
       <c r="X41" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y41" s="11" t="s">
-        <v>57</v>
+      <c r="Y41" s="11">
+        <v>0</v>
       </c>
       <c r="Z41" s="11">
         <v>0</v>
       </c>
       <c r="AA41" s="11">
-        <v>0</v>
+        <v>-376</v>
       </c>
       <c r="AB41" s="11">
-        <v>-376</v>
+        <v>-5034</v>
       </c>
       <c r="AC41" s="11">
-        <v>-5034</v>
+        <v>-356</v>
       </c>
       <c r="AD41" s="11">
-        <v>-356</v>
+        <v>-5137</v>
       </c>
       <c r="AE41" s="11">
-        <v>-5137</v>
+        <v>-4</v>
       </c>
       <c r="AF41" s="11">
-        <v>-4</v>
+        <v>-18858</v>
       </c>
       <c r="AG41" s="11">
-        <v>-18858</v>
+        <v>-679</v>
       </c>
       <c r="AH41" s="11">
-        <v>-679</v>
+        <v>-980</v>
       </c>
       <c r="AI41" s="11">
-        <v>-980</v>
+        <v>-1472</v>
       </c>
       <c r="AJ41" s="11">
-        <v>-1472</v>
+        <v>-1570</v>
       </c>
       <c r="AK41" s="11">
-        <v>-1570</v>
+        <v>-2199</v>
       </c>
       <c r="AL41" s="11">
-        <v>-2199</v>
+        <v>-5918</v>
       </c>
       <c r="AM41" s="11">
-        <v>-5918</v>
+        <v>-5967</v>
       </c>
       <c r="AN41" s="11">
-        <v>-5967</v>
+        <v>-2748</v>
       </c>
       <c r="AO41" s="11">
-        <v>-2748</v>
+        <v>-11144</v>
       </c>
       <c r="AP41" s="11">
-        <v>-11144</v>
+        <v>-506</v>
       </c>
       <c r="AQ41" s="11">
-        <v>-506</v>
+        <v>-453</v>
       </c>
       <c r="AR41" s="11">
-        <v>-453</v>
+        <v>-7790</v>
       </c>
       <c r="AS41" s="11">
-        <v>-7790</v>
+        <v>-17454</v>
       </c>
       <c r="AT41" s="11">
-        <v>-17454</v>
+        <v>-370</v>
       </c>
       <c r="AU41" s="11">
-        <v>-370</v>
+        <v>-7802</v>
       </c>
       <c r="AV41" s="11">
-        <v>-7802</v>
+        <v>-18371</v>
       </c>
       <c r="AW41" s="11">
-        <v>-18371</v>
+        <v>-9789</v>
       </c>
       <c r="AX41" s="11">
-        <v>-9789</v>
+        <v>-33858</v>
       </c>
       <c r="AY41" s="11">
-        <v>-33858</v>
+        <v>-13076</v>
       </c>
       <c r="AZ41" s="11">
-        <v>-13076</v>
+        <v>-28613</v>
       </c>
       <c r="BA41" s="11">
-        <v>-28613</v>
+        <v>-19851</v>
       </c>
       <c r="BB41" s="11">
-        <v>-19851</v>
+        <v>-13109</v>
       </c>
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.3">
@@ -5589,11 +5589,11 @@
       <c r="AC42" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD42" s="13" t="s">
-        <v>57</v>
+      <c r="AD42" s="13">
+        <v>-40000</v>
       </c>
       <c r="AE42" s="13">
-        <v>-40000</v>
+        <v>0</v>
       </c>
       <c r="AF42" s="13">
         <v>0</v>
@@ -5601,8 +5601,8 @@
       <c r="AG42" s="13">
         <v>0</v>
       </c>
-      <c r="AH42" s="13">
-        <v>0</v>
+      <c r="AH42" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AI42" s="13" t="s">
         <v>57</v>
@@ -5628,14 +5628,14 @@
       <c r="AP42" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ42" s="13" t="s">
-        <v>57</v>
+      <c r="AQ42" s="13">
+        <v>0</v>
       </c>
       <c r="AR42" s="13">
         <v>0</v>
       </c>
-      <c r="AS42" s="13">
-        <v>0</v>
+      <c r="AS42" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT42" s="13" t="s">
         <v>57</v>
@@ -5790,38 +5790,38 @@
       <c r="AQ43" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR43" s="11" t="s">
-        <v>57</v>
+      <c r="AR43" s="11">
+        <v>0</v>
       </c>
       <c r="AS43" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT43" s="11">
         <v>-17028</v>
       </c>
-      <c r="AU43" s="11" t="s">
-        <v>57</v>
+      <c r="AT43" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU43" s="11">
+        <v>0</v>
       </c>
       <c r="AV43" s="11">
-        <v>0</v>
+        <v>-11594</v>
       </c>
       <c r="AW43" s="11">
-        <v>-11594</v>
+        <v>-19520</v>
       </c>
       <c r="AX43" s="11">
-        <v>-19520</v>
+        <v>-14299</v>
       </c>
       <c r="AY43" s="11">
-        <v>-14299</v>
+        <v>-352</v>
       </c>
       <c r="AZ43" s="11">
-        <v>-352</v>
+        <v>-4591</v>
       </c>
       <c r="BA43" s="11">
-        <v>-4591</v>
+        <v>-11989</v>
       </c>
       <c r="BB43" s="11">
-        <v>-11989</v>
+        <v>-34019</v>
       </c>
     </row>
     <row r="44" spans="2:54" x14ac:dyDescent="0.3">
@@ -5890,95 +5890,95 @@
       <c r="X44" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="Y44" s="19" t="s">
-        <v>57</v>
+      <c r="Y44" s="19">
+        <v>-885</v>
       </c>
       <c r="Z44" s="19">
-        <v>-885</v>
+        <v>-31944</v>
       </c>
       <c r="AA44" s="19">
-        <v>-31944</v>
+        <v>-22393</v>
       </c>
       <c r="AB44" s="19">
-        <v>-22393</v>
+        <v>-20227</v>
       </c>
       <c r="AC44" s="19">
-        <v>-20227</v>
+        <v>-31105</v>
       </c>
       <c r="AD44" s="19">
-        <v>-31105</v>
+        <v>-57205</v>
       </c>
       <c r="AE44" s="19">
-        <v>-57205</v>
+        <v>-6225</v>
       </c>
       <c r="AF44" s="19">
-        <v>-6225</v>
+        <v>-22723</v>
       </c>
       <c r="AG44" s="19">
-        <v>-22723</v>
+        <v>-19492</v>
       </c>
       <c r="AH44" s="19">
-        <v>-19492</v>
+        <v>-4347</v>
       </c>
       <c r="AI44" s="19">
-        <v>-4347</v>
+        <v>-4527</v>
       </c>
       <c r="AJ44" s="19">
-        <v>-4527</v>
+        <v>-18413</v>
       </c>
       <c r="AK44" s="19">
-        <v>-18413</v>
+        <v>-7961</v>
       </c>
       <c r="AL44" s="19">
-        <v>-7961</v>
+        <v>-8741</v>
       </c>
       <c r="AM44" s="19">
-        <v>-8741</v>
+        <v>-9487</v>
       </c>
       <c r="AN44" s="19">
-        <v>-9487</v>
+        <v>-8708</v>
       </c>
       <c r="AO44" s="19">
-        <v>-8708</v>
+        <v>-25555</v>
       </c>
       <c r="AP44" s="19">
-        <v>-25555</v>
+        <v>-17190</v>
       </c>
       <c r="AQ44" s="19">
-        <v>-17190</v>
+        <v>-16270</v>
       </c>
       <c r="AR44" s="19">
-        <v>-16270</v>
+        <v>-39623</v>
       </c>
       <c r="AS44" s="19">
-        <v>-39623</v>
+        <v>-41527</v>
       </c>
       <c r="AT44" s="19">
-        <v>-41527</v>
+        <v>-17301</v>
       </c>
       <c r="AU44" s="19">
-        <v>-17301</v>
+        <v>-25744</v>
       </c>
       <c r="AV44" s="19">
-        <v>-25744</v>
+        <v>-37105</v>
       </c>
       <c r="AW44" s="19">
-        <v>-37105</v>
+        <v>-39287</v>
       </c>
       <c r="AX44" s="19">
-        <v>-39287</v>
+        <v>-60307</v>
       </c>
       <c r="AY44" s="19">
-        <v>-60307</v>
+        <v>-27307</v>
       </c>
       <c r="AZ44" s="19">
-        <v>-27307</v>
+        <v>-38785</v>
       </c>
       <c r="BA44" s="19">
-        <v>-38785</v>
+        <v>-43787</v>
       </c>
       <c r="BB44" s="19">
-        <v>-43787</v>
+        <v>-57634</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.3">
@@ -5988,154 +5988,154 @@
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
       <c r="E45" s="17">
-        <v>99684</v>
+        <v>160034</v>
       </c>
       <c r="F45" s="17">
-        <v>160034</v>
+        <v>152073</v>
       </c>
       <c r="G45" s="17">
-        <v>152073</v>
+        <v>114819</v>
       </c>
       <c r="H45" s="17">
-        <v>114819</v>
+        <v>138766</v>
       </c>
       <c r="I45" s="17">
-        <v>138766</v>
+        <v>245542</v>
       </c>
       <c r="J45" s="17">
-        <v>245542</v>
+        <v>93644</v>
       </c>
       <c r="K45" s="17">
-        <v>93644</v>
+        <v>177668</v>
       </c>
       <c r="L45" s="17">
-        <v>177668</v>
+        <v>175180</v>
       </c>
       <c r="M45" s="17">
-        <v>175180</v>
+        <v>273882</v>
       </c>
       <c r="N45" s="17">
-        <v>273882</v>
+        <v>265706</v>
       </c>
       <c r="O45" s="17">
-        <v>265706</v>
+        <v>347285</v>
       </c>
       <c r="P45" s="17">
-        <v>347285</v>
+        <v>319948</v>
       </c>
       <c r="Q45" s="17">
-        <v>319948</v>
+        <v>306235</v>
       </c>
       <c r="R45" s="17">
-        <v>306235</v>
+        <v>346083</v>
       </c>
       <c r="S45" s="17">
-        <v>346083</v>
+        <v>407338</v>
       </c>
       <c r="T45" s="17">
-        <v>407338</v>
+        <v>591458</v>
       </c>
       <c r="U45" s="17">
-        <v>591458</v>
+        <v>582253</v>
       </c>
       <c r="V45" s="17">
-        <v>582253</v>
+        <v>225011</v>
       </c>
       <c r="W45" s="17">
-        <v>225011</v>
+        <v>271097</v>
       </c>
       <c r="X45" s="17">
-        <v>271097</v>
+        <v>465889</v>
       </c>
       <c r="Y45" s="17">
-        <v>465889</v>
+        <v>463862</v>
       </c>
       <c r="Z45" s="17">
-        <v>463862</v>
+        <v>414272</v>
       </c>
       <c r="AA45" s="17">
-        <v>414272</v>
+        <v>431053</v>
       </c>
       <c r="AB45" s="17">
-        <v>431053</v>
+        <v>379811</v>
       </c>
       <c r="AC45" s="17">
-        <v>379811</v>
+        <v>366845</v>
       </c>
       <c r="AD45" s="17">
-        <v>366845</v>
+        <v>414706</v>
       </c>
       <c r="AE45" s="17">
-        <v>414706</v>
+        <v>393986</v>
       </c>
       <c r="AF45" s="17">
-        <v>393986</v>
+        <v>332699</v>
       </c>
       <c r="AG45" s="17">
-        <v>332699</v>
+        <v>418860</v>
       </c>
       <c r="AH45" s="17">
-        <v>418860</v>
+        <v>268812</v>
       </c>
       <c r="AI45" s="17">
-        <v>268812</v>
+        <v>403217</v>
       </c>
       <c r="AJ45" s="17">
-        <v>403217</v>
+        <v>391837</v>
       </c>
       <c r="AK45" s="17">
-        <v>391837</v>
+        <v>350437</v>
       </c>
       <c r="AL45" s="17">
-        <v>350437</v>
+        <v>407891</v>
       </c>
       <c r="AM45" s="17">
-        <v>407891</v>
+        <v>410875</v>
       </c>
       <c r="AN45" s="17">
-        <v>410875</v>
+        <v>374811</v>
       </c>
       <c r="AO45" s="17">
-        <v>374811</v>
+        <v>372669</v>
       </c>
       <c r="AP45" s="17">
-        <v>372669</v>
+        <v>350673</v>
       </c>
       <c r="AQ45" s="17">
-        <v>350673</v>
+        <v>398244</v>
       </c>
       <c r="AR45" s="17">
-        <v>398244</v>
+        <v>268565</v>
       </c>
       <c r="AS45" s="17">
-        <v>268565</v>
+        <v>427616</v>
       </c>
       <c r="AT45" s="17">
-        <v>427616</v>
+        <v>261884</v>
       </c>
       <c r="AU45" s="17">
-        <v>261884</v>
+        <v>344386</v>
       </c>
       <c r="AV45" s="17">
-        <v>344386</v>
+        <v>655493</v>
       </c>
       <c r="AW45" s="17">
-        <v>655493</v>
+        <v>706368</v>
       </c>
       <c r="AX45" s="17">
-        <v>706368</v>
+        <v>579172</v>
       </c>
       <c r="AY45" s="17">
-        <v>579172</v>
+        <v>461779</v>
       </c>
       <c r="AZ45" s="17">
-        <v>461779</v>
+        <v>582159</v>
       </c>
       <c r="BA45" s="17">
-        <v>582159</v>
+        <v>644707</v>
       </c>
       <c r="BB45" s="17">
-        <v>644707</v>
+        <v>601923</v>
       </c>
     </row>
     <row r="46" spans="2:54" x14ac:dyDescent="0.3">
@@ -6682,11 +6682,11 @@
       <c r="AL52" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AM52" s="11" t="s">
-        <v>57</v>
+      <c r="AM52" s="11">
+        <v>1563</v>
       </c>
       <c r="AN52" s="11">
-        <v>1563</v>
+        <v>0</v>
       </c>
       <c r="AO52" s="11">
         <v>0</v>
@@ -6697,14 +6697,14 @@
       <c r="AQ52" s="11">
         <v>0</v>
       </c>
-      <c r="AR52" s="11">
-        <v>0</v>
+      <c r="AR52" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS52" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT52" s="11" t="s">
-        <v>57</v>
+      <c r="AT52" s="11">
+        <v>0</v>
       </c>
       <c r="AU52" s="11">
         <v>0</v>
@@ -6740,133 +6740,133 @@
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="13">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="F53" s="13">
-        <v>70</v>
+        <v>596</v>
       </c>
       <c r="G53" s="13">
-        <v>596</v>
+        <v>1</v>
       </c>
       <c r="H53" s="13">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="I53" s="13">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="J53" s="13">
-        <v>67</v>
+        <v>7750</v>
       </c>
       <c r="K53" s="13">
-        <v>7750</v>
+        <v>16408</v>
       </c>
       <c r="L53" s="13">
-        <v>16408</v>
+        <v>12670</v>
       </c>
       <c r="M53" s="13">
-        <v>12670</v>
+        <v>20306</v>
       </c>
       <c r="N53" s="13">
-        <v>20306</v>
+        <v>19799</v>
       </c>
       <c r="O53" s="13">
-        <v>19799</v>
+        <v>18407</v>
       </c>
       <c r="P53" s="13">
-        <v>18407</v>
+        <v>22046</v>
       </c>
       <c r="Q53" s="13">
-        <v>22046</v>
+        <v>21757</v>
       </c>
       <c r="R53" s="13">
-        <v>21757</v>
+        <v>30279</v>
       </c>
       <c r="S53" s="13">
-        <v>30279</v>
+        <v>59574</v>
       </c>
       <c r="T53" s="13">
-        <v>59574</v>
+        <v>34749</v>
       </c>
       <c r="U53" s="13">
-        <v>34749</v>
+        <v>46683</v>
       </c>
       <c r="V53" s="13">
-        <v>46683</v>
+        <v>6487</v>
       </c>
       <c r="W53" s="13">
-        <v>6487</v>
+        <v>21073</v>
       </c>
       <c r="X53" s="13">
-        <v>21073</v>
+        <v>57342</v>
       </c>
       <c r="Y53" s="13">
-        <v>57342</v>
+        <v>60885</v>
       </c>
       <c r="Z53" s="13">
-        <v>60885</v>
+        <v>64277</v>
       </c>
       <c r="AA53" s="13">
-        <v>64277</v>
+        <v>81944</v>
       </c>
       <c r="AB53" s="13">
-        <v>81944</v>
+        <v>43532</v>
       </c>
       <c r="AC53" s="13">
-        <v>43532</v>
+        <v>64192</v>
       </c>
       <c r="AD53" s="13">
-        <v>64192</v>
+        <v>83733</v>
       </c>
       <c r="AE53" s="13">
-        <v>83733</v>
+        <v>58123</v>
       </c>
       <c r="AF53" s="13">
-        <v>58123</v>
+        <v>76689</v>
       </c>
       <c r="AG53" s="13">
-        <v>76689</v>
+        <v>80315</v>
       </c>
       <c r="AH53" s="13">
-        <v>80315</v>
+        <v>52524</v>
       </c>
       <c r="AI53" s="13">
-        <v>52524</v>
+        <v>119689</v>
       </c>
       <c r="AJ53" s="13">
-        <v>119689</v>
+        <v>139802</v>
       </c>
       <c r="AK53" s="13">
-        <v>139802</v>
+        <v>98445</v>
       </c>
       <c r="AL53" s="13">
-        <v>98445</v>
+        <v>113808</v>
       </c>
       <c r="AM53" s="13">
-        <v>113808</v>
+        <v>116739</v>
       </c>
       <c r="AN53" s="13">
-        <v>116739</v>
+        <v>131973</v>
       </c>
       <c r="AO53" s="13">
-        <v>131973</v>
+        <v>157383</v>
       </c>
       <c r="AP53" s="13">
-        <v>157383</v>
+        <v>121859</v>
       </c>
       <c r="AQ53" s="13">
-        <v>121859</v>
-      </c>
-      <c r="AR53" s="13">
         <v>107824</v>
       </c>
+      <c r="AR53" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AS53" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT53" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU53" s="13">
+      <c r="AT53" s="13">
         <v>96046</v>
+      </c>
+      <c r="AU53" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AV53" s="13" t="s">
         <v>57</v>
@@ -6899,154 +6899,154 @@
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11">
-        <v>3802</v>
+        <v>8906</v>
       </c>
       <c r="F54" s="11">
-        <v>8906</v>
+        <v>7662</v>
       </c>
       <c r="G54" s="11">
-        <v>7662</v>
+        <v>8682</v>
       </c>
       <c r="H54" s="11">
-        <v>8682</v>
+        <v>7854</v>
       </c>
       <c r="I54" s="11">
-        <v>7854</v>
+        <v>16396</v>
       </c>
       <c r="J54" s="11">
-        <v>16396</v>
+        <v>5360</v>
       </c>
       <c r="K54" s="11">
-        <v>5360</v>
+        <v>8916</v>
       </c>
       <c r="L54" s="11">
-        <v>8916</v>
+        <v>8559</v>
       </c>
       <c r="M54" s="11">
-        <v>8559</v>
+        <v>11574</v>
       </c>
       <c r="N54" s="11">
-        <v>11574</v>
+        <v>19203</v>
       </c>
       <c r="O54" s="11">
-        <v>19203</v>
+        <v>28049</v>
       </c>
       <c r="P54" s="11">
-        <v>28049</v>
+        <v>29900</v>
       </c>
       <c r="Q54" s="11">
-        <v>29900</v>
+        <v>28500</v>
       </c>
       <c r="R54" s="11">
-        <v>28500</v>
+        <v>25527</v>
       </c>
       <c r="S54" s="11">
-        <v>25527</v>
+        <v>18873</v>
       </c>
       <c r="T54" s="11">
-        <v>18873</v>
+        <v>61142</v>
       </c>
       <c r="U54" s="11">
-        <v>61142</v>
+        <v>52957</v>
       </c>
       <c r="V54" s="11">
-        <v>52957</v>
+        <v>20539</v>
       </c>
       <c r="W54" s="11">
-        <v>20539</v>
+        <v>23097</v>
       </c>
       <c r="X54" s="11">
-        <v>23097</v>
+        <v>36231</v>
       </c>
       <c r="Y54" s="11">
-        <v>36231</v>
+        <v>46197</v>
       </c>
       <c r="Z54" s="11">
-        <v>46197</v>
+        <v>45820</v>
       </c>
       <c r="AA54" s="11">
-        <v>45820</v>
+        <v>47797</v>
       </c>
       <c r="AB54" s="11">
-        <v>47797</v>
+        <v>44440</v>
       </c>
       <c r="AC54" s="11">
-        <v>44440</v>
+        <v>54849</v>
       </c>
       <c r="AD54" s="11">
-        <v>54849</v>
+        <v>62347</v>
       </c>
       <c r="AE54" s="11">
-        <v>62347</v>
+        <v>73256</v>
       </c>
       <c r="AF54" s="11">
-        <v>73256</v>
+        <v>66174</v>
       </c>
       <c r="AG54" s="11">
-        <v>66174</v>
+        <v>58493</v>
       </c>
       <c r="AH54" s="11">
-        <v>58493</v>
+        <v>36099</v>
       </c>
       <c r="AI54" s="11">
-        <v>36099</v>
+        <v>67701</v>
       </c>
       <c r="AJ54" s="11">
-        <v>67701</v>
+        <v>79681</v>
       </c>
       <c r="AK54" s="11">
-        <v>79681</v>
+        <v>80104</v>
       </c>
       <c r="AL54" s="11">
-        <v>80104</v>
+        <v>67462</v>
       </c>
       <c r="AM54" s="11">
-        <v>67462</v>
+        <v>64859</v>
       </c>
       <c r="AN54" s="11">
-        <v>64859</v>
+        <v>67222</v>
       </c>
       <c r="AO54" s="11">
-        <v>67222</v>
+        <v>66837</v>
       </c>
       <c r="AP54" s="11">
-        <v>66837</v>
+        <v>82176</v>
       </c>
       <c r="AQ54" s="11">
-        <v>82176</v>
+        <v>88420</v>
       </c>
       <c r="AR54" s="11">
-        <v>88420</v>
+        <v>56093</v>
       </c>
       <c r="AS54" s="11">
-        <v>56093</v>
+        <v>28092</v>
       </c>
       <c r="AT54" s="11">
-        <v>28092</v>
+        <v>14264</v>
       </c>
       <c r="AU54" s="11">
-        <v>14264</v>
+        <v>90970</v>
       </c>
       <c r="AV54" s="11">
-        <v>90970</v>
+        <v>93747</v>
       </c>
       <c r="AW54" s="11">
-        <v>93747</v>
+        <v>195196</v>
       </c>
       <c r="AX54" s="11">
-        <v>195196</v>
+        <v>80804</v>
       </c>
       <c r="AY54" s="11">
-        <v>80804</v>
+        <v>26209</v>
       </c>
       <c r="AZ54" s="11">
-        <v>26209</v>
+        <v>60429</v>
       </c>
       <c r="BA54" s="11">
-        <v>60429</v>
+        <v>66505</v>
       </c>
       <c r="BB54" s="11">
-        <v>66505</v>
+        <v>45024</v>
       </c>
     </row>
     <row r="55" spans="2:54" x14ac:dyDescent="0.3">
@@ -7058,154 +7058,154 @@
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="13">
-        <v>2282</v>
+        <v>2004</v>
       </c>
       <c r="F55" s="13">
-        <v>2004</v>
+        <v>2179</v>
       </c>
       <c r="G55" s="13">
-        <v>2179</v>
+        <v>2723</v>
       </c>
       <c r="H55" s="13">
-        <v>2723</v>
+        <v>4738</v>
       </c>
       <c r="I55" s="13">
-        <v>4738</v>
+        <v>9577</v>
       </c>
       <c r="J55" s="13">
-        <v>9577</v>
+        <v>4617</v>
       </c>
       <c r="K55" s="13">
-        <v>4617</v>
+        <v>9722</v>
       </c>
       <c r="L55" s="13">
-        <v>9722</v>
+        <v>18358</v>
       </c>
       <c r="M55" s="13">
-        <v>18358</v>
+        <v>7480</v>
       </c>
       <c r="N55" s="13">
-        <v>7480</v>
+        <v>25723</v>
       </c>
       <c r="O55" s="13">
-        <v>25723</v>
+        <v>43056</v>
       </c>
       <c r="P55" s="13">
-        <v>43056</v>
+        <v>28523</v>
       </c>
       <c r="Q55" s="13">
-        <v>28523</v>
+        <v>42759</v>
       </c>
       <c r="R55" s="13">
-        <v>42759</v>
+        <v>41972</v>
       </c>
       <c r="S55" s="13">
-        <v>41972</v>
+        <v>32527</v>
       </c>
       <c r="T55" s="13">
-        <v>32527</v>
+        <v>53013</v>
       </c>
       <c r="U55" s="13">
-        <v>53013</v>
+        <v>50393</v>
       </c>
       <c r="V55" s="13">
-        <v>50393</v>
+        <v>49569</v>
       </c>
       <c r="W55" s="13">
-        <v>49569</v>
+        <v>63579</v>
       </c>
       <c r="X55" s="13">
-        <v>63579</v>
+        <v>48522</v>
       </c>
       <c r="Y55" s="13">
-        <v>48522</v>
+        <v>84990</v>
       </c>
       <c r="Z55" s="13">
-        <v>84990</v>
+        <v>86199</v>
       </c>
       <c r="AA55" s="13">
-        <v>86199</v>
+        <v>80325</v>
       </c>
       <c r="AB55" s="13">
-        <v>80325</v>
+        <v>105552</v>
       </c>
       <c r="AC55" s="13">
-        <v>105552</v>
+        <v>138740</v>
       </c>
       <c r="AD55" s="13">
-        <v>138740</v>
+        <v>194860</v>
       </c>
       <c r="AE55" s="13">
-        <v>194860</v>
+        <v>171803</v>
       </c>
       <c r="AF55" s="13">
-        <v>171803</v>
+        <v>118681</v>
       </c>
       <c r="AG55" s="13">
-        <v>118681</v>
+        <v>136778</v>
       </c>
       <c r="AH55" s="13">
-        <v>136778</v>
+        <v>109801</v>
       </c>
       <c r="AI55" s="13">
-        <v>109801</v>
+        <v>141824</v>
       </c>
       <c r="AJ55" s="13">
-        <v>141824</v>
+        <v>208221</v>
       </c>
       <c r="AK55" s="13">
-        <v>208221</v>
+        <v>250319</v>
       </c>
       <c r="AL55" s="13">
-        <v>250319</v>
+        <v>273055</v>
       </c>
       <c r="AM55" s="13">
-        <v>273055</v>
+        <v>257764</v>
       </c>
       <c r="AN55" s="13">
-        <v>257764</v>
+        <v>228599</v>
       </c>
       <c r="AO55" s="13">
-        <v>228599</v>
+        <v>183541</v>
       </c>
       <c r="AP55" s="13">
-        <v>183541</v>
+        <v>232289</v>
       </c>
       <c r="AQ55" s="13">
-        <v>232289</v>
+        <v>248217</v>
       </c>
       <c r="AR55" s="13">
-        <v>248217</v>
+        <v>334028</v>
       </c>
       <c r="AS55" s="13">
-        <v>334028</v>
+        <v>452298</v>
       </c>
       <c r="AT55" s="13">
-        <v>452298</v>
+        <v>234226</v>
       </c>
       <c r="AU55" s="13">
-        <v>234226</v>
+        <v>440920</v>
       </c>
       <c r="AV55" s="13">
-        <v>440920</v>
+        <v>724348</v>
       </c>
       <c r="AW55" s="13">
-        <v>724348</v>
+        <v>716450</v>
       </c>
       <c r="AX55" s="13">
-        <v>716450</v>
+        <v>951401</v>
       </c>
       <c r="AY55" s="13">
-        <v>951401</v>
+        <v>1013746</v>
       </c>
       <c r="AZ55" s="13">
-        <v>1013746</v>
+        <v>930004</v>
       </c>
       <c r="BA55" s="13">
-        <v>930004</v>
+        <v>838072</v>
       </c>
       <c r="BB55" s="13">
-        <v>838072</v>
+        <v>998243</v>
       </c>
     </row>
     <row r="56" spans="2:54" x14ac:dyDescent="0.3">
@@ -7285,17 +7285,17 @@
       <c r="AA56" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AB56" s="11" t="s">
-        <v>57</v>
+      <c r="AB56" s="11">
+        <v>20055</v>
       </c>
       <c r="AC56" s="11">
-        <v>20055</v>
+        <v>13880</v>
       </c>
       <c r="AD56" s="11">
-        <v>13880</v>
+        <v>336</v>
       </c>
       <c r="AE56" s="11">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="AF56" s="11">
         <v>0</v>
@@ -7303,8 +7303,8 @@
       <c r="AG56" s="11">
         <v>0</v>
       </c>
-      <c r="AH56" s="11">
-        <v>0</v>
+      <c r="AH56" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI56" s="11" t="s">
         <v>57</v>
@@ -7318,8 +7318,8 @@
       <c r="AL56" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AM56" s="11" t="s">
-        <v>57</v>
+      <c r="AM56" s="11">
+        <v>0</v>
       </c>
       <c r="AN56" s="11">
         <v>0</v>
@@ -7333,14 +7333,14 @@
       <c r="AQ56" s="11">
         <v>0</v>
       </c>
-      <c r="AR56" s="11">
-        <v>0</v>
+      <c r="AR56" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS56" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT56" s="11" t="s">
-        <v>57</v>
+      <c r="AT56" s="11">
+        <v>0</v>
       </c>
       <c r="AU56" s="11">
         <v>0</v>
@@ -7376,22 +7376,22 @@
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="13">
-        <v>6707</v>
+        <v>10967</v>
       </c>
       <c r="F57" s="13">
-        <v>10967</v>
+        <v>9294</v>
       </c>
       <c r="G57" s="13">
-        <v>9294</v>
+        <v>8190</v>
       </c>
       <c r="H57" s="13">
-        <v>8190</v>
+        <v>4464</v>
       </c>
       <c r="I57" s="13">
-        <v>4464</v>
-      </c>
-      <c r="J57" s="13">
         <v>18426</v>
+      </c>
+      <c r="J57" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="K57" s="13" t="s">
         <v>57</v>
@@ -7549,47 +7549,47 @@
       <c r="I58" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J58" s="11" t="s">
-        <v>57</v>
+      <c r="J58" s="11">
+        <v>509</v>
       </c>
       <c r="K58" s="11">
-        <v>509</v>
+        <v>590</v>
       </c>
       <c r="L58" s="11">
-        <v>590</v>
+        <v>1659</v>
       </c>
       <c r="M58" s="11">
-        <v>1659</v>
+        <v>8093</v>
       </c>
       <c r="N58" s="11">
-        <v>8093</v>
+        <v>3380</v>
       </c>
       <c r="O58" s="11">
-        <v>3380</v>
+        <v>14347</v>
       </c>
       <c r="P58" s="11">
-        <v>14347</v>
+        <v>24</v>
       </c>
       <c r="Q58" s="11">
-        <v>24</v>
+        <v>183</v>
       </c>
       <c r="R58" s="11">
-        <v>183</v>
+        <v>75</v>
       </c>
       <c r="S58" s="11">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="T58" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U58" s="11">
         <v>0</v>
       </c>
-      <c r="V58" s="11">
-        <v>0</v>
-      </c>
-      <c r="W58" s="11" t="s">
-        <v>57</v>
+      <c r="V58" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W58" s="11">
+        <v>0</v>
       </c>
       <c r="X58" s="11">
         <v>0</v>
@@ -7621,8 +7621,8 @@
       <c r="AG58" s="11">
         <v>0</v>
       </c>
-      <c r="AH58" s="11">
-        <v>0</v>
+      <c r="AH58" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AI58" s="11" t="s">
         <v>57</v>
@@ -7810,38 +7810,38 @@
       <c r="AQ59" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR59" s="13" t="s">
-        <v>57</v>
+      <c r="AR59" s="13">
+        <v>0</v>
       </c>
       <c r="AS59" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT59" s="13">
         <v>146692</v>
       </c>
-      <c r="AU59" s="13" t="s">
-        <v>57</v>
+      <c r="AT59" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU59" s="13">
+        <v>0</v>
       </c>
       <c r="AV59" s="13">
-        <v>0</v>
+        <v>175277</v>
       </c>
       <c r="AW59" s="13">
-        <v>175277</v>
+        <v>148653</v>
       </c>
       <c r="AX59" s="13">
-        <v>148653</v>
+        <v>122905</v>
       </c>
       <c r="AY59" s="13">
-        <v>122905</v>
+        <v>52360</v>
       </c>
       <c r="AZ59" s="13">
-        <v>52360</v>
+        <v>151994</v>
       </c>
       <c r="BA59" s="13">
-        <v>151994</v>
+        <v>184554</v>
       </c>
       <c r="BB59" s="13">
-        <v>184554</v>
+        <v>143266</v>
       </c>
     </row>
     <row r="60" spans="2:54" x14ac:dyDescent="0.3">
@@ -7969,8 +7969,8 @@
       <c r="X61" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y61" s="17" t="s">
-        <v>57</v>
+      <c r="Y61" s="17">
+        <v>0</v>
       </c>
       <c r="Z61" s="17">
         <v>0</v>
@@ -8185,74 +8185,74 @@
       <c r="X63" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y63" s="11" t="s">
-        <v>57</v>
+      <c r="Y63" s="11">
+        <v>-106</v>
       </c>
       <c r="Z63" s="11">
-        <v>-106</v>
+        <v>-2472</v>
       </c>
       <c r="AA63" s="11">
-        <v>-2472</v>
+        <v>-60</v>
       </c>
       <c r="AB63" s="11">
-        <v>-60</v>
+        <v>-137</v>
       </c>
       <c r="AC63" s="11">
-        <v>-137</v>
+        <v>-3833</v>
       </c>
       <c r="AD63" s="11">
-        <v>-3833</v>
+        <v>-812</v>
       </c>
       <c r="AE63" s="11">
-        <v>-812</v>
+        <v>-53</v>
       </c>
       <c r="AF63" s="11">
-        <v>-53</v>
+        <v>-129</v>
       </c>
       <c r="AG63" s="11">
-        <v>-129</v>
+        <v>-1322</v>
       </c>
       <c r="AH63" s="11">
-        <v>-1322</v>
+        <v>-768</v>
       </c>
       <c r="AI63" s="11">
-        <v>-768</v>
+        <v>-532</v>
       </c>
       <c r="AJ63" s="11">
-        <v>-532</v>
+        <v>-8083</v>
       </c>
       <c r="AK63" s="11">
-        <v>-8083</v>
+        <v>-229</v>
       </c>
       <c r="AL63" s="11">
-        <v>-229</v>
+        <v>-1726</v>
       </c>
       <c r="AM63" s="11">
-        <v>-1726</v>
+        <v>-523</v>
       </c>
       <c r="AN63" s="11">
-        <v>-523</v>
+        <v>-4920</v>
       </c>
       <c r="AO63" s="11">
-        <v>-4920</v>
+        <v>-9761</v>
       </c>
       <c r="AP63" s="11">
-        <v>-9761</v>
+        <v>-3755</v>
       </c>
       <c r="AQ63" s="11">
-        <v>-3755</v>
-      </c>
-      <c r="AR63" s="11">
         <v>-4874</v>
       </c>
+      <c r="AR63" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AS63" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT63" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU63" s="11">
+      <c r="AT63" s="11">
         <v>-13564</v>
+      </c>
+      <c r="AU63" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AV63" s="11" t="s">
         <v>57</v>
@@ -8344,95 +8344,95 @@
       <c r="X64" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Y64" s="13" t="s">
-        <v>57</v>
+      <c r="Y64" s="13">
+        <v>-85</v>
       </c>
       <c r="Z64" s="13">
-        <v>-85</v>
+        <v>-5756</v>
       </c>
       <c r="AA64" s="13">
-        <v>-5756</v>
+        <v>-6318</v>
       </c>
       <c r="AB64" s="13">
-        <v>-6318</v>
+        <v>-2640</v>
       </c>
       <c r="AC64" s="13">
-        <v>-2640</v>
+        <v>-6145</v>
       </c>
       <c r="AD64" s="13">
-        <v>-6145</v>
+        <v>-3048</v>
       </c>
       <c r="AE64" s="13">
-        <v>-3048</v>
+        <v>-2505</v>
       </c>
       <c r="AF64" s="13">
-        <v>-2505</v>
+        <v>-1566</v>
       </c>
       <c r="AG64" s="13">
-        <v>-1566</v>
+        <v>-3535</v>
       </c>
       <c r="AH64" s="13">
-        <v>-3535</v>
+        <v>-305</v>
       </c>
       <c r="AI64" s="13">
-        <v>-305</v>
+        <v>-291</v>
       </c>
       <c r="AJ64" s="13">
-        <v>-291</v>
+        <v>-1972</v>
       </c>
       <c r="AK64" s="13">
-        <v>-1972</v>
+        <v>-3272</v>
       </c>
       <c r="AL64" s="13">
-        <v>-3272</v>
+        <v>-341</v>
       </c>
       <c r="AM64" s="13">
-        <v>-341</v>
+        <v>-2253</v>
       </c>
       <c r="AN64" s="13">
-        <v>-2253</v>
+        <v>0</v>
       </c>
       <c r="AO64" s="13">
-        <v>0</v>
+        <v>-3407</v>
       </c>
       <c r="AP64" s="13">
-        <v>-3407</v>
+        <v>-9764</v>
       </c>
       <c r="AQ64" s="13">
-        <v>-9764</v>
+        <v>-8583</v>
       </c>
       <c r="AR64" s="13">
-        <v>-8583</v>
+        <v>-14593</v>
       </c>
       <c r="AS64" s="13">
-        <v>-14593</v>
+        <v>-5521</v>
       </c>
       <c r="AT64" s="13">
-        <v>-5521</v>
+        <v>-3671</v>
       </c>
       <c r="AU64" s="13">
-        <v>-3671</v>
+        <v>-2060</v>
       </c>
       <c r="AV64" s="13">
-        <v>-2060</v>
+        <v>-5387</v>
       </c>
       <c r="AW64" s="13">
-        <v>-5387</v>
+        <v>-7822</v>
       </c>
       <c r="AX64" s="13">
-        <v>-7822</v>
+        <v>-9344</v>
       </c>
       <c r="AY64" s="13">
-        <v>-9344</v>
+        <v>-9351</v>
       </c>
       <c r="AZ64" s="13">
-        <v>-9351</v>
+        <v>-4197</v>
       </c>
       <c r="BA64" s="13">
-        <v>-4197</v>
+        <v>-9317</v>
       </c>
       <c r="BB64" s="13">
-        <v>-9317</v>
+        <v>-8603</v>
       </c>
     </row>
     <row r="65" spans="2:54" x14ac:dyDescent="0.3">
@@ -8503,95 +8503,95 @@
       <c r="X65" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y65" s="11" t="s">
-        <v>57</v>
+      <c r="Y65" s="11">
+        <v>0</v>
       </c>
       <c r="Z65" s="11">
         <v>0</v>
       </c>
       <c r="AA65" s="11">
-        <v>0</v>
+        <v>-161</v>
       </c>
       <c r="AB65" s="11">
-        <v>-161</v>
+        <v>-2322</v>
       </c>
       <c r="AC65" s="11">
-        <v>-2322</v>
+        <v>-343</v>
       </c>
       <c r="AD65" s="11">
-        <v>-343</v>
+        <v>-5950</v>
       </c>
       <c r="AE65" s="11">
-        <v>-5950</v>
+        <v>-5</v>
       </c>
       <c r="AF65" s="11">
-        <v>-5</v>
+        <v>-21821</v>
       </c>
       <c r="AG65" s="11">
-        <v>-21821</v>
+        <v>-860</v>
       </c>
       <c r="AH65" s="11">
-        <v>-860</v>
+        <v>-797</v>
       </c>
       <c r="AI65" s="11">
-        <v>-797</v>
+        <v>-1485</v>
       </c>
       <c r="AJ65" s="11">
-        <v>-1485</v>
+        <v>-1533</v>
       </c>
       <c r="AK65" s="11">
-        <v>-1533</v>
+        <v>-2667</v>
       </c>
       <c r="AL65" s="11">
-        <v>-2667</v>
+        <v>-4119</v>
       </c>
       <c r="AM65" s="11">
-        <v>-4119</v>
+        <v>-5120</v>
       </c>
       <c r="AN65" s="11">
-        <v>-5120</v>
+        <v>-3819</v>
       </c>
       <c r="AO65" s="11">
-        <v>-3819</v>
+        <v>-8680</v>
       </c>
       <c r="AP65" s="11">
-        <v>-8680</v>
+        <v>-850</v>
       </c>
       <c r="AQ65" s="11">
-        <v>-850</v>
+        <v>-790</v>
       </c>
       <c r="AR65" s="11">
-        <v>-790</v>
+        <v>-12083</v>
       </c>
       <c r="AS65" s="11">
-        <v>-12083</v>
+        <v>-19728</v>
       </c>
       <c r="AT65" s="11">
-        <v>-19728</v>
+        <v>-94</v>
       </c>
       <c r="AU65" s="11">
-        <v>-94</v>
+        <v>-11808</v>
       </c>
       <c r="AV65" s="11">
-        <v>-11808</v>
+        <v>-32717</v>
       </c>
       <c r="AW65" s="11">
-        <v>-32717</v>
+        <v>-18544</v>
       </c>
       <c r="AX65" s="11">
-        <v>-18544</v>
+        <v>-70834</v>
       </c>
       <c r="AY65" s="11">
-        <v>-70834</v>
+        <v>-31331</v>
       </c>
       <c r="AZ65" s="11">
-        <v>-31331</v>
+        <v>-75393</v>
       </c>
       <c r="BA65" s="11">
-        <v>-75393</v>
+        <v>-49444</v>
       </c>
       <c r="BB65" s="11">
-        <v>-49444</v>
+        <v>-35245</v>
       </c>
     </row>
     <row r="66" spans="2:54" x14ac:dyDescent="0.3">
@@ -8677,11 +8677,11 @@
       <c r="AC66" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD66" s="13" t="s">
-        <v>57</v>
+      <c r="AD66" s="13">
+        <v>-26000</v>
       </c>
       <c r="AE66" s="13">
-        <v>-26000</v>
+        <v>0</v>
       </c>
       <c r="AF66" s="13">
         <v>0</v>
@@ -8689,8 +8689,8 @@
       <c r="AG66" s="13">
         <v>0</v>
       </c>
-      <c r="AH66" s="13">
-        <v>0</v>
+      <c r="AH66" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AI66" s="13" t="s">
         <v>57</v>
@@ -8713,8 +8713,8 @@
       <c r="AO66" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP66" s="13" t="s">
-        <v>57</v>
+      <c r="AP66" s="13">
+        <v>0</v>
       </c>
       <c r="AQ66" s="13">
         <v>0</v>
@@ -8725,8 +8725,8 @@
       <c r="AS66" s="13">
         <v>0</v>
       </c>
-      <c r="AT66" s="13">
-        <v>0</v>
+      <c r="AT66" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU66" s="13" t="s">
         <v>57</v>
@@ -8878,38 +8878,38 @@
       <c r="AQ67" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR67" s="11" t="s">
-        <v>57</v>
+      <c r="AR67" s="11">
+        <v>0</v>
       </c>
       <c r="AS67" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT67" s="11">
         <v>-17776</v>
       </c>
-      <c r="AU67" s="11" t="s">
-        <v>57</v>
+      <c r="AT67" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU67" s="11">
+        <v>0</v>
       </c>
       <c r="AV67" s="11">
-        <v>0</v>
+        <v>-9915</v>
       </c>
       <c r="AW67" s="11">
-        <v>-9915</v>
+        <v>-25387</v>
       </c>
       <c r="AX67" s="11">
-        <v>-25387</v>
+        <v>-20478</v>
       </c>
       <c r="AY67" s="11">
-        <v>-20478</v>
+        <v>-393</v>
       </c>
       <c r="AZ67" s="11">
-        <v>-393</v>
+        <v>-5781</v>
       </c>
       <c r="BA67" s="11">
-        <v>-5781</v>
+        <v>-12182</v>
       </c>
       <c r="BB67" s="11">
-        <v>-12182</v>
+        <v>-28935</v>
       </c>
     </row>
     <row r="68" spans="2:54" x14ac:dyDescent="0.3">
@@ -8980,95 +8980,95 @@
       <c r="X68" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="Y68" s="19" t="s">
-        <v>57</v>
+      <c r="Y68" s="19">
+        <v>-191</v>
       </c>
       <c r="Z68" s="19">
-        <v>-191</v>
+        <v>-8228</v>
       </c>
       <c r="AA68" s="19">
-        <v>-8228</v>
+        <v>-6539</v>
       </c>
       <c r="AB68" s="19">
-        <v>-6539</v>
+        <v>-5099</v>
       </c>
       <c r="AC68" s="19">
-        <v>-5099</v>
+        <v>-10321</v>
       </c>
       <c r="AD68" s="19">
-        <v>-10321</v>
+        <v>-35810</v>
       </c>
       <c r="AE68" s="19">
-        <v>-35810</v>
+        <v>-2563</v>
       </c>
       <c r="AF68" s="19">
-        <v>-2563</v>
+        <v>-23516</v>
       </c>
       <c r="AG68" s="19">
-        <v>-23516</v>
+        <v>-5717</v>
       </c>
       <c r="AH68" s="19">
-        <v>-5717</v>
+        <v>-1870</v>
       </c>
       <c r="AI68" s="19">
-        <v>-1870</v>
+        <v>-2308</v>
       </c>
       <c r="AJ68" s="19">
-        <v>-2308</v>
+        <v>-11588</v>
       </c>
       <c r="AK68" s="19">
-        <v>-11588</v>
+        <v>-6168</v>
       </c>
       <c r="AL68" s="19">
-        <v>-6168</v>
+        <v>-6186</v>
       </c>
       <c r="AM68" s="19">
-        <v>-6186</v>
+        <v>-7896</v>
       </c>
       <c r="AN68" s="19">
-        <v>-7896</v>
+        <v>-8739</v>
       </c>
       <c r="AO68" s="19">
-        <v>-8739</v>
+        <v>-21848</v>
       </c>
       <c r="AP68" s="19">
-        <v>-21848</v>
+        <v>-14369</v>
       </c>
       <c r="AQ68" s="19">
-        <v>-14369</v>
+        <v>-14247</v>
       </c>
       <c r="AR68" s="19">
-        <v>-14247</v>
+        <v>-38670</v>
       </c>
       <c r="AS68" s="19">
-        <v>-38670</v>
+        <v>-43025</v>
       </c>
       <c r="AT68" s="19">
-        <v>-43025</v>
+        <v>-17329</v>
       </c>
       <c r="AU68" s="19">
-        <v>-17329</v>
+        <v>-30095</v>
       </c>
       <c r="AV68" s="19">
-        <v>-30095</v>
+        <v>-48019</v>
       </c>
       <c r="AW68" s="19">
-        <v>-48019</v>
+        <v>-51753</v>
       </c>
       <c r="AX68" s="19">
-        <v>-51753</v>
+        <v>-100656</v>
       </c>
       <c r="AY68" s="19">
-        <v>-100656</v>
+        <v>-41075</v>
       </c>
       <c r="AZ68" s="19">
-        <v>-41075</v>
+        <v>-85371</v>
       </c>
       <c r="BA68" s="19">
-        <v>-85371</v>
+        <v>-70943</v>
       </c>
       <c r="BB68" s="19">
-        <v>-70943</v>
+        <v>-72783</v>
       </c>
     </row>
     <row r="69" spans="2:54" x14ac:dyDescent="0.3">
@@ -9196,86 +9196,86 @@
       <c r="X70" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y70" s="11" t="s">
-        <v>57</v>
+      <c r="Y70" s="11">
+        <v>-9160</v>
       </c>
       <c r="Z70" s="11">
-        <v>-9160</v>
+        <v>-5836</v>
       </c>
       <c r="AA70" s="11">
-        <v>-5836</v>
+        <v>-3438</v>
       </c>
       <c r="AB70" s="11">
-        <v>-3438</v>
+        <v>-4747</v>
       </c>
       <c r="AC70" s="11">
-        <v>-4747</v>
+        <v>-7266</v>
       </c>
       <c r="AD70" s="11">
-        <v>-7266</v>
+        <v>-12062</v>
       </c>
       <c r="AE70" s="11">
-        <v>-12062</v>
+        <v>-18287</v>
       </c>
       <c r="AF70" s="11">
-        <v>-18287</v>
+        <v>-21548</v>
       </c>
       <c r="AG70" s="11">
-        <v>-21548</v>
+        <v>-10130</v>
       </c>
       <c r="AH70" s="11">
-        <v>-10130</v>
+        <v>-10758</v>
       </c>
       <c r="AI70" s="11">
-        <v>-10758</v>
+        <v>-40983</v>
       </c>
       <c r="AJ70" s="11">
-        <v>-40983</v>
+        <v>-75350</v>
       </c>
       <c r="AK70" s="11">
-        <v>-75350</v>
+        <v>-77417</v>
       </c>
       <c r="AL70" s="11">
-        <v>-77417</v>
+        <v>-67116</v>
       </c>
       <c r="AM70" s="11">
-        <v>-67116</v>
+        <v>-48926</v>
       </c>
       <c r="AN70" s="11">
-        <v>-48926</v>
+        <v>-37210</v>
       </c>
       <c r="AO70" s="11">
-        <v>-37210</v>
+        <v>-37940</v>
       </c>
       <c r="AP70" s="11">
-        <v>-37940</v>
+        <v>-43879</v>
       </c>
       <c r="AQ70" s="11">
-        <v>-43879</v>
+        <v>-29439</v>
       </c>
       <c r="AR70" s="11">
-        <v>-29439</v>
+        <v>-420</v>
       </c>
       <c r="AS70" s="11">
-        <v>-420</v>
+        <v>1151</v>
       </c>
       <c r="AT70" s="11">
-        <v>1151</v>
+        <v>-493</v>
       </c>
       <c r="AU70" s="11">
-        <v>-493</v>
+        <v>-2327</v>
       </c>
       <c r="AV70" s="11">
-        <v>-2327</v>
+        <v>1</v>
       </c>
       <c r="AW70" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX70" s="11">
-        <v>0</v>
+        <v>-35</v>
       </c>
       <c r="AY70" s="11">
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="AZ70" s="11">
         <v>0</v>
@@ -9294,154 +9294,154 @@
       <c r="C71" s="19"/>
       <c r="D71" s="19"/>
       <c r="E71" s="19">
-        <v>12837</v>
+        <v>21947</v>
       </c>
       <c r="F71" s="19">
-        <v>21947</v>
+        <v>19731</v>
       </c>
       <c r="G71" s="19">
-        <v>19731</v>
+        <v>19596</v>
       </c>
       <c r="H71" s="19">
-        <v>19596</v>
+        <v>17111</v>
       </c>
       <c r="I71" s="19">
-        <v>17111</v>
+        <v>44466</v>
       </c>
       <c r="J71" s="19">
-        <v>44466</v>
+        <v>18236</v>
       </c>
       <c r="K71" s="19">
-        <v>18236</v>
+        <v>35636</v>
       </c>
       <c r="L71" s="19">
-        <v>35636</v>
+        <v>41246</v>
       </c>
       <c r="M71" s="19">
-        <v>41246</v>
+        <v>47453</v>
       </c>
       <c r="N71" s="19">
-        <v>47453</v>
+        <v>68105</v>
       </c>
       <c r="O71" s="19">
-        <v>68105</v>
+        <v>103859</v>
       </c>
       <c r="P71" s="19">
-        <v>103859</v>
+        <v>80493</v>
       </c>
       <c r="Q71" s="19">
-        <v>80493</v>
+        <v>93199</v>
       </c>
       <c r="R71" s="19">
-        <v>93199</v>
+        <v>97853</v>
       </c>
       <c r="S71" s="19">
-        <v>97853</v>
+        <v>110975</v>
       </c>
       <c r="T71" s="19">
-        <v>110975</v>
+        <v>148904</v>
       </c>
       <c r="U71" s="19">
-        <v>148904</v>
+        <v>150033</v>
       </c>
       <c r="V71" s="19">
-        <v>150033</v>
+        <v>76595</v>
       </c>
       <c r="W71" s="19">
-        <v>76595</v>
+        <v>107749</v>
       </c>
       <c r="X71" s="19">
-        <v>107749</v>
+        <v>142095</v>
       </c>
       <c r="Y71" s="19">
-        <v>142095</v>
+        <v>182721</v>
       </c>
       <c r="Z71" s="19">
-        <v>182721</v>
+        <v>182232</v>
       </c>
       <c r="AA71" s="19">
-        <v>182232</v>
+        <v>200089</v>
       </c>
       <c r="AB71" s="19">
-        <v>200089</v>
+        <v>203733</v>
       </c>
       <c r="AC71" s="19">
-        <v>203733</v>
+        <v>254074</v>
       </c>
       <c r="AD71" s="19">
-        <v>254074</v>
+        <v>293404</v>
       </c>
       <c r="AE71" s="19">
-        <v>293404</v>
+        <v>282332</v>
       </c>
       <c r="AF71" s="19">
-        <v>282332</v>
+        <v>216480</v>
       </c>
       <c r="AG71" s="19">
-        <v>216480</v>
+        <v>259739</v>
       </c>
       <c r="AH71" s="19">
-        <v>259739</v>
+        <v>185796</v>
       </c>
       <c r="AI71" s="19">
-        <v>185796</v>
+        <v>285923</v>
       </c>
       <c r="AJ71" s="19">
-        <v>285923</v>
+        <v>340766</v>
       </c>
       <c r="AK71" s="19">
-        <v>340766</v>
+        <v>345283</v>
       </c>
       <c r="AL71" s="19">
-        <v>345283</v>
+        <v>381023</v>
       </c>
       <c r="AM71" s="19">
-        <v>381023</v>
+        <v>384103</v>
       </c>
       <c r="AN71" s="19">
-        <v>384103</v>
+        <v>381845</v>
       </c>
       <c r="AO71" s="19">
-        <v>381845</v>
+        <v>347973</v>
       </c>
       <c r="AP71" s="19">
-        <v>347973</v>
+        <v>378076</v>
       </c>
       <c r="AQ71" s="19">
-        <v>378076</v>
+        <v>400775</v>
       </c>
       <c r="AR71" s="19">
-        <v>400775</v>
+        <v>363025</v>
       </c>
       <c r="AS71" s="19">
-        <v>363025</v>
+        <v>585208</v>
       </c>
       <c r="AT71" s="19">
-        <v>585208</v>
+        <v>326714</v>
       </c>
       <c r="AU71" s="19">
-        <v>326714</v>
+        <v>515695</v>
       </c>
       <c r="AV71" s="19">
-        <v>515695</v>
+        <v>945354</v>
       </c>
       <c r="AW71" s="19">
-        <v>945354</v>
+        <v>1008546</v>
       </c>
       <c r="AX71" s="19">
-        <v>1008546</v>
+        <v>1054419</v>
       </c>
       <c r="AY71" s="19">
-        <v>1054419</v>
+        <v>1051240</v>
       </c>
       <c r="AZ71" s="19">
-        <v>1051240</v>
+        <v>1057056</v>
       </c>
       <c r="BA71" s="19">
-        <v>1057056</v>
+        <v>1018188</v>
       </c>
       <c r="BB71" s="19">
-        <v>1018188</v>
+        <v>1113750</v>
       </c>
     </row>
     <row r="72" spans="2:54" x14ac:dyDescent="0.3">
@@ -9988,11 +9988,11 @@
       <c r="AL78" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AM78" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN78" s="11">
+      <c r="AM78" s="11">
         <v>182850</v>
+      </c>
+      <c r="AN78" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AO78" s="11" t="s">
         <v>57</v>
@@ -10046,133 +10046,133 @@
       </c>
       <c r="D79" s="13"/>
       <c r="E79" s="13">
-        <v>59432</v>
+        <v>77008</v>
       </c>
       <c r="F79" s="13">
-        <v>77008</v>
+        <v>71147</v>
       </c>
       <c r="G79" s="13">
-        <v>71147</v>
+        <v>71429</v>
       </c>
       <c r="H79" s="13">
-        <v>71429</v>
+        <v>55499</v>
       </c>
       <c r="I79" s="13">
-        <v>55499</v>
+        <v>40979</v>
       </c>
       <c r="J79" s="13">
-        <v>40979</v>
+        <v>196815</v>
       </c>
       <c r="K79" s="13">
-        <v>196815</v>
+        <v>188732</v>
       </c>
       <c r="L79" s="13">
-        <v>188732</v>
+        <v>185451</v>
       </c>
       <c r="M79" s="13">
-        <v>185451</v>
+        <v>189948</v>
       </c>
       <c r="N79" s="13">
-        <v>189948</v>
+        <v>204827</v>
       </c>
       <c r="O79" s="13">
-        <v>204827</v>
+        <v>191962</v>
       </c>
       <c r="P79" s="13">
-        <v>191962</v>
+        <v>207061</v>
       </c>
       <c r="Q79" s="13">
-        <v>207061</v>
+        <v>226969</v>
       </c>
       <c r="R79" s="13">
-        <v>226969</v>
+        <v>210579</v>
       </c>
       <c r="S79" s="13">
-        <v>210579</v>
+        <v>228179</v>
       </c>
       <c r="T79" s="13">
-        <v>228179</v>
+        <v>235387</v>
       </c>
       <c r="U79" s="13">
-        <v>235387</v>
+        <v>223560</v>
       </c>
       <c r="V79" s="13">
-        <v>223560</v>
+        <v>217182</v>
       </c>
       <c r="W79" s="13">
-        <v>217182</v>
+        <v>234606</v>
       </c>
       <c r="X79" s="13">
-        <v>234606</v>
+        <v>239734</v>
       </c>
       <c r="Y79" s="13">
-        <v>239734</v>
+        <v>332945</v>
       </c>
       <c r="Z79" s="13">
-        <v>332945</v>
+        <v>354374</v>
       </c>
       <c r="AA79" s="13">
-        <v>354374</v>
+        <v>426572</v>
       </c>
       <c r="AB79" s="13">
-        <v>426572</v>
+        <v>428212</v>
       </c>
       <c r="AC79" s="13">
-        <v>428212</v>
+        <v>526112</v>
       </c>
       <c r="AD79" s="13">
-        <v>526112</v>
+        <v>595244</v>
       </c>
       <c r="AE79" s="13">
-        <v>595244</v>
+        <v>522473</v>
       </c>
       <c r="AF79" s="13">
-        <v>522473</v>
+        <v>771030</v>
       </c>
       <c r="AG79" s="13">
-        <v>771030</v>
+        <v>569715</v>
       </c>
       <c r="AH79" s="13">
-        <v>569715</v>
+        <v>537919</v>
       </c>
       <c r="AI79" s="13">
-        <v>537919</v>
+        <v>685744</v>
       </c>
       <c r="AJ79" s="13">
-        <v>685744</v>
+        <v>751955</v>
       </c>
       <c r="AK79" s="13">
-        <v>751955</v>
+        <v>719711</v>
       </c>
       <c r="AL79" s="13">
-        <v>719711</v>
+        <v>754720</v>
       </c>
       <c r="AM79" s="13">
-        <v>754720</v>
+        <v>790465</v>
       </c>
       <c r="AN79" s="13">
-        <v>790465</v>
+        <v>873669</v>
       </c>
       <c r="AO79" s="13">
-        <v>873669</v>
+        <v>789449</v>
       </c>
       <c r="AP79" s="13">
-        <v>789449</v>
+        <v>795835</v>
       </c>
       <c r="AQ79" s="13">
-        <v>795835</v>
-      </c>
-      <c r="AR79" s="13">
         <v>821673</v>
       </c>
+      <c r="AR79" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AS79" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT79" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU79" s="13">
+      <c r="AT79" s="13">
         <v>724624</v>
+      </c>
+      <c r="AU79" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AV79" s="13" t="s">
         <v>57</v>
@@ -10205,154 +10205,154 @@
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11">
-        <v>98651</v>
+        <v>133445</v>
       </c>
       <c r="F80" s="11">
-        <v>133445</v>
+        <v>101245</v>
       </c>
       <c r="G80" s="11">
-        <v>101245</v>
+        <v>142100</v>
       </c>
       <c r="H80" s="11">
-        <v>142100</v>
+        <v>105724</v>
       </c>
       <c r="I80" s="11">
-        <v>105724</v>
+        <v>155710</v>
       </c>
       <c r="J80" s="11">
-        <v>155710</v>
+        <v>182010</v>
       </c>
       <c r="K80" s="11">
-        <v>182010</v>
+        <v>174124</v>
       </c>
       <c r="L80" s="11">
-        <v>174124</v>
+        <v>189199</v>
       </c>
       <c r="M80" s="11">
-        <v>189199</v>
+        <v>178462</v>
       </c>
       <c r="N80" s="11">
-        <v>178462</v>
+        <v>202326</v>
       </c>
       <c r="O80" s="11">
-        <v>202326</v>
+        <v>192759</v>
       </c>
       <c r="P80" s="11">
-        <v>192759</v>
+        <v>182101</v>
       </c>
       <c r="Q80" s="11">
-        <v>182101</v>
+        <v>214726</v>
       </c>
       <c r="R80" s="11">
-        <v>214726</v>
+        <v>201775</v>
       </c>
       <c r="S80" s="11">
-        <v>201775</v>
+        <v>199820</v>
       </c>
       <c r="T80" s="11">
-        <v>199820</v>
+        <v>184021</v>
       </c>
       <c r="U80" s="11">
-        <v>184021</v>
+        <v>192254</v>
       </c>
       <c r="V80" s="11">
-        <v>192254</v>
+        <v>198794</v>
       </c>
       <c r="W80" s="11">
-        <v>198794</v>
+        <v>321193</v>
       </c>
       <c r="X80" s="11">
-        <v>321193</v>
+        <v>223126</v>
       </c>
       <c r="Y80" s="11">
-        <v>223126</v>
+        <v>267556</v>
       </c>
       <c r="Z80" s="11">
-        <v>267556</v>
+        <v>290764</v>
       </c>
       <c r="AA80" s="11">
-        <v>290764</v>
+        <v>323335</v>
       </c>
       <c r="AB80" s="11">
-        <v>323335</v>
+        <v>326220</v>
       </c>
       <c r="AC80" s="11">
-        <v>326220</v>
+        <v>430648</v>
       </c>
       <c r="AD80" s="11">
-        <v>430648</v>
+        <v>379496</v>
       </c>
       <c r="AE80" s="11">
-        <v>379496</v>
+        <v>448309</v>
       </c>
       <c r="AF80" s="11">
-        <v>448309</v>
+        <v>440051</v>
       </c>
       <c r="AG80" s="11">
-        <v>440051</v>
+        <v>428003</v>
       </c>
       <c r="AH80" s="11">
-        <v>428003</v>
+        <v>510572</v>
       </c>
       <c r="AI80" s="11">
-        <v>510572</v>
+        <v>507846</v>
       </c>
       <c r="AJ80" s="11">
-        <v>507846</v>
+        <v>808526</v>
       </c>
       <c r="AK80" s="11">
-        <v>808526</v>
+        <v>892315</v>
       </c>
       <c r="AL80" s="11">
-        <v>892315</v>
+        <v>525548</v>
       </c>
       <c r="AM80" s="11">
-        <v>525548</v>
+        <v>537709</v>
       </c>
       <c r="AN80" s="11">
-        <v>537709</v>
+        <v>689336</v>
       </c>
       <c r="AO80" s="11">
-        <v>689336</v>
+        <v>736553</v>
       </c>
       <c r="AP80" s="11">
-        <v>736553</v>
+        <v>818453</v>
       </c>
       <c r="AQ80" s="11">
-        <v>818453</v>
+        <v>646662</v>
       </c>
       <c r="AR80" s="11">
-        <v>646662</v>
+        <v>641419</v>
       </c>
       <c r="AS80" s="11">
-        <v>641419</v>
+        <v>581868</v>
       </c>
       <c r="AT80" s="11">
-        <v>581868</v>
+        <v>765195</v>
       </c>
       <c r="AU80" s="11">
-        <v>765195</v>
+        <v>667009</v>
       </c>
       <c r="AV80" s="11">
-        <v>667009</v>
+        <v>647732</v>
       </c>
       <c r="AW80" s="11">
-        <v>647732</v>
+        <v>713695</v>
       </c>
       <c r="AX80" s="11">
-        <v>713695</v>
+        <v>692586</v>
       </c>
       <c r="AY80" s="11">
-        <v>692586</v>
+        <v>652452</v>
       </c>
       <c r="AZ80" s="11">
-        <v>652452</v>
+        <v>689538</v>
       </c>
       <c r="BA80" s="11">
-        <v>689538</v>
+        <v>816403</v>
       </c>
       <c r="BB80" s="11">
-        <v>816403</v>
+        <v>848229</v>
       </c>
     </row>
     <row r="81" spans="2:54" x14ac:dyDescent="0.3">
@@ -10364,154 +10364,154 @@
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="13">
-        <v>176012</v>
+        <v>187992</v>
       </c>
       <c r="F81" s="13">
-        <v>187992</v>
+        <v>193827</v>
       </c>
       <c r="G81" s="13">
-        <v>193827</v>
+        <v>431811</v>
       </c>
       <c r="H81" s="13">
-        <v>431811</v>
+        <v>135113</v>
       </c>
       <c r="I81" s="13">
-        <v>135113</v>
+        <v>401821</v>
       </c>
       <c r="J81" s="13">
-        <v>401821</v>
+        <v>482798</v>
       </c>
       <c r="K81" s="13">
-        <v>482798</v>
+        <v>471073</v>
       </c>
       <c r="L81" s="13">
-        <v>471073</v>
+        <v>444902</v>
       </c>
       <c r="M81" s="13">
-        <v>444902</v>
+        <v>469319</v>
       </c>
       <c r="N81" s="13">
-        <v>469319</v>
+        <v>545916</v>
       </c>
       <c r="O81" s="13">
-        <v>545916</v>
+        <v>591063</v>
       </c>
       <c r="P81" s="13">
-        <v>591063</v>
+        <v>580562</v>
       </c>
       <c r="Q81" s="13">
-        <v>580562</v>
+        <v>560208</v>
       </c>
       <c r="R81" s="13">
-        <v>560208</v>
+        <v>557323</v>
       </c>
       <c r="S81" s="13">
-        <v>557323</v>
+        <v>627995</v>
       </c>
       <c r="T81" s="13">
-        <v>627995</v>
+        <v>475121</v>
       </c>
       <c r="U81" s="13">
-        <v>475121</v>
+        <v>514298</v>
       </c>
       <c r="V81" s="13">
-        <v>514298</v>
+        <v>539826</v>
       </c>
       <c r="W81" s="13">
-        <v>539826</v>
+        <v>581352</v>
       </c>
       <c r="X81" s="13">
-        <v>581352</v>
+        <v>754384</v>
       </c>
       <c r="Y81" s="13">
-        <v>754384</v>
+        <v>778183</v>
       </c>
       <c r="Z81" s="13">
-        <v>778183</v>
+        <v>803728</v>
       </c>
       <c r="AA81" s="13">
-        <v>803728</v>
+        <v>707572</v>
       </c>
       <c r="AB81" s="13">
-        <v>707572</v>
+        <v>856489</v>
       </c>
       <c r="AC81" s="13">
-        <v>856489</v>
+        <v>1092321</v>
       </c>
       <c r="AD81" s="13">
-        <v>1092321</v>
+        <v>1172464</v>
       </c>
       <c r="AE81" s="13">
-        <v>1172464</v>
+        <v>1368294</v>
       </c>
       <c r="AF81" s="13">
-        <v>1368294</v>
+        <v>1124075</v>
       </c>
       <c r="AG81" s="13">
-        <v>1124075</v>
+        <v>851070</v>
       </c>
       <c r="AH81" s="13">
-        <v>851070</v>
+        <v>1047590</v>
       </c>
       <c r="AI81" s="13">
-        <v>1047590</v>
+        <v>1419731</v>
       </c>
       <c r="AJ81" s="13">
-        <v>1419731</v>
+        <v>1655425</v>
       </c>
       <c r="AK81" s="13">
-        <v>1655425</v>
+        <v>1898614</v>
       </c>
       <c r="AL81" s="13">
-        <v>1898614</v>
+        <v>1986259</v>
       </c>
       <c r="AM81" s="13">
-        <v>1986259</v>
+        <v>1796152</v>
       </c>
       <c r="AN81" s="13">
-        <v>1796152</v>
+        <v>1694004</v>
       </c>
       <c r="AO81" s="13">
-        <v>1694004</v>
+        <v>1697520</v>
       </c>
       <c r="AP81" s="13">
-        <v>1697520</v>
+        <v>2031599</v>
       </c>
       <c r="AQ81" s="13">
-        <v>2031599</v>
+        <v>1693667</v>
       </c>
       <c r="AR81" s="13">
-        <v>1693667</v>
+        <v>1604157</v>
       </c>
       <c r="AS81" s="13">
-        <v>1604157</v>
+        <v>1813705</v>
       </c>
       <c r="AT81" s="13">
-        <v>1813705</v>
+        <v>1829919</v>
       </c>
       <c r="AU81" s="13">
-        <v>1829919</v>
+        <v>2041808</v>
       </c>
       <c r="AV81" s="13">
-        <v>2041808</v>
+        <v>2087426</v>
       </c>
       <c r="AW81" s="13">
-        <v>2087426</v>
+        <v>2111945</v>
       </c>
       <c r="AX81" s="13">
-        <v>2111945</v>
+        <v>2409659</v>
       </c>
       <c r="AY81" s="13">
-        <v>2409659</v>
+        <v>2702724</v>
       </c>
       <c r="AZ81" s="13">
-        <v>2702724</v>
+        <v>2681023</v>
       </c>
       <c r="BA81" s="13">
-        <v>2681023</v>
+        <v>2301789</v>
       </c>
       <c r="BB81" s="13">
-        <v>2301789</v>
+        <v>2283954</v>
       </c>
     </row>
     <row r="82" spans="2:54" x14ac:dyDescent="0.3">
@@ -10591,17 +10591,17 @@
       <c r="AA82" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AB82" s="11" t="s">
-        <v>57</v>
+      <c r="AB82" s="11">
+        <v>515380</v>
       </c>
       <c r="AC82" s="11">
-        <v>515380</v>
+        <v>643785</v>
       </c>
       <c r="AD82" s="11">
-        <v>643785</v>
-      </c>
-      <c r="AE82" s="11">
         <v>445033</v>
+      </c>
+      <c r="AE82" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AF82" s="11" t="s">
         <v>57</v>
@@ -10682,22 +10682,22 @@
       </c>
       <c r="D83" s="13"/>
       <c r="E83" s="13">
-        <v>141483</v>
+        <v>134192</v>
       </c>
       <c r="F83" s="13">
-        <v>134192</v>
+        <v>163696</v>
       </c>
       <c r="G83" s="13">
-        <v>163696</v>
+        <v>172781</v>
       </c>
       <c r="H83" s="13">
-        <v>172781</v>
+        <v>157072</v>
       </c>
       <c r="I83" s="13">
-        <v>157072</v>
-      </c>
-      <c r="J83" s="13">
         <v>160540</v>
+      </c>
+      <c r="J83" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="K83" s="13" t="s">
         <v>57</v>
@@ -10855,44 +10855,44 @@
       <c r="I84" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J84" s="11" t="s">
-        <v>57</v>
+      <c r="J84" s="11">
+        <v>33366</v>
       </c>
       <c r="K84" s="11">
-        <v>33366</v>
+        <v>31238</v>
       </c>
       <c r="L84" s="11">
-        <v>31238</v>
+        <v>81487</v>
       </c>
       <c r="M84" s="11">
-        <v>81487</v>
+        <v>93900</v>
       </c>
       <c r="N84" s="11">
-        <v>93900</v>
+        <v>125120</v>
       </c>
       <c r="O84" s="11">
-        <v>125120</v>
+        <v>434258</v>
       </c>
       <c r="P84" s="11">
-        <v>434258</v>
+        <v>157895</v>
       </c>
       <c r="Q84" s="11">
-        <v>157895</v>
+        <v>138427</v>
       </c>
       <c r="R84" s="11">
-        <v>138427</v>
+        <v>158898</v>
       </c>
       <c r="S84" s="11">
-        <v>158898</v>
+        <v>111111</v>
       </c>
       <c r="T84" s="11">
-        <v>111111</v>
+        <v>0</v>
       </c>
       <c r="U84" s="11">
         <v>0</v>
       </c>
-      <c r="V84" s="11">
-        <v>0</v>
+      <c r="V84" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="W84" s="11" t="s">
         <v>57</v>
@@ -11116,38 +11116,38 @@
       <c r="AQ85" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR85" s="13" t="s">
-        <v>57</v>
+      <c r="AR85" s="13">
+        <v>0</v>
       </c>
       <c r="AS85" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT85" s="13">
         <v>855417</v>
       </c>
-      <c r="AU85" s="13" t="s">
-        <v>57</v>
+      <c r="AT85" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU85" s="13">
+        <v>0</v>
       </c>
       <c r="AV85" s="13">
-        <v>0</v>
+        <v>884910</v>
       </c>
       <c r="AW85" s="13">
-        <v>884910</v>
+        <v>1114964</v>
       </c>
       <c r="AX85" s="13">
-        <v>1114964</v>
+        <v>960338</v>
       </c>
       <c r="AY85" s="13">
-        <v>960338</v>
+        <v>709168</v>
       </c>
       <c r="AZ85" s="13">
-        <v>709168</v>
+        <v>815318</v>
       </c>
       <c r="BA85" s="13">
-        <v>815318</v>
+        <v>759678</v>
       </c>
       <c r="BB85" s="13">
-        <v>759678</v>
+        <v>845681</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/kashi/kehafez/product/monthly.xlsx
+++ b/database/industries/kashi/kehafez/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\kashi\kehafez\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kehafez\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08E50AF-6813-43E2-92E3-C378AFC71B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A63C09-9BDC-4A49-AA8D-5A651E1A423B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="80">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>سایر</t>
@@ -742,12 +742,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -802,7 +802,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -859,7 +859,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -916,7 +916,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -971,7 +971,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1028,7 +1028,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1085,7 +1085,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1140,7 +1140,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1352,7 +1352,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1409,7 +1409,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1513,14 +1513,14 @@
       <c r="AJ11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AK11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL11" s="11" t="s">
-        <v>57</v>
+      <c r="AK11" s="11">
+        <v>8548</v>
+      </c>
+      <c r="AL11" s="11">
+        <v>0</v>
       </c>
       <c r="AM11" s="11">
-        <v>8548</v>
+        <v>0</v>
       </c>
       <c r="AN11" s="11">
         <v>0</v>
@@ -1531,14 +1531,14 @@
       <c r="AP11" s="11">
         <v>0</v>
       </c>
-      <c r="AQ11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS11" s="11" t="s">
-        <v>57</v>
+      <c r="AQ11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="11">
+        <v>0</v>
       </c>
       <c r="AT11" s="11">
         <v>0</v>
@@ -1568,7 +1568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
@@ -1580,127 +1580,127 @@
         <v>0</v>
       </c>
       <c r="F12" s="13">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="G12" s="13">
-        <v>0</v>
+        <v>778</v>
       </c>
       <c r="H12" s="13">
-        <v>550</v>
+        <v>51807</v>
       </c>
       <c r="I12" s="13">
-        <v>778</v>
+        <v>108968</v>
       </c>
       <c r="J12" s="13">
-        <v>51807</v>
+        <v>10195</v>
       </c>
       <c r="K12" s="13">
-        <v>108968</v>
+        <v>171032</v>
       </c>
       <c r="L12" s="13">
-        <v>10195</v>
+        <v>59681</v>
       </c>
       <c r="M12" s="13">
-        <v>171032</v>
+        <v>99665</v>
       </c>
       <c r="N12" s="13">
-        <v>59681</v>
+        <v>112830</v>
       </c>
       <c r="O12" s="13">
-        <v>99665</v>
+        <v>123528</v>
       </c>
       <c r="P12" s="13">
-        <v>112830</v>
+        <v>142614</v>
       </c>
       <c r="Q12" s="13">
-        <v>123528</v>
+        <v>155238</v>
       </c>
       <c r="R12" s="13">
-        <v>142614</v>
+        <v>163756</v>
       </c>
       <c r="S12" s="13">
-        <v>155238</v>
+        <v>146894</v>
       </c>
       <c r="T12" s="13">
+        <v>13726</v>
+      </c>
+      <c r="U12" s="13">
+        <v>91375</v>
+      </c>
+      <c r="V12" s="13">
+        <v>184180</v>
+      </c>
+      <c r="W12" s="13">
+        <v>180311</v>
+      </c>
+      <c r="X12" s="13">
         <v>163756</v>
       </c>
-      <c r="U12" s="13">
-        <v>146894</v>
-      </c>
-      <c r="V12" s="13">
-        <v>13726</v>
-      </c>
-      <c r="W12" s="13">
-        <v>91375</v>
-      </c>
-      <c r="X12" s="13">
-        <v>184180</v>
-      </c>
       <c r="Y12" s="13">
-        <v>180311</v>
+        <v>140756</v>
       </c>
       <c r="Z12" s="13">
-        <v>163756</v>
+        <v>114154</v>
       </c>
       <c r="AA12" s="13">
-        <v>140756</v>
+        <v>115458</v>
       </c>
       <c r="AB12" s="13">
-        <v>114154</v>
+        <v>129004</v>
       </c>
       <c r="AC12" s="13">
-        <v>115458</v>
+        <v>112421</v>
       </c>
       <c r="AD12" s="13">
-        <v>129004</v>
+        <v>105827</v>
       </c>
       <c r="AE12" s="13">
-        <v>112421</v>
+        <v>109669</v>
       </c>
       <c r="AF12" s="13">
-        <v>105827</v>
+        <v>144720</v>
       </c>
       <c r="AG12" s="13">
-        <v>109669</v>
+        <v>170723</v>
       </c>
       <c r="AH12" s="13">
-        <v>144720</v>
+        <v>156453</v>
       </c>
       <c r="AI12" s="13">
-        <v>170723</v>
+        <v>164970</v>
       </c>
       <c r="AJ12" s="13">
-        <v>156453</v>
+        <v>146620</v>
       </c>
       <c r="AK12" s="13">
-        <v>164970</v>
+        <v>152898</v>
       </c>
       <c r="AL12" s="13">
-        <v>146620</v>
+        <v>147979</v>
       </c>
       <c r="AM12" s="13">
-        <v>152898</v>
+        <v>158837</v>
       </c>
       <c r="AN12" s="13">
-        <v>147979</v>
+        <v>153299</v>
       </c>
       <c r="AO12" s="13">
-        <v>158837</v>
+        <v>120479</v>
       </c>
       <c r="AP12" s="13">
-        <v>153299</v>
-      </c>
-      <c r="AQ12" s="13">
-        <v>120479</v>
-      </c>
-      <c r="AR12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT12" s="13">
-        <v>133071</v>
+        <v>162442</v>
+      </c>
+      <c r="AQ12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR12" s="13">
+        <v>226465</v>
+      </c>
+      <c r="AS12" s="13">
+        <v>186037</v>
+      </c>
+      <c r="AT12" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU12" s="13" t="s">
         <v>57</v>
@@ -1727,7 +1727,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1736,157 +1736,157 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>89548</v>
+        <v>70422</v>
       </c>
       <c r="F13" s="11">
-        <v>79900</v>
+        <v>98280</v>
       </c>
       <c r="G13" s="11">
-        <v>70422</v>
+        <v>90851</v>
       </c>
       <c r="H13" s="11">
-        <v>98280</v>
+        <v>48535</v>
       </c>
       <c r="I13" s="11">
-        <v>90851</v>
+        <v>68758</v>
       </c>
       <c r="J13" s="11">
-        <v>48535</v>
+        <v>112136</v>
       </c>
       <c r="K13" s="11">
-        <v>68758</v>
+        <v>65686</v>
       </c>
       <c r="L13" s="11">
-        <v>112136</v>
+        <v>89018</v>
       </c>
       <c r="M13" s="11">
-        <v>65686</v>
+        <v>134728</v>
       </c>
       <c r="N13" s="11">
-        <v>89018</v>
+        <v>139792</v>
       </c>
       <c r="O13" s="11">
-        <v>134728</v>
+        <v>145123</v>
       </c>
       <c r="P13" s="11">
-        <v>139792</v>
+        <v>145288</v>
       </c>
       <c r="Q13" s="11">
-        <v>145123</v>
+        <v>149466</v>
       </c>
       <c r="R13" s="11">
-        <v>145288</v>
+        <v>141755</v>
       </c>
       <c r="S13" s="11">
-        <v>149466</v>
+        <v>125475</v>
       </c>
       <c r="T13" s="11">
-        <v>141755</v>
+        <v>81301</v>
       </c>
       <c r="U13" s="11">
-        <v>125475</v>
+        <v>103209</v>
       </c>
       <c r="V13" s="11">
-        <v>81301</v>
+        <v>147825</v>
       </c>
       <c r="W13" s="11">
-        <v>103209</v>
+        <v>149915</v>
       </c>
       <c r="X13" s="11">
-        <v>147825</v>
+        <v>140115</v>
       </c>
       <c r="Y13" s="11">
-        <v>149915</v>
+        <v>125268</v>
       </c>
       <c r="Z13" s="11">
-        <v>140115</v>
+        <v>123117</v>
       </c>
       <c r="AA13" s="11">
-        <v>125268</v>
+        <v>125608</v>
       </c>
       <c r="AB13" s="11">
-        <v>123117</v>
+        <v>128398</v>
       </c>
       <c r="AC13" s="11">
-        <v>125608</v>
+        <v>133925</v>
       </c>
       <c r="AD13" s="11">
-        <v>128398</v>
+        <v>134039</v>
       </c>
       <c r="AE13" s="11">
-        <v>133925</v>
+        <v>109353</v>
       </c>
       <c r="AF13" s="11">
-        <v>134039</v>
+        <v>70283</v>
       </c>
       <c r="AG13" s="11">
-        <v>109353</v>
+        <v>134856</v>
       </c>
       <c r="AH13" s="11">
-        <v>70283</v>
+        <v>94567</v>
       </c>
       <c r="AI13" s="11">
-        <v>134856</v>
+        <v>88076</v>
       </c>
       <c r="AJ13" s="11">
-        <v>94567</v>
+        <v>133008</v>
       </c>
       <c r="AK13" s="11">
-        <v>88076</v>
+        <v>135791</v>
       </c>
       <c r="AL13" s="11">
-        <v>133008</v>
+        <v>88067</v>
       </c>
       <c r="AM13" s="11">
-        <v>135791</v>
+        <v>81059</v>
       </c>
       <c r="AN13" s="11">
-        <v>88067</v>
+        <v>81470</v>
       </c>
       <c r="AO13" s="11">
-        <v>81059</v>
+        <v>121594</v>
       </c>
       <c r="AP13" s="11">
-        <v>81470</v>
+        <v>126187</v>
       </c>
       <c r="AQ13" s="11">
-        <v>121594</v>
+        <v>118055</v>
       </c>
       <c r="AR13" s="11">
-        <v>126187</v>
+        <v>73028</v>
       </c>
       <c r="AS13" s="11">
-        <v>118055</v>
+        <v>86470</v>
       </c>
       <c r="AT13" s="11">
-        <v>73028</v>
+        <v>104245</v>
       </c>
       <c r="AU13" s="11">
-        <v>86470</v>
+        <v>131170</v>
       </c>
       <c r="AV13" s="11">
-        <v>104245</v>
+        <v>125825</v>
       </c>
       <c r="AW13" s="11">
-        <v>131170</v>
+        <v>135448</v>
       </c>
       <c r="AX13" s="11">
-        <v>125825</v>
+        <v>101003</v>
       </c>
       <c r="AY13" s="11">
-        <v>135448</v>
+        <v>85022</v>
       </c>
       <c r="AZ13" s="11">
-        <v>101003</v>
+        <v>88925</v>
       </c>
       <c r="BA13" s="11">
-        <v>85022</v>
+        <v>32878</v>
       </c>
       <c r="BB13" s="11">
-        <v>88925</v>
+        <v>103790</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>60</v>
       </c>
@@ -1895,157 +1895,157 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>22272</v>
+        <v>28540</v>
       </c>
       <c r="F14" s="13">
-        <v>21078</v>
+        <v>20008</v>
       </c>
       <c r="G14" s="13">
-        <v>28540</v>
+        <v>27910</v>
       </c>
       <c r="H14" s="13">
-        <v>20008</v>
+        <v>17078</v>
       </c>
       <c r="I14" s="13">
-        <v>27910</v>
+        <v>41519</v>
       </c>
       <c r="J14" s="13">
-        <v>17078</v>
+        <v>44235</v>
       </c>
       <c r="K14" s="13">
-        <v>41519</v>
+        <v>46601</v>
       </c>
       <c r="L14" s="13">
-        <v>44235</v>
+        <v>36865</v>
       </c>
       <c r="M14" s="13">
-        <v>46601</v>
+        <v>48056</v>
       </c>
       <c r="N14" s="13">
-        <v>36865</v>
+        <v>56247</v>
       </c>
       <c r="O14" s="13">
-        <v>48056</v>
+        <v>58991</v>
       </c>
       <c r="P14" s="13">
-        <v>56247</v>
+        <v>50837</v>
       </c>
       <c r="Q14" s="13">
-        <v>58991</v>
+        <v>56724</v>
       </c>
       <c r="R14" s="13">
-        <v>50837</v>
+        <v>61063</v>
       </c>
       <c r="S14" s="13">
-        <v>56724</v>
+        <v>96648</v>
       </c>
       <c r="T14" s="13">
-        <v>61063</v>
+        <v>88869</v>
       </c>
       <c r="U14" s="13">
-        <v>96648</v>
+        <v>102636</v>
       </c>
       <c r="V14" s="13">
-        <v>88869</v>
+        <v>69728</v>
       </c>
       <c r="W14" s="13">
-        <v>102636</v>
+        <v>108530</v>
       </c>
       <c r="X14" s="13">
-        <v>69728</v>
+        <v>108612</v>
       </c>
       <c r="Y14" s="13">
-        <v>108530</v>
+        <v>122932</v>
       </c>
       <c r="Z14" s="13">
-        <v>108612</v>
+        <v>121312</v>
       </c>
       <c r="AA14" s="13">
-        <v>122932</v>
+        <v>127250</v>
       </c>
       <c r="AB14" s="13">
-        <v>121312</v>
+        <v>133942</v>
       </c>
       <c r="AC14" s="13">
-        <v>127250</v>
+        <v>130366</v>
       </c>
       <c r="AD14" s="13">
-        <v>133942</v>
+        <v>99533</v>
       </c>
       <c r="AE14" s="13">
-        <v>130366</v>
+        <v>113656</v>
       </c>
       <c r="AF14" s="13">
-        <v>99533</v>
+        <v>106404</v>
       </c>
       <c r="AG14" s="13">
-        <v>113656</v>
+        <v>109835</v>
       </c>
       <c r="AH14" s="13">
-        <v>106404</v>
+        <v>121797</v>
       </c>
       <c r="AI14" s="13">
-        <v>109835</v>
+        <v>129462</v>
       </c>
       <c r="AJ14" s="13">
-        <v>121797</v>
+        <v>137344</v>
       </c>
       <c r="AK14" s="13">
-        <v>129462</v>
+        <v>126087</v>
       </c>
       <c r="AL14" s="13">
-        <v>137344</v>
+        <v>121924</v>
       </c>
       <c r="AM14" s="13">
-        <v>126087</v>
+        <v>103148</v>
       </c>
       <c r="AN14" s="13">
-        <v>121924</v>
+        <v>112950</v>
       </c>
       <c r="AO14" s="13">
-        <v>103148</v>
+        <v>233492</v>
       </c>
       <c r="AP14" s="13">
-        <v>112950</v>
+        <v>169796</v>
       </c>
       <c r="AQ14" s="13">
-        <v>233492</v>
+        <v>204235</v>
       </c>
       <c r="AR14" s="13">
-        <v>169796</v>
+        <v>171881</v>
       </c>
       <c r="AS14" s="13">
-        <v>204235</v>
+        <v>195845</v>
       </c>
       <c r="AT14" s="13">
-        <v>171881</v>
+        <v>266733</v>
       </c>
       <c r="AU14" s="13">
-        <v>195845</v>
+        <v>339709</v>
       </c>
       <c r="AV14" s="13">
-        <v>266733</v>
+        <v>361341</v>
       </c>
       <c r="AW14" s="13">
-        <v>339709</v>
+        <v>393489</v>
       </c>
       <c r="AX14" s="13">
-        <v>361341</v>
+        <v>402687</v>
       </c>
       <c r="AY14" s="13">
-        <v>393489</v>
+        <v>388605</v>
       </c>
       <c r="AZ14" s="13">
-        <v>402687</v>
+        <v>489677</v>
       </c>
       <c r="BA14" s="13">
-        <v>388605</v>
+        <v>392570</v>
       </c>
       <c r="BB14" s="13">
-        <v>489677</v>
+        <v>375993</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>61</v>
       </c>
@@ -2116,17 +2116,17 @@
       <c r="Y15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Z15" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA15" s="11" t="s">
-        <v>57</v>
+      <c r="Z15" s="11">
+        <v>38913</v>
+      </c>
+      <c r="AA15" s="11">
+        <v>21560</v>
       </c>
       <c r="AB15" s="11">
-        <v>38913</v>
+        <v>0</v>
       </c>
       <c r="AC15" s="11">
-        <v>21560</v>
+        <v>0</v>
       </c>
       <c r="AD15" s="11">
         <v>0</v>
@@ -2134,11 +2134,11 @@
       <c r="AE15" s="11">
         <v>0</v>
       </c>
-      <c r="AF15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="11">
-        <v>0</v>
+      <c r="AF15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG15" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AH15" s="11" t="s">
         <v>57</v>
@@ -2149,11 +2149,11 @@
       <c r="AJ15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AK15" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL15" s="11" t="s">
-        <v>57</v>
+      <c r="AK15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="11">
+        <v>0</v>
       </c>
       <c r="AM15" s="11">
         <v>0</v>
@@ -2167,14 +2167,14 @@
       <c r="AP15" s="11">
         <v>0</v>
       </c>
-      <c r="AQ15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR15" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS15" s="11" t="s">
-        <v>57</v>
+      <c r="AQ15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="11">
+        <v>0</v>
       </c>
       <c r="AT15" s="11">
         <v>0</v>
@@ -2204,7 +2204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>62</v>
       </c>
@@ -2213,20 +2213,20 @@
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
-        <v>67798</v>
+        <v>111132</v>
       </c>
       <c r="F16" s="13">
-        <v>100401</v>
+        <v>85099</v>
       </c>
       <c r="G16" s="13">
-        <v>111132</v>
-      </c>
-      <c r="H16" s="13">
-        <v>85099</v>
-      </c>
-      <c r="I16" s="13">
         <v>82948</v>
       </c>
+      <c r="H16" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="J16" s="13" t="s">
         <v>57</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>63</v>
       </c>
@@ -2380,11 +2380,11 @@
       <c r="G17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>57</v>
+      <c r="H17" s="11">
+        <v>0</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0</v>
       </c>
       <c r="J17" s="11">
         <v>0</v>
@@ -2416,14 +2416,14 @@
       <c r="S17" s="11">
         <v>0</v>
       </c>
-      <c r="T17" s="11">
-        <v>0</v>
+      <c r="T17" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="U17" s="11">
         <v>0</v>
       </c>
-      <c r="V17" s="11" t="s">
-        <v>57</v>
+      <c r="V17" s="11">
+        <v>0</v>
       </c>
       <c r="W17" s="11">
         <v>0</v>
@@ -2452,11 +2452,11 @@
       <c r="AE17" s="11">
         <v>0</v>
       </c>
-      <c r="AF17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="11">
-        <v>0</v>
+      <c r="AF17" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG17" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AH17" s="11" t="s">
         <v>57</v>
@@ -2522,7 +2522,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>64</v>
       </c>
@@ -2644,44 +2644,44 @@
       <c r="AP18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ18" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS18" s="13">
+      <c r="AQ18" s="13">
         <v>147575</v>
       </c>
-      <c r="AT18" s="13" t="s">
-        <v>57</v>
+      <c r="AR18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT18" s="13">
+        <v>166223</v>
       </c>
       <c r="AU18" s="13">
-        <v>0</v>
+        <v>133940</v>
       </c>
       <c r="AV18" s="13">
-        <v>166223</v>
+        <v>132039</v>
       </c>
       <c r="AW18" s="13">
-        <v>133940</v>
+        <v>156836</v>
       </c>
       <c r="AX18" s="13">
-        <v>132039</v>
+        <v>197046</v>
       </c>
       <c r="AY18" s="13">
-        <v>156836</v>
+        <v>186317</v>
       </c>
       <c r="AZ18" s="13">
-        <v>197046</v>
+        <v>149174</v>
       </c>
       <c r="BA18" s="13">
-        <v>186317</v>
+        <v>78384</v>
       </c>
       <c r="BB18" s="13">
-        <v>149174</v>
+        <v>86185</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>65</v>
       </c>
@@ -2738,7 +2738,7 @@
       <c r="BA19" s="15"/>
       <c r="BB19" s="15"/>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
         <v>66</v>
       </c>
@@ -2798,11 +2798,11 @@
       <c r="V20" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W20" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X20" s="17" t="s">
-        <v>57</v>
+      <c r="W20" s="17">
+        <v>0</v>
+      </c>
+      <c r="X20" s="17">
+        <v>0</v>
       </c>
       <c r="Y20" s="17">
         <v>0</v>
@@ -2895,164 +2895,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="s">
         <v>67</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19">
-        <v>179618</v>
+        <v>210094</v>
       </c>
       <c r="F21" s="19">
-        <v>201379</v>
+        <v>203937</v>
       </c>
       <c r="G21" s="19">
-        <v>210094</v>
+        <v>202487</v>
       </c>
       <c r="H21" s="19">
-        <v>203937</v>
+        <v>117420</v>
       </c>
       <c r="I21" s="19">
-        <v>202487</v>
+        <v>219245</v>
       </c>
       <c r="J21" s="19">
-        <v>117420</v>
+        <v>166566</v>
       </c>
       <c r="K21" s="19">
-        <v>219245</v>
+        <v>283319</v>
       </c>
       <c r="L21" s="19">
-        <v>166566</v>
+        <v>185564</v>
       </c>
       <c r="M21" s="19">
-        <v>283319</v>
+        <v>282449</v>
       </c>
       <c r="N21" s="19">
-        <v>185564</v>
+        <v>308869</v>
       </c>
       <c r="O21" s="19">
-        <v>282449</v>
+        <v>327642</v>
       </c>
       <c r="P21" s="19">
-        <v>308869</v>
+        <v>338739</v>
       </c>
       <c r="Q21" s="19">
-        <v>327642</v>
+        <v>361428</v>
       </c>
       <c r="R21" s="19">
-        <v>338739</v>
+        <v>366574</v>
       </c>
       <c r="S21" s="19">
-        <v>361428</v>
+        <v>369017</v>
       </c>
       <c r="T21" s="19">
-        <v>366574</v>
+        <v>183896</v>
       </c>
       <c r="U21" s="19">
-        <v>369017</v>
+        <v>297220</v>
       </c>
       <c r="V21" s="19">
-        <v>183896</v>
+        <v>401733</v>
       </c>
       <c r="W21" s="19">
-        <v>297220</v>
+        <v>438756</v>
       </c>
       <c r="X21" s="19">
-        <v>401733</v>
+        <v>412483</v>
       </c>
       <c r="Y21" s="19">
-        <v>438756</v>
+        <v>388956</v>
       </c>
       <c r="Z21" s="19">
-        <v>412483</v>
+        <v>397496</v>
       </c>
       <c r="AA21" s="19">
-        <v>388956</v>
+        <v>389876</v>
       </c>
       <c r="AB21" s="19">
-        <v>397496</v>
+        <v>391344</v>
       </c>
       <c r="AC21" s="19">
-        <v>389876</v>
+        <v>376712</v>
       </c>
       <c r="AD21" s="19">
-        <v>391344</v>
+        <v>339399</v>
       </c>
       <c r="AE21" s="19">
-        <v>376712</v>
+        <v>332678</v>
       </c>
       <c r="AF21" s="19">
-        <v>339399</v>
+        <v>321407</v>
       </c>
       <c r="AG21" s="19">
-        <v>332678</v>
+        <v>415414</v>
       </c>
       <c r="AH21" s="19">
-        <v>321407</v>
+        <v>372817</v>
       </c>
       <c r="AI21" s="19">
-        <v>415414</v>
+        <v>382508</v>
       </c>
       <c r="AJ21" s="19">
-        <v>372817</v>
+        <v>416972</v>
       </c>
       <c r="AK21" s="19">
-        <v>382508</v>
+        <v>423324</v>
       </c>
       <c r="AL21" s="19">
-        <v>416972</v>
+        <v>357970</v>
       </c>
       <c r="AM21" s="19">
-        <v>423324</v>
+        <v>343044</v>
       </c>
       <c r="AN21" s="19">
-        <v>357970</v>
+        <v>347719</v>
       </c>
       <c r="AO21" s="19">
-        <v>343044</v>
+        <v>475565</v>
       </c>
       <c r="AP21" s="19">
-        <v>347719</v>
+        <v>458425</v>
       </c>
       <c r="AQ21" s="19">
-        <v>475565</v>
+        <v>469865</v>
       </c>
       <c r="AR21" s="19">
-        <v>295983</v>
+        <v>471374</v>
       </c>
       <c r="AS21" s="19">
-        <v>469865</v>
+        <v>468352</v>
       </c>
       <c r="AT21" s="19">
-        <v>377980</v>
+        <v>537201</v>
       </c>
       <c r="AU21" s="19">
-        <v>282315</v>
+        <v>604819</v>
       </c>
       <c r="AV21" s="19">
-        <v>537201</v>
+        <v>619205</v>
       </c>
       <c r="AW21" s="19">
-        <v>604819</v>
+        <v>685773</v>
       </c>
       <c r="AX21" s="19">
-        <v>619205</v>
+        <v>700736</v>
       </c>
       <c r="AY21" s="19">
-        <v>685773</v>
+        <v>659944</v>
       </c>
       <c r="AZ21" s="19">
-        <v>700736</v>
+        <v>727776</v>
       </c>
       <c r="BA21" s="19">
-        <v>659944</v>
+        <v>503832</v>
       </c>
       <c r="BB21" s="19">
-        <v>727776</v>
+        <v>565968</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -3107,7 +3107,7 @@
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -3162,7 +3162,7 @@
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -3217,7 +3217,7 @@
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
     </row>
-    <row r="25" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>68</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3429,7 +3429,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
         <v>68</v>
       </c>
@@ -3486,7 +3486,7 @@
       <c r="BA27" s="9"/>
       <c r="BB27" s="9"/>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>55</v>
       </c>
@@ -3590,14 +3590,14 @@
       <c r="AJ28" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AK28" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL28" s="11" t="s">
-        <v>57</v>
+      <c r="AK28" s="11">
+        <v>8548</v>
+      </c>
+      <c r="AL28" s="11">
+        <v>0</v>
       </c>
       <c r="AM28" s="11">
-        <v>8548</v>
+        <v>0</v>
       </c>
       <c r="AN28" s="11">
         <v>0</v>
@@ -3608,14 +3608,14 @@
       <c r="AP28" s="11">
         <v>0</v>
       </c>
-      <c r="AQ28" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR28" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS28" s="11" t="s">
-        <v>57</v>
+      <c r="AQ28" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR28" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS28" s="11">
+        <v>0</v>
       </c>
       <c r="AT28" s="11">
         <v>0</v>
@@ -3645,7 +3645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
         <v>58</v>
       </c>
@@ -3654,130 +3654,130 @@
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13">
-        <v>909</v>
+        <v>14</v>
       </c>
       <c r="F29" s="13">
-        <v>8377</v>
+        <v>991</v>
       </c>
       <c r="G29" s="13">
-        <v>14</v>
+        <v>1635</v>
       </c>
       <c r="H29" s="13">
-        <v>991</v>
+        <v>39377</v>
       </c>
       <c r="I29" s="13">
-        <v>1635</v>
+        <v>86938</v>
       </c>
       <c r="J29" s="13">
-        <v>39377</v>
+        <v>68320</v>
       </c>
       <c r="K29" s="13">
-        <v>86938</v>
+        <v>106903</v>
       </c>
       <c r="L29" s="13">
-        <v>68320</v>
+        <v>96662</v>
       </c>
       <c r="M29" s="13">
-        <v>106903</v>
+        <v>95889</v>
       </c>
       <c r="N29" s="13">
-        <v>96662</v>
+        <v>106471</v>
       </c>
       <c r="O29" s="13">
-        <v>95889</v>
+        <v>95859</v>
       </c>
       <c r="P29" s="13">
-        <v>106471</v>
+        <v>143789</v>
       </c>
       <c r="Q29" s="13">
-        <v>95859</v>
+        <v>261084</v>
       </c>
       <c r="R29" s="13">
-        <v>143789</v>
+        <v>147625</v>
       </c>
       <c r="S29" s="13">
-        <v>261084</v>
+        <v>208816</v>
       </c>
       <c r="T29" s="13">
-        <v>147625</v>
+        <v>29869</v>
       </c>
       <c r="U29" s="13">
-        <v>208816</v>
+        <v>89823</v>
       </c>
       <c r="V29" s="13">
-        <v>29869</v>
+        <v>239190</v>
       </c>
       <c r="W29" s="13">
-        <v>89823</v>
+        <v>182868</v>
       </c>
       <c r="X29" s="13">
-        <v>239190</v>
+        <v>181382</v>
       </c>
       <c r="Y29" s="13">
-        <v>182868</v>
+        <v>192099</v>
       </c>
       <c r="Z29" s="13">
-        <v>181382</v>
+        <v>101660</v>
       </c>
       <c r="AA29" s="13">
-        <v>192099</v>
+        <v>122012</v>
       </c>
       <c r="AB29" s="13">
-        <v>101660</v>
+        <v>140670</v>
       </c>
       <c r="AC29" s="13">
-        <v>122012</v>
+        <v>111246</v>
       </c>
       <c r="AD29" s="13">
-        <v>140670</v>
+        <v>99463</v>
       </c>
       <c r="AE29" s="13">
-        <v>111246</v>
+        <v>140974</v>
       </c>
       <c r="AF29" s="13">
-        <v>99463</v>
+        <v>97643</v>
       </c>
       <c r="AG29" s="13">
-        <v>140974</v>
+        <v>174539</v>
       </c>
       <c r="AH29" s="13">
-        <v>97643</v>
+        <v>185918</v>
       </c>
       <c r="AI29" s="13">
-        <v>174539</v>
+        <v>136784</v>
       </c>
       <c r="AJ29" s="13">
-        <v>185918</v>
+        <v>150795</v>
       </c>
       <c r="AK29" s="13">
-        <v>136784</v>
+        <v>147684</v>
       </c>
       <c r="AL29" s="13">
-        <v>150795</v>
+        <v>151056</v>
       </c>
       <c r="AM29" s="13">
-        <v>147684</v>
+        <v>199358</v>
       </c>
       <c r="AN29" s="13">
-        <v>151056</v>
+        <v>153121</v>
       </c>
       <c r="AO29" s="13">
-        <v>199358</v>
+        <v>131225</v>
       </c>
       <c r="AP29" s="13">
-        <v>153121</v>
-      </c>
-      <c r="AQ29" s="13">
-        <v>131225</v>
-      </c>
-      <c r="AR29" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS29" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT29" s="13">
-        <v>132546</v>
+        <v>174584</v>
+      </c>
+      <c r="AQ29" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR29" s="13">
+        <v>121237</v>
+      </c>
+      <c r="AS29" s="13">
+        <v>219884</v>
+      </c>
+      <c r="AT29" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU29" s="13" t="s">
         <v>57</v>
@@ -3804,7 +3804,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>59</v>
       </c>
@@ -3813,157 +3813,157 @@
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
-        <v>66739</v>
+        <v>61098</v>
       </c>
       <c r="F30" s="11">
-        <v>75678</v>
+        <v>74288</v>
       </c>
       <c r="G30" s="11">
-        <v>61098</v>
+        <v>105298</v>
       </c>
       <c r="H30" s="11">
-        <v>74288</v>
+        <v>29449</v>
       </c>
       <c r="I30" s="11">
-        <v>105298</v>
+        <v>51205</v>
       </c>
       <c r="J30" s="11">
-        <v>29449</v>
+        <v>45238</v>
       </c>
       <c r="K30" s="11">
-        <v>51205</v>
+        <v>64854</v>
       </c>
       <c r="L30" s="11">
-        <v>45238</v>
+        <v>94911</v>
       </c>
       <c r="M30" s="11">
-        <v>64854</v>
+        <v>145513</v>
       </c>
       <c r="N30" s="11">
-        <v>94911</v>
+        <v>164195</v>
       </c>
       <c r="O30" s="11">
-        <v>145513</v>
+        <v>132727</v>
       </c>
       <c r="P30" s="11">
-        <v>164195</v>
+        <v>126512</v>
       </c>
       <c r="Q30" s="11">
-        <v>132727</v>
+        <v>94450</v>
       </c>
       <c r="R30" s="11">
-        <v>126512</v>
+        <v>332255</v>
       </c>
       <c r="S30" s="11">
-        <v>94450</v>
+        <v>275453</v>
       </c>
       <c r="T30" s="11">
-        <v>332255</v>
+        <v>103318</v>
       </c>
       <c r="U30" s="11">
-        <v>275453</v>
+        <v>71910</v>
       </c>
       <c r="V30" s="11">
-        <v>103318</v>
+        <v>162379</v>
       </c>
       <c r="W30" s="11">
-        <v>71910</v>
+        <v>172663</v>
       </c>
       <c r="X30" s="11">
-        <v>162379</v>
+        <v>157585</v>
       </c>
       <c r="Y30" s="11">
-        <v>172663</v>
+        <v>147825</v>
       </c>
       <c r="Z30" s="11">
-        <v>157585</v>
+        <v>136227</v>
       </c>
       <c r="AA30" s="11">
-        <v>147825</v>
+        <v>127364</v>
       </c>
       <c r="AB30" s="11">
-        <v>136227</v>
+        <v>164289</v>
       </c>
       <c r="AC30" s="11">
-        <v>127364</v>
+        <v>163405</v>
       </c>
       <c r="AD30" s="11">
-        <v>164289</v>
+        <v>150378</v>
       </c>
       <c r="AE30" s="11">
-        <v>163405</v>
+        <v>136665</v>
       </c>
       <c r="AF30" s="11">
-        <v>150378</v>
+        <v>70703</v>
       </c>
       <c r="AG30" s="11">
-        <v>136665</v>
+        <v>133310</v>
       </c>
       <c r="AH30" s="11">
-        <v>70703</v>
+        <v>98551</v>
       </c>
       <c r="AI30" s="11">
-        <v>133310</v>
+        <v>89771</v>
       </c>
       <c r="AJ30" s="11">
-        <v>98551</v>
+        <v>128365</v>
       </c>
       <c r="AK30" s="11">
-        <v>89771</v>
+        <v>120621</v>
       </c>
       <c r="AL30" s="11">
-        <v>128365</v>
+        <v>97517</v>
       </c>
       <c r="AM30" s="11">
-        <v>120621</v>
+        <v>90743</v>
       </c>
       <c r="AN30" s="11">
-        <v>97517</v>
+        <v>100404</v>
       </c>
       <c r="AO30" s="11">
-        <v>90743</v>
+        <v>136733</v>
       </c>
       <c r="AP30" s="11">
-        <v>100404</v>
+        <v>87955</v>
       </c>
       <c r="AQ30" s="11">
-        <v>136733</v>
+        <v>48279</v>
       </c>
       <c r="AR30" s="11">
-        <v>87955</v>
+        <v>18641</v>
       </c>
       <c r="AS30" s="11">
-        <v>48279</v>
+        <v>128671</v>
       </c>
       <c r="AT30" s="11">
-        <v>18641</v>
+        <v>142932</v>
       </c>
       <c r="AU30" s="11">
-        <v>136043</v>
+        <v>273499</v>
       </c>
       <c r="AV30" s="11">
-        <v>145766</v>
+        <v>116670</v>
       </c>
       <c r="AW30" s="11">
-        <v>273499</v>
+        <v>40170</v>
       </c>
       <c r="AX30" s="11">
-        <v>116670</v>
+        <v>87637</v>
       </c>
       <c r="AY30" s="11">
-        <v>40170</v>
+        <v>81461</v>
       </c>
       <c r="AZ30" s="11">
-        <v>87637</v>
+        <v>53080</v>
       </c>
       <c r="BA30" s="11">
-        <v>81461</v>
+        <v>63364</v>
       </c>
       <c r="BB30" s="11">
-        <v>53080</v>
+        <v>185990</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
         <v>60</v>
       </c>
@@ -3972,157 +3972,157 @@
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="13">
-        <v>10660</v>
+        <v>6306</v>
       </c>
       <c r="F31" s="13">
-        <v>11242</v>
+        <v>35067</v>
       </c>
       <c r="G31" s="13">
-        <v>6306</v>
+        <v>23834</v>
       </c>
       <c r="H31" s="13">
-        <v>35067</v>
+        <v>9563</v>
       </c>
       <c r="I31" s="13">
-        <v>23834</v>
+        <v>20638</v>
       </c>
       <c r="J31" s="13">
-        <v>9563</v>
+        <v>41263</v>
       </c>
       <c r="K31" s="13">
-        <v>20638</v>
+        <v>15938</v>
       </c>
       <c r="L31" s="13">
-        <v>41263</v>
+        <v>47119</v>
       </c>
       <c r="M31" s="13">
-        <v>15938</v>
+        <v>72845</v>
       </c>
       <c r="N31" s="13">
-        <v>47119</v>
+        <v>49130</v>
       </c>
       <c r="O31" s="13">
-        <v>72845</v>
+        <v>76327</v>
       </c>
       <c r="P31" s="13">
-        <v>49130</v>
+        <v>75310</v>
       </c>
       <c r="Q31" s="13">
-        <v>76327</v>
+        <v>51795</v>
       </c>
       <c r="R31" s="13">
-        <v>75310</v>
+        <v>111578</v>
       </c>
       <c r="S31" s="13">
-        <v>51795</v>
+        <v>97984</v>
       </c>
       <c r="T31" s="13">
-        <v>111578</v>
+        <v>91824</v>
       </c>
       <c r="U31" s="13">
-        <v>97984</v>
+        <v>109364</v>
       </c>
       <c r="V31" s="13">
-        <v>91824</v>
+        <v>64320</v>
       </c>
       <c r="W31" s="13">
-        <v>109364</v>
+        <v>109216</v>
       </c>
       <c r="X31" s="13">
-        <v>64320</v>
+        <v>107249</v>
       </c>
       <c r="Y31" s="13">
-        <v>109216</v>
+        <v>113522</v>
       </c>
       <c r="Z31" s="13">
-        <v>107249</v>
+        <v>123238</v>
       </c>
       <c r="AA31" s="13">
-        <v>113522</v>
+        <v>127014</v>
       </c>
       <c r="AB31" s="13">
-        <v>123238</v>
+        <v>166197</v>
       </c>
       <c r="AC31" s="13">
-        <v>127014</v>
+        <v>125560</v>
       </c>
       <c r="AD31" s="13">
-        <v>166197</v>
+        <v>105581</v>
       </c>
       <c r="AE31" s="13">
-        <v>125560</v>
+        <v>160713</v>
       </c>
       <c r="AF31" s="13">
-        <v>105581</v>
+        <v>104813</v>
       </c>
       <c r="AG31" s="13">
-        <v>160713</v>
+        <v>99895</v>
       </c>
       <c r="AH31" s="13">
-        <v>104813</v>
+        <v>125781</v>
       </c>
       <c r="AI31" s="13">
-        <v>99895</v>
+        <v>131843</v>
       </c>
       <c r="AJ31" s="13">
-        <v>125781</v>
+        <v>137472</v>
       </c>
       <c r="AK31" s="13">
-        <v>131843</v>
+        <v>143509</v>
       </c>
       <c r="AL31" s="13">
-        <v>137472</v>
+        <v>134946</v>
       </c>
       <c r="AM31" s="13">
-        <v>143509</v>
+        <v>108123</v>
       </c>
       <c r="AN31" s="13">
-        <v>134946</v>
+        <v>114338</v>
       </c>
       <c r="AO31" s="13">
-        <v>108123</v>
+        <v>146556</v>
       </c>
       <c r="AP31" s="13">
-        <v>114338</v>
+        <v>208725</v>
       </c>
       <c r="AQ31" s="13">
-        <v>146556</v>
+        <v>249378</v>
       </c>
       <c r="AR31" s="13">
-        <v>207580</v>
+        <v>127998</v>
       </c>
       <c r="AS31" s="13">
-        <v>249378</v>
+        <v>163468</v>
       </c>
       <c r="AT31" s="13">
-        <v>127998</v>
+        <v>346763</v>
       </c>
       <c r="AU31" s="13">
-        <v>218992</v>
+        <v>352440</v>
       </c>
       <c r="AV31" s="13">
-        <v>347453</v>
+        <v>394828</v>
       </c>
       <c r="AW31" s="13">
-        <v>338573</v>
+        <v>375083</v>
       </c>
       <c r="AX31" s="13">
-        <v>394828</v>
+        <v>346884</v>
       </c>
       <c r="AY31" s="13">
-        <v>375083</v>
+        <v>364096</v>
       </c>
       <c r="AZ31" s="13">
-        <v>346884</v>
+        <v>437068</v>
       </c>
       <c r="BA31" s="13">
-        <v>364096</v>
+        <v>404811</v>
       </c>
       <c r="BB31" s="13">
-        <v>437068</v>
+        <v>494973</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
         <v>61</v>
       </c>
@@ -4193,29 +4193,29 @@
       <c r="Y32" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Z32" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA32" s="11" t="s">
-        <v>57</v>
+      <c r="Z32" s="11">
+        <v>38913</v>
+      </c>
+      <c r="AA32" s="11">
+        <v>21560</v>
       </c>
       <c r="AB32" s="11">
-        <v>38913</v>
+        <v>755</v>
       </c>
       <c r="AC32" s="11">
-        <v>21560</v>
+        <v>0</v>
       </c>
       <c r="AD32" s="11">
-        <v>755</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="11">
         <v>0</v>
       </c>
-      <c r="AF32" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG32" s="11">
-        <v>0</v>
+      <c r="AF32" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG32" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AH32" s="11" t="s">
         <v>57</v>
@@ -4226,11 +4226,11 @@
       <c r="AJ32" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AK32" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL32" s="11" t="s">
-        <v>57</v>
+      <c r="AK32" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="11">
+        <v>0</v>
       </c>
       <c r="AM32" s="11">
         <v>0</v>
@@ -4244,14 +4244,14 @@
       <c r="AP32" s="11">
         <v>0</v>
       </c>
-      <c r="AQ32" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR32" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS32" s="11" t="s">
-        <v>57</v>
+      <c r="AQ32" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR32" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS32" s="11">
+        <v>0</v>
       </c>
       <c r="AT32" s="11">
         <v>0</v>
@@ -4281,7 +4281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
         <v>62</v>
       </c>
@@ -4290,20 +4290,20 @@
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="13">
-        <v>81726</v>
+        <v>47401</v>
       </c>
       <c r="F33" s="13">
-        <v>56776</v>
+        <v>28420</v>
       </c>
       <c r="G33" s="13">
-        <v>47401</v>
-      </c>
-      <c r="H33" s="13">
-        <v>28420</v>
-      </c>
-      <c r="I33" s="13">
         <v>114775</v>
       </c>
+      <c r="H33" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="J33" s="13" t="s">
         <v>57</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
         <v>63</v>
       </c>
@@ -4457,50 +4457,50 @@
       <c r="G34" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H34" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>57</v>
+      <c r="H34" s="11">
+        <v>15255</v>
+      </c>
+      <c r="I34" s="11">
+        <v>18887</v>
       </c>
       <c r="J34" s="11">
-        <v>15255</v>
+        <v>20359</v>
       </c>
       <c r="K34" s="11">
-        <v>18887</v>
+        <v>86187</v>
       </c>
       <c r="L34" s="11">
-        <v>20359</v>
+        <v>27014</v>
       </c>
       <c r="M34" s="11">
-        <v>86187</v>
+        <v>33038</v>
       </c>
       <c r="N34" s="11">
-        <v>27014</v>
+        <v>152</v>
       </c>
       <c r="O34" s="11">
-        <v>33038</v>
+        <v>1322</v>
       </c>
       <c r="P34" s="11">
-        <v>152</v>
+        <v>472</v>
       </c>
       <c r="Q34" s="11">
-        <v>1322</v>
+        <v>9</v>
       </c>
       <c r="R34" s="11">
-        <v>472</v>
+        <v>0</v>
       </c>
       <c r="S34" s="11">
-        <v>9</v>
-      </c>
-      <c r="T34" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="T34" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="U34" s="11">
         <v>0</v>
       </c>
-      <c r="V34" s="11" t="s">
-        <v>57</v>
+      <c r="V34" s="11">
+        <v>0</v>
       </c>
       <c r="W34" s="11">
         <v>0</v>
@@ -4529,11 +4529,11 @@
       <c r="AE34" s="11">
         <v>0</v>
       </c>
-      <c r="AF34" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG34" s="11">
-        <v>0</v>
+      <c r="AF34" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG34" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AH34" s="11" t="s">
         <v>57</v>
@@ -4599,7 +4599,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
         <v>64</v>
       </c>
@@ -4721,44 +4721,44 @@
       <c r="AP35" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ35" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR35" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS35" s="13">
+      <c r="AQ35" s="13">
         <v>171486</v>
       </c>
-      <c r="AT35" s="13" t="s">
-        <v>57</v>
+      <c r="AR35" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS35" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT35" s="13">
+        <v>198056</v>
       </c>
       <c r="AU35" s="13">
-        <v>0</v>
+        <v>134533</v>
       </c>
       <c r="AV35" s="13">
-        <v>199379</v>
+        <v>127981</v>
       </c>
       <c r="AW35" s="13">
-        <v>133583</v>
+        <v>73833</v>
       </c>
       <c r="AX35" s="13">
-        <v>127981</v>
+        <v>186423</v>
       </c>
       <c r="AY35" s="13">
-        <v>73833</v>
+        <v>242937</v>
       </c>
       <c r="AZ35" s="13">
-        <v>186423</v>
+        <v>169409</v>
       </c>
       <c r="BA35" s="13">
-        <v>242937</v>
+        <v>136726</v>
       </c>
       <c r="BB35" s="13">
-        <v>169409</v>
+        <v>75289</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="14" t="s">
         <v>65</v>
       </c>
@@ -4815,7 +4815,7 @@
       <c r="BA36" s="15"/>
       <c r="BB36" s="15"/>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="s">
         <v>66</v>
       </c>
@@ -4875,11 +4875,11 @@
       <c r="V37" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W37" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X37" s="17" t="s">
-        <v>57</v>
+      <c r="W37" s="17">
+        <v>0</v>
+      </c>
+      <c r="X37" s="17">
+        <v>0</v>
       </c>
       <c r="Y37" s="17">
         <v>0</v>
@@ -4972,7 +4972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>69</v>
       </c>
@@ -5029,7 +5029,7 @@
       <c r="BA38" s="9"/>
       <c r="BB38" s="9"/>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>58</v>
       </c>
@@ -5091,77 +5091,77 @@
       <c r="V39" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W39" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X39" s="11" t="s">
-        <v>57</v>
+      <c r="W39" s="11">
+        <v>-464</v>
+      </c>
+      <c r="X39" s="11">
+        <v>-7607</v>
       </c>
       <c r="Y39" s="11">
-        <v>-464</v>
+        <v>-176</v>
       </c>
       <c r="Z39" s="11">
-        <v>-7607</v>
+        <v>-431</v>
       </c>
       <c r="AA39" s="11">
-        <v>-176</v>
+        <v>-10776</v>
       </c>
       <c r="AB39" s="11">
-        <v>-431</v>
+        <v>-2346</v>
       </c>
       <c r="AC39" s="11">
-        <v>-10776</v>
+        <v>-123</v>
       </c>
       <c r="AD39" s="11">
-        <v>-2346</v>
+        <v>-290</v>
       </c>
       <c r="AE39" s="11">
-        <v>-123</v>
+        <v>-4843</v>
       </c>
       <c r="AF39" s="11">
-        <v>-290</v>
+        <v>-2116</v>
       </c>
       <c r="AG39" s="11">
-        <v>-4843</v>
+        <v>-1102</v>
       </c>
       <c r="AH39" s="11">
-        <v>-2116</v>
+        <v>-11641</v>
       </c>
       <c r="AI39" s="11">
-        <v>-1102</v>
+        <v>-429</v>
       </c>
       <c r="AJ39" s="11">
-        <v>-11641</v>
+        <v>-2438</v>
       </c>
       <c r="AK39" s="11">
-        <v>-429</v>
+        <v>-651</v>
       </c>
       <c r="AL39" s="11">
-        <v>-2438</v>
+        <v>-5960</v>
       </c>
       <c r="AM39" s="11">
-        <v>-651</v>
+        <v>-11146</v>
       </c>
       <c r="AN39" s="11">
-        <v>-5960</v>
+        <v>-4086</v>
       </c>
       <c r="AO39" s="11">
-        <v>-11146</v>
+        <v>-4663</v>
       </c>
       <c r="AP39" s="11">
-        <v>-4086</v>
-      </c>
-      <c r="AQ39" s="11">
-        <v>-4663</v>
-      </c>
-      <c r="AR39" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS39" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT39" s="11">
-        <v>-12014</v>
+        <v>-12653</v>
+      </c>
+      <c r="AQ39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS39" s="11">
+        <v>-208</v>
+      </c>
+      <c r="AT39" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU39" s="11" t="s">
         <v>57</v>
@@ -5188,7 +5188,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>59</v>
       </c>
@@ -5250,104 +5250,104 @@
       <c r="V40" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W40" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="X40" s="13" t="s">
-        <v>57</v>
+      <c r="W40" s="13">
+        <v>-421</v>
+      </c>
+      <c r="X40" s="13">
+        <v>-24337</v>
       </c>
       <c r="Y40" s="13">
-        <v>-421</v>
+        <v>-21841</v>
       </c>
       <c r="Z40" s="13">
-        <v>-24337</v>
+        <v>-14762</v>
       </c>
       <c r="AA40" s="13">
-        <v>-21841</v>
+        <v>-19973</v>
       </c>
       <c r="AB40" s="13">
-        <v>-14762</v>
+        <v>-9722</v>
       </c>
       <c r="AC40" s="13">
-        <v>-19973</v>
+        <v>-6098</v>
       </c>
       <c r="AD40" s="13">
-        <v>-9722</v>
+        <v>-3575</v>
       </c>
       <c r="AE40" s="13">
-        <v>-6098</v>
+        <v>-13970</v>
       </c>
       <c r="AF40" s="13">
-        <v>-3575</v>
+        <v>-1251</v>
       </c>
       <c r="AG40" s="13">
-        <v>-13970</v>
+        <v>-1953</v>
       </c>
       <c r="AH40" s="13">
-        <v>-1251</v>
+        <v>-5202</v>
       </c>
       <c r="AI40" s="13">
-        <v>-1953</v>
+        <v>-5333</v>
       </c>
       <c r="AJ40" s="13">
-        <v>-5202</v>
+        <v>-385</v>
       </c>
       <c r="AK40" s="13">
-        <v>-5333</v>
-      </c>
-      <c r="AL40" s="13">
-        <v>-385</v>
+        <v>-2869</v>
+      </c>
+      <c r="AL40" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AM40" s="13">
-        <v>-2869</v>
-      </c>
-      <c r="AN40" s="13" t="s">
-        <v>57</v>
+        <v>-3265</v>
+      </c>
+      <c r="AN40" s="13">
+        <v>-12598</v>
       </c>
       <c r="AO40" s="13">
-        <v>-3265</v>
+        <v>-11154</v>
       </c>
       <c r="AP40" s="13">
-        <v>-12598</v>
+        <v>-19180</v>
       </c>
       <c r="AQ40" s="13">
-        <v>-11154</v>
+        <v>-7045</v>
       </c>
       <c r="AR40" s="13">
-        <v>-19180</v>
+        <v>0</v>
       </c>
       <c r="AS40" s="13">
-        <v>-7045</v>
+        <v>-3116</v>
       </c>
       <c r="AT40" s="13">
-        <v>-4917</v>
+        <v>-7140</v>
       </c>
       <c r="AU40" s="13">
-        <v>-2847</v>
+        <v>-11844</v>
       </c>
       <c r="AV40" s="13">
-        <v>-7140</v>
+        <v>-12150</v>
       </c>
       <c r="AW40" s="13">
-        <v>-9978</v>
+        <v>-13879</v>
       </c>
       <c r="AX40" s="13">
-        <v>-12150</v>
+        <v>-5581</v>
       </c>
       <c r="AY40" s="13">
-        <v>-13879</v>
+        <v>-11947</v>
       </c>
       <c r="AZ40" s="13">
-        <v>-5581</v>
+        <v>-10506</v>
       </c>
       <c r="BA40" s="13">
-        <v>-11947</v>
+        <v>-8955</v>
       </c>
       <c r="BB40" s="13">
-        <v>-10506</v>
+        <v>-4582</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>60</v>
       </c>
@@ -5409,104 +5409,104 @@
       <c r="V41" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W41" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X41" s="11" t="s">
-        <v>57</v>
+      <c r="W41" s="11">
+        <v>0</v>
+      </c>
+      <c r="X41" s="11">
+        <v>0</v>
       </c>
       <c r="Y41" s="11">
-        <v>0</v>
+        <v>-376</v>
       </c>
       <c r="Z41" s="11">
-        <v>0</v>
+        <v>-5034</v>
       </c>
       <c r="AA41" s="11">
-        <v>-376</v>
+        <v>-356</v>
       </c>
       <c r="AB41" s="11">
-        <v>-5034</v>
+        <v>-5137</v>
       </c>
       <c r="AC41" s="11">
-        <v>-356</v>
+        <v>-4</v>
       </c>
       <c r="AD41" s="11">
-        <v>-5137</v>
+        <v>-18858</v>
       </c>
       <c r="AE41" s="11">
-        <v>-4</v>
+        <v>-679</v>
       </c>
       <c r="AF41" s="11">
-        <v>-18858</v>
+        <v>-980</v>
       </c>
       <c r="AG41" s="11">
-        <v>-679</v>
+        <v>-1472</v>
       </c>
       <c r="AH41" s="11">
-        <v>-980</v>
+        <v>-1570</v>
       </c>
       <c r="AI41" s="11">
-        <v>-1472</v>
+        <v>-2199</v>
       </c>
       <c r="AJ41" s="11">
-        <v>-1570</v>
+        <v>-5918</v>
       </c>
       <c r="AK41" s="11">
-        <v>-2199</v>
+        <v>-5967</v>
       </c>
       <c r="AL41" s="11">
-        <v>-5918</v>
+        <v>-2748</v>
       </c>
       <c r="AM41" s="11">
-        <v>-5967</v>
+        <v>-11144</v>
       </c>
       <c r="AN41" s="11">
-        <v>-2748</v>
+        <v>-506</v>
       </c>
       <c r="AO41" s="11">
-        <v>-11144</v>
+        <v>-453</v>
       </c>
       <c r="AP41" s="11">
-        <v>-506</v>
+        <v>-7790</v>
       </c>
       <c r="AQ41" s="11">
-        <v>-453</v>
+        <v>-17454</v>
       </c>
       <c r="AR41" s="11">
-        <v>-7790</v>
+        <v>0</v>
       </c>
       <c r="AS41" s="11">
-        <v>-17454</v>
+        <v>-1204</v>
       </c>
       <c r="AT41" s="11">
-        <v>-370</v>
+        <v>-17703</v>
       </c>
       <c r="AU41" s="11">
-        <v>-7802</v>
+        <v>-11935</v>
       </c>
       <c r="AV41" s="11">
-        <v>-18371</v>
+        <v>-33858</v>
       </c>
       <c r="AW41" s="11">
-        <v>-9789</v>
+        <v>-13076</v>
       </c>
       <c r="AX41" s="11">
-        <v>-33858</v>
+        <v>-28613</v>
       </c>
       <c r="AY41" s="11">
-        <v>-13076</v>
+        <v>-19851</v>
       </c>
       <c r="AZ41" s="11">
-        <v>-28613</v>
+        <v>-13109</v>
       </c>
       <c r="BA41" s="11">
-        <v>-19851</v>
+        <v>-35820</v>
       </c>
       <c r="BB41" s="11">
-        <v>-13109</v>
+        <v>-94677</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
         <v>61</v>
       </c>
@@ -5583,23 +5583,23 @@
       <c r="AA42" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AB42" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC42" s="13" t="s">
-        <v>57</v>
+      <c r="AB42" s="13">
+        <v>-40000</v>
+      </c>
+      <c r="AC42" s="13">
+        <v>0</v>
       </c>
       <c r="AD42" s="13">
-        <v>-40000</v>
+        <v>0</v>
       </c>
       <c r="AE42" s="13">
         <v>0</v>
       </c>
-      <c r="AF42" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG42" s="13">
-        <v>0</v>
+      <c r="AF42" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG42" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AH42" s="13" t="s">
         <v>57</v>
@@ -5622,17 +5622,17 @@
       <c r="AN42" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AO42" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP42" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ42" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR42" s="13">
-        <v>0</v>
+      <c r="AO42" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP42" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ42" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR42" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AS42" s="13" t="s">
         <v>57</v>
@@ -5665,7 +5665,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
         <v>64</v>
       </c>
@@ -5787,44 +5787,44 @@
       <c r="AP43" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AQ43" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR43" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS43" s="11">
+      <c r="AQ43" s="11">
         <v>-17028</v>
       </c>
-      <c r="AT43" s="11" t="s">
-        <v>57</v>
+      <c r="AR43" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS43" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT43" s="11">
+        <v>-11605</v>
       </c>
       <c r="AU43" s="11">
-        <v>0</v>
+        <v>-11824</v>
       </c>
       <c r="AV43" s="11">
-        <v>-11594</v>
+        <v>-14299</v>
       </c>
       <c r="AW43" s="11">
-        <v>-19520</v>
+        <v>-352</v>
       </c>
       <c r="AX43" s="11">
-        <v>-14299</v>
+        <v>-4591</v>
       </c>
       <c r="AY43" s="11">
-        <v>-352</v>
+        <v>-11989</v>
       </c>
       <c r="AZ43" s="11">
-        <v>-4591</v>
+        <v>-34019</v>
       </c>
       <c r="BA43" s="11">
-        <v>-11989</v>
+        <v>-612</v>
       </c>
       <c r="BB43" s="11">
-        <v>-34019</v>
+        <v>-3266</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="s">
         <v>70</v>
       </c>
@@ -5884,261 +5884,261 @@
       <c r="V44" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="W44" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="X44" s="19" t="s">
-        <v>57</v>
+      <c r="W44" s="19">
+        <v>-885</v>
+      </c>
+      <c r="X44" s="19">
+        <v>-31944</v>
       </c>
       <c r="Y44" s="19">
-        <v>-885</v>
+        <v>-22393</v>
       </c>
       <c r="Z44" s="19">
-        <v>-31944</v>
+        <v>-20227</v>
       </c>
       <c r="AA44" s="19">
-        <v>-22393</v>
+        <v>-31105</v>
       </c>
       <c r="AB44" s="19">
-        <v>-20227</v>
+        <v>-57205</v>
       </c>
       <c r="AC44" s="19">
-        <v>-31105</v>
+        <v>-6225</v>
       </c>
       <c r="AD44" s="19">
-        <v>-57205</v>
+        <v>-22723</v>
       </c>
       <c r="AE44" s="19">
-        <v>-6225</v>
+        <v>-19492</v>
       </c>
       <c r="AF44" s="19">
-        <v>-22723</v>
+        <v>-4347</v>
       </c>
       <c r="AG44" s="19">
-        <v>-19492</v>
+        <v>-4527</v>
       </c>
       <c r="AH44" s="19">
-        <v>-4347</v>
+        <v>-18413</v>
       </c>
       <c r="AI44" s="19">
-        <v>-4527</v>
+        <v>-7961</v>
       </c>
       <c r="AJ44" s="19">
-        <v>-18413</v>
+        <v>-8741</v>
       </c>
       <c r="AK44" s="19">
-        <v>-7961</v>
+        <v>-9487</v>
       </c>
       <c r="AL44" s="19">
-        <v>-8741</v>
+        <v>-8708</v>
       </c>
       <c r="AM44" s="19">
-        <v>-9487</v>
+        <v>-25555</v>
       </c>
       <c r="AN44" s="19">
-        <v>-8708</v>
+        <v>-17190</v>
       </c>
       <c r="AO44" s="19">
-        <v>-25555</v>
+        <v>-16270</v>
       </c>
       <c r="AP44" s="19">
-        <v>-17190</v>
+        <v>-39623</v>
       </c>
       <c r="AQ44" s="19">
-        <v>-16270</v>
+        <v>-41527</v>
       </c>
       <c r="AR44" s="19">
-        <v>-39623</v>
+        <v>0</v>
       </c>
       <c r="AS44" s="19">
-        <v>-41527</v>
+        <v>-4528</v>
       </c>
       <c r="AT44" s="19">
-        <v>-17301</v>
+        <v>-36448</v>
       </c>
       <c r="AU44" s="19">
-        <v>-25744</v>
+        <v>-35603</v>
       </c>
       <c r="AV44" s="19">
-        <v>-37105</v>
+        <v>-60307</v>
       </c>
       <c r="AW44" s="19">
-        <v>-39287</v>
+        <v>-27307</v>
       </c>
       <c r="AX44" s="19">
-        <v>-60307</v>
+        <v>-38785</v>
       </c>
       <c r="AY44" s="19">
-        <v>-27307</v>
+        <v>-43787</v>
       </c>
       <c r="AZ44" s="19">
-        <v>-38785</v>
+        <v>-57634</v>
       </c>
       <c r="BA44" s="19">
-        <v>-43787</v>
+        <v>-45387</v>
       </c>
       <c r="BB44" s="19">
-        <v>-57634</v>
+        <v>-102525</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="16" t="s">
         <v>67</v>
       </c>
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
       <c r="E45" s="17">
-        <v>160034</v>
+        <v>114819</v>
       </c>
       <c r="F45" s="17">
-        <v>152073</v>
+        <v>138766</v>
       </c>
       <c r="G45" s="17">
-        <v>114819</v>
+        <v>245542</v>
       </c>
       <c r="H45" s="17">
-        <v>138766</v>
+        <v>93644</v>
       </c>
       <c r="I45" s="17">
-        <v>245542</v>
+        <v>177668</v>
       </c>
       <c r="J45" s="17">
-        <v>93644</v>
+        <v>175180</v>
       </c>
       <c r="K45" s="17">
-        <v>177668</v>
+        <v>273882</v>
       </c>
       <c r="L45" s="17">
-        <v>175180</v>
+        <v>265706</v>
       </c>
       <c r="M45" s="17">
-        <v>273882</v>
+        <v>347285</v>
       </c>
       <c r="N45" s="17">
-        <v>265706</v>
+        <v>319948</v>
       </c>
       <c r="O45" s="17">
-        <v>347285</v>
+        <v>306235</v>
       </c>
       <c r="P45" s="17">
-        <v>319948</v>
+        <v>346083</v>
       </c>
       <c r="Q45" s="17">
-        <v>306235</v>
+        <v>407338</v>
       </c>
       <c r="R45" s="17">
-        <v>346083</v>
+        <v>591458</v>
       </c>
       <c r="S45" s="17">
-        <v>407338</v>
+        <v>582253</v>
       </c>
       <c r="T45" s="17">
-        <v>591458</v>
+        <v>225011</v>
       </c>
       <c r="U45" s="17">
-        <v>582253</v>
+        <v>271097</v>
       </c>
       <c r="V45" s="17">
-        <v>225011</v>
+        <v>465889</v>
       </c>
       <c r="W45" s="17">
-        <v>271097</v>
+        <v>463862</v>
       </c>
       <c r="X45" s="17">
-        <v>465889</v>
+        <v>414272</v>
       </c>
       <c r="Y45" s="17">
-        <v>463862</v>
+        <v>431053</v>
       </c>
       <c r="Z45" s="17">
-        <v>414272</v>
+        <v>379811</v>
       </c>
       <c r="AA45" s="17">
-        <v>431053</v>
+        <v>366845</v>
       </c>
       <c r="AB45" s="17">
-        <v>379811</v>
+        <v>414706</v>
       </c>
       <c r="AC45" s="17">
-        <v>366845</v>
+        <v>393986</v>
       </c>
       <c r="AD45" s="17">
-        <v>414706</v>
+        <v>332699</v>
       </c>
       <c r="AE45" s="17">
-        <v>393986</v>
+        <v>418860</v>
       </c>
       <c r="AF45" s="17">
-        <v>332699</v>
+        <v>268812</v>
       </c>
       <c r="AG45" s="17">
-        <v>418860</v>
+        <v>403217</v>
       </c>
       <c r="AH45" s="17">
-        <v>268812</v>
+        <v>391837</v>
       </c>
       <c r="AI45" s="17">
-        <v>403217</v>
+        <v>350437</v>
       </c>
       <c r="AJ45" s="17">
-        <v>391837</v>
+        <v>407891</v>
       </c>
       <c r="AK45" s="17">
-        <v>350437</v>
+        <v>410875</v>
       </c>
       <c r="AL45" s="17">
-        <v>407891</v>
+        <v>374811</v>
       </c>
       <c r="AM45" s="17">
-        <v>410875</v>
+        <v>372669</v>
       </c>
       <c r="AN45" s="17">
-        <v>374811</v>
+        <v>350673</v>
       </c>
       <c r="AO45" s="17">
-        <v>372669</v>
+        <v>398244</v>
       </c>
       <c r="AP45" s="17">
-        <v>350673</v>
+        <v>431641</v>
       </c>
       <c r="AQ45" s="17">
-        <v>398244</v>
+        <v>427616</v>
       </c>
       <c r="AR45" s="17">
-        <v>268565</v>
+        <v>267876</v>
       </c>
       <c r="AS45" s="17">
-        <v>427616</v>
+        <v>507495</v>
       </c>
       <c r="AT45" s="17">
-        <v>261884</v>
+        <v>651303</v>
       </c>
       <c r="AU45" s="17">
-        <v>344386</v>
+        <v>724869</v>
       </c>
       <c r="AV45" s="17">
-        <v>655493</v>
+        <v>579172</v>
       </c>
       <c r="AW45" s="17">
-        <v>706368</v>
+        <v>461779</v>
       </c>
       <c r="AX45" s="17">
-        <v>579172</v>
+        <v>582159</v>
       </c>
       <c r="AY45" s="17">
-        <v>461779</v>
+        <v>644707</v>
       </c>
       <c r="AZ45" s="17">
-        <v>582159</v>
+        <v>601923</v>
       </c>
       <c r="BA45" s="17">
-        <v>644707</v>
+        <v>559514</v>
       </c>
       <c r="BB45" s="17">
-        <v>601923</v>
+        <v>653727</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -6193,7 +6193,7 @@
       <c r="BA46" s="1"/>
       <c r="BB46" s="1"/>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -6248,7 +6248,7 @@
       <c r="BA47" s="1"/>
       <c r="BB47" s="1"/>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -6303,7 +6303,7 @@
       <c r="BA48" s="1"/>
       <c r="BB48" s="1"/>
     </row>
-    <row r="49" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
         <v>71</v>
       </c>
@@ -6460,7 +6460,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -6515,7 +6515,7 @@
       <c r="BA50" s="1"/>
       <c r="BB50" s="1"/>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
         <v>71</v>
       </c>
@@ -6572,7 +6572,7 @@
       <c r="BA51" s="9"/>
       <c r="BB51" s="9"/>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
         <v>55</v>
       </c>
@@ -6676,14 +6676,14 @@
       <c r="AJ52" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AK52" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL52" s="11" t="s">
-        <v>57</v>
+      <c r="AK52" s="11">
+        <v>1563</v>
+      </c>
+      <c r="AL52" s="11">
+        <v>0</v>
       </c>
       <c r="AM52" s="11">
-        <v>1563</v>
+        <v>0</v>
       </c>
       <c r="AN52" s="11">
         <v>0</v>
@@ -6694,14 +6694,14 @@
       <c r="AP52" s="11">
         <v>0</v>
       </c>
-      <c r="AQ52" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR52" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS52" s="11" t="s">
-        <v>57</v>
+      <c r="AQ52" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR52" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS52" s="11">
+        <v>0</v>
       </c>
       <c r="AT52" s="11">
         <v>0</v>
@@ -6731,7 +6731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="12" t="s">
         <v>58</v>
       </c>
@@ -6740,130 +6740,130 @@
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="13">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="F53" s="13">
-        <v>596</v>
+        <v>55</v>
       </c>
       <c r="G53" s="13">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="H53" s="13">
-        <v>55</v>
+        <v>7750</v>
       </c>
       <c r="I53" s="13">
-        <v>67</v>
+        <v>16408</v>
       </c>
       <c r="J53" s="13">
-        <v>7750</v>
+        <v>12670</v>
       </c>
       <c r="K53" s="13">
-        <v>16408</v>
+        <v>20306</v>
       </c>
       <c r="L53" s="13">
-        <v>12670</v>
+        <v>19799</v>
       </c>
       <c r="M53" s="13">
-        <v>20306</v>
+        <v>18407</v>
       </c>
       <c r="N53" s="13">
-        <v>19799</v>
+        <v>22046</v>
       </c>
       <c r="O53" s="13">
-        <v>18407</v>
+        <v>21757</v>
       </c>
       <c r="P53" s="13">
-        <v>22046</v>
+        <v>30279</v>
       </c>
       <c r="Q53" s="13">
-        <v>21757</v>
+        <v>59574</v>
       </c>
       <c r="R53" s="13">
-        <v>30279</v>
+        <v>34749</v>
       </c>
       <c r="S53" s="13">
-        <v>59574</v>
+        <v>46683</v>
       </c>
       <c r="T53" s="13">
-        <v>34749</v>
+        <v>6487</v>
       </c>
       <c r="U53" s="13">
-        <v>46683</v>
+        <v>21073</v>
       </c>
       <c r="V53" s="13">
-        <v>6487</v>
+        <v>57342</v>
       </c>
       <c r="W53" s="13">
-        <v>21073</v>
+        <v>60885</v>
       </c>
       <c r="X53" s="13">
-        <v>57342</v>
+        <v>64277</v>
       </c>
       <c r="Y53" s="13">
-        <v>60885</v>
+        <v>81944</v>
       </c>
       <c r="Z53" s="13">
-        <v>64277</v>
+        <v>43532</v>
       </c>
       <c r="AA53" s="13">
-        <v>81944</v>
+        <v>64192</v>
       </c>
       <c r="AB53" s="13">
-        <v>43532</v>
+        <v>83733</v>
       </c>
       <c r="AC53" s="13">
-        <v>64192</v>
+        <v>58123</v>
       </c>
       <c r="AD53" s="13">
-        <v>83733</v>
+        <v>76689</v>
       </c>
       <c r="AE53" s="13">
-        <v>58123</v>
+        <v>80315</v>
       </c>
       <c r="AF53" s="13">
-        <v>76689</v>
+        <v>52524</v>
       </c>
       <c r="AG53" s="13">
-        <v>80315</v>
+        <v>119689</v>
       </c>
       <c r="AH53" s="13">
-        <v>52524</v>
+        <v>139802</v>
       </c>
       <c r="AI53" s="13">
-        <v>119689</v>
+        <v>98445</v>
       </c>
       <c r="AJ53" s="13">
-        <v>139802</v>
+        <v>113808</v>
       </c>
       <c r="AK53" s="13">
-        <v>98445</v>
+        <v>116739</v>
       </c>
       <c r="AL53" s="13">
-        <v>113808</v>
+        <v>131973</v>
       </c>
       <c r="AM53" s="13">
-        <v>116739</v>
+        <v>157383</v>
       </c>
       <c r="AN53" s="13">
-        <v>131973</v>
+        <v>121859</v>
       </c>
       <c r="AO53" s="13">
-        <v>157383</v>
+        <v>107824</v>
       </c>
       <c r="AP53" s="13">
-        <v>121859</v>
-      </c>
-      <c r="AQ53" s="13">
-        <v>107824</v>
-      </c>
-      <c r="AR53" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS53" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT53" s="13">
-        <v>96046</v>
+        <v>149739</v>
+      </c>
+      <c r="AQ53" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR53" s="13">
+        <v>85351</v>
+      </c>
+      <c r="AS53" s="13">
+        <v>214011</v>
+      </c>
+      <c r="AT53" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU53" s="13" t="s">
         <v>57</v>
@@ -6890,7 +6890,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
         <v>59</v>
       </c>
@@ -6899,157 +6899,157 @@
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11">
-        <v>8906</v>
+        <v>8682</v>
       </c>
       <c r="F54" s="11">
-        <v>7662</v>
+        <v>7854</v>
       </c>
       <c r="G54" s="11">
-        <v>8682</v>
+        <v>16396</v>
       </c>
       <c r="H54" s="11">
-        <v>7854</v>
+        <v>5360</v>
       </c>
       <c r="I54" s="11">
-        <v>16396</v>
+        <v>8916</v>
       </c>
       <c r="J54" s="11">
-        <v>5360</v>
+        <v>8559</v>
       </c>
       <c r="K54" s="11">
-        <v>8916</v>
+        <v>11574</v>
       </c>
       <c r="L54" s="11">
-        <v>8559</v>
+        <v>19203</v>
       </c>
       <c r="M54" s="11">
-        <v>11574</v>
+        <v>28049</v>
       </c>
       <c r="N54" s="11">
-        <v>19203</v>
+        <v>29900</v>
       </c>
       <c r="O54" s="11">
-        <v>28049</v>
+        <v>28500</v>
       </c>
       <c r="P54" s="11">
-        <v>29900</v>
+        <v>25527</v>
       </c>
       <c r="Q54" s="11">
-        <v>28500</v>
+        <v>18873</v>
       </c>
       <c r="R54" s="11">
-        <v>25527</v>
+        <v>61142</v>
       </c>
       <c r="S54" s="11">
-        <v>18873</v>
+        <v>52957</v>
       </c>
       <c r="T54" s="11">
-        <v>61142</v>
+        <v>20539</v>
       </c>
       <c r="U54" s="11">
-        <v>52957</v>
+        <v>23097</v>
       </c>
       <c r="V54" s="11">
-        <v>20539</v>
+        <v>36231</v>
       </c>
       <c r="W54" s="11">
-        <v>23097</v>
+        <v>46197</v>
       </c>
       <c r="X54" s="11">
-        <v>36231</v>
+        <v>45820</v>
       </c>
       <c r="Y54" s="11">
-        <v>46197</v>
+        <v>47797</v>
       </c>
       <c r="Z54" s="11">
-        <v>45820</v>
+        <v>44440</v>
       </c>
       <c r="AA54" s="11">
-        <v>47797</v>
+        <v>54849</v>
       </c>
       <c r="AB54" s="11">
-        <v>44440</v>
+        <v>62347</v>
       </c>
       <c r="AC54" s="11">
-        <v>54849</v>
+        <v>73256</v>
       </c>
       <c r="AD54" s="11">
-        <v>62347</v>
+        <v>66174</v>
       </c>
       <c r="AE54" s="11">
-        <v>73256</v>
+        <v>58493</v>
       </c>
       <c r="AF54" s="11">
-        <v>66174</v>
+        <v>36099</v>
       </c>
       <c r="AG54" s="11">
-        <v>58493</v>
+        <v>67701</v>
       </c>
       <c r="AH54" s="11">
-        <v>36099</v>
+        <v>79681</v>
       </c>
       <c r="AI54" s="11">
-        <v>67701</v>
+        <v>80104</v>
       </c>
       <c r="AJ54" s="11">
-        <v>79681</v>
+        <v>67462</v>
       </c>
       <c r="AK54" s="11">
-        <v>80104</v>
+        <v>64859</v>
       </c>
       <c r="AL54" s="11">
-        <v>67462</v>
+        <v>67222</v>
       </c>
       <c r="AM54" s="11">
-        <v>64859</v>
+        <v>66837</v>
       </c>
       <c r="AN54" s="11">
-        <v>67222</v>
+        <v>82176</v>
       </c>
       <c r="AO54" s="11">
-        <v>66837</v>
+        <v>88420</v>
       </c>
       <c r="AP54" s="11">
-        <v>82176</v>
+        <v>56443</v>
       </c>
       <c r="AQ54" s="11">
-        <v>88420</v>
+        <v>28092</v>
       </c>
       <c r="AR54" s="11">
-        <v>56093</v>
+        <v>14264</v>
       </c>
       <c r="AS54" s="11">
-        <v>28092</v>
+        <v>84927</v>
       </c>
       <c r="AT54" s="11">
-        <v>14264</v>
+        <v>93239</v>
       </c>
       <c r="AU54" s="11">
-        <v>90970</v>
+        <v>195194</v>
       </c>
       <c r="AV54" s="11">
-        <v>93747</v>
+        <v>80806</v>
       </c>
       <c r="AW54" s="11">
-        <v>195196</v>
+        <v>26209</v>
       </c>
       <c r="AX54" s="11">
-        <v>80804</v>
+        <v>60429</v>
       </c>
       <c r="AY54" s="11">
-        <v>26209</v>
+        <v>66505</v>
       </c>
       <c r="AZ54" s="11">
-        <v>60429</v>
+        <v>45023</v>
       </c>
       <c r="BA54" s="11">
-        <v>66505</v>
+        <v>51994</v>
       </c>
       <c r="BB54" s="11">
-        <v>45024</v>
+        <v>146949</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="12" t="s">
         <v>60</v>
       </c>
@@ -7058,157 +7058,157 @@
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="13">
-        <v>2004</v>
+        <v>2723</v>
       </c>
       <c r="F55" s="13">
-        <v>2179</v>
+        <v>4738</v>
       </c>
       <c r="G55" s="13">
-        <v>2723</v>
+        <v>9577</v>
       </c>
       <c r="H55" s="13">
-        <v>4738</v>
+        <v>4617</v>
       </c>
       <c r="I55" s="13">
-        <v>9577</v>
+        <v>9722</v>
       </c>
       <c r="J55" s="13">
-        <v>4617</v>
+        <v>18358</v>
       </c>
       <c r="K55" s="13">
-        <v>9722</v>
+        <v>7480</v>
       </c>
       <c r="L55" s="13">
-        <v>18358</v>
+        <v>25723</v>
       </c>
       <c r="M55" s="13">
-        <v>7480</v>
+        <v>43056</v>
       </c>
       <c r="N55" s="13">
-        <v>25723</v>
+        <v>28523</v>
       </c>
       <c r="O55" s="13">
-        <v>43056</v>
+        <v>42759</v>
       </c>
       <c r="P55" s="13">
-        <v>28523</v>
+        <v>41972</v>
       </c>
       <c r="Q55" s="13">
-        <v>42759</v>
+        <v>32527</v>
       </c>
       <c r="R55" s="13">
-        <v>41972</v>
+        <v>53013</v>
       </c>
       <c r="S55" s="13">
-        <v>32527</v>
+        <v>50393</v>
       </c>
       <c r="T55" s="13">
-        <v>53013</v>
+        <v>49569</v>
       </c>
       <c r="U55" s="13">
-        <v>50393</v>
+        <v>63579</v>
       </c>
       <c r="V55" s="13">
-        <v>49569</v>
+        <v>48522</v>
       </c>
       <c r="W55" s="13">
-        <v>63579</v>
+        <v>84990</v>
       </c>
       <c r="X55" s="13">
-        <v>48522</v>
+        <v>86199</v>
       </c>
       <c r="Y55" s="13">
-        <v>84990</v>
+        <v>80325</v>
       </c>
       <c r="Z55" s="13">
-        <v>86199</v>
+        <v>105552</v>
       </c>
       <c r="AA55" s="13">
-        <v>80325</v>
+        <v>138740</v>
       </c>
       <c r="AB55" s="13">
-        <v>105552</v>
+        <v>194860</v>
       </c>
       <c r="AC55" s="13">
-        <v>138740</v>
+        <v>171803</v>
       </c>
       <c r="AD55" s="13">
-        <v>194860</v>
+        <v>118681</v>
       </c>
       <c r="AE55" s="13">
-        <v>171803</v>
+        <v>136778</v>
       </c>
       <c r="AF55" s="13">
-        <v>118681</v>
+        <v>109801</v>
       </c>
       <c r="AG55" s="13">
-        <v>136778</v>
+        <v>141824</v>
       </c>
       <c r="AH55" s="13">
-        <v>109801</v>
+        <v>208221</v>
       </c>
       <c r="AI55" s="13">
-        <v>141824</v>
+        <v>250319</v>
       </c>
       <c r="AJ55" s="13">
-        <v>208221</v>
+        <v>273055</v>
       </c>
       <c r="AK55" s="13">
-        <v>250319</v>
+        <v>257764</v>
       </c>
       <c r="AL55" s="13">
-        <v>273055</v>
+        <v>228599</v>
       </c>
       <c r="AM55" s="13">
-        <v>257764</v>
+        <v>183541</v>
       </c>
       <c r="AN55" s="13">
-        <v>228599</v>
+        <v>232289</v>
       </c>
       <c r="AO55" s="13">
-        <v>183541</v>
+        <v>248217</v>
       </c>
       <c r="AP55" s="13">
-        <v>232289</v>
+        <v>334637</v>
       </c>
       <c r="AQ55" s="13">
-        <v>248217</v>
+        <v>452298</v>
       </c>
       <c r="AR55" s="13">
-        <v>334028</v>
+        <v>262524</v>
       </c>
       <c r="AS55" s="13">
-        <v>452298</v>
+        <v>334900</v>
       </c>
       <c r="AT55" s="13">
-        <v>234226</v>
+        <v>724726</v>
       </c>
       <c r="AU55" s="13">
-        <v>440920</v>
+        <v>744070</v>
       </c>
       <c r="AV55" s="13">
-        <v>724348</v>
+        <v>951218</v>
       </c>
       <c r="AW55" s="13">
-        <v>716450</v>
+        <v>1013746</v>
       </c>
       <c r="AX55" s="13">
-        <v>951401</v>
+        <v>930004</v>
       </c>
       <c r="AY55" s="13">
-        <v>1013746</v>
+        <v>838072</v>
       </c>
       <c r="AZ55" s="13">
-        <v>930004</v>
+        <v>997328</v>
       </c>
       <c r="BA55" s="13">
-        <v>838072</v>
+        <v>1007850</v>
       </c>
       <c r="BB55" s="13">
-        <v>998243</v>
+        <v>1155733</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>61</v>
       </c>
@@ -7279,29 +7279,29 @@
       <c r="Y56" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Z56" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA56" s="11" t="s">
-        <v>57</v>
+      <c r="Z56" s="11">
+        <v>20055</v>
+      </c>
+      <c r="AA56" s="11">
+        <v>13880</v>
       </c>
       <c r="AB56" s="11">
-        <v>20055</v>
+        <v>336</v>
       </c>
       <c r="AC56" s="11">
-        <v>13880</v>
+        <v>0</v>
       </c>
       <c r="AD56" s="11">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="AE56" s="11">
         <v>0</v>
       </c>
-      <c r="AF56" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG56" s="11">
-        <v>0</v>
+      <c r="AF56" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG56" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AH56" s="11" t="s">
         <v>57</v>
@@ -7312,11 +7312,11 @@
       <c r="AJ56" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AK56" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL56" s="11" t="s">
-        <v>57</v>
+      <c r="AK56" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL56" s="11">
+        <v>0</v>
       </c>
       <c r="AM56" s="11">
         <v>0</v>
@@ -7330,14 +7330,14 @@
       <c r="AP56" s="11">
         <v>0</v>
       </c>
-      <c r="AQ56" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR56" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS56" s="11" t="s">
-        <v>57</v>
+      <c r="AQ56" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR56" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS56" s="11">
+        <v>0</v>
       </c>
       <c r="AT56" s="11">
         <v>0</v>
@@ -7367,7 +7367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="12" t="s">
         <v>62</v>
       </c>
@@ -7376,20 +7376,20 @@
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="13">
-        <v>10967</v>
+        <v>8190</v>
       </c>
       <c r="F57" s="13">
-        <v>9294</v>
+        <v>4464</v>
       </c>
       <c r="G57" s="13">
-        <v>8190</v>
-      </c>
-      <c r="H57" s="13">
-        <v>4464</v>
-      </c>
-      <c r="I57" s="13">
         <v>18426</v>
       </c>
+      <c r="H57" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I57" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="J57" s="13" t="s">
         <v>57</v>
       </c>
@@ -7526,7 +7526,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>63</v>
       </c>
@@ -7543,50 +7543,50 @@
       <c r="G58" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H58" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I58" s="11" t="s">
-        <v>57</v>
+      <c r="H58" s="11">
+        <v>509</v>
+      </c>
+      <c r="I58" s="11">
+        <v>590</v>
       </c>
       <c r="J58" s="11">
-        <v>509</v>
+        <v>1659</v>
       </c>
       <c r="K58" s="11">
-        <v>590</v>
+        <v>8093</v>
       </c>
       <c r="L58" s="11">
-        <v>1659</v>
+        <v>3380</v>
       </c>
       <c r="M58" s="11">
-        <v>8093</v>
+        <v>14347</v>
       </c>
       <c r="N58" s="11">
-        <v>3380</v>
+        <v>24</v>
       </c>
       <c r="O58" s="11">
-        <v>14347</v>
+        <v>183</v>
       </c>
       <c r="P58" s="11">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="Q58" s="11">
-        <v>183</v>
+        <v>1</v>
       </c>
       <c r="R58" s="11">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="S58" s="11">
-        <v>1</v>
-      </c>
-      <c r="T58" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="T58" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="U58" s="11">
         <v>0</v>
       </c>
-      <c r="V58" s="11" t="s">
-        <v>57</v>
+      <c r="V58" s="11">
+        <v>0</v>
       </c>
       <c r="W58" s="11">
         <v>0</v>
@@ -7615,11 +7615,11 @@
       <c r="AE58" s="11">
         <v>0</v>
       </c>
-      <c r="AF58" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG58" s="11">
-        <v>0</v>
+      <c r="AF58" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG58" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AH58" s="11" t="s">
         <v>57</v>
@@ -7685,7 +7685,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="12" t="s">
         <v>64</v>
       </c>
@@ -7807,44 +7807,44 @@
       <c r="AP59" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ59" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR59" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS59" s="13">
+      <c r="AQ59" s="13">
         <v>146692</v>
       </c>
-      <c r="AT59" s="13" t="s">
-        <v>57</v>
+      <c r="AR59" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS59" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT59" s="13">
+        <v>175879</v>
       </c>
       <c r="AU59" s="13">
-        <v>0</v>
+        <v>150141</v>
       </c>
       <c r="AV59" s="13">
-        <v>175277</v>
+        <v>122905</v>
       </c>
       <c r="AW59" s="13">
-        <v>148653</v>
+        <v>52360</v>
       </c>
       <c r="AX59" s="13">
-        <v>122905</v>
+        <v>151994</v>
       </c>
       <c r="AY59" s="13">
-        <v>52360</v>
+        <v>184554</v>
       </c>
       <c r="AZ59" s="13">
-        <v>151994</v>
+        <v>143266</v>
       </c>
       <c r="BA59" s="13">
-        <v>184554</v>
+        <v>107480</v>
       </c>
       <c r="BB59" s="13">
-        <v>143266</v>
+        <v>70624</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="14" t="s">
         <v>73</v>
       </c>
@@ -7901,7 +7901,7 @@
       <c r="BA60" s="15"/>
       <c r="BB60" s="15"/>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="16" t="s">
         <v>66</v>
       </c>
@@ -7963,11 +7963,11 @@
       <c r="V61" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W61" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X61" s="17" t="s">
-        <v>57</v>
+      <c r="W61" s="17">
+        <v>0</v>
+      </c>
+      <c r="X61" s="17">
+        <v>0</v>
       </c>
       <c r="Y61" s="17">
         <v>0</v>
@@ -8060,7 +8060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
         <v>74</v>
       </c>
@@ -8117,7 +8117,7 @@
       <c r="BA62" s="9"/>
       <c r="BB62" s="9"/>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>58</v>
       </c>
@@ -8179,77 +8179,77 @@
       <c r="V63" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W63" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X63" s="11" t="s">
-        <v>57</v>
+      <c r="W63" s="11">
+        <v>-106</v>
+      </c>
+      <c r="X63" s="11">
+        <v>-2472</v>
       </c>
       <c r="Y63" s="11">
-        <v>-106</v>
+        <v>-60</v>
       </c>
       <c r="Z63" s="11">
-        <v>-2472</v>
+        <v>-137</v>
       </c>
       <c r="AA63" s="11">
-        <v>-60</v>
+        <v>-3833</v>
       </c>
       <c r="AB63" s="11">
-        <v>-137</v>
+        <v>-812</v>
       </c>
       <c r="AC63" s="11">
-        <v>-3833</v>
+        <v>-53</v>
       </c>
       <c r="AD63" s="11">
-        <v>-812</v>
+        <v>-129</v>
       </c>
       <c r="AE63" s="11">
-        <v>-53</v>
+        <v>-1322</v>
       </c>
       <c r="AF63" s="11">
-        <v>-129</v>
+        <v>-768</v>
       </c>
       <c r="AG63" s="11">
-        <v>-1322</v>
+        <v>-532</v>
       </c>
       <c r="AH63" s="11">
-        <v>-768</v>
+        <v>-8083</v>
       </c>
       <c r="AI63" s="11">
-        <v>-532</v>
+        <v>-229</v>
       </c>
       <c r="AJ63" s="11">
-        <v>-8083</v>
+        <v>-1726</v>
       </c>
       <c r="AK63" s="11">
-        <v>-229</v>
+        <v>-523</v>
       </c>
       <c r="AL63" s="11">
-        <v>-1726</v>
+        <v>-4920</v>
       </c>
       <c r="AM63" s="11">
-        <v>-523</v>
+        <v>-9761</v>
       </c>
       <c r="AN63" s="11">
-        <v>-4920</v>
+        <v>-3755</v>
       </c>
       <c r="AO63" s="11">
-        <v>-9761</v>
+        <v>-4874</v>
       </c>
       <c r="AP63" s="11">
-        <v>-3755</v>
-      </c>
-      <c r="AQ63" s="11">
-        <v>-4874</v>
-      </c>
-      <c r="AR63" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS63" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT63" s="11">
-        <v>-13564</v>
+        <v>-11994</v>
+      </c>
+      <c r="AQ63" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR63" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS63" s="11">
+        <v>-171</v>
+      </c>
+      <c r="AT63" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AU63" s="11" t="s">
         <v>57</v>
@@ -8276,7 +8276,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
         <v>59</v>
       </c>
@@ -8338,104 +8338,104 @@
       <c r="V64" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W64" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="X64" s="13" t="s">
-        <v>57</v>
+      <c r="W64" s="13">
+        <v>-85</v>
+      </c>
+      <c r="X64" s="13">
+        <v>-5756</v>
       </c>
       <c r="Y64" s="13">
-        <v>-85</v>
+        <v>-6318</v>
       </c>
       <c r="Z64" s="13">
-        <v>-5756</v>
+        <v>-2640</v>
       </c>
       <c r="AA64" s="13">
-        <v>-6318</v>
+        <v>-6145</v>
       </c>
       <c r="AB64" s="13">
-        <v>-2640</v>
+        <v>-3048</v>
       </c>
       <c r="AC64" s="13">
-        <v>-6145</v>
+        <v>-2505</v>
       </c>
       <c r="AD64" s="13">
-        <v>-3048</v>
+        <v>-1566</v>
       </c>
       <c r="AE64" s="13">
-        <v>-2505</v>
+        <v>-3535</v>
       </c>
       <c r="AF64" s="13">
-        <v>-1566</v>
+        <v>-305</v>
       </c>
       <c r="AG64" s="13">
-        <v>-3535</v>
+        <v>-291</v>
       </c>
       <c r="AH64" s="13">
-        <v>-305</v>
+        <v>-1972</v>
       </c>
       <c r="AI64" s="13">
-        <v>-291</v>
+        <v>-3272</v>
       </c>
       <c r="AJ64" s="13">
-        <v>-1972</v>
+        <v>-341</v>
       </c>
       <c r="AK64" s="13">
-        <v>-3272</v>
+        <v>-2253</v>
       </c>
       <c r="AL64" s="13">
-        <v>-341</v>
+        <v>0</v>
       </c>
       <c r="AM64" s="13">
-        <v>-2253</v>
+        <v>-3407</v>
       </c>
       <c r="AN64" s="13">
-        <v>0</v>
+        <v>-9764</v>
       </c>
       <c r="AO64" s="13">
-        <v>-3407</v>
+        <v>-8583</v>
       </c>
       <c r="AP64" s="13">
-        <v>-9764</v>
+        <v>-14577</v>
       </c>
       <c r="AQ64" s="13">
-        <v>-8583</v>
+        <v>-5521</v>
       </c>
       <c r="AR64" s="13">
-        <v>-14593</v>
+        <v>0</v>
       </c>
       <c r="AS64" s="13">
-        <v>-5521</v>
+        <v>-2260</v>
       </c>
       <c r="AT64" s="13">
-        <v>-3671</v>
+        <v>-5376</v>
       </c>
       <c r="AU64" s="13">
-        <v>-2060</v>
+        <v>-9343</v>
       </c>
       <c r="AV64" s="13">
-        <v>-5387</v>
+        <v>-8468</v>
       </c>
       <c r="AW64" s="13">
-        <v>-7822</v>
+        <v>-9351</v>
       </c>
       <c r="AX64" s="13">
-        <v>-9344</v>
+        <v>-4197</v>
       </c>
       <c r="AY64" s="13">
-        <v>-9351</v>
+        <v>-9317</v>
       </c>
       <c r="AZ64" s="13">
-        <v>-4197</v>
+        <v>-8603</v>
       </c>
       <c r="BA64" s="13">
-        <v>-9317</v>
+        <v>-7835</v>
       </c>
       <c r="BB64" s="13">
-        <v>-8603</v>
+        <v>-3903</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
         <v>60</v>
       </c>
@@ -8497,104 +8497,104 @@
       <c r="V65" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W65" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X65" s="11" t="s">
-        <v>57</v>
+      <c r="W65" s="11">
+        <v>0</v>
+      </c>
+      <c r="X65" s="11">
+        <v>0</v>
       </c>
       <c r="Y65" s="11">
-        <v>0</v>
+        <v>-161</v>
       </c>
       <c r="Z65" s="11">
-        <v>0</v>
+        <v>-2322</v>
       </c>
       <c r="AA65" s="11">
-        <v>-161</v>
+        <v>-343</v>
       </c>
       <c r="AB65" s="11">
-        <v>-2322</v>
+        <v>-5950</v>
       </c>
       <c r="AC65" s="11">
-        <v>-343</v>
+        <v>-5</v>
       </c>
       <c r="AD65" s="11">
-        <v>-5950</v>
+        <v>-21821</v>
       </c>
       <c r="AE65" s="11">
-        <v>-5</v>
+        <v>-860</v>
       </c>
       <c r="AF65" s="11">
-        <v>-21821</v>
+        <v>-797</v>
       </c>
       <c r="AG65" s="11">
-        <v>-860</v>
+        <v>-1485</v>
       </c>
       <c r="AH65" s="11">
-        <v>-797</v>
+        <v>-1533</v>
       </c>
       <c r="AI65" s="11">
-        <v>-1485</v>
+        <v>-2667</v>
       </c>
       <c r="AJ65" s="11">
-        <v>-1533</v>
+        <v>-4119</v>
       </c>
       <c r="AK65" s="11">
-        <v>-2667</v>
+        <v>-5120</v>
       </c>
       <c r="AL65" s="11">
-        <v>-4119</v>
+        <v>-3819</v>
       </c>
       <c r="AM65" s="11">
-        <v>-5120</v>
+        <v>-8680</v>
       </c>
       <c r="AN65" s="11">
-        <v>-3819</v>
+        <v>-850</v>
       </c>
       <c r="AO65" s="11">
-        <v>-8680</v>
+        <v>-790</v>
       </c>
       <c r="AP65" s="11">
-        <v>-850</v>
+        <v>-12081</v>
       </c>
       <c r="AQ65" s="11">
-        <v>-790</v>
+        <v>-19728</v>
       </c>
       <c r="AR65" s="11">
-        <v>-12083</v>
+        <v>0</v>
       </c>
       <c r="AS65" s="11">
-        <v>-19728</v>
+        <v>-3561</v>
       </c>
       <c r="AT65" s="11">
-        <v>-94</v>
+        <v>-31350</v>
       </c>
       <c r="AU65" s="11">
-        <v>-11808</v>
+        <v>-23236</v>
       </c>
       <c r="AV65" s="11">
-        <v>-32717</v>
+        <v>-65685</v>
       </c>
       <c r="AW65" s="11">
-        <v>-18544</v>
+        <v>-31331</v>
       </c>
       <c r="AX65" s="11">
-        <v>-70834</v>
+        <v>-75393</v>
       </c>
       <c r="AY65" s="11">
-        <v>-31331</v>
+        <v>-49444</v>
       </c>
       <c r="AZ65" s="11">
-        <v>-75393</v>
+        <v>-35245</v>
       </c>
       <c r="BA65" s="11">
-        <v>-49444</v>
+        <v>-104351</v>
       </c>
       <c r="BB65" s="11">
-        <v>-35245</v>
+        <v>-302372</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="12" t="s">
         <v>61</v>
       </c>
@@ -8671,23 +8671,23 @@
       <c r="AA66" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AB66" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC66" s="13" t="s">
-        <v>57</v>
+      <c r="AB66" s="13">
+        <v>-26000</v>
+      </c>
+      <c r="AC66" s="13">
+        <v>0</v>
       </c>
       <c r="AD66" s="13">
-        <v>-26000</v>
+        <v>0</v>
       </c>
       <c r="AE66" s="13">
         <v>0</v>
       </c>
-      <c r="AF66" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG66" s="13">
-        <v>0</v>
+      <c r="AF66" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG66" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AH66" s="13" t="s">
         <v>57</v>
@@ -8707,11 +8707,11 @@
       <c r="AM66" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AN66" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO66" s="13" t="s">
-        <v>57</v>
+      <c r="AN66" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO66" s="13">
+        <v>0</v>
       </c>
       <c r="AP66" s="13">
         <v>0</v>
@@ -8719,11 +8719,11 @@
       <c r="AQ66" s="13">
         <v>0</v>
       </c>
-      <c r="AR66" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS66" s="13">
-        <v>0</v>
+      <c r="AR66" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS66" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT66" s="13" t="s">
         <v>57</v>
@@ -8753,7 +8753,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
         <v>64</v>
       </c>
@@ -8875,44 +8875,44 @@
       <c r="AP67" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AQ67" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR67" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS67" s="11">
+      <c r="AQ67" s="11">
         <v>-17776</v>
       </c>
-      <c r="AT67" s="11" t="s">
-        <v>57</v>
+      <c r="AR67" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS67" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT67" s="11">
+        <v>-9926</v>
       </c>
       <c r="AU67" s="11">
-        <v>0</v>
+        <v>-15485</v>
       </c>
       <c r="AV67" s="11">
-        <v>-9915</v>
+        <v>-18435</v>
       </c>
       <c r="AW67" s="11">
-        <v>-25387</v>
+        <v>-393</v>
       </c>
       <c r="AX67" s="11">
-        <v>-20478</v>
+        <v>-5781</v>
       </c>
       <c r="AY67" s="11">
-        <v>-393</v>
+        <v>-12182</v>
       </c>
       <c r="AZ67" s="11">
-        <v>-5781</v>
+        <v>-28935</v>
       </c>
       <c r="BA67" s="11">
-        <v>-12182</v>
+        <v>-488</v>
       </c>
       <c r="BB67" s="11">
-        <v>-28935</v>
+        <v>-2606</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="18" t="s">
         <v>70</v>
       </c>
@@ -8974,104 +8974,104 @@
       <c r="V68" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="W68" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="X68" s="19" t="s">
-        <v>57</v>
+      <c r="W68" s="19">
+        <v>-191</v>
+      </c>
+      <c r="X68" s="19">
+        <v>-8228</v>
       </c>
       <c r="Y68" s="19">
-        <v>-191</v>
+        <v>-6539</v>
       </c>
       <c r="Z68" s="19">
-        <v>-8228</v>
+        <v>-5099</v>
       </c>
       <c r="AA68" s="19">
-        <v>-6539</v>
+        <v>-10321</v>
       </c>
       <c r="AB68" s="19">
-        <v>-5099</v>
+        <v>-35810</v>
       </c>
       <c r="AC68" s="19">
-        <v>-10321</v>
+        <v>-2563</v>
       </c>
       <c r="AD68" s="19">
-        <v>-35810</v>
+        <v>-23516</v>
       </c>
       <c r="AE68" s="19">
-        <v>-2563</v>
+        <v>-5717</v>
       </c>
       <c r="AF68" s="19">
-        <v>-23516</v>
+        <v>-1870</v>
       </c>
       <c r="AG68" s="19">
-        <v>-5717</v>
+        <v>-2308</v>
       </c>
       <c r="AH68" s="19">
-        <v>-1870</v>
+        <v>-11588</v>
       </c>
       <c r="AI68" s="19">
-        <v>-2308</v>
+        <v>-6168</v>
       </c>
       <c r="AJ68" s="19">
-        <v>-11588</v>
+        <v>-6186</v>
       </c>
       <c r="AK68" s="19">
-        <v>-6168</v>
+        <v>-7896</v>
       </c>
       <c r="AL68" s="19">
-        <v>-6186</v>
+        <v>-8739</v>
       </c>
       <c r="AM68" s="19">
-        <v>-7896</v>
+        <v>-21848</v>
       </c>
       <c r="AN68" s="19">
-        <v>-8739</v>
+        <v>-14369</v>
       </c>
       <c r="AO68" s="19">
-        <v>-21848</v>
+        <v>-14247</v>
       </c>
       <c r="AP68" s="19">
-        <v>-14369</v>
+        <v>-38652</v>
       </c>
       <c r="AQ68" s="19">
-        <v>-14247</v>
+        <v>-43025</v>
       </c>
       <c r="AR68" s="19">
-        <v>-38670</v>
+        <v>0</v>
       </c>
       <c r="AS68" s="19">
-        <v>-43025</v>
+        <v>-5992</v>
       </c>
       <c r="AT68" s="19">
-        <v>-17329</v>
+        <v>-46652</v>
       </c>
       <c r="AU68" s="19">
-        <v>-30095</v>
+        <v>-48064</v>
       </c>
       <c r="AV68" s="19">
-        <v>-48019</v>
+        <v>-92588</v>
       </c>
       <c r="AW68" s="19">
-        <v>-51753</v>
+        <v>-41075</v>
       </c>
       <c r="AX68" s="19">
-        <v>-100656</v>
+        <v>-85371</v>
       </c>
       <c r="AY68" s="19">
-        <v>-41075</v>
+        <v>-70943</v>
       </c>
       <c r="AZ68" s="19">
-        <v>-85371</v>
+        <v>-72783</v>
       </c>
       <c r="BA68" s="19">
-        <v>-70943</v>
+        <v>-112674</v>
       </c>
       <c r="BB68" s="19">
-        <v>-72783</v>
+        <v>-308881</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
         <v>75</v>
       </c>
@@ -9128,7 +9128,7 @@
       <c r="BA69" s="9"/>
       <c r="BB69" s="9"/>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
         <v>76</v>
       </c>
@@ -9190,89 +9190,89 @@
       <c r="V70" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W70" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X70" s="11" t="s">
-        <v>57</v>
+      <c r="W70" s="11">
+        <v>-9160</v>
+      </c>
+      <c r="X70" s="11">
+        <v>-5836</v>
       </c>
       <c r="Y70" s="11">
-        <v>-9160</v>
+        <v>-3438</v>
       </c>
       <c r="Z70" s="11">
-        <v>-5836</v>
+        <v>-4747</v>
       </c>
       <c r="AA70" s="11">
-        <v>-3438</v>
+        <v>-7266</v>
       </c>
       <c r="AB70" s="11">
-        <v>-4747</v>
+        <v>-12062</v>
       </c>
       <c r="AC70" s="11">
-        <v>-7266</v>
+        <v>-18287</v>
       </c>
       <c r="AD70" s="11">
-        <v>-12062</v>
+        <v>-21548</v>
       </c>
       <c r="AE70" s="11">
-        <v>-18287</v>
+        <v>-10130</v>
       </c>
       <c r="AF70" s="11">
-        <v>-21548</v>
+        <v>-10758</v>
       </c>
       <c r="AG70" s="11">
-        <v>-10130</v>
+        <v>-40983</v>
       </c>
       <c r="AH70" s="11">
-        <v>-10758</v>
+        <v>-75350</v>
       </c>
       <c r="AI70" s="11">
-        <v>-40983</v>
+        <v>-77417</v>
       </c>
       <c r="AJ70" s="11">
-        <v>-75350</v>
+        <v>-67116</v>
       </c>
       <c r="AK70" s="11">
-        <v>-77417</v>
+        <v>-48926</v>
       </c>
       <c r="AL70" s="11">
-        <v>-67116</v>
+        <v>-37210</v>
       </c>
       <c r="AM70" s="11">
-        <v>-48926</v>
+        <v>-37940</v>
       </c>
       <c r="AN70" s="11">
-        <v>-37210</v>
+        <v>-43879</v>
       </c>
       <c r="AO70" s="11">
-        <v>-37940</v>
+        <v>-29439</v>
       </c>
       <c r="AP70" s="11">
-        <v>-43879</v>
+        <v>-453</v>
       </c>
       <c r="AQ70" s="11">
-        <v>-29439</v>
+        <v>1151</v>
       </c>
       <c r="AR70" s="11">
-        <v>-420</v>
+        <v>-493</v>
       </c>
       <c r="AS70" s="11">
-        <v>1151</v>
+        <v>-1804</v>
       </c>
       <c r="AT70" s="11">
-        <v>-493</v>
+        <v>0</v>
       </c>
       <c r="AU70" s="11">
-        <v>-2327</v>
+        <v>0</v>
       </c>
       <c r="AV70" s="11">
-        <v>1</v>
+        <v>-34</v>
       </c>
       <c r="AW70" s="11">
         <v>0</v>
       </c>
       <c r="AX70" s="11">
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="AY70" s="11">
         <v>0</v>
@@ -9281,170 +9281,170 @@
         <v>0</v>
       </c>
       <c r="BA70" s="11">
-        <v>0</v>
+        <v>-14597</v>
       </c>
       <c r="BB70" s="11">
-        <v>0</v>
+        <v>-61326</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="18" t="s">
         <v>67</v>
       </c>
       <c r="C71" s="19"/>
       <c r="D71" s="19"/>
       <c r="E71" s="19">
-        <v>21947</v>
+        <v>19596</v>
       </c>
       <c r="F71" s="19">
-        <v>19731</v>
+        <v>17111</v>
       </c>
       <c r="G71" s="19">
-        <v>19596</v>
+        <v>44466</v>
       </c>
       <c r="H71" s="19">
-        <v>17111</v>
+        <v>18236</v>
       </c>
       <c r="I71" s="19">
-        <v>44466</v>
+        <v>35636</v>
       </c>
       <c r="J71" s="19">
-        <v>18236</v>
+        <v>41246</v>
       </c>
       <c r="K71" s="19">
-        <v>35636</v>
+        <v>47453</v>
       </c>
       <c r="L71" s="19">
-        <v>41246</v>
+        <v>68105</v>
       </c>
       <c r="M71" s="19">
-        <v>47453</v>
+        <v>103859</v>
       </c>
       <c r="N71" s="19">
-        <v>68105</v>
+        <v>80493</v>
       </c>
       <c r="O71" s="19">
-        <v>103859</v>
+        <v>93199</v>
       </c>
       <c r="P71" s="19">
-        <v>80493</v>
+        <v>97853</v>
       </c>
       <c r="Q71" s="19">
-        <v>93199</v>
+        <v>110975</v>
       </c>
       <c r="R71" s="19">
-        <v>97853</v>
+        <v>148904</v>
       </c>
       <c r="S71" s="19">
-        <v>110975</v>
+        <v>150033</v>
       </c>
       <c r="T71" s="19">
-        <v>148904</v>
+        <v>76595</v>
       </c>
       <c r="U71" s="19">
-        <v>150033</v>
+        <v>107749</v>
       </c>
       <c r="V71" s="19">
-        <v>76595</v>
+        <v>142095</v>
       </c>
       <c r="W71" s="19">
-        <v>107749</v>
+        <v>182721</v>
       </c>
       <c r="X71" s="19">
-        <v>142095</v>
+        <v>182232</v>
       </c>
       <c r="Y71" s="19">
-        <v>182721</v>
+        <v>200089</v>
       </c>
       <c r="Z71" s="19">
-        <v>182232</v>
+        <v>203733</v>
       </c>
       <c r="AA71" s="19">
-        <v>200089</v>
+        <v>254074</v>
       </c>
       <c r="AB71" s="19">
-        <v>203733</v>
+        <v>293404</v>
       </c>
       <c r="AC71" s="19">
-        <v>254074</v>
+        <v>282332</v>
       </c>
       <c r="AD71" s="19">
-        <v>293404</v>
+        <v>216480</v>
       </c>
       <c r="AE71" s="19">
-        <v>282332</v>
+        <v>259739</v>
       </c>
       <c r="AF71" s="19">
-        <v>216480</v>
+        <v>185796</v>
       </c>
       <c r="AG71" s="19">
-        <v>259739</v>
+        <v>285923</v>
       </c>
       <c r="AH71" s="19">
-        <v>185796</v>
+        <v>340766</v>
       </c>
       <c r="AI71" s="19">
-        <v>285923</v>
+        <v>345283</v>
       </c>
       <c r="AJ71" s="19">
-        <v>340766</v>
+        <v>381023</v>
       </c>
       <c r="AK71" s="19">
-        <v>345283</v>
+        <v>384103</v>
       </c>
       <c r="AL71" s="19">
-        <v>381023</v>
+        <v>381845</v>
       </c>
       <c r="AM71" s="19">
-        <v>384103</v>
+        <v>347973</v>
       </c>
       <c r="AN71" s="19">
-        <v>381845</v>
+        <v>378076</v>
       </c>
       <c r="AO71" s="19">
-        <v>347973</v>
+        <v>400775</v>
       </c>
       <c r="AP71" s="19">
-        <v>378076</v>
+        <v>501714</v>
       </c>
       <c r="AQ71" s="19">
-        <v>400775</v>
+        <v>585208</v>
       </c>
       <c r="AR71" s="19">
-        <v>363025</v>
+        <v>361646</v>
       </c>
       <c r="AS71" s="19">
-        <v>585208</v>
+        <v>626042</v>
       </c>
       <c r="AT71" s="19">
-        <v>326714</v>
+        <v>947192</v>
       </c>
       <c r="AU71" s="19">
-        <v>515695</v>
+        <v>1041341</v>
       </c>
       <c r="AV71" s="19">
-        <v>945354</v>
+        <v>1062307</v>
       </c>
       <c r="AW71" s="19">
-        <v>1008546</v>
+        <v>1051240</v>
       </c>
       <c r="AX71" s="19">
-        <v>1054419</v>
+        <v>1057056</v>
       </c>
       <c r="AY71" s="19">
-        <v>1051240</v>
+        <v>1018188</v>
       </c>
       <c r="AZ71" s="19">
-        <v>1057056</v>
+        <v>1112834</v>
       </c>
       <c r="BA71" s="19">
-        <v>1018188</v>
+        <v>1040053</v>
       </c>
       <c r="BB71" s="19">
-        <v>1113750</v>
+        <v>1003099</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -9499,7 +9499,7 @@
       <c r="BA72" s="1"/>
       <c r="BB72" s="1"/>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -9554,7 +9554,7 @@
       <c r="BA73" s="1"/>
       <c r="BB73" s="1"/>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -9609,7 +9609,7 @@
       <c r="BA74" s="1"/>
       <c r="BB74" s="1"/>
     </row>
-    <row r="75" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B75" s="7" t="s">
         <v>77</v>
       </c>
@@ -9766,7 +9766,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -9821,7 +9821,7 @@
       <c r="BA76" s="1"/>
       <c r="BB76" s="1"/>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
         <v>78</v>
       </c>
@@ -9878,7 +9878,7 @@
       <c r="BA77" s="9"/>
       <c r="BB77" s="9"/>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
         <v>55</v>
       </c>
@@ -9982,14 +9982,14 @@
       <c r="AJ78" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AK78" s="11" t="s">
-        <v>57</v>
+      <c r="AK78" s="11">
+        <v>182850</v>
       </c>
       <c r="AL78" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AM78" s="11">
-        <v>182850</v>
+      <c r="AM78" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AN78" s="11" t="s">
         <v>57</v>
@@ -10037,7 +10037,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="12" t="s">
         <v>58</v>
       </c>
@@ -10046,130 +10046,130 @@
       </c>
       <c r="D79" s="13"/>
       <c r="E79" s="13">
-        <v>77008</v>
+        <v>71429</v>
       </c>
       <c r="F79" s="13">
-        <v>71147</v>
+        <v>55499</v>
       </c>
       <c r="G79" s="13">
-        <v>71429</v>
+        <v>40979</v>
       </c>
       <c r="H79" s="13">
-        <v>55499</v>
+        <v>196815</v>
       </c>
       <c r="I79" s="13">
-        <v>40979</v>
+        <v>188732</v>
       </c>
       <c r="J79" s="13">
-        <v>196815</v>
+        <v>185451</v>
       </c>
       <c r="K79" s="13">
-        <v>188732</v>
+        <v>189948</v>
       </c>
       <c r="L79" s="13">
-        <v>185451</v>
+        <v>204827</v>
       </c>
       <c r="M79" s="13">
-        <v>189948</v>
+        <v>191962</v>
       </c>
       <c r="N79" s="13">
-        <v>204827</v>
+        <v>207061</v>
       </c>
       <c r="O79" s="13">
-        <v>191962</v>
+        <v>226969</v>
       </c>
       <c r="P79" s="13">
-        <v>207061</v>
+        <v>210579</v>
       </c>
       <c r="Q79" s="13">
-        <v>226969</v>
+        <v>228179</v>
       </c>
       <c r="R79" s="13">
-        <v>210579</v>
+        <v>235387</v>
       </c>
       <c r="S79" s="13">
-        <v>228179</v>
+        <v>223560</v>
       </c>
       <c r="T79" s="13">
-        <v>235387</v>
+        <v>217182</v>
       </c>
       <c r="U79" s="13">
-        <v>223560</v>
+        <v>234606</v>
       </c>
       <c r="V79" s="13">
-        <v>217182</v>
+        <v>239734</v>
       </c>
       <c r="W79" s="13">
-        <v>234606</v>
+        <v>332945</v>
       </c>
       <c r="X79" s="13">
-        <v>239734</v>
+        <v>354374</v>
       </c>
       <c r="Y79" s="13">
-        <v>332945</v>
+        <v>426572</v>
       </c>
       <c r="Z79" s="13">
-        <v>354374</v>
+        <v>428212</v>
       </c>
       <c r="AA79" s="13">
-        <v>426572</v>
+        <v>526112</v>
       </c>
       <c r="AB79" s="13">
-        <v>428212</v>
+        <v>595244</v>
       </c>
       <c r="AC79" s="13">
-        <v>526112</v>
+        <v>522473</v>
       </c>
       <c r="AD79" s="13">
-        <v>595244</v>
+        <v>771030</v>
       </c>
       <c r="AE79" s="13">
-        <v>522473</v>
+        <v>569715</v>
       </c>
       <c r="AF79" s="13">
-        <v>771030</v>
+        <v>537919</v>
       </c>
       <c r="AG79" s="13">
-        <v>569715</v>
+        <v>685744</v>
       </c>
       <c r="AH79" s="13">
-        <v>537919</v>
+        <v>751955</v>
       </c>
       <c r="AI79" s="13">
-        <v>685744</v>
+        <v>719711</v>
       </c>
       <c r="AJ79" s="13">
-        <v>751955</v>
+        <v>754720</v>
       </c>
       <c r="AK79" s="13">
-        <v>719711</v>
+        <v>790465</v>
       </c>
       <c r="AL79" s="13">
-        <v>754720</v>
+        <v>873669</v>
       </c>
       <c r="AM79" s="13">
-        <v>790465</v>
+        <v>789449</v>
       </c>
       <c r="AN79" s="13">
-        <v>873669</v>
+        <v>795835</v>
       </c>
       <c r="AO79" s="13">
-        <v>789449</v>
+        <v>821673</v>
       </c>
       <c r="AP79" s="13">
-        <v>795835</v>
-      </c>
-      <c r="AQ79" s="13">
-        <v>821673</v>
-      </c>
-      <c r="AR79" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS79" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT79" s="13">
-        <v>724624</v>
+        <v>857690</v>
+      </c>
+      <c r="AQ79" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR79" s="13">
+        <v>704001</v>
+      </c>
+      <c r="AS79" s="13">
+        <v>973290</v>
+      </c>
+      <c r="AT79" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AU79" s="13" t="s">
         <v>57</v>
@@ -10196,7 +10196,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
         <v>59</v>
       </c>
@@ -10205,157 +10205,157 @@
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11">
-        <v>133445</v>
+        <v>142100</v>
       </c>
       <c r="F80" s="11">
-        <v>101245</v>
+        <v>105724</v>
       </c>
       <c r="G80" s="11">
-        <v>142100</v>
+        <v>155710</v>
       </c>
       <c r="H80" s="11">
-        <v>105724</v>
+        <v>182010</v>
       </c>
       <c r="I80" s="11">
-        <v>155710</v>
+        <v>174124</v>
       </c>
       <c r="J80" s="11">
-        <v>182010</v>
+        <v>189199</v>
       </c>
       <c r="K80" s="11">
-        <v>174124</v>
+        <v>178462</v>
       </c>
       <c r="L80" s="11">
-        <v>189199</v>
+        <v>202326</v>
       </c>
       <c r="M80" s="11">
-        <v>178462</v>
+        <v>192759</v>
       </c>
       <c r="N80" s="11">
-        <v>202326</v>
+        <v>182101</v>
       </c>
       <c r="O80" s="11">
-        <v>192759</v>
+        <v>214726</v>
       </c>
       <c r="P80" s="11">
-        <v>182101</v>
+        <v>201775</v>
       </c>
       <c r="Q80" s="11">
-        <v>214726</v>
+        <v>199820</v>
       </c>
       <c r="R80" s="11">
-        <v>201775</v>
+        <v>184021</v>
       </c>
       <c r="S80" s="11">
-        <v>199820</v>
+        <v>192254</v>
       </c>
       <c r="T80" s="11">
-        <v>184021</v>
+        <v>198794</v>
       </c>
       <c r="U80" s="11">
-        <v>192254</v>
+        <v>321193</v>
       </c>
       <c r="V80" s="11">
-        <v>198794</v>
+        <v>223126</v>
       </c>
       <c r="W80" s="11">
-        <v>321193</v>
+        <v>267556</v>
       </c>
       <c r="X80" s="11">
-        <v>223126</v>
+        <v>290764</v>
       </c>
       <c r="Y80" s="11">
-        <v>267556</v>
+        <v>323335</v>
       </c>
       <c r="Z80" s="11">
-        <v>290764</v>
+        <v>326220</v>
       </c>
       <c r="AA80" s="11">
-        <v>323335</v>
+        <v>430648</v>
       </c>
       <c r="AB80" s="11">
-        <v>326220</v>
+        <v>379496</v>
       </c>
       <c r="AC80" s="11">
-        <v>430648</v>
+        <v>448309</v>
       </c>
       <c r="AD80" s="11">
-        <v>379496</v>
+        <v>440051</v>
       </c>
       <c r="AE80" s="11">
-        <v>448309</v>
+        <v>428003</v>
       </c>
       <c r="AF80" s="11">
-        <v>440051</v>
+        <v>510572</v>
       </c>
       <c r="AG80" s="11">
-        <v>428003</v>
+        <v>507846</v>
       </c>
       <c r="AH80" s="11">
-        <v>510572</v>
+        <v>808526</v>
       </c>
       <c r="AI80" s="11">
-        <v>507846</v>
+        <v>892315</v>
       </c>
       <c r="AJ80" s="11">
-        <v>808526</v>
+        <v>525548</v>
       </c>
       <c r="AK80" s="11">
-        <v>892315</v>
+        <v>537709</v>
       </c>
       <c r="AL80" s="11">
-        <v>525548</v>
+        <v>689336</v>
       </c>
       <c r="AM80" s="11">
-        <v>537709</v>
+        <v>736553</v>
       </c>
       <c r="AN80" s="11">
-        <v>689336</v>
+        <v>818453</v>
       </c>
       <c r="AO80" s="11">
-        <v>736553</v>
+        <v>646662</v>
       </c>
       <c r="AP80" s="11">
-        <v>818453</v>
+        <v>641726</v>
       </c>
       <c r="AQ80" s="11">
-        <v>646662</v>
+        <v>581868</v>
       </c>
       <c r="AR80" s="11">
-        <v>641419</v>
+        <v>765195</v>
       </c>
       <c r="AS80" s="11">
-        <v>581868</v>
+        <v>660032</v>
       </c>
       <c r="AT80" s="11">
-        <v>765195</v>
+        <v>652331</v>
       </c>
       <c r="AU80" s="11">
-        <v>667009</v>
+        <v>713692</v>
       </c>
       <c r="AV80" s="11">
-        <v>647732</v>
+        <v>692603</v>
       </c>
       <c r="AW80" s="11">
-        <v>713695</v>
+        <v>652452</v>
       </c>
       <c r="AX80" s="11">
-        <v>692586</v>
+        <v>689538</v>
       </c>
       <c r="AY80" s="11">
-        <v>652452</v>
+        <v>816403</v>
       </c>
       <c r="AZ80" s="11">
-        <v>689538</v>
+        <v>848210</v>
       </c>
       <c r="BA80" s="11">
-        <v>816403</v>
+        <v>820561</v>
       </c>
       <c r="BB80" s="11">
-        <v>848229</v>
+        <v>790091</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="12" t="s">
         <v>60</v>
       </c>
@@ -10364,157 +10364,157 @@
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="13">
-        <v>187992</v>
+        <v>431811</v>
       </c>
       <c r="F81" s="13">
-        <v>193827</v>
+        <v>135113</v>
       </c>
       <c r="G81" s="13">
-        <v>431811</v>
+        <v>401821</v>
       </c>
       <c r="H81" s="13">
-        <v>135113</v>
+        <v>482798</v>
       </c>
       <c r="I81" s="13">
-        <v>401821</v>
+        <v>471073</v>
       </c>
       <c r="J81" s="13">
-        <v>482798</v>
+        <v>444902</v>
       </c>
       <c r="K81" s="13">
-        <v>471073</v>
+        <v>469319</v>
       </c>
       <c r="L81" s="13">
-        <v>444902</v>
+        <v>545916</v>
       </c>
       <c r="M81" s="13">
-        <v>469319</v>
+        <v>591063</v>
       </c>
       <c r="N81" s="13">
-        <v>545916</v>
+        <v>580562</v>
       </c>
       <c r="O81" s="13">
-        <v>591063</v>
+        <v>560208</v>
       </c>
       <c r="P81" s="13">
-        <v>580562</v>
+        <v>557323</v>
       </c>
       <c r="Q81" s="13">
-        <v>560208</v>
+        <v>627995</v>
       </c>
       <c r="R81" s="13">
-        <v>557323</v>
+        <v>475121</v>
       </c>
       <c r="S81" s="13">
-        <v>627995</v>
+        <v>514298</v>
       </c>
       <c r="T81" s="13">
-        <v>475121</v>
+        <v>539826</v>
       </c>
       <c r="U81" s="13">
-        <v>514298</v>
+        <v>581352</v>
       </c>
       <c r="V81" s="13">
-        <v>539826</v>
+        <v>754384</v>
       </c>
       <c r="W81" s="13">
-        <v>581352</v>
+        <v>778183</v>
       </c>
       <c r="X81" s="13">
-        <v>754384</v>
+        <v>803728</v>
       </c>
       <c r="Y81" s="13">
-        <v>778183</v>
+        <v>707572</v>
       </c>
       <c r="Z81" s="13">
-        <v>803728</v>
+        <v>856489</v>
       </c>
       <c r="AA81" s="13">
-        <v>707572</v>
+        <v>1092321</v>
       </c>
       <c r="AB81" s="13">
-        <v>856489</v>
+        <v>1172464</v>
       </c>
       <c r="AC81" s="13">
-        <v>1092321</v>
+        <v>1368294</v>
       </c>
       <c r="AD81" s="13">
-        <v>1172464</v>
+        <v>1124075</v>
       </c>
       <c r="AE81" s="13">
-        <v>1368294</v>
+        <v>851070</v>
       </c>
       <c r="AF81" s="13">
-        <v>1124075</v>
+        <v>1047590</v>
       </c>
       <c r="AG81" s="13">
-        <v>851070</v>
+        <v>1419731</v>
       </c>
       <c r="AH81" s="13">
-        <v>1047590</v>
+        <v>1655425</v>
       </c>
       <c r="AI81" s="13">
-        <v>1419731</v>
+        <v>1898614</v>
       </c>
       <c r="AJ81" s="13">
-        <v>1655425</v>
+        <v>1986259</v>
       </c>
       <c r="AK81" s="13">
-        <v>1898614</v>
+        <v>1796152</v>
       </c>
       <c r="AL81" s="13">
-        <v>1986259</v>
+        <v>1694004</v>
       </c>
       <c r="AM81" s="13">
-        <v>1796152</v>
+        <v>1697520</v>
       </c>
       <c r="AN81" s="13">
-        <v>1694004</v>
+        <v>2031599</v>
       </c>
       <c r="AO81" s="13">
-        <v>1697520</v>
+        <v>1693667</v>
       </c>
       <c r="AP81" s="13">
-        <v>2031599</v>
+        <v>1603244</v>
       </c>
       <c r="AQ81" s="13">
-        <v>1693667</v>
+        <v>1813705</v>
       </c>
       <c r="AR81" s="13">
-        <v>1604157</v>
+        <v>2051001</v>
       </c>
       <c r="AS81" s="13">
-        <v>1813705</v>
+        <v>2048719</v>
       </c>
       <c r="AT81" s="13">
-        <v>1829919</v>
+        <v>2089975</v>
       </c>
       <c r="AU81" s="13">
-        <v>2041808</v>
+        <v>2111196</v>
       </c>
       <c r="AV81" s="13">
-        <v>2087426</v>
+        <v>2409196</v>
       </c>
       <c r="AW81" s="13">
-        <v>2111945</v>
+        <v>2702724</v>
       </c>
       <c r="AX81" s="13">
-        <v>2409659</v>
+        <v>2681023</v>
       </c>
       <c r="AY81" s="13">
-        <v>2702724</v>
+        <v>2301789</v>
       </c>
       <c r="AZ81" s="13">
-        <v>2681023</v>
+        <v>2281860</v>
       </c>
       <c r="BA81" s="13">
-        <v>2301789</v>
+        <v>2489680</v>
       </c>
       <c r="BB81" s="13">
-        <v>2283954</v>
+        <v>2334942</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
         <v>61</v>
       </c>
@@ -10585,21 +10585,21 @@
       <c r="Y82" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Z82" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA82" s="11" t="s">
-        <v>57</v>
+      <c r="Z82" s="11">
+        <v>515380</v>
+      </c>
+      <c r="AA82" s="11">
+        <v>643785</v>
       </c>
       <c r="AB82" s="11">
-        <v>515380</v>
-      </c>
-      <c r="AC82" s="11">
-        <v>643785</v>
-      </c>
-      <c r="AD82" s="11">
         <v>445033</v>
       </c>
+      <c r="AC82" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD82" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AE82" s="11" t="s">
         <v>57</v>
       </c>
@@ -10673,7 +10673,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="12" t="s">
         <v>62</v>
       </c>
@@ -10682,20 +10682,20 @@
       </c>
       <c r="D83" s="13"/>
       <c r="E83" s="13">
-        <v>134192</v>
+        <v>172781</v>
       </c>
       <c r="F83" s="13">
-        <v>163696</v>
+        <v>157072</v>
       </c>
       <c r="G83" s="13">
-        <v>172781</v>
-      </c>
-      <c r="H83" s="13">
-        <v>157072</v>
-      </c>
-      <c r="I83" s="13">
         <v>160540</v>
       </c>
+      <c r="H83" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I83" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="J83" s="13" t="s">
         <v>57</v>
       </c>
@@ -10832,7 +10832,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
         <v>63</v>
       </c>
@@ -10849,47 +10849,47 @@
       <c r="G84" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H84" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I84" s="11" t="s">
-        <v>57</v>
+      <c r="H84" s="11">
+        <v>33366</v>
+      </c>
+      <c r="I84" s="11">
+        <v>31238</v>
       </c>
       <c r="J84" s="11">
-        <v>33366</v>
+        <v>81487</v>
       </c>
       <c r="K84" s="11">
-        <v>31238</v>
+        <v>93900</v>
       </c>
       <c r="L84" s="11">
-        <v>81487</v>
+        <v>125120</v>
       </c>
       <c r="M84" s="11">
-        <v>93900</v>
+        <v>434258</v>
       </c>
       <c r="N84" s="11">
-        <v>125120</v>
+        <v>157895</v>
       </c>
       <c r="O84" s="11">
-        <v>434258</v>
+        <v>138427</v>
       </c>
       <c r="P84" s="11">
-        <v>157895</v>
+        <v>158898</v>
       </c>
       <c r="Q84" s="11">
-        <v>138427</v>
+        <v>111111</v>
       </c>
       <c r="R84" s="11">
-        <v>158898</v>
+        <v>0</v>
       </c>
       <c r="S84" s="11">
-        <v>111111</v>
-      </c>
-      <c r="T84" s="11">
-        <v>0</v>
-      </c>
-      <c r="U84" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="T84" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U84" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="V84" s="11" t="s">
         <v>57</v>
@@ -10991,7 +10991,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="12" t="s">
         <v>64</v>
       </c>
@@ -11113,41 +11113,41 @@
       <c r="AP85" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ85" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR85" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS85" s="13">
+      <c r="AQ85" s="13">
         <v>855417</v>
       </c>
-      <c r="AT85" s="13" t="s">
-        <v>57</v>
+      <c r="AR85" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS85" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT85" s="13">
+        <v>888027</v>
       </c>
       <c r="AU85" s="13">
-        <v>0</v>
+        <v>1116016</v>
       </c>
       <c r="AV85" s="13">
-        <v>884910</v>
+        <v>960338</v>
       </c>
       <c r="AW85" s="13">
-        <v>1114964</v>
+        <v>709168</v>
       </c>
       <c r="AX85" s="13">
-        <v>960338</v>
+        <v>815318</v>
       </c>
       <c r="AY85" s="13">
-        <v>709168</v>
+        <v>759678</v>
       </c>
       <c r="AZ85" s="13">
-        <v>815318</v>
+        <v>845681</v>
       </c>
       <c r="BA85" s="13">
-        <v>759678</v>
+        <v>786098</v>
       </c>
       <c r="BB85" s="13">
-        <v>845681</v>
+        <v>938039</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/kashi/kehafez/product/monthly.xlsx
+++ b/database/industries/kashi/kehafez/product/monthly.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="80">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3336,11 +3336,11 @@
       <c r="AH11" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI11" s="13" t="s">
-        <v>57</v>
+      <c r="AI11" s="13" t="n">
+        <v>8548</v>
       </c>
       <c r="AJ11" s="13" t="n">
-        <v>8548</v>
+        <v>0</v>
       </c>
       <c r="AK11" s="13" t="n">
         <v>0</v>
@@ -3354,11 +3354,11 @@
       <c r="AN11" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AO11" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP11" s="13" t="s">
-        <v>57</v>
+      <c r="AO11" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP11" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ11" s="13" t="n">
         <v>0</v>
@@ -3406,124 +3406,124 @@
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15" t="n">
-        <v>550</v>
+        <v>778</v>
       </c>
       <c r="F12" s="15" t="n">
-        <v>778</v>
+        <v>51807</v>
       </c>
       <c r="G12" s="15" t="n">
-        <v>51807</v>
+        <v>108968</v>
       </c>
       <c r="H12" s="15" t="n">
-        <v>108968</v>
+        <v>10195</v>
       </c>
       <c r="I12" s="15" t="n">
-        <v>10195</v>
+        <v>171032</v>
       </c>
       <c r="J12" s="15" t="n">
-        <v>171032</v>
+        <v>59681</v>
       </c>
       <c r="K12" s="15" t="n">
-        <v>59681</v>
+        <v>99665</v>
       </c>
       <c r="L12" s="15" t="n">
-        <v>99665</v>
+        <v>112830</v>
       </c>
       <c r="M12" s="15" t="n">
-        <v>112830</v>
+        <v>123528</v>
       </c>
       <c r="N12" s="15" t="n">
-        <v>123528</v>
+        <v>142614</v>
       </c>
       <c r="O12" s="15" t="n">
-        <v>142614</v>
+        <v>155238</v>
       </c>
       <c r="P12" s="15" t="n">
-        <v>155238</v>
+        <v>163756</v>
       </c>
       <c r="Q12" s="15" t="n">
+        <v>146894</v>
+      </c>
+      <c r="R12" s="15" t="n">
+        <v>13726</v>
+      </c>
+      <c r="S12" s="15" t="n">
+        <v>91375</v>
+      </c>
+      <c r="T12" s="15" t="n">
+        <v>184180</v>
+      </c>
+      <c r="U12" s="15" t="n">
+        <v>180311</v>
+      </c>
+      <c r="V12" s="15" t="n">
         <v>163756</v>
       </c>
-      <c r="R12" s="15" t="n">
-        <v>146894</v>
-      </c>
-      <c r="S12" s="15" t="n">
-        <v>13726</v>
-      </c>
-      <c r="T12" s="15" t="n">
-        <v>91375</v>
-      </c>
-      <c r="U12" s="15" t="n">
-        <v>184180</v>
-      </c>
-      <c r="V12" s="15" t="n">
-        <v>180311</v>
-      </c>
       <c r="W12" s="15" t="n">
-        <v>163756</v>
+        <v>140756</v>
       </c>
       <c r="X12" s="15" t="n">
-        <v>140756</v>
+        <v>114154</v>
       </c>
       <c r="Y12" s="15" t="n">
-        <v>114154</v>
+        <v>115458</v>
       </c>
       <c r="Z12" s="15" t="n">
-        <v>115458</v>
+        <v>129004</v>
       </c>
       <c r="AA12" s="15" t="n">
-        <v>129004</v>
+        <v>112421</v>
       </c>
       <c r="AB12" s="15" t="n">
-        <v>112421</v>
+        <v>105827</v>
       </c>
       <c r="AC12" s="15" t="n">
-        <v>105827</v>
+        <v>109669</v>
       </c>
       <c r="AD12" s="15" t="n">
-        <v>109669</v>
+        <v>144720</v>
       </c>
       <c r="AE12" s="15" t="n">
-        <v>144720</v>
+        <v>170723</v>
       </c>
       <c r="AF12" s="15" t="n">
-        <v>170723</v>
+        <v>156453</v>
       </c>
       <c r="AG12" s="15" t="n">
-        <v>156453</v>
+        <v>164970</v>
       </c>
       <c r="AH12" s="15" t="n">
-        <v>164970</v>
+        <v>146620</v>
       </c>
       <c r="AI12" s="15" t="n">
-        <v>146620</v>
+        <v>152898</v>
       </c>
       <c r="AJ12" s="15" t="n">
-        <v>152898</v>
+        <v>147979</v>
       </c>
       <c r="AK12" s="15" t="n">
-        <v>147979</v>
+        <v>158837</v>
       </c>
       <c r="AL12" s="15" t="n">
-        <v>158837</v>
+        <v>153299</v>
       </c>
       <c r="AM12" s="15" t="n">
-        <v>153299</v>
+        <v>120479</v>
       </c>
       <c r="AN12" s="15" t="n">
-        <v>120479</v>
-      </c>
-      <c r="AO12" s="15" t="n">
         <v>162442</v>
       </c>
-      <c r="AP12" s="16" t="s">
-        <v>57</v>
+      <c r="AO12" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP12" s="16" t="n">
+        <v>226465</v>
       </c>
       <c r="AQ12" s="16" t="n">
-        <v>226465</v>
-      </c>
-      <c r="AR12" s="16" t="n">
         <v>186037</v>
+      </c>
+      <c r="AR12" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AS12" s="16" t="s">
         <v>57</v>
@@ -3565,154 +3565,154 @@
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13" t="n">
-        <v>98280</v>
+        <v>90851</v>
       </c>
       <c r="F13" s="13" t="n">
-        <v>90851</v>
+        <v>48535</v>
       </c>
       <c r="G13" s="13" t="n">
-        <v>48535</v>
+        <v>68758</v>
       </c>
       <c r="H13" s="13" t="n">
-        <v>68758</v>
+        <v>112136</v>
       </c>
       <c r="I13" s="13" t="n">
-        <v>112136</v>
+        <v>65686</v>
       </c>
       <c r="J13" s="13" t="n">
-        <v>65686</v>
+        <v>89018</v>
       </c>
       <c r="K13" s="13" t="n">
-        <v>89018</v>
+        <v>134728</v>
       </c>
       <c r="L13" s="13" t="n">
-        <v>134728</v>
+        <v>139792</v>
       </c>
       <c r="M13" s="13" t="n">
-        <v>139792</v>
+        <v>145123</v>
       </c>
       <c r="N13" s="13" t="n">
-        <v>145123</v>
+        <v>145288</v>
       </c>
       <c r="O13" s="13" t="n">
-        <v>145288</v>
+        <v>149466</v>
       </c>
       <c r="P13" s="13" t="n">
-        <v>149466</v>
+        <v>141755</v>
       </c>
       <c r="Q13" s="13" t="n">
-        <v>141755</v>
+        <v>125475</v>
       </c>
       <c r="R13" s="13" t="n">
-        <v>125475</v>
+        <v>81301</v>
       </c>
       <c r="S13" s="13" t="n">
-        <v>81301</v>
+        <v>103209</v>
       </c>
       <c r="T13" s="13" t="n">
-        <v>103209</v>
+        <v>147825</v>
       </c>
       <c r="U13" s="13" t="n">
-        <v>147825</v>
+        <v>149915</v>
       </c>
       <c r="V13" s="13" t="n">
-        <v>149915</v>
+        <v>140115</v>
       </c>
       <c r="W13" s="13" t="n">
-        <v>140115</v>
+        <v>125268</v>
       </c>
       <c r="X13" s="13" t="n">
-        <v>125268</v>
+        <v>123117</v>
       </c>
       <c r="Y13" s="13" t="n">
-        <v>123117</v>
+        <v>125608</v>
       </c>
       <c r="Z13" s="13" t="n">
-        <v>125608</v>
+        <v>128398</v>
       </c>
       <c r="AA13" s="13" t="n">
-        <v>128398</v>
+        <v>133925</v>
       </c>
       <c r="AB13" s="13" t="n">
-        <v>133925</v>
+        <v>134039</v>
       </c>
       <c r="AC13" s="13" t="n">
-        <v>134039</v>
+        <v>109353</v>
       </c>
       <c r="AD13" s="13" t="n">
-        <v>109353</v>
+        <v>70283</v>
       </c>
       <c r="AE13" s="13" t="n">
-        <v>70283</v>
+        <v>134856</v>
       </c>
       <c r="AF13" s="13" t="n">
-        <v>134856</v>
+        <v>94567</v>
       </c>
       <c r="AG13" s="13" t="n">
-        <v>94567</v>
+        <v>88076</v>
       </c>
       <c r="AH13" s="13" t="n">
-        <v>88076</v>
+        <v>133008</v>
       </c>
       <c r="AI13" s="13" t="n">
-        <v>133008</v>
+        <v>135791</v>
       </c>
       <c r="AJ13" s="13" t="n">
-        <v>135791</v>
+        <v>88067</v>
       </c>
       <c r="AK13" s="13" t="n">
-        <v>88067</v>
+        <v>81059</v>
       </c>
       <c r="AL13" s="13" t="n">
-        <v>81059</v>
+        <v>81470</v>
       </c>
       <c r="AM13" s="13" t="n">
-        <v>81470</v>
+        <v>121594</v>
       </c>
       <c r="AN13" s="13" t="n">
-        <v>121594</v>
+        <v>126187</v>
       </c>
       <c r="AO13" s="13" t="n">
-        <v>126187</v>
+        <v>118055</v>
       </c>
       <c r="AP13" s="13" t="n">
-        <v>118055</v>
+        <v>73028</v>
       </c>
       <c r="AQ13" s="13" t="n">
-        <v>73028</v>
+        <v>86470</v>
       </c>
       <c r="AR13" s="13" t="n">
-        <v>86470</v>
+        <v>104245</v>
       </c>
       <c r="AS13" s="13" t="n">
-        <v>104245</v>
+        <v>131170</v>
       </c>
       <c r="AT13" s="13" t="n">
-        <v>131170</v>
+        <v>125825</v>
       </c>
       <c r="AU13" s="13" t="n">
-        <v>125825</v>
+        <v>135448</v>
       </c>
       <c r="AV13" s="13" t="n">
-        <v>135448</v>
+        <v>101003</v>
       </c>
       <c r="AW13" s="13" t="n">
-        <v>101003</v>
+        <v>85022</v>
       </c>
       <c r="AX13" s="13" t="n">
-        <v>85022</v>
+        <v>88925</v>
       </c>
       <c r="AY13" s="13" t="n">
-        <v>88925</v>
+        <v>32878</v>
       </c>
       <c r="AZ13" s="13" t="n">
-        <v>32878</v>
+        <v>103790</v>
       </c>
       <c r="BA13" s="13" t="n">
-        <v>103790</v>
+        <v>115663</v>
       </c>
       <c r="BB13" s="13" t="n">
-        <v>115663</v>
+        <v>112184</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3724,154 +3724,154 @@
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16" t="n">
-        <v>20008</v>
+        <v>27910</v>
       </c>
       <c r="F14" s="16" t="n">
-        <v>27910</v>
+        <v>17078</v>
       </c>
       <c r="G14" s="16" t="n">
-        <v>17078</v>
+        <v>41519</v>
       </c>
       <c r="H14" s="16" t="n">
-        <v>41519</v>
+        <v>44235</v>
       </c>
       <c r="I14" s="16" t="n">
-        <v>44235</v>
+        <v>46601</v>
       </c>
       <c r="J14" s="16" t="n">
-        <v>46601</v>
+        <v>36865</v>
       </c>
       <c r="K14" s="16" t="n">
-        <v>36865</v>
+        <v>48056</v>
       </c>
       <c r="L14" s="16" t="n">
-        <v>48056</v>
+        <v>56247</v>
       </c>
       <c r="M14" s="16" t="n">
-        <v>56247</v>
+        <v>58991</v>
       </c>
       <c r="N14" s="16" t="n">
-        <v>58991</v>
+        <v>50837</v>
       </c>
       <c r="O14" s="16" t="n">
-        <v>50837</v>
+        <v>56724</v>
       </c>
       <c r="P14" s="16" t="n">
-        <v>56724</v>
+        <v>61063</v>
       </c>
       <c r="Q14" s="16" t="n">
-        <v>61063</v>
+        <v>96648</v>
       </c>
       <c r="R14" s="16" t="n">
-        <v>96648</v>
+        <v>88869</v>
       </c>
       <c r="S14" s="16" t="n">
-        <v>88869</v>
+        <v>102636</v>
       </c>
       <c r="T14" s="16" t="n">
-        <v>102636</v>
+        <v>69728</v>
       </c>
       <c r="U14" s="16" t="n">
-        <v>69728</v>
+        <v>108530</v>
       </c>
       <c r="V14" s="16" t="n">
-        <v>108530</v>
+        <v>108612</v>
       </c>
       <c r="W14" s="16" t="n">
-        <v>108612</v>
+        <v>122932</v>
       </c>
       <c r="X14" s="16" t="n">
-        <v>122932</v>
+        <v>121312</v>
       </c>
       <c r="Y14" s="16" t="n">
-        <v>121312</v>
+        <v>127250</v>
       </c>
       <c r="Z14" s="16" t="n">
-        <v>127250</v>
+        <v>133942</v>
       </c>
       <c r="AA14" s="16" t="n">
-        <v>133942</v>
+        <v>130366</v>
       </c>
       <c r="AB14" s="16" t="n">
-        <v>130366</v>
+        <v>99533</v>
       </c>
       <c r="AC14" s="16" t="n">
-        <v>99533</v>
+        <v>113656</v>
       </c>
       <c r="AD14" s="16" t="n">
-        <v>113656</v>
+        <v>106404</v>
       </c>
       <c r="AE14" s="16" t="n">
-        <v>106404</v>
+        <v>109835</v>
       </c>
       <c r="AF14" s="16" t="n">
-        <v>109835</v>
+        <v>121797</v>
       </c>
       <c r="AG14" s="16" t="n">
-        <v>121797</v>
+        <v>129462</v>
       </c>
       <c r="AH14" s="16" t="n">
-        <v>129462</v>
+        <v>137344</v>
       </c>
       <c r="AI14" s="16" t="n">
-        <v>137344</v>
+        <v>126087</v>
       </c>
       <c r="AJ14" s="16" t="n">
-        <v>126087</v>
+        <v>121924</v>
       </c>
       <c r="AK14" s="16" t="n">
-        <v>121924</v>
+        <v>103148</v>
       </c>
       <c r="AL14" s="16" t="n">
-        <v>103148</v>
+        <v>112950</v>
       </c>
       <c r="AM14" s="16" t="n">
-        <v>112950</v>
+        <v>233492</v>
       </c>
       <c r="AN14" s="16" t="n">
-        <v>233492</v>
+        <v>169796</v>
       </c>
       <c r="AO14" s="16" t="n">
-        <v>169796</v>
+        <v>204235</v>
       </c>
       <c r="AP14" s="16" t="n">
-        <v>204235</v>
+        <v>171881</v>
       </c>
       <c r="AQ14" s="16" t="n">
-        <v>171881</v>
+        <v>195845</v>
       </c>
       <c r="AR14" s="16" t="n">
-        <v>195845</v>
+        <v>266733</v>
       </c>
       <c r="AS14" s="16" t="n">
-        <v>266733</v>
+        <v>339709</v>
       </c>
       <c r="AT14" s="16" t="n">
-        <v>339709</v>
+        <v>361341</v>
       </c>
       <c r="AU14" s="16" t="n">
-        <v>361341</v>
+        <v>393489</v>
       </c>
       <c r="AV14" s="16" t="n">
-        <v>393489</v>
+        <v>402687</v>
       </c>
       <c r="AW14" s="16" t="n">
-        <v>402687</v>
+        <v>388605</v>
       </c>
       <c r="AX14" s="16" t="n">
-        <v>388605</v>
+        <v>489677</v>
       </c>
       <c r="AY14" s="16" t="n">
-        <v>489677</v>
+        <v>392570</v>
       </c>
       <c r="AZ14" s="16" t="n">
-        <v>392570</v>
+        <v>375993</v>
       </c>
       <c r="BA14" s="16" t="n">
-        <v>375993</v>
+        <v>380255</v>
       </c>
       <c r="BB14" s="16" t="n">
-        <v>380255</v>
+        <v>306791</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3939,14 +3939,14 @@
       <c r="W15" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="X15" s="13" t="s">
-        <v>57</v>
+      <c r="X15" s="13" t="n">
+        <v>38913</v>
       </c>
       <c r="Y15" s="13" t="n">
-        <v>38913</v>
+        <v>21560</v>
       </c>
       <c r="Z15" s="13" t="n">
-        <v>21560</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="13" t="n">
         <v>0</v>
@@ -3957,8 +3957,8 @@
       <c r="AC15" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD15" s="13" t="n">
-        <v>0</v>
+      <c r="AD15" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE15" s="13" t="s">
         <v>57</v>
@@ -3972,8 +3972,8 @@
       <c r="AH15" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI15" s="13" t="s">
-        <v>57</v>
+      <c r="AI15" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AJ15" s="13" t="n">
         <v>0</v>
@@ -3990,11 +3990,11 @@
       <c r="AN15" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AO15" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP15" s="13" t="s">
-        <v>57</v>
+      <c r="AO15" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP15" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ15" s="13" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="16" t="n">
-        <v>85099</v>
-      </c>
-      <c r="F16" s="16" t="n">
         <v>82948</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="G16" s="16" t="s">
         <v>57</v>
@@ -4203,8 +4203,8 @@
       <c r="E17" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="13" t="s">
-        <v>57</v>
+      <c r="F17" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="G17" s="13" t="n">
         <v>0</v>
@@ -4239,11 +4239,11 @@
       <c r="Q17" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="R17" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" s="13" t="s">
-        <v>57</v>
+      <c r="R17" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="S17" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="T17" s="13" t="n">
         <v>0</v>
@@ -4275,8 +4275,8 @@
       <c r="AC17" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD17" s="13" t="n">
-        <v>0</v>
+      <c r="AD17" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE17" s="13" t="s">
         <v>57</v>
@@ -4467,47 +4467,47 @@
       <c r="AN18" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AO18" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP18" s="16" t="n">
+      <c r="AO18" s="16" t="n">
         <v>147575</v>
       </c>
+      <c r="AP18" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="AQ18" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AR18" s="16" t="s">
-        <v>57</v>
+      <c r="AR18" s="16" t="n">
+        <v>166223</v>
       </c>
       <c r="AS18" s="16" t="n">
-        <v>166223</v>
+        <v>133940</v>
       </c>
       <c r="AT18" s="16" t="n">
-        <v>133940</v>
+        <v>132039</v>
       </c>
       <c r="AU18" s="16" t="n">
-        <v>132039</v>
+        <v>156836</v>
       </c>
       <c r="AV18" s="16" t="n">
-        <v>156836</v>
+        <v>197046</v>
       </c>
       <c r="AW18" s="16" t="n">
-        <v>197046</v>
+        <v>186317</v>
       </c>
       <c r="AX18" s="16" t="n">
-        <v>186317</v>
+        <v>149174</v>
       </c>
       <c r="AY18" s="16" t="n">
-        <v>149174</v>
+        <v>78384</v>
       </c>
       <c r="AZ18" s="16" t="n">
-        <v>78384</v>
+        <v>86185</v>
       </c>
       <c r="BA18" s="16" t="n">
-        <v>86185</v>
+        <v>122114</v>
       </c>
       <c r="BB18" s="16" t="n">
-        <v>122114</v>
+        <v>154452</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4621,8 +4621,8 @@
       <c r="T20" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U20" s="20" t="s">
-        <v>57</v>
+      <c r="U20" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V20" s="20" t="n">
         <v>0</v>
@@ -4731,154 +4731,154 @@
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
       <c r="E21" s="22" t="n">
-        <v>203937</v>
+        <v>202487</v>
       </c>
       <c r="F21" s="22" t="n">
-        <v>202487</v>
+        <v>117420</v>
       </c>
       <c r="G21" s="22" t="n">
-        <v>117420</v>
+        <v>219245</v>
       </c>
       <c r="H21" s="22" t="n">
-        <v>219245</v>
+        <v>166566</v>
       </c>
       <c r="I21" s="22" t="n">
-        <v>166566</v>
+        <v>283319</v>
       </c>
       <c r="J21" s="22" t="n">
-        <v>283319</v>
+        <v>185564</v>
       </c>
       <c r="K21" s="22" t="n">
-        <v>185564</v>
+        <v>282449</v>
       </c>
       <c r="L21" s="22" t="n">
-        <v>282449</v>
+        <v>308869</v>
       </c>
       <c r="M21" s="22" t="n">
-        <v>308869</v>
+        <v>327642</v>
       </c>
       <c r="N21" s="22" t="n">
-        <v>327642</v>
+        <v>338739</v>
       </c>
       <c r="O21" s="22" t="n">
-        <v>338739</v>
+        <v>361428</v>
       </c>
       <c r="P21" s="22" t="n">
-        <v>361428</v>
+        <v>366574</v>
       </c>
       <c r="Q21" s="22" t="n">
-        <v>366574</v>
+        <v>369017</v>
       </c>
       <c r="R21" s="22" t="n">
-        <v>369017</v>
+        <v>183896</v>
       </c>
       <c r="S21" s="22" t="n">
-        <v>183896</v>
+        <v>297220</v>
       </c>
       <c r="T21" s="22" t="n">
-        <v>297220</v>
+        <v>401733</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v>401733</v>
+        <v>438756</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>438756</v>
+        <v>412483</v>
       </c>
       <c r="W21" s="22" t="n">
-        <v>412483</v>
+        <v>388956</v>
       </c>
       <c r="X21" s="22" t="n">
-        <v>388956</v>
+        <v>397496</v>
       </c>
       <c r="Y21" s="22" t="n">
-        <v>397496</v>
+        <v>389876</v>
       </c>
       <c r="Z21" s="22" t="n">
-        <v>389876</v>
+        <v>391344</v>
       </c>
       <c r="AA21" s="22" t="n">
-        <v>391344</v>
+        <v>376712</v>
       </c>
       <c r="AB21" s="22" t="n">
-        <v>376712</v>
+        <v>339399</v>
       </c>
       <c r="AC21" s="22" t="n">
-        <v>339399</v>
+        <v>332678</v>
       </c>
       <c r="AD21" s="22" t="n">
-        <v>332678</v>
+        <v>321407</v>
       </c>
       <c r="AE21" s="22" t="n">
-        <v>321407</v>
+        <v>415414</v>
       </c>
       <c r="AF21" s="22" t="n">
-        <v>415414</v>
+        <v>372817</v>
       </c>
       <c r="AG21" s="22" t="n">
-        <v>372817</v>
+        <v>382508</v>
       </c>
       <c r="AH21" s="22" t="n">
-        <v>382508</v>
+        <v>416972</v>
       </c>
       <c r="AI21" s="22" t="n">
-        <v>416972</v>
+        <v>423324</v>
       </c>
       <c r="AJ21" s="22" t="n">
-        <v>423324</v>
+        <v>357970</v>
       </c>
       <c r="AK21" s="22" t="n">
-        <v>357970</v>
+        <v>343044</v>
       </c>
       <c r="AL21" s="22" t="n">
-        <v>343044</v>
+        <v>347719</v>
       </c>
       <c r="AM21" s="22" t="n">
-        <v>347719</v>
+        <v>475565</v>
       </c>
       <c r="AN21" s="22" t="n">
-        <v>475565</v>
+        <v>458425</v>
       </c>
       <c r="AO21" s="22" t="n">
-        <v>458425</v>
+        <v>469865</v>
       </c>
       <c r="AP21" s="22" t="n">
-        <v>469865</v>
+        <v>471374</v>
       </c>
       <c r="AQ21" s="22" t="n">
-        <v>471374</v>
+        <v>468352</v>
       </c>
       <c r="AR21" s="22" t="n">
-        <v>468352</v>
+        <v>537201</v>
       </c>
       <c r="AS21" s="22" t="n">
-        <v>537201</v>
+        <v>604819</v>
       </c>
       <c r="AT21" s="22" t="n">
-        <v>604819</v>
+        <v>619205</v>
       </c>
       <c r="AU21" s="22" t="n">
-        <v>619205</v>
+        <v>685773</v>
       </c>
       <c r="AV21" s="22" t="n">
-        <v>685773</v>
+        <v>700736</v>
       </c>
       <c r="AW21" s="22" t="n">
-        <v>700736</v>
+        <v>659944</v>
       </c>
       <c r="AX21" s="22" t="n">
-        <v>659944</v>
+        <v>727776</v>
       </c>
       <c r="AY21" s="22" t="n">
-        <v>727776</v>
+        <v>503832</v>
       </c>
       <c r="AZ21" s="22" t="n">
-        <v>503832</v>
+        <v>565968</v>
       </c>
       <c r="BA21" s="22" t="n">
-        <v>565968</v>
+        <v>618032</v>
       </c>
       <c r="BB21" s="22" t="n">
-        <v>618032</v>
+        <v>573427</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5413,11 +5413,11 @@
       <c r="AH28" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI28" s="13" t="s">
-        <v>57</v>
+      <c r="AI28" s="13" t="n">
+        <v>8548</v>
       </c>
       <c r="AJ28" s="13" t="n">
-        <v>8548</v>
+        <v>0</v>
       </c>
       <c r="AK28" s="13" t="n">
         <v>0</v>
@@ -5431,11 +5431,11 @@
       <c r="AN28" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AO28" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP28" s="13" t="s">
-        <v>57</v>
+      <c r="AO28" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP28" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ28" s="13" t="n">
         <v>0</v>
@@ -5483,124 +5483,124 @@
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="16" t="n">
-        <v>991</v>
+        <v>1635</v>
       </c>
       <c r="F29" s="16" t="n">
-        <v>1635</v>
+        <v>39377</v>
       </c>
       <c r="G29" s="16" t="n">
-        <v>39377</v>
+        <v>86938</v>
       </c>
       <c r="H29" s="16" t="n">
-        <v>86938</v>
+        <v>68320</v>
       </c>
       <c r="I29" s="16" t="n">
-        <v>68320</v>
+        <v>106903</v>
       </c>
       <c r="J29" s="16" t="n">
-        <v>106903</v>
+        <v>96662</v>
       </c>
       <c r="K29" s="16" t="n">
-        <v>96662</v>
+        <v>95889</v>
       </c>
       <c r="L29" s="16" t="n">
-        <v>95889</v>
+        <v>106471</v>
       </c>
       <c r="M29" s="16" t="n">
-        <v>106471</v>
+        <v>95859</v>
       </c>
       <c r="N29" s="16" t="n">
-        <v>95859</v>
+        <v>143789</v>
       </c>
       <c r="O29" s="16" t="n">
-        <v>143789</v>
+        <v>261084</v>
       </c>
       <c r="P29" s="16" t="n">
-        <v>261084</v>
+        <v>147625</v>
       </c>
       <c r="Q29" s="16" t="n">
-        <v>147625</v>
+        <v>208816</v>
       </c>
       <c r="R29" s="16" t="n">
-        <v>208816</v>
+        <v>29869</v>
       </c>
       <c r="S29" s="16" t="n">
-        <v>29869</v>
+        <v>89823</v>
       </c>
       <c r="T29" s="16" t="n">
-        <v>89823</v>
+        <v>239190</v>
       </c>
       <c r="U29" s="16" t="n">
-        <v>239190</v>
+        <v>182868</v>
       </c>
       <c r="V29" s="16" t="n">
-        <v>182868</v>
+        <v>181382</v>
       </c>
       <c r="W29" s="16" t="n">
-        <v>181382</v>
+        <v>192099</v>
       </c>
       <c r="X29" s="16" t="n">
-        <v>192099</v>
+        <v>101660</v>
       </c>
       <c r="Y29" s="16" t="n">
-        <v>101660</v>
+        <v>122012</v>
       </c>
       <c r="Z29" s="16" t="n">
-        <v>122012</v>
+        <v>140670</v>
       </c>
       <c r="AA29" s="16" t="n">
-        <v>140670</v>
+        <v>111246</v>
       </c>
       <c r="AB29" s="16" t="n">
-        <v>111246</v>
+        <v>99463</v>
       </c>
       <c r="AC29" s="16" t="n">
-        <v>99463</v>
+        <v>140974</v>
       </c>
       <c r="AD29" s="16" t="n">
-        <v>140974</v>
+        <v>97643</v>
       </c>
       <c r="AE29" s="16" t="n">
-        <v>97643</v>
+        <v>174539</v>
       </c>
       <c r="AF29" s="16" t="n">
-        <v>174539</v>
+        <v>185918</v>
       </c>
       <c r="AG29" s="16" t="n">
-        <v>185918</v>
+        <v>136784</v>
       </c>
       <c r="AH29" s="16" t="n">
-        <v>136784</v>
+        <v>150795</v>
       </c>
       <c r="AI29" s="16" t="n">
-        <v>150795</v>
+        <v>147684</v>
       </c>
       <c r="AJ29" s="16" t="n">
-        <v>147684</v>
+        <v>151056</v>
       </c>
       <c r="AK29" s="16" t="n">
-        <v>151056</v>
+        <v>199358</v>
       </c>
       <c r="AL29" s="16" t="n">
-        <v>199358</v>
+        <v>153121</v>
       </c>
       <c r="AM29" s="16" t="n">
-        <v>153121</v>
+        <v>131225</v>
       </c>
       <c r="AN29" s="16" t="n">
-        <v>131225</v>
-      </c>
-      <c r="AO29" s="16" t="n">
         <v>174584</v>
       </c>
-      <c r="AP29" s="16" t="s">
-        <v>57</v>
+      <c r="AO29" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP29" s="16" t="n">
+        <v>121237</v>
       </c>
       <c r="AQ29" s="16" t="n">
-        <v>121237</v>
-      </c>
-      <c r="AR29" s="16" t="n">
         <v>219884</v>
+      </c>
+      <c r="AR29" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AS29" s="16" t="s">
         <v>57</v>
@@ -5642,154 +5642,154 @@
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="13" t="n">
-        <v>74288</v>
+        <v>105298</v>
       </c>
       <c r="F30" s="13" t="n">
-        <v>105298</v>
+        <v>29449</v>
       </c>
       <c r="G30" s="13" t="n">
-        <v>29449</v>
+        <v>51205</v>
       </c>
       <c r="H30" s="13" t="n">
-        <v>51205</v>
+        <v>45238</v>
       </c>
       <c r="I30" s="13" t="n">
-        <v>45238</v>
+        <v>64854</v>
       </c>
       <c r="J30" s="13" t="n">
-        <v>64854</v>
+        <v>94911</v>
       </c>
       <c r="K30" s="13" t="n">
-        <v>94911</v>
+        <v>145513</v>
       </c>
       <c r="L30" s="13" t="n">
-        <v>145513</v>
+        <v>164195</v>
       </c>
       <c r="M30" s="13" t="n">
-        <v>164195</v>
+        <v>132727</v>
       </c>
       <c r="N30" s="13" t="n">
-        <v>132727</v>
+        <v>126512</v>
       </c>
       <c r="O30" s="13" t="n">
-        <v>126512</v>
+        <v>94450</v>
       </c>
       <c r="P30" s="13" t="n">
-        <v>94450</v>
+        <v>332255</v>
       </c>
       <c r="Q30" s="13" t="n">
-        <v>332255</v>
+        <v>275453</v>
       </c>
       <c r="R30" s="13" t="n">
-        <v>275453</v>
+        <v>103318</v>
       </c>
       <c r="S30" s="13" t="n">
-        <v>103318</v>
+        <v>71910</v>
       </c>
       <c r="T30" s="13" t="n">
-        <v>71910</v>
+        <v>162379</v>
       </c>
       <c r="U30" s="13" t="n">
-        <v>162379</v>
+        <v>172663</v>
       </c>
       <c r="V30" s="13" t="n">
-        <v>172663</v>
+        <v>157585</v>
       </c>
       <c r="W30" s="13" t="n">
-        <v>157585</v>
+        <v>147825</v>
       </c>
       <c r="X30" s="13" t="n">
-        <v>147825</v>
+        <v>136227</v>
       </c>
       <c r="Y30" s="13" t="n">
-        <v>136227</v>
+        <v>127364</v>
       </c>
       <c r="Z30" s="13" t="n">
-        <v>127364</v>
+        <v>164289</v>
       </c>
       <c r="AA30" s="13" t="n">
-        <v>164289</v>
+        <v>163405</v>
       </c>
       <c r="AB30" s="13" t="n">
-        <v>163405</v>
+        <v>150378</v>
       </c>
       <c r="AC30" s="13" t="n">
-        <v>150378</v>
+        <v>136665</v>
       </c>
       <c r="AD30" s="13" t="n">
-        <v>136665</v>
+        <v>70703</v>
       </c>
       <c r="AE30" s="13" t="n">
-        <v>70703</v>
+        <v>133310</v>
       </c>
       <c r="AF30" s="13" t="n">
-        <v>133310</v>
+        <v>98551</v>
       </c>
       <c r="AG30" s="13" t="n">
-        <v>98551</v>
+        <v>89771</v>
       </c>
       <c r="AH30" s="13" t="n">
-        <v>89771</v>
+        <v>128365</v>
       </c>
       <c r="AI30" s="13" t="n">
-        <v>128365</v>
+        <v>120621</v>
       </c>
       <c r="AJ30" s="13" t="n">
-        <v>120621</v>
+        <v>97517</v>
       </c>
       <c r="AK30" s="13" t="n">
-        <v>97517</v>
+        <v>90743</v>
       </c>
       <c r="AL30" s="13" t="n">
-        <v>90743</v>
+        <v>100404</v>
       </c>
       <c r="AM30" s="13" t="n">
-        <v>100404</v>
+        <v>136733</v>
       </c>
       <c r="AN30" s="13" t="n">
-        <v>136733</v>
+        <v>87955</v>
       </c>
       <c r="AO30" s="13" t="n">
-        <v>87955</v>
+        <v>48279</v>
       </c>
       <c r="AP30" s="13" t="n">
-        <v>48279</v>
+        <v>18641</v>
       </c>
       <c r="AQ30" s="13" t="n">
-        <v>18641</v>
+        <v>128671</v>
       </c>
       <c r="AR30" s="13" t="n">
-        <v>128671</v>
+        <v>142932</v>
       </c>
       <c r="AS30" s="13" t="n">
-        <v>142932</v>
+        <v>273499</v>
       </c>
       <c r="AT30" s="13" t="n">
-        <v>273499</v>
+        <v>116670</v>
       </c>
       <c r="AU30" s="13" t="n">
-        <v>116670</v>
+        <v>40170</v>
       </c>
       <c r="AV30" s="13" t="n">
-        <v>40170</v>
+        <v>87637</v>
       </c>
       <c r="AW30" s="13" t="n">
-        <v>87637</v>
+        <v>81461</v>
       </c>
       <c r="AX30" s="13" t="n">
-        <v>81461</v>
+        <v>53080</v>
       </c>
       <c r="AY30" s="13" t="n">
-        <v>53080</v>
+        <v>63364</v>
       </c>
       <c r="AZ30" s="13" t="n">
-        <v>63364</v>
+        <v>185990</v>
       </c>
       <c r="BA30" s="13" t="n">
-        <v>185990</v>
+        <v>155944</v>
       </c>
       <c r="BB30" s="13" t="n">
-        <v>155944</v>
+        <v>102093</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5801,154 +5801,154 @@
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="16" t="n">
-        <v>35067</v>
+        <v>23834</v>
       </c>
       <c r="F31" s="16" t="n">
-        <v>23834</v>
+        <v>9563</v>
       </c>
       <c r="G31" s="16" t="n">
-        <v>9563</v>
+        <v>20638</v>
       </c>
       <c r="H31" s="16" t="n">
-        <v>20638</v>
+        <v>41263</v>
       </c>
       <c r="I31" s="16" t="n">
-        <v>41263</v>
+        <v>15938</v>
       </c>
       <c r="J31" s="16" t="n">
-        <v>15938</v>
+        <v>47119</v>
       </c>
       <c r="K31" s="16" t="n">
-        <v>47119</v>
+        <v>72845</v>
       </c>
       <c r="L31" s="16" t="n">
-        <v>72845</v>
+        <v>49130</v>
       </c>
       <c r="M31" s="16" t="n">
-        <v>49130</v>
+        <v>76327</v>
       </c>
       <c r="N31" s="16" t="n">
-        <v>76327</v>
+        <v>75310</v>
       </c>
       <c r="O31" s="16" t="n">
-        <v>75310</v>
+        <v>51795</v>
       </c>
       <c r="P31" s="16" t="n">
-        <v>51795</v>
+        <v>111578</v>
       </c>
       <c r="Q31" s="16" t="n">
-        <v>111578</v>
+        <v>97984</v>
       </c>
       <c r="R31" s="16" t="n">
-        <v>97984</v>
+        <v>91824</v>
       </c>
       <c r="S31" s="16" t="n">
-        <v>91824</v>
+        <v>109364</v>
       </c>
       <c r="T31" s="16" t="n">
-        <v>109364</v>
+        <v>64320</v>
       </c>
       <c r="U31" s="16" t="n">
-        <v>64320</v>
+        <v>109216</v>
       </c>
       <c r="V31" s="16" t="n">
-        <v>109216</v>
+        <v>107249</v>
       </c>
       <c r="W31" s="16" t="n">
-        <v>107249</v>
+        <v>113522</v>
       </c>
       <c r="X31" s="16" t="n">
-        <v>113522</v>
+        <v>123238</v>
       </c>
       <c r="Y31" s="16" t="n">
-        <v>123238</v>
+        <v>127014</v>
       </c>
       <c r="Z31" s="16" t="n">
-        <v>127014</v>
+        <v>166197</v>
       </c>
       <c r="AA31" s="16" t="n">
-        <v>166197</v>
+        <v>125560</v>
       </c>
       <c r="AB31" s="16" t="n">
-        <v>125560</v>
+        <v>105581</v>
       </c>
       <c r="AC31" s="16" t="n">
-        <v>105581</v>
+        <v>160713</v>
       </c>
       <c r="AD31" s="16" t="n">
-        <v>160713</v>
+        <v>104813</v>
       </c>
       <c r="AE31" s="16" t="n">
-        <v>104813</v>
+        <v>99895</v>
       </c>
       <c r="AF31" s="16" t="n">
-        <v>99895</v>
+        <v>125781</v>
       </c>
       <c r="AG31" s="16" t="n">
-        <v>125781</v>
+        <v>131843</v>
       </c>
       <c r="AH31" s="16" t="n">
-        <v>131843</v>
+        <v>137472</v>
       </c>
       <c r="AI31" s="16" t="n">
-        <v>137472</v>
+        <v>143509</v>
       </c>
       <c r="AJ31" s="16" t="n">
-        <v>143509</v>
+        <v>134946</v>
       </c>
       <c r="AK31" s="16" t="n">
-        <v>134946</v>
+        <v>108123</v>
       </c>
       <c r="AL31" s="16" t="n">
-        <v>108123</v>
+        <v>114338</v>
       </c>
       <c r="AM31" s="16" t="n">
-        <v>114338</v>
+        <v>146556</v>
       </c>
       <c r="AN31" s="16" t="n">
-        <v>146556</v>
+        <v>208725</v>
       </c>
       <c r="AO31" s="16" t="n">
-        <v>208725</v>
+        <v>249378</v>
       </c>
       <c r="AP31" s="16" t="n">
-        <v>249378</v>
+        <v>127998</v>
       </c>
       <c r="AQ31" s="16" t="n">
-        <v>127998</v>
+        <v>163468</v>
       </c>
       <c r="AR31" s="16" t="n">
-        <v>163468</v>
+        <v>346763</v>
       </c>
       <c r="AS31" s="16" t="n">
-        <v>346763</v>
+        <v>352440</v>
       </c>
       <c r="AT31" s="16" t="n">
-        <v>352440</v>
+        <v>394828</v>
       </c>
       <c r="AU31" s="16" t="n">
-        <v>394828</v>
+        <v>375083</v>
       </c>
       <c r="AV31" s="16" t="n">
-        <v>375083</v>
+        <v>346884</v>
       </c>
       <c r="AW31" s="16" t="n">
-        <v>346884</v>
+        <v>364096</v>
       </c>
       <c r="AX31" s="16" t="n">
-        <v>364096</v>
+        <v>437068</v>
       </c>
       <c r="AY31" s="16" t="n">
-        <v>437068</v>
+        <v>404811</v>
       </c>
       <c r="AZ31" s="16" t="n">
-        <v>404811</v>
+        <v>494973</v>
       </c>
       <c r="BA31" s="16" t="n">
-        <v>494973</v>
+        <v>478694</v>
       </c>
       <c r="BB31" s="16" t="n">
-        <v>478694</v>
+        <v>337001</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6016,17 +6016,17 @@
       <c r="W32" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="X32" s="13" t="s">
-        <v>57</v>
+      <c r="X32" s="13" t="n">
+        <v>38913</v>
       </c>
       <c r="Y32" s="13" t="n">
-        <v>38913</v>
+        <v>21560</v>
       </c>
       <c r="Z32" s="13" t="n">
-        <v>21560</v>
+        <v>755</v>
       </c>
       <c r="AA32" s="13" t="n">
-        <v>755</v>
+        <v>0</v>
       </c>
       <c r="AB32" s="13" t="n">
         <v>0</v>
@@ -6034,8 +6034,8 @@
       <c r="AC32" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD32" s="13" t="n">
-        <v>0</v>
+      <c r="AD32" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE32" s="13" t="s">
         <v>57</v>
@@ -6049,8 +6049,8 @@
       <c r="AH32" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI32" s="13" t="s">
-        <v>57</v>
+      <c r="AI32" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AJ32" s="13" t="n">
         <v>0</v>
@@ -6067,11 +6067,11 @@
       <c r="AN32" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AO32" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP32" s="13" t="s">
-        <v>57</v>
+      <c r="AO32" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP32" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ32" s="13" t="n">
         <v>0</v>
@@ -6119,10 +6119,10 @@
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="16" t="n">
-        <v>28420</v>
-      </c>
-      <c r="F33" s="16" t="n">
         <v>114775</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="G33" s="16" t="s">
         <v>57</v>
@@ -6280,47 +6280,47 @@
       <c r="E34" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="13" t="s">
-        <v>57</v>
+      <c r="F34" s="13" t="n">
+        <v>15255</v>
       </c>
       <c r="G34" s="13" t="n">
-        <v>15255</v>
+        <v>18887</v>
       </c>
       <c r="H34" s="13" t="n">
-        <v>18887</v>
+        <v>20359</v>
       </c>
       <c r="I34" s="13" t="n">
-        <v>20359</v>
+        <v>86187</v>
       </c>
       <c r="J34" s="13" t="n">
-        <v>86187</v>
+        <v>27014</v>
       </c>
       <c r="K34" s="13" t="n">
-        <v>27014</v>
+        <v>33038</v>
       </c>
       <c r="L34" s="13" t="n">
-        <v>33038</v>
+        <v>152</v>
       </c>
       <c r="M34" s="13" t="n">
-        <v>152</v>
+        <v>1322</v>
       </c>
       <c r="N34" s="13" t="n">
-        <v>1322</v>
+        <v>472</v>
       </c>
       <c r="O34" s="13" t="n">
-        <v>472</v>
+        <v>9</v>
       </c>
       <c r="P34" s="13" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="R34" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" s="13" t="s">
-        <v>57</v>
+      <c r="R34" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="S34" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="T34" s="13" t="n">
         <v>0</v>
@@ -6352,8 +6352,8 @@
       <c r="AC34" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD34" s="13" t="n">
-        <v>0</v>
+      <c r="AD34" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE34" s="13" t="s">
         <v>57</v>
@@ -6544,47 +6544,47 @@
       <c r="AN35" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AO35" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP35" s="16" t="n">
+      <c r="AO35" s="16" t="n">
         <v>171486</v>
       </c>
+      <c r="AP35" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="AQ35" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AR35" s="16" t="s">
-        <v>57</v>
+      <c r="AR35" s="16" t="n">
+        <v>198056</v>
       </c>
       <c r="AS35" s="16" t="n">
-        <v>198056</v>
+        <v>134533</v>
       </c>
       <c r="AT35" s="16" t="n">
-        <v>134533</v>
+        <v>127981</v>
       </c>
       <c r="AU35" s="16" t="n">
-        <v>127981</v>
+        <v>73833</v>
       </c>
       <c r="AV35" s="16" t="n">
-        <v>73833</v>
+        <v>186423</v>
       </c>
       <c r="AW35" s="16" t="n">
-        <v>186423</v>
+        <v>242937</v>
       </c>
       <c r="AX35" s="16" t="n">
-        <v>242937</v>
+        <v>169409</v>
       </c>
       <c r="AY35" s="16" t="n">
-        <v>169409</v>
+        <v>136726</v>
       </c>
       <c r="AZ35" s="16" t="n">
-        <v>136726</v>
+        <v>75289</v>
       </c>
       <c r="BA35" s="16" t="n">
-        <v>75289</v>
+        <v>155207</v>
       </c>
       <c r="BB35" s="16" t="n">
-        <v>155207</v>
+        <v>156552</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6698,8 +6698,8 @@
       <c r="T37" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U37" s="20" t="s">
-        <v>57</v>
+      <c r="U37" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V37" s="20" t="n">
         <v>0</v>
@@ -6914,77 +6914,77 @@
       <c r="T39" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U39" s="13" t="s">
-        <v>57</v>
+      <c r="U39" s="13" t="n">
+        <v>-464</v>
       </c>
       <c r="V39" s="13" t="n">
-        <v>-464</v>
+        <v>-7607</v>
       </c>
       <c r="W39" s="13" t="n">
-        <v>-7607</v>
+        <v>-176</v>
       </c>
       <c r="X39" s="13" t="n">
-        <v>-176</v>
+        <v>-431</v>
       </c>
       <c r="Y39" s="13" t="n">
-        <v>-431</v>
+        <v>-10776</v>
       </c>
       <c r="Z39" s="13" t="n">
-        <v>-10776</v>
+        <v>-2346</v>
       </c>
       <c r="AA39" s="13" t="n">
-        <v>-2346</v>
+        <v>-123</v>
       </c>
       <c r="AB39" s="13" t="n">
-        <v>-123</v>
+        <v>-290</v>
       </c>
       <c r="AC39" s="13" t="n">
-        <v>-290</v>
+        <v>-4843</v>
       </c>
       <c r="AD39" s="13" t="n">
-        <v>-4843</v>
+        <v>-2116</v>
       </c>
       <c r="AE39" s="13" t="n">
-        <v>-2116</v>
+        <v>-1102</v>
       </c>
       <c r="AF39" s="13" t="n">
-        <v>-1102</v>
+        <v>-11641</v>
       </c>
       <c r="AG39" s="13" t="n">
-        <v>-11641</v>
+        <v>-429</v>
       </c>
       <c r="AH39" s="13" t="n">
-        <v>-429</v>
+        <v>-2438</v>
       </c>
       <c r="AI39" s="13" t="n">
-        <v>-2438</v>
+        <v>-651</v>
       </c>
       <c r="AJ39" s="13" t="n">
-        <v>-651</v>
+        <v>-5960</v>
       </c>
       <c r="AK39" s="13" t="n">
-        <v>-5960</v>
+        <v>-11146</v>
       </c>
       <c r="AL39" s="13" t="n">
-        <v>-11146</v>
+        <v>-4086</v>
       </c>
       <c r="AM39" s="13" t="n">
-        <v>-4086</v>
+        <v>-4663</v>
       </c>
       <c r="AN39" s="13" t="n">
-        <v>-4663</v>
-      </c>
-      <c r="AO39" s="13" t="n">
         <v>-12653</v>
       </c>
-      <c r="AP39" s="13" t="s">
-        <v>57</v>
+      <c r="AO39" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP39" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ39" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR39" s="13" t="n">
         <v>-208</v>
+      </c>
+      <c r="AR39" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AS39" s="13" t="s">
         <v>57</v>
@@ -7073,107 +7073,107 @@
       <c r="T40" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U40" s="16" t="s">
-        <v>57</v>
+      <c r="U40" s="16" t="n">
+        <v>-421</v>
       </c>
       <c r="V40" s="16" t="n">
-        <v>-421</v>
+        <v>-24337</v>
       </c>
       <c r="W40" s="16" t="n">
-        <v>-24337</v>
+        <v>-21841</v>
       </c>
       <c r="X40" s="16" t="n">
-        <v>-21841</v>
+        <v>-14762</v>
       </c>
       <c r="Y40" s="16" t="n">
-        <v>-14762</v>
+        <v>-19973</v>
       </c>
       <c r="Z40" s="16" t="n">
-        <v>-19973</v>
+        <v>-9722</v>
       </c>
       <c r="AA40" s="16" t="n">
-        <v>-9722</v>
+        <v>-6098</v>
       </c>
       <c r="AB40" s="16" t="n">
-        <v>-6098</v>
+        <v>-3575</v>
       </c>
       <c r="AC40" s="16" t="n">
-        <v>-3575</v>
+        <v>-13970</v>
       </c>
       <c r="AD40" s="16" t="n">
-        <v>-13970</v>
+        <v>-1251</v>
       </c>
       <c r="AE40" s="16" t="n">
-        <v>-1251</v>
+        <v>-1953</v>
       </c>
       <c r="AF40" s="16" t="n">
-        <v>-1953</v>
+        <v>-5202</v>
       </c>
       <c r="AG40" s="16" t="n">
-        <v>-5202</v>
+        <v>-5333</v>
       </c>
       <c r="AH40" s="16" t="n">
-        <v>-5333</v>
+        <v>-385</v>
       </c>
       <c r="AI40" s="16" t="n">
-        <v>-385</v>
-      </c>
-      <c r="AJ40" s="16" t="n">
         <v>-2869</v>
       </c>
-      <c r="AK40" s="16" t="s">
-        <v>57</v>
+      <c r="AJ40" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK40" s="16" t="n">
+        <v>-3265</v>
       </c>
       <c r="AL40" s="16" t="n">
-        <v>-3265</v>
+        <v>-12598</v>
       </c>
       <c r="AM40" s="16" t="n">
-        <v>-12598</v>
+        <v>-11154</v>
       </c>
       <c r="AN40" s="16" t="n">
-        <v>-11154</v>
+        <v>-19180</v>
       </c>
       <c r="AO40" s="16" t="n">
-        <v>-19180</v>
+        <v>-7045</v>
       </c>
       <c r="AP40" s="16" t="n">
-        <v>-7045</v>
+        <v>0</v>
       </c>
       <c r="AQ40" s="16" t="n">
-        <v>0</v>
+        <v>-3116</v>
       </c>
       <c r="AR40" s="16" t="n">
-        <v>-3116</v>
+        <v>-7140</v>
       </c>
       <c r="AS40" s="16" t="n">
-        <v>-7140</v>
+        <v>-11844</v>
       </c>
       <c r="AT40" s="16" t="n">
-        <v>-11844</v>
+        <v>-12150</v>
       </c>
       <c r="AU40" s="16" t="n">
-        <v>-12150</v>
+        <v>-13879</v>
       </c>
       <c r="AV40" s="16" t="n">
-        <v>-13879</v>
+        <v>-5581</v>
       </c>
       <c r="AW40" s="16" t="n">
-        <v>-5581</v>
+        <v>-11947</v>
       </c>
       <c r="AX40" s="16" t="n">
-        <v>-11947</v>
+        <v>-10506</v>
       </c>
       <c r="AY40" s="16" t="n">
-        <v>-10506</v>
+        <v>-8955</v>
       </c>
       <c r="AZ40" s="16" t="n">
-        <v>-8955</v>
+        <v>-4582</v>
       </c>
       <c r="BA40" s="16" t="n">
-        <v>-4582</v>
+        <v>-13681</v>
       </c>
       <c r="BB40" s="16" t="n">
-        <v>-13681</v>
+        <v>-196</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7232,107 +7232,107 @@
       <c r="T41" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U41" s="13" t="s">
-        <v>57</v>
+      <c r="U41" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V41" s="13" t="n">
         <v>0</v>
       </c>
       <c r="W41" s="13" t="n">
-        <v>0</v>
+        <v>-376</v>
       </c>
       <c r="X41" s="13" t="n">
-        <v>-376</v>
+        <v>-5034</v>
       </c>
       <c r="Y41" s="13" t="n">
-        <v>-5034</v>
+        <v>-356</v>
       </c>
       <c r="Z41" s="13" t="n">
-        <v>-356</v>
+        <v>-5137</v>
       </c>
       <c r="AA41" s="13" t="n">
-        <v>-5137</v>
+        <v>-4</v>
       </c>
       <c r="AB41" s="13" t="n">
-        <v>-4</v>
+        <v>-18858</v>
       </c>
       <c r="AC41" s="13" t="n">
-        <v>-18858</v>
+        <v>-679</v>
       </c>
       <c r="AD41" s="13" t="n">
-        <v>-679</v>
+        <v>-980</v>
       </c>
       <c r="AE41" s="13" t="n">
-        <v>-980</v>
+        <v>-1472</v>
       </c>
       <c r="AF41" s="13" t="n">
-        <v>-1472</v>
+        <v>-1570</v>
       </c>
       <c r="AG41" s="13" t="n">
-        <v>-1570</v>
+        <v>-2199</v>
       </c>
       <c r="AH41" s="13" t="n">
-        <v>-2199</v>
+        <v>-5918</v>
       </c>
       <c r="AI41" s="13" t="n">
-        <v>-5918</v>
+        <v>-5967</v>
       </c>
       <c r="AJ41" s="13" t="n">
-        <v>-5967</v>
+        <v>-2748</v>
       </c>
       <c r="AK41" s="13" t="n">
-        <v>-2748</v>
+        <v>-11144</v>
       </c>
       <c r="AL41" s="13" t="n">
-        <v>-11144</v>
+        <v>-506</v>
       </c>
       <c r="AM41" s="13" t="n">
-        <v>-506</v>
+        <v>-453</v>
       </c>
       <c r="AN41" s="13" t="n">
-        <v>-453</v>
+        <v>-7790</v>
       </c>
       <c r="AO41" s="13" t="n">
-        <v>-7790</v>
+        <v>-17454</v>
       </c>
       <c r="AP41" s="13" t="n">
-        <v>-17454</v>
+        <v>0</v>
       </c>
       <c r="AQ41" s="13" t="n">
-        <v>0</v>
+        <v>-1204</v>
       </c>
       <c r="AR41" s="13" t="n">
-        <v>-1204</v>
+        <v>-17703</v>
       </c>
       <c r="AS41" s="13" t="n">
-        <v>-17703</v>
+        <v>-11935</v>
       </c>
       <c r="AT41" s="13" t="n">
-        <v>-11935</v>
+        <v>-33858</v>
       </c>
       <c r="AU41" s="13" t="n">
-        <v>-33858</v>
+        <v>-13076</v>
       </c>
       <c r="AV41" s="13" t="n">
-        <v>-13076</v>
+        <v>-28613</v>
       </c>
       <c r="AW41" s="13" t="n">
-        <v>-28613</v>
+        <v>-19851</v>
       </c>
       <c r="AX41" s="13" t="n">
-        <v>-19851</v>
+        <v>-13109</v>
       </c>
       <c r="AY41" s="13" t="n">
-        <v>-13109</v>
+        <v>-35820</v>
       </c>
       <c r="AZ41" s="13" t="n">
-        <v>-35820</v>
+        <v>-94677</v>
       </c>
       <c r="BA41" s="13" t="n">
-        <v>-94677</v>
+        <v>-75955</v>
       </c>
       <c r="BB41" s="13" t="n">
-        <v>-75955</v>
+        <v>-17802</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7406,11 +7406,11 @@
       <c r="Y42" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="Z42" s="16" t="s">
-        <v>57</v>
+      <c r="Z42" s="16" t="n">
+        <v>-40000</v>
       </c>
       <c r="AA42" s="16" t="n">
-        <v>-40000</v>
+        <v>0</v>
       </c>
       <c r="AB42" s="16" t="n">
         <v>0</v>
@@ -7418,8 +7418,8 @@
       <c r="AC42" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD42" s="16" t="n">
-        <v>0</v>
+      <c r="AD42" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AE42" s="16" t="s">
         <v>57</v>
@@ -7445,14 +7445,14 @@
       <c r="AL42" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AM42" s="16" t="s">
-        <v>57</v>
+      <c r="AM42" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AN42" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AO42" s="16" t="n">
-        <v>0</v>
+      <c r="AO42" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AP42" s="16" t="s">
         <v>57</v>
@@ -7610,47 +7610,47 @@
       <c r="AN43" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AO43" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP43" s="13" t="n">
+      <c r="AO43" s="13" t="n">
         <v>-17028</v>
       </c>
+      <c r="AP43" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AQ43" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR43" s="13" t="s">
-        <v>57</v>
+      <c r="AR43" s="13" t="n">
+        <v>-11605</v>
       </c>
       <c r="AS43" s="13" t="n">
-        <v>-11605</v>
+        <v>-11824</v>
       </c>
       <c r="AT43" s="13" t="n">
-        <v>-11824</v>
+        <v>-14299</v>
       </c>
       <c r="AU43" s="13" t="n">
-        <v>-14299</v>
+        <v>-352</v>
       </c>
       <c r="AV43" s="13" t="n">
-        <v>-352</v>
+        <v>-4591</v>
       </c>
       <c r="AW43" s="13" t="n">
-        <v>-4591</v>
+        <v>-11989</v>
       </c>
       <c r="AX43" s="13" t="n">
-        <v>-11989</v>
+        <v>-34019</v>
       </c>
       <c r="AY43" s="13" t="n">
-        <v>-34019</v>
+        <v>-612</v>
       </c>
       <c r="AZ43" s="13" t="n">
-        <v>-612</v>
+        <v>-3266</v>
       </c>
       <c r="BA43" s="13" t="n">
-        <v>-3266</v>
+        <v>-6110</v>
       </c>
       <c r="BB43" s="13" t="n">
-        <v>-6110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7707,107 +7707,107 @@
       <c r="T44" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="U44" s="22" t="s">
-        <v>57</v>
+      <c r="U44" s="22" t="n">
+        <v>-885</v>
       </c>
       <c r="V44" s="22" t="n">
-        <v>-885</v>
+        <v>-31944</v>
       </c>
       <c r="W44" s="22" t="n">
-        <v>-31944</v>
+        <v>-22393</v>
       </c>
       <c r="X44" s="22" t="n">
-        <v>-22393</v>
+        <v>-20227</v>
       </c>
       <c r="Y44" s="22" t="n">
-        <v>-20227</v>
+        <v>-31105</v>
       </c>
       <c r="Z44" s="22" t="n">
-        <v>-31105</v>
+        <v>-57205</v>
       </c>
       <c r="AA44" s="22" t="n">
-        <v>-57205</v>
+        <v>-6225</v>
       </c>
       <c r="AB44" s="22" t="n">
-        <v>-6225</v>
+        <v>-22723</v>
       </c>
       <c r="AC44" s="22" t="n">
-        <v>-22723</v>
+        <v>-19492</v>
       </c>
       <c r="AD44" s="22" t="n">
-        <v>-19492</v>
+        <v>-4347</v>
       </c>
       <c r="AE44" s="22" t="n">
-        <v>-4347</v>
+        <v>-4527</v>
       </c>
       <c r="AF44" s="22" t="n">
-        <v>-4527</v>
+        <v>-18413</v>
       </c>
       <c r="AG44" s="22" t="n">
-        <v>-18413</v>
+        <v>-7961</v>
       </c>
       <c r="AH44" s="22" t="n">
-        <v>-7961</v>
+        <v>-8741</v>
       </c>
       <c r="AI44" s="22" t="n">
-        <v>-8741</v>
+        <v>-9487</v>
       </c>
       <c r="AJ44" s="22" t="n">
-        <v>-9487</v>
+        <v>-8708</v>
       </c>
       <c r="AK44" s="22" t="n">
-        <v>-8708</v>
+        <v>-25555</v>
       </c>
       <c r="AL44" s="22" t="n">
-        <v>-25555</v>
+        <v>-17190</v>
       </c>
       <c r="AM44" s="22" t="n">
-        <v>-17190</v>
+        <v>-16270</v>
       </c>
       <c r="AN44" s="22" t="n">
-        <v>-16270</v>
+        <v>-39623</v>
       </c>
       <c r="AO44" s="22" t="n">
-        <v>-39623</v>
+        <v>-41527</v>
       </c>
       <c r="AP44" s="22" t="n">
-        <v>-41527</v>
+        <v>0</v>
       </c>
       <c r="AQ44" s="22" t="n">
-        <v>0</v>
+        <v>-4528</v>
       </c>
       <c r="AR44" s="22" t="n">
-        <v>-4528</v>
+        <v>-36448</v>
       </c>
       <c r="AS44" s="22" t="n">
-        <v>-36448</v>
+        <v>-35603</v>
       </c>
       <c r="AT44" s="22" t="n">
-        <v>-35603</v>
+        <v>-60307</v>
       </c>
       <c r="AU44" s="22" t="n">
-        <v>-60307</v>
+        <v>-27307</v>
       </c>
       <c r="AV44" s="22" t="n">
-        <v>-27307</v>
+        <v>-38785</v>
       </c>
       <c r="AW44" s="22" t="n">
-        <v>-38785</v>
+        <v>-43787</v>
       </c>
       <c r="AX44" s="22" t="n">
-        <v>-43787</v>
+        <v>-57634</v>
       </c>
       <c r="AY44" s="22" t="n">
-        <v>-57634</v>
+        <v>-45387</v>
       </c>
       <c r="AZ44" s="22" t="n">
-        <v>-45387</v>
+        <v>-102525</v>
       </c>
       <c r="BA44" s="22" t="n">
-        <v>-102525</v>
+        <v>-95746</v>
       </c>
       <c r="BB44" s="22" t="n">
-        <v>-95746</v>
+        <v>-17998</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7817,154 +7817,154 @@
       <c r="C45" s="20"/>
       <c r="D45" s="20"/>
       <c r="E45" s="20" t="n">
-        <v>138766</v>
+        <v>245542</v>
       </c>
       <c r="F45" s="20" t="n">
-        <v>245542</v>
+        <v>93644</v>
       </c>
       <c r="G45" s="20" t="n">
-        <v>93644</v>
+        <v>177668</v>
       </c>
       <c r="H45" s="20" t="n">
-        <v>177668</v>
+        <v>175180</v>
       </c>
       <c r="I45" s="20" t="n">
-        <v>175180</v>
+        <v>273882</v>
       </c>
       <c r="J45" s="20" t="n">
-        <v>273882</v>
+        <v>265706</v>
       </c>
       <c r="K45" s="20" t="n">
-        <v>265706</v>
+        <v>347285</v>
       </c>
       <c r="L45" s="20" t="n">
-        <v>347285</v>
+        <v>319948</v>
       </c>
       <c r="M45" s="20" t="n">
-        <v>319948</v>
+        <v>306235</v>
       </c>
       <c r="N45" s="20" t="n">
-        <v>306235</v>
+        <v>346083</v>
       </c>
       <c r="O45" s="20" t="n">
-        <v>346083</v>
+        <v>407338</v>
       </c>
       <c r="P45" s="20" t="n">
-        <v>407338</v>
+        <v>591458</v>
       </c>
       <c r="Q45" s="20" t="n">
-        <v>591458</v>
+        <v>582253</v>
       </c>
       <c r="R45" s="20" t="n">
-        <v>582253</v>
+        <v>225011</v>
       </c>
       <c r="S45" s="20" t="n">
-        <v>225011</v>
+        <v>271097</v>
       </c>
       <c r="T45" s="20" t="n">
-        <v>271097</v>
+        <v>465889</v>
       </c>
       <c r="U45" s="20" t="n">
-        <v>465889</v>
+        <v>463862</v>
       </c>
       <c r="V45" s="20" t="n">
-        <v>463862</v>
+        <v>414272</v>
       </c>
       <c r="W45" s="20" t="n">
-        <v>414272</v>
+        <v>431053</v>
       </c>
       <c r="X45" s="20" t="n">
-        <v>431053</v>
+        <v>379811</v>
       </c>
       <c r="Y45" s="20" t="n">
-        <v>379811</v>
+        <v>366845</v>
       </c>
       <c r="Z45" s="20" t="n">
-        <v>366845</v>
+        <v>414706</v>
       </c>
       <c r="AA45" s="20" t="n">
-        <v>414706</v>
+        <v>393986</v>
       </c>
       <c r="AB45" s="20" t="n">
-        <v>393986</v>
+        <v>332699</v>
       </c>
       <c r="AC45" s="20" t="n">
-        <v>332699</v>
+        <v>418860</v>
       </c>
       <c r="AD45" s="20" t="n">
-        <v>418860</v>
+        <v>268812</v>
       </c>
       <c r="AE45" s="20" t="n">
-        <v>268812</v>
+        <v>403217</v>
       </c>
       <c r="AF45" s="20" t="n">
-        <v>403217</v>
+        <v>391837</v>
       </c>
       <c r="AG45" s="20" t="n">
-        <v>391837</v>
+        <v>350437</v>
       </c>
       <c r="AH45" s="20" t="n">
-        <v>350437</v>
+        <v>407891</v>
       </c>
       <c r="AI45" s="20" t="n">
-        <v>407891</v>
+        <v>410875</v>
       </c>
       <c r="AJ45" s="20" t="n">
-        <v>410875</v>
+        <v>374811</v>
       </c>
       <c r="AK45" s="20" t="n">
-        <v>374811</v>
+        <v>372669</v>
       </c>
       <c r="AL45" s="20" t="n">
-        <v>372669</v>
+        <v>350673</v>
       </c>
       <c r="AM45" s="20" t="n">
-        <v>350673</v>
+        <v>398244</v>
       </c>
       <c r="AN45" s="20" t="n">
-        <v>398244</v>
+        <v>431641</v>
       </c>
       <c r="AO45" s="20" t="n">
-        <v>431641</v>
+        <v>427616</v>
       </c>
       <c r="AP45" s="20" t="n">
-        <v>427616</v>
+        <v>267876</v>
       </c>
       <c r="AQ45" s="20" t="n">
-        <v>267876</v>
+        <v>507495</v>
       </c>
       <c r="AR45" s="20" t="n">
-        <v>507495</v>
+        <v>651303</v>
       </c>
       <c r="AS45" s="20" t="n">
-        <v>651303</v>
+        <v>724869</v>
       </c>
       <c r="AT45" s="20" t="n">
-        <v>724869</v>
+        <v>579172</v>
       </c>
       <c r="AU45" s="20" t="n">
-        <v>579172</v>
+        <v>461779</v>
       </c>
       <c r="AV45" s="20" t="n">
-        <v>461779</v>
+        <v>582159</v>
       </c>
       <c r="AW45" s="20" t="n">
-        <v>582159</v>
+        <v>644707</v>
       </c>
       <c r="AX45" s="20" t="n">
-        <v>644707</v>
+        <v>601923</v>
       </c>
       <c r="AY45" s="20" t="n">
-        <v>601923</v>
+        <v>559514</v>
       </c>
       <c r="AZ45" s="20" t="n">
-        <v>559514</v>
+        <v>653727</v>
       </c>
       <c r="BA45" s="20" t="n">
-        <v>653727</v>
+        <v>694099</v>
       </c>
       <c r="BB45" s="20" t="n">
-        <v>694099</v>
+        <v>577648</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8499,11 +8499,11 @@
       <c r="AH52" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI52" s="13" t="s">
-        <v>57</v>
+      <c r="AI52" s="13" t="n">
+        <v>1563</v>
       </c>
       <c r="AJ52" s="13" t="n">
-        <v>1563</v>
+        <v>0</v>
       </c>
       <c r="AK52" s="13" t="n">
         <v>0</v>
@@ -8517,11 +8517,11 @@
       <c r="AN52" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AO52" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP52" s="13" t="s">
-        <v>57</v>
+      <c r="AO52" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP52" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ52" s="13" t="n">
         <v>0</v>
@@ -8569,124 +8569,124 @@
       </c>
       <c r="D53" s="16"/>
       <c r="E53" s="16" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="F53" s="16" t="n">
-        <v>67</v>
+        <v>7750</v>
       </c>
       <c r="G53" s="16" t="n">
-        <v>7750</v>
+        <v>16408</v>
       </c>
       <c r="H53" s="16" t="n">
-        <v>16408</v>
+        <v>12670</v>
       </c>
       <c r="I53" s="16" t="n">
-        <v>12670</v>
+        <v>20306</v>
       </c>
       <c r="J53" s="16" t="n">
-        <v>20306</v>
+        <v>19799</v>
       </c>
       <c r="K53" s="16" t="n">
-        <v>19799</v>
+        <v>18407</v>
       </c>
       <c r="L53" s="16" t="n">
-        <v>18407</v>
+        <v>22046</v>
       </c>
       <c r="M53" s="16" t="n">
-        <v>22046</v>
+        <v>21757</v>
       </c>
       <c r="N53" s="16" t="n">
-        <v>21757</v>
+        <v>30279</v>
       </c>
       <c r="O53" s="16" t="n">
-        <v>30279</v>
+        <v>59574</v>
       </c>
       <c r="P53" s="16" t="n">
-        <v>59574</v>
+        <v>34749</v>
       </c>
       <c r="Q53" s="16" t="n">
-        <v>34749</v>
+        <v>46683</v>
       </c>
       <c r="R53" s="16" t="n">
-        <v>46683</v>
+        <v>6487</v>
       </c>
       <c r="S53" s="16" t="n">
-        <v>6487</v>
+        <v>21073</v>
       </c>
       <c r="T53" s="16" t="n">
-        <v>21073</v>
+        <v>57342</v>
       </c>
       <c r="U53" s="16" t="n">
-        <v>57342</v>
+        <v>60885</v>
       </c>
       <c r="V53" s="16" t="n">
-        <v>60885</v>
+        <v>64277</v>
       </c>
       <c r="W53" s="16" t="n">
-        <v>64277</v>
+        <v>81944</v>
       </c>
       <c r="X53" s="16" t="n">
-        <v>81944</v>
+        <v>43532</v>
       </c>
       <c r="Y53" s="16" t="n">
-        <v>43532</v>
+        <v>64192</v>
       </c>
       <c r="Z53" s="16" t="n">
-        <v>64192</v>
+        <v>83733</v>
       </c>
       <c r="AA53" s="16" t="n">
-        <v>83733</v>
+        <v>58123</v>
       </c>
       <c r="AB53" s="16" t="n">
-        <v>58123</v>
+        <v>76689</v>
       </c>
       <c r="AC53" s="16" t="n">
-        <v>76689</v>
+        <v>80315</v>
       </c>
       <c r="AD53" s="16" t="n">
-        <v>80315</v>
+        <v>52524</v>
       </c>
       <c r="AE53" s="16" t="n">
-        <v>52524</v>
+        <v>119689</v>
       </c>
       <c r="AF53" s="16" t="n">
-        <v>119689</v>
+        <v>139802</v>
       </c>
       <c r="AG53" s="16" t="n">
-        <v>139802</v>
+        <v>98445</v>
       </c>
       <c r="AH53" s="16" t="n">
-        <v>98445</v>
+        <v>113808</v>
       </c>
       <c r="AI53" s="16" t="n">
-        <v>113808</v>
+        <v>116739</v>
       </c>
       <c r="AJ53" s="16" t="n">
-        <v>116739</v>
+        <v>131973</v>
       </c>
       <c r="AK53" s="16" t="n">
-        <v>131973</v>
+        <v>157383</v>
       </c>
       <c r="AL53" s="16" t="n">
-        <v>157383</v>
+        <v>121859</v>
       </c>
       <c r="AM53" s="16" t="n">
-        <v>121859</v>
+        <v>107824</v>
       </c>
       <c r="AN53" s="16" t="n">
-        <v>107824</v>
-      </c>
-      <c r="AO53" s="16" t="n">
         <v>149739</v>
       </c>
-      <c r="AP53" s="16" t="s">
-        <v>57</v>
+      <c r="AO53" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP53" s="16" t="n">
+        <v>85351</v>
       </c>
       <c r="AQ53" s="16" t="n">
-        <v>85351</v>
-      </c>
-      <c r="AR53" s="16" t="n">
         <v>214011</v>
+      </c>
+      <c r="AR53" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AS53" s="16" t="s">
         <v>57</v>
@@ -8728,154 +8728,154 @@
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="13" t="n">
-        <v>7854</v>
+        <v>16396</v>
       </c>
       <c r="F54" s="13" t="n">
-        <v>16396</v>
+        <v>5360</v>
       </c>
       <c r="G54" s="13" t="n">
-        <v>5360</v>
+        <v>8916</v>
       </c>
       <c r="H54" s="13" t="n">
-        <v>8916</v>
+        <v>8559</v>
       </c>
       <c r="I54" s="13" t="n">
-        <v>8559</v>
+        <v>11574</v>
       </c>
       <c r="J54" s="13" t="n">
-        <v>11574</v>
+        <v>19203</v>
       </c>
       <c r="K54" s="13" t="n">
-        <v>19203</v>
+        <v>28049</v>
       </c>
       <c r="L54" s="13" t="n">
-        <v>28049</v>
+        <v>29900</v>
       </c>
       <c r="M54" s="13" t="n">
-        <v>29900</v>
+        <v>28500</v>
       </c>
       <c r="N54" s="13" t="n">
-        <v>28500</v>
+        <v>25527</v>
       </c>
       <c r="O54" s="13" t="n">
-        <v>25527</v>
+        <v>18873</v>
       </c>
       <c r="P54" s="13" t="n">
-        <v>18873</v>
+        <v>61142</v>
       </c>
       <c r="Q54" s="13" t="n">
-        <v>61142</v>
+        <v>52957</v>
       </c>
       <c r="R54" s="13" t="n">
-        <v>52957</v>
+        <v>20539</v>
       </c>
       <c r="S54" s="13" t="n">
-        <v>20539</v>
+        <v>23097</v>
       </c>
       <c r="T54" s="13" t="n">
-        <v>23097</v>
+        <v>36231</v>
       </c>
       <c r="U54" s="13" t="n">
-        <v>36231</v>
+        <v>46197</v>
       </c>
       <c r="V54" s="13" t="n">
-        <v>46197</v>
+        <v>45820</v>
       </c>
       <c r="W54" s="13" t="n">
-        <v>45820</v>
+        <v>47797</v>
       </c>
       <c r="X54" s="13" t="n">
-        <v>47797</v>
+        <v>44440</v>
       </c>
       <c r="Y54" s="13" t="n">
-        <v>44440</v>
+        <v>54849</v>
       </c>
       <c r="Z54" s="13" t="n">
-        <v>54849</v>
+        <v>62347</v>
       </c>
       <c r="AA54" s="13" t="n">
-        <v>62347</v>
+        <v>73256</v>
       </c>
       <c r="AB54" s="13" t="n">
-        <v>73256</v>
+        <v>66174</v>
       </c>
       <c r="AC54" s="13" t="n">
-        <v>66174</v>
+        <v>58493</v>
       </c>
       <c r="AD54" s="13" t="n">
-        <v>58493</v>
+        <v>36099</v>
       </c>
       <c r="AE54" s="13" t="n">
-        <v>36099</v>
+        <v>67701</v>
       </c>
       <c r="AF54" s="13" t="n">
-        <v>67701</v>
+        <v>79681</v>
       </c>
       <c r="AG54" s="13" t="n">
-        <v>79681</v>
+        <v>80104</v>
       </c>
       <c r="AH54" s="13" t="n">
-        <v>80104</v>
+        <v>67462</v>
       </c>
       <c r="AI54" s="13" t="n">
-        <v>67462</v>
+        <v>64859</v>
       </c>
       <c r="AJ54" s="13" t="n">
-        <v>64859</v>
+        <v>67222</v>
       </c>
       <c r="AK54" s="13" t="n">
-        <v>67222</v>
+        <v>66837</v>
       </c>
       <c r="AL54" s="13" t="n">
-        <v>66837</v>
+        <v>82176</v>
       </c>
       <c r="AM54" s="13" t="n">
-        <v>82176</v>
+        <v>88420</v>
       </c>
       <c r="AN54" s="13" t="n">
-        <v>88420</v>
+        <v>56443</v>
       </c>
       <c r="AO54" s="13" t="n">
-        <v>56443</v>
+        <v>28092</v>
       </c>
       <c r="AP54" s="13" t="n">
-        <v>28092</v>
+        <v>14264</v>
       </c>
       <c r="AQ54" s="13" t="n">
-        <v>14264</v>
+        <v>84927</v>
       </c>
       <c r="AR54" s="13" t="n">
-        <v>84927</v>
+        <v>93239</v>
       </c>
       <c r="AS54" s="13" t="n">
-        <v>93239</v>
+        <v>195194</v>
       </c>
       <c r="AT54" s="13" t="n">
-        <v>195194</v>
+        <v>80806</v>
       </c>
       <c r="AU54" s="13" t="n">
-        <v>80806</v>
+        <v>26209</v>
       </c>
       <c r="AV54" s="13" t="n">
-        <v>26209</v>
+        <v>60429</v>
       </c>
       <c r="AW54" s="13" t="n">
-        <v>60429</v>
+        <v>66505</v>
       </c>
       <c r="AX54" s="13" t="n">
-        <v>66505</v>
+        <v>45023</v>
       </c>
       <c r="AY54" s="13" t="n">
-        <v>45023</v>
+        <v>51994</v>
       </c>
       <c r="AZ54" s="13" t="n">
-        <v>51994</v>
+        <v>146949</v>
       </c>
       <c r="BA54" s="13" t="n">
-        <v>146949</v>
+        <v>110328</v>
       </c>
       <c r="BB54" s="13" t="n">
-        <v>110328</v>
+        <v>70622</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8887,154 +8887,154 @@
       </c>
       <c r="D55" s="16"/>
       <c r="E55" s="16" t="n">
-        <v>4738</v>
+        <v>9577</v>
       </c>
       <c r="F55" s="16" t="n">
-        <v>9577</v>
+        <v>4617</v>
       </c>
       <c r="G55" s="16" t="n">
-        <v>4617</v>
+        <v>9722</v>
       </c>
       <c r="H55" s="16" t="n">
-        <v>9722</v>
+        <v>18358</v>
       </c>
       <c r="I55" s="16" t="n">
-        <v>18358</v>
+        <v>7480</v>
       </c>
       <c r="J55" s="16" t="n">
-        <v>7480</v>
+        <v>25723</v>
       </c>
       <c r="K55" s="16" t="n">
-        <v>25723</v>
+        <v>43056</v>
       </c>
       <c r="L55" s="16" t="n">
-        <v>43056</v>
+        <v>28523</v>
       </c>
       <c r="M55" s="16" t="n">
-        <v>28523</v>
+        <v>42759</v>
       </c>
       <c r="N55" s="16" t="n">
-        <v>42759</v>
+        <v>41972</v>
       </c>
       <c r="O55" s="16" t="n">
-        <v>41972</v>
+        <v>32527</v>
       </c>
       <c r="P55" s="16" t="n">
-        <v>32527</v>
+        <v>53013</v>
       </c>
       <c r="Q55" s="16" t="n">
-        <v>53013</v>
+        <v>50393</v>
       </c>
       <c r="R55" s="16" t="n">
-        <v>50393</v>
+        <v>49569</v>
       </c>
       <c r="S55" s="16" t="n">
-        <v>49569</v>
+        <v>63579</v>
       </c>
       <c r="T55" s="16" t="n">
-        <v>63579</v>
+        <v>48522</v>
       </c>
       <c r="U55" s="16" t="n">
-        <v>48522</v>
+        <v>84990</v>
       </c>
       <c r="V55" s="16" t="n">
-        <v>84990</v>
+        <v>86199</v>
       </c>
       <c r="W55" s="16" t="n">
-        <v>86199</v>
+        <v>80325</v>
       </c>
       <c r="X55" s="16" t="n">
-        <v>80325</v>
+        <v>105552</v>
       </c>
       <c r="Y55" s="16" t="n">
-        <v>105552</v>
+        <v>138740</v>
       </c>
       <c r="Z55" s="16" t="n">
-        <v>138740</v>
+        <v>194860</v>
       </c>
       <c r="AA55" s="16" t="n">
-        <v>194860</v>
+        <v>171803</v>
       </c>
       <c r="AB55" s="16" t="n">
-        <v>171803</v>
+        <v>118681</v>
       </c>
       <c r="AC55" s="16" t="n">
-        <v>118681</v>
+        <v>136778</v>
       </c>
       <c r="AD55" s="16" t="n">
-        <v>136778</v>
+        <v>109801</v>
       </c>
       <c r="AE55" s="16" t="n">
-        <v>109801</v>
+        <v>141824</v>
       </c>
       <c r="AF55" s="16" t="n">
-        <v>141824</v>
+        <v>208221</v>
       </c>
       <c r="AG55" s="16" t="n">
-        <v>208221</v>
+        <v>250319</v>
       </c>
       <c r="AH55" s="16" t="n">
-        <v>250319</v>
+        <v>273055</v>
       </c>
       <c r="AI55" s="16" t="n">
-        <v>273055</v>
+        <v>257764</v>
       </c>
       <c r="AJ55" s="16" t="n">
-        <v>257764</v>
+        <v>228599</v>
       </c>
       <c r="AK55" s="16" t="n">
-        <v>228599</v>
+        <v>183541</v>
       </c>
       <c r="AL55" s="16" t="n">
-        <v>183541</v>
+        <v>232289</v>
       </c>
       <c r="AM55" s="16" t="n">
-        <v>232289</v>
+        <v>248217</v>
       </c>
       <c r="AN55" s="16" t="n">
-        <v>248217</v>
+        <v>334637</v>
       </c>
       <c r="AO55" s="16" t="n">
-        <v>334637</v>
+        <v>452298</v>
       </c>
       <c r="AP55" s="16" t="n">
-        <v>452298</v>
+        <v>262524</v>
       </c>
       <c r="AQ55" s="16" t="n">
-        <v>262524</v>
+        <v>334900</v>
       </c>
       <c r="AR55" s="16" t="n">
-        <v>334900</v>
+        <v>724726</v>
       </c>
       <c r="AS55" s="16" t="n">
-        <v>724726</v>
+        <v>744070</v>
       </c>
       <c r="AT55" s="16" t="n">
-        <v>744070</v>
+        <v>951218</v>
       </c>
       <c r="AU55" s="16" t="n">
-        <v>951218</v>
+        <v>1013746</v>
       </c>
       <c r="AV55" s="16" t="n">
-        <v>1013746</v>
+        <v>930004</v>
       </c>
       <c r="AW55" s="16" t="n">
-        <v>930004</v>
+        <v>838072</v>
       </c>
       <c r="AX55" s="16" t="n">
-        <v>838072</v>
+        <v>997328</v>
       </c>
       <c r="AY55" s="16" t="n">
-        <v>997328</v>
+        <v>1007850</v>
       </c>
       <c r="AZ55" s="16" t="n">
-        <v>1007850</v>
+        <v>1155733</v>
       </c>
       <c r="BA55" s="16" t="n">
-        <v>1155733</v>
+        <v>1053897</v>
       </c>
       <c r="BB55" s="16" t="n">
-        <v>1052131</v>
+        <v>741491</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9102,17 +9102,17 @@
       <c r="W56" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="X56" s="13" t="s">
-        <v>57</v>
+      <c r="X56" s="13" t="n">
+        <v>20055</v>
       </c>
       <c r="Y56" s="13" t="n">
-        <v>20055</v>
+        <v>13880</v>
       </c>
       <c r="Z56" s="13" t="n">
-        <v>13880</v>
+        <v>336</v>
       </c>
       <c r="AA56" s="13" t="n">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="AB56" s="13" t="n">
         <v>0</v>
@@ -9120,8 +9120,8 @@
       <c r="AC56" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD56" s="13" t="n">
-        <v>0</v>
+      <c r="AD56" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE56" s="13" t="s">
         <v>57</v>
@@ -9135,8 +9135,8 @@
       <c r="AH56" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI56" s="13" t="s">
-        <v>57</v>
+      <c r="AI56" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AJ56" s="13" t="n">
         <v>0</v>
@@ -9153,11 +9153,11 @@
       <c r="AN56" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AO56" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP56" s="13" t="s">
-        <v>57</v>
+      <c r="AO56" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP56" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ56" s="13" t="n">
         <v>0</v>
@@ -9205,10 +9205,10 @@
       </c>
       <c r="D57" s="16"/>
       <c r="E57" s="16" t="n">
-        <v>4464</v>
-      </c>
-      <c r="F57" s="16" t="n">
         <v>18426</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="G57" s="16" t="s">
         <v>57</v>
@@ -9366,47 +9366,47 @@
       <c r="E58" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F58" s="13" t="s">
-        <v>57</v>
+      <c r="F58" s="13" t="n">
+        <v>509</v>
       </c>
       <c r="G58" s="13" t="n">
-        <v>509</v>
+        <v>590</v>
       </c>
       <c r="H58" s="13" t="n">
-        <v>590</v>
+        <v>1659</v>
       </c>
       <c r="I58" s="13" t="n">
-        <v>1659</v>
+        <v>8093</v>
       </c>
       <c r="J58" s="13" t="n">
-        <v>8093</v>
+        <v>3380</v>
       </c>
       <c r="K58" s="13" t="n">
-        <v>3380</v>
+        <v>14347</v>
       </c>
       <c r="L58" s="13" t="n">
-        <v>14347</v>
+        <v>24</v>
       </c>
       <c r="M58" s="13" t="n">
-        <v>24</v>
+        <v>183</v>
       </c>
       <c r="N58" s="13" t="n">
-        <v>183</v>
+        <v>75</v>
       </c>
       <c r="O58" s="13" t="n">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="P58" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="R58" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S58" s="13" t="s">
-        <v>57</v>
+      <c r="R58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="S58" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="T58" s="13" t="n">
         <v>0</v>
@@ -9438,8 +9438,8 @@
       <c r="AC58" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD58" s="13" t="n">
-        <v>0</v>
+      <c r="AD58" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE58" s="13" t="s">
         <v>57</v>
@@ -9630,47 +9630,47 @@
       <c r="AN59" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AO59" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP59" s="16" t="n">
+      <c r="AO59" s="16" t="n">
         <v>146692</v>
       </c>
+      <c r="AP59" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="AQ59" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AR59" s="16" t="s">
-        <v>57</v>
+      <c r="AR59" s="16" t="n">
+        <v>175879</v>
       </c>
       <c r="AS59" s="16" t="n">
-        <v>175879</v>
+        <v>150141</v>
       </c>
       <c r="AT59" s="16" t="n">
-        <v>150141</v>
+        <v>122905</v>
       </c>
       <c r="AU59" s="16" t="n">
-        <v>122905</v>
+        <v>52360</v>
       </c>
       <c r="AV59" s="16" t="n">
-        <v>52360</v>
+        <v>151994</v>
       </c>
       <c r="AW59" s="16" t="n">
-        <v>151994</v>
+        <v>184554</v>
       </c>
       <c r="AX59" s="16" t="n">
-        <v>184554</v>
+        <v>143266</v>
       </c>
       <c r="AY59" s="16" t="n">
-        <v>143266</v>
+        <v>107480</v>
       </c>
       <c r="AZ59" s="16" t="n">
-        <v>107480</v>
+        <v>70624</v>
       </c>
       <c r="BA59" s="16" t="n">
-        <v>70624</v>
+        <v>139820</v>
       </c>
       <c r="BB59" s="16" t="n">
-        <v>139820</v>
+        <v>137271</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9786,8 +9786,8 @@
       <c r="T61" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U61" s="20" t="s">
-        <v>57</v>
+      <c r="U61" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V61" s="23" t="n">
         <v>0</v>
@@ -10002,77 +10002,77 @@
       <c r="T63" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U63" s="13" t="s">
-        <v>57</v>
+      <c r="U63" s="13" t="n">
+        <v>-106</v>
       </c>
       <c r="V63" s="13" t="n">
-        <v>-106</v>
+        <v>-2472</v>
       </c>
       <c r="W63" s="13" t="n">
-        <v>-2472</v>
+        <v>-60</v>
       </c>
       <c r="X63" s="13" t="n">
-        <v>-60</v>
+        <v>-137</v>
       </c>
       <c r="Y63" s="13" t="n">
-        <v>-137</v>
+        <v>-3833</v>
       </c>
       <c r="Z63" s="13" t="n">
-        <v>-3833</v>
+        <v>-812</v>
       </c>
       <c r="AA63" s="13" t="n">
-        <v>-812</v>
+        <v>-53</v>
       </c>
       <c r="AB63" s="13" t="n">
-        <v>-53</v>
+        <v>-129</v>
       </c>
       <c r="AC63" s="13" t="n">
-        <v>-129</v>
+        <v>-1322</v>
       </c>
       <c r="AD63" s="13" t="n">
-        <v>-1322</v>
+        <v>-768</v>
       </c>
       <c r="AE63" s="13" t="n">
-        <v>-768</v>
+        <v>-532</v>
       </c>
       <c r="AF63" s="13" t="n">
-        <v>-532</v>
+        <v>-8083</v>
       </c>
       <c r="AG63" s="13" t="n">
-        <v>-8083</v>
+        <v>-229</v>
       </c>
       <c r="AH63" s="13" t="n">
-        <v>-229</v>
+        <v>-1726</v>
       </c>
       <c r="AI63" s="13" t="n">
-        <v>-1726</v>
+        <v>-523</v>
       </c>
       <c r="AJ63" s="13" t="n">
-        <v>-523</v>
+        <v>-4920</v>
       </c>
       <c r="AK63" s="13" t="n">
-        <v>-4920</v>
+        <v>-9761</v>
       </c>
       <c r="AL63" s="13" t="n">
-        <v>-9761</v>
+        <v>-3755</v>
       </c>
       <c r="AM63" s="13" t="n">
-        <v>-3755</v>
+        <v>-4874</v>
       </c>
       <c r="AN63" s="13" t="n">
-        <v>-4874</v>
-      </c>
-      <c r="AO63" s="13" t="n">
         <v>-11994</v>
       </c>
-      <c r="AP63" s="13" t="s">
-        <v>57</v>
+      <c r="AO63" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP63" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ63" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR63" s="13" t="n">
         <v>-171</v>
+      </c>
+      <c r="AR63" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AS63" s="13" t="s">
         <v>57</v>
@@ -10161,107 +10161,107 @@
       <c r="T64" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U64" s="16" t="s">
-        <v>57</v>
+      <c r="U64" s="16" t="n">
+        <v>-85</v>
       </c>
       <c r="V64" s="16" t="n">
-        <v>-85</v>
+        <v>-5756</v>
       </c>
       <c r="W64" s="16" t="n">
-        <v>-5756</v>
+        <v>-6318</v>
       </c>
       <c r="X64" s="16" t="n">
-        <v>-6318</v>
+        <v>-2640</v>
       </c>
       <c r="Y64" s="16" t="n">
-        <v>-2640</v>
+        <v>-6145</v>
       </c>
       <c r="Z64" s="16" t="n">
-        <v>-6145</v>
+        <v>-3048</v>
       </c>
       <c r="AA64" s="16" t="n">
-        <v>-3048</v>
+        <v>-2505</v>
       </c>
       <c r="AB64" s="16" t="n">
-        <v>-2505</v>
+        <v>-1566</v>
       </c>
       <c r="AC64" s="16" t="n">
-        <v>-1566</v>
+        <v>-3535</v>
       </c>
       <c r="AD64" s="16" t="n">
-        <v>-3535</v>
+        <v>-305</v>
       </c>
       <c r="AE64" s="16" t="n">
-        <v>-305</v>
+        <v>-291</v>
       </c>
       <c r="AF64" s="16" t="n">
-        <v>-291</v>
+        <v>-1972</v>
       </c>
       <c r="AG64" s="16" t="n">
-        <v>-1972</v>
+        <v>-3272</v>
       </c>
       <c r="AH64" s="16" t="n">
-        <v>-3272</v>
+        <v>-341</v>
       </c>
       <c r="AI64" s="16" t="n">
-        <v>-341</v>
+        <v>-2253</v>
       </c>
       <c r="AJ64" s="16" t="n">
-        <v>-2253</v>
+        <v>0</v>
       </c>
       <c r="AK64" s="16" t="n">
-        <v>0</v>
+        <v>-3407</v>
       </c>
       <c r="AL64" s="16" t="n">
-        <v>-3407</v>
+        <v>-9764</v>
       </c>
       <c r="AM64" s="16" t="n">
-        <v>-9764</v>
+        <v>-8583</v>
       </c>
       <c r="AN64" s="16" t="n">
-        <v>-8583</v>
+        <v>-14577</v>
       </c>
       <c r="AO64" s="16" t="n">
-        <v>-14577</v>
+        <v>-5521</v>
       </c>
       <c r="AP64" s="16" t="n">
-        <v>-5521</v>
+        <v>0</v>
       </c>
       <c r="AQ64" s="16" t="n">
-        <v>0</v>
+        <v>-2260</v>
       </c>
       <c r="AR64" s="16" t="n">
-        <v>-2260</v>
+        <v>-5376</v>
       </c>
       <c r="AS64" s="16" t="n">
-        <v>-5376</v>
+        <v>-9343</v>
       </c>
       <c r="AT64" s="16" t="n">
-        <v>-9343</v>
+        <v>-8468</v>
       </c>
       <c r="AU64" s="16" t="n">
-        <v>-8468</v>
+        <v>-9351</v>
       </c>
       <c r="AV64" s="16" t="n">
-        <v>-9351</v>
+        <v>-4197</v>
       </c>
       <c r="AW64" s="16" t="n">
-        <v>-4197</v>
+        <v>-9317</v>
       </c>
       <c r="AX64" s="16" t="n">
-        <v>-9317</v>
+        <v>-8603</v>
       </c>
       <c r="AY64" s="16" t="n">
-        <v>-8603</v>
+        <v>-7835</v>
       </c>
       <c r="AZ64" s="16" t="n">
-        <v>-7835</v>
+        <v>-3903</v>
       </c>
       <c r="BA64" s="16" t="n">
-        <v>-3903</v>
+        <v>-10528</v>
       </c>
       <c r="BB64" s="16" t="n">
-        <v>-10528</v>
+        <v>-192</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10320,107 +10320,107 @@
       <c r="T65" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U65" s="13" t="s">
-        <v>57</v>
+      <c r="U65" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V65" s="13" t="n">
         <v>0</v>
       </c>
       <c r="W65" s="13" t="n">
-        <v>0</v>
+        <v>-161</v>
       </c>
       <c r="X65" s="13" t="n">
-        <v>-161</v>
+        <v>-2322</v>
       </c>
       <c r="Y65" s="13" t="n">
-        <v>-2322</v>
+        <v>-343</v>
       </c>
       <c r="Z65" s="13" t="n">
-        <v>-343</v>
+        <v>-5950</v>
       </c>
       <c r="AA65" s="13" t="n">
-        <v>-5950</v>
+        <v>-5</v>
       </c>
       <c r="AB65" s="13" t="n">
-        <v>-5</v>
+        <v>-21821</v>
       </c>
       <c r="AC65" s="13" t="n">
-        <v>-21821</v>
+        <v>-860</v>
       </c>
       <c r="AD65" s="13" t="n">
-        <v>-860</v>
+        <v>-797</v>
       </c>
       <c r="AE65" s="13" t="n">
-        <v>-797</v>
+        <v>-1485</v>
       </c>
       <c r="AF65" s="13" t="n">
-        <v>-1485</v>
+        <v>-1533</v>
       </c>
       <c r="AG65" s="13" t="n">
-        <v>-1533</v>
+        <v>-2667</v>
       </c>
       <c r="AH65" s="13" t="n">
-        <v>-2667</v>
+        <v>-4119</v>
       </c>
       <c r="AI65" s="13" t="n">
-        <v>-4119</v>
+        <v>-5120</v>
       </c>
       <c r="AJ65" s="13" t="n">
-        <v>-5120</v>
+        <v>-3819</v>
       </c>
       <c r="AK65" s="13" t="n">
-        <v>-3819</v>
+        <v>-8680</v>
       </c>
       <c r="AL65" s="13" t="n">
-        <v>-8680</v>
+        <v>-850</v>
       </c>
       <c r="AM65" s="13" t="n">
-        <v>-850</v>
+        <v>-790</v>
       </c>
       <c r="AN65" s="13" t="n">
-        <v>-790</v>
+        <v>-12081</v>
       </c>
       <c r="AO65" s="13" t="n">
-        <v>-12081</v>
+        <v>-19728</v>
       </c>
       <c r="AP65" s="13" t="n">
-        <v>-19728</v>
+        <v>0</v>
       </c>
       <c r="AQ65" s="13" t="n">
-        <v>0</v>
+        <v>-3561</v>
       </c>
       <c r="AR65" s="13" t="n">
-        <v>-3561</v>
+        <v>-31350</v>
       </c>
       <c r="AS65" s="13" t="n">
-        <v>-31350</v>
+        <v>-23236</v>
       </c>
       <c r="AT65" s="13" t="n">
-        <v>-23236</v>
+        <v>-65685</v>
       </c>
       <c r="AU65" s="13" t="n">
-        <v>-65685</v>
+        <v>-31331</v>
       </c>
       <c r="AV65" s="13" t="n">
-        <v>-31331</v>
+        <v>-75393</v>
       </c>
       <c r="AW65" s="13" t="n">
-        <v>-75393</v>
+        <v>-49444</v>
       </c>
       <c r="AX65" s="13" t="n">
-        <v>-49444</v>
+        <v>-35245</v>
       </c>
       <c r="AY65" s="13" t="n">
-        <v>-35245</v>
+        <v>-104351</v>
       </c>
       <c r="AZ65" s="13" t="n">
-        <v>-104351</v>
+        <v>-302372</v>
       </c>
       <c r="BA65" s="13" t="n">
-        <v>-302372</v>
+        <v>-210002</v>
       </c>
       <c r="BB65" s="13" t="n">
-        <v>-210002</v>
+        <v>-43036</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10494,11 +10494,11 @@
       <c r="Y66" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="Z66" s="16" t="s">
-        <v>57</v>
+      <c r="Z66" s="16" t="n">
+        <v>-26000</v>
       </c>
       <c r="AA66" s="16" t="n">
-        <v>-26000</v>
+        <v>0</v>
       </c>
       <c r="AB66" s="16" t="n">
         <v>0</v>
@@ -10506,8 +10506,8 @@
       <c r="AC66" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD66" s="16" t="n">
-        <v>0</v>
+      <c r="AD66" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AE66" s="16" t="s">
         <v>57</v>
@@ -10530,8 +10530,8 @@
       <c r="AK66" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AL66" s="16" t="s">
-        <v>57</v>
+      <c r="AL66" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AM66" s="16" t="n">
         <v>0</v>
@@ -10542,8 +10542,8 @@
       <c r="AO66" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AP66" s="16" t="n">
-        <v>0</v>
+      <c r="AP66" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AQ66" s="16" t="s">
         <v>57</v>
@@ -10698,47 +10698,47 @@
       <c r="AN67" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AO67" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP67" s="13" t="n">
+      <c r="AO67" s="13" t="n">
         <v>-17776</v>
       </c>
+      <c r="AP67" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AQ67" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR67" s="13" t="s">
-        <v>57</v>
+      <c r="AR67" s="13" t="n">
+        <v>-9926</v>
       </c>
       <c r="AS67" s="13" t="n">
-        <v>-9926</v>
+        <v>-15485</v>
       </c>
       <c r="AT67" s="13" t="n">
-        <v>-15485</v>
+        <v>-18435</v>
       </c>
       <c r="AU67" s="13" t="n">
-        <v>-18435</v>
+        <v>-393</v>
       </c>
       <c r="AV67" s="13" t="n">
-        <v>-393</v>
+        <v>-5781</v>
       </c>
       <c r="AW67" s="13" t="n">
-        <v>-5781</v>
+        <v>-12182</v>
       </c>
       <c r="AX67" s="13" t="n">
-        <v>-12182</v>
+        <v>-28935</v>
       </c>
       <c r="AY67" s="13" t="n">
-        <v>-28935</v>
+        <v>-488</v>
       </c>
       <c r="AZ67" s="13" t="n">
-        <v>-488</v>
+        <v>-2606</v>
       </c>
       <c r="BA67" s="13" t="n">
-        <v>-2606</v>
+        <v>-5087</v>
       </c>
       <c r="BB67" s="13" t="n">
-        <v>-5087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10797,107 +10797,107 @@
       <c r="T68" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="U68" s="22" t="s">
-        <v>57</v>
+      <c r="U68" s="24" t="n">
+        <v>-191</v>
       </c>
       <c r="V68" s="24" t="n">
-        <v>-191</v>
+        <v>-8228</v>
       </c>
       <c r="W68" s="24" t="n">
-        <v>-8228</v>
+        <v>-6539</v>
       </c>
       <c r="X68" s="24" t="n">
-        <v>-6539</v>
+        <v>-5099</v>
       </c>
       <c r="Y68" s="24" t="n">
-        <v>-5099</v>
+        <v>-10321</v>
       </c>
       <c r="Z68" s="24" t="n">
-        <v>-10321</v>
+        <v>-35810</v>
       </c>
       <c r="AA68" s="24" t="n">
-        <v>-35810</v>
+        <v>-2563</v>
       </c>
       <c r="AB68" s="24" t="n">
-        <v>-2563</v>
+        <v>-23516</v>
       </c>
       <c r="AC68" s="24" t="n">
-        <v>-23516</v>
+        <v>-5717</v>
       </c>
       <c r="AD68" s="24" t="n">
-        <v>-5717</v>
+        <v>-1870</v>
       </c>
       <c r="AE68" s="24" t="n">
-        <v>-1870</v>
+        <v>-2308</v>
       </c>
       <c r="AF68" s="24" t="n">
-        <v>-2308</v>
+        <v>-11588</v>
       </c>
       <c r="AG68" s="24" t="n">
-        <v>-11588</v>
+        <v>-6168</v>
       </c>
       <c r="AH68" s="24" t="n">
-        <v>-6168</v>
+        <v>-6186</v>
       </c>
       <c r="AI68" s="24" t="n">
-        <v>-6186</v>
+        <v>-7896</v>
       </c>
       <c r="AJ68" s="24" t="n">
-        <v>-7896</v>
+        <v>-8739</v>
       </c>
       <c r="AK68" s="24" t="n">
-        <v>-8739</v>
+        <v>-21848</v>
       </c>
       <c r="AL68" s="24" t="n">
-        <v>-21848</v>
+        <v>-14369</v>
       </c>
       <c r="AM68" s="24" t="n">
-        <v>-14369</v>
+        <v>-14247</v>
       </c>
       <c r="AN68" s="24" t="n">
-        <v>-14247</v>
+        <v>-38652</v>
       </c>
       <c r="AO68" s="24" t="n">
-        <v>-38652</v>
+        <v>-43025</v>
       </c>
       <c r="AP68" s="24" t="n">
-        <v>-43025</v>
+        <v>0</v>
       </c>
       <c r="AQ68" s="24" t="n">
-        <v>0</v>
+        <v>-5992</v>
       </c>
       <c r="AR68" s="24" t="n">
-        <v>-5992</v>
+        <v>-46652</v>
       </c>
       <c r="AS68" s="24" t="n">
-        <v>-46652</v>
+        <v>-48064</v>
       </c>
       <c r="AT68" s="24" t="n">
-        <v>-48064</v>
+        <v>-92588</v>
       </c>
       <c r="AU68" s="24" t="n">
-        <v>-92588</v>
+        <v>-41075</v>
       </c>
       <c r="AV68" s="24" t="n">
-        <v>-41075</v>
+        <v>-85371</v>
       </c>
       <c r="AW68" s="24" t="n">
-        <v>-85371</v>
+        <v>-70943</v>
       </c>
       <c r="AX68" s="24" t="n">
-        <v>-70943</v>
+        <v>-72783</v>
       </c>
       <c r="AY68" s="24" t="n">
-        <v>-72783</v>
+        <v>-112674</v>
       </c>
       <c r="AZ68" s="24" t="n">
-        <v>-112674</v>
+        <v>-308881</v>
       </c>
       <c r="BA68" s="24" t="n">
-        <v>-308881</v>
+        <v>-225617</v>
       </c>
       <c r="BB68" s="24" t="n">
-        <v>-225617</v>
+        <v>-43228</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11013,86 +11013,86 @@
       <c r="T70" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U70" s="13" t="s">
-        <v>57</v>
+      <c r="U70" s="13" t="n">
+        <v>-9160</v>
       </c>
       <c r="V70" s="13" t="n">
-        <v>-9160</v>
+        <v>-5836</v>
       </c>
       <c r="W70" s="13" t="n">
-        <v>-5836</v>
+        <v>-3438</v>
       </c>
       <c r="X70" s="13" t="n">
-        <v>-3438</v>
+        <v>-4747</v>
       </c>
       <c r="Y70" s="13" t="n">
-        <v>-4747</v>
+        <v>-7266</v>
       </c>
       <c r="Z70" s="13" t="n">
-        <v>-7266</v>
+        <v>-12062</v>
       </c>
       <c r="AA70" s="13" t="n">
-        <v>-12062</v>
+        <v>-18287</v>
       </c>
       <c r="AB70" s="13" t="n">
-        <v>-18287</v>
+        <v>-21548</v>
       </c>
       <c r="AC70" s="13" t="n">
-        <v>-21548</v>
+        <v>-10130</v>
       </c>
       <c r="AD70" s="13" t="n">
-        <v>-10130</v>
+        <v>-10758</v>
       </c>
       <c r="AE70" s="13" t="n">
-        <v>-10758</v>
+        <v>-40983</v>
       </c>
       <c r="AF70" s="13" t="n">
-        <v>-40983</v>
+        <v>-75350</v>
       </c>
       <c r="AG70" s="13" t="n">
-        <v>-75350</v>
+        <v>-77417</v>
       </c>
       <c r="AH70" s="13" t="n">
-        <v>-77417</v>
+        <v>-67116</v>
       </c>
       <c r="AI70" s="13" t="n">
-        <v>-67116</v>
+        <v>-48926</v>
       </c>
       <c r="AJ70" s="13" t="n">
-        <v>-48926</v>
+        <v>-37210</v>
       </c>
       <c r="AK70" s="13" t="n">
-        <v>-37210</v>
+        <v>-37940</v>
       </c>
       <c r="AL70" s="13" t="n">
-        <v>-37940</v>
+        <v>-43879</v>
       </c>
       <c r="AM70" s="13" t="n">
-        <v>-43879</v>
+        <v>-29439</v>
       </c>
       <c r="AN70" s="13" t="n">
-        <v>-29439</v>
+        <v>-453</v>
       </c>
       <c r="AO70" s="13" t="n">
-        <v>-453</v>
+        <v>1151</v>
       </c>
       <c r="AP70" s="13" t="n">
-        <v>1151</v>
+        <v>-493</v>
       </c>
       <c r="AQ70" s="13" t="n">
-        <v>-493</v>
+        <v>-1804</v>
       </c>
       <c r="AR70" s="13" t="n">
-        <v>-1804</v>
+        <v>0</v>
       </c>
       <c r="AS70" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AT70" s="13" t="n">
-        <v>0</v>
+        <v>-34</v>
       </c>
       <c r="AU70" s="13" t="n">
-        <v>-34</v>
+        <v>0</v>
       </c>
       <c r="AV70" s="13" t="n">
         <v>0</v>
@@ -11104,16 +11104,16 @@
         <v>0</v>
       </c>
       <c r="AY70" s="13" t="n">
-        <v>0</v>
+        <v>-14597</v>
       </c>
       <c r="AZ70" s="13" t="n">
-        <v>-14597</v>
+        <v>-61326</v>
       </c>
       <c r="BA70" s="13" t="n">
-        <v>-61326</v>
+        <v>-122</v>
       </c>
       <c r="BB70" s="13" t="n">
-        <v>-122</v>
+        <v>-3449</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11123,154 +11123,154 @@
       <c r="C71" s="24"/>
       <c r="D71" s="24"/>
       <c r="E71" s="24" t="n">
-        <v>17111</v>
+        <v>44466</v>
       </c>
       <c r="F71" s="24" t="n">
-        <v>44466</v>
+        <v>18236</v>
       </c>
       <c r="G71" s="24" t="n">
-        <v>18236</v>
+        <v>35636</v>
       </c>
       <c r="H71" s="24" t="n">
-        <v>35636</v>
+        <v>41246</v>
       </c>
       <c r="I71" s="24" t="n">
-        <v>41246</v>
+        <v>47453</v>
       </c>
       <c r="J71" s="24" t="n">
-        <v>47453</v>
+        <v>68105</v>
       </c>
       <c r="K71" s="24" t="n">
-        <v>68105</v>
+        <v>103859</v>
       </c>
       <c r="L71" s="24" t="n">
-        <v>103859</v>
+        <v>80493</v>
       </c>
       <c r="M71" s="24" t="n">
-        <v>80493</v>
+        <v>93199</v>
       </c>
       <c r="N71" s="24" t="n">
-        <v>93199</v>
+        <v>97853</v>
       </c>
       <c r="O71" s="24" t="n">
-        <v>97853</v>
+        <v>110975</v>
       </c>
       <c r="P71" s="24" t="n">
-        <v>110975</v>
+        <v>148904</v>
       </c>
       <c r="Q71" s="24" t="n">
-        <v>148904</v>
+        <v>150033</v>
       </c>
       <c r="R71" s="24" t="n">
-        <v>150033</v>
+        <v>76595</v>
       </c>
       <c r="S71" s="24" t="n">
-        <v>76595</v>
+        <v>107749</v>
       </c>
       <c r="T71" s="24" t="n">
-        <v>107749</v>
+        <v>142095</v>
       </c>
       <c r="U71" s="24" t="n">
-        <v>142095</v>
+        <v>182721</v>
       </c>
       <c r="V71" s="24" t="n">
-        <v>182721</v>
+        <v>182232</v>
       </c>
       <c r="W71" s="24" t="n">
-        <v>182232</v>
+        <v>200089</v>
       </c>
       <c r="X71" s="24" t="n">
-        <v>200089</v>
+        <v>203733</v>
       </c>
       <c r="Y71" s="24" t="n">
-        <v>203733</v>
+        <v>254074</v>
       </c>
       <c r="Z71" s="24" t="n">
-        <v>254074</v>
+        <v>293404</v>
       </c>
       <c r="AA71" s="24" t="n">
-        <v>293404</v>
+        <v>282332</v>
       </c>
       <c r="AB71" s="24" t="n">
-        <v>282332</v>
+        <v>216480</v>
       </c>
       <c r="AC71" s="24" t="n">
-        <v>216480</v>
+        <v>259739</v>
       </c>
       <c r="AD71" s="24" t="n">
-        <v>259739</v>
+        <v>185796</v>
       </c>
       <c r="AE71" s="24" t="n">
-        <v>185796</v>
+        <v>285923</v>
       </c>
       <c r="AF71" s="24" t="n">
-        <v>285923</v>
+        <v>340766</v>
       </c>
       <c r="AG71" s="24" t="n">
-        <v>340766</v>
+        <v>345283</v>
       </c>
       <c r="AH71" s="24" t="n">
-        <v>345283</v>
+        <v>381023</v>
       </c>
       <c r="AI71" s="24" t="n">
-        <v>381023</v>
+        <v>384103</v>
       </c>
       <c r="AJ71" s="24" t="n">
-        <v>384103</v>
+        <v>381845</v>
       </c>
       <c r="AK71" s="24" t="n">
-        <v>381845</v>
+        <v>347973</v>
       </c>
       <c r="AL71" s="24" t="n">
-        <v>347973</v>
+        <v>378076</v>
       </c>
       <c r="AM71" s="24" t="n">
-        <v>378076</v>
+        <v>400775</v>
       </c>
       <c r="AN71" s="24" t="n">
-        <v>400775</v>
+        <v>501714</v>
       </c>
       <c r="AO71" s="24" t="n">
-        <v>501714</v>
+        <v>585208</v>
       </c>
       <c r="AP71" s="24" t="n">
-        <v>585208</v>
+        <v>361646</v>
       </c>
       <c r="AQ71" s="24" t="n">
-        <v>361646</v>
+        <v>626042</v>
       </c>
       <c r="AR71" s="24" t="n">
-        <v>626042</v>
+        <v>947192</v>
       </c>
       <c r="AS71" s="24" t="n">
-        <v>947192</v>
+        <v>1041341</v>
       </c>
       <c r="AT71" s="24" t="n">
-        <v>1041341</v>
+        <v>1062307</v>
       </c>
       <c r="AU71" s="24" t="n">
-        <v>1062307</v>
+        <v>1051240</v>
       </c>
       <c r="AV71" s="24" t="n">
-        <v>1051240</v>
+        <v>1057056</v>
       </c>
       <c r="AW71" s="24" t="n">
-        <v>1057056</v>
+        <v>1018188</v>
       </c>
       <c r="AX71" s="24" t="n">
-        <v>1018188</v>
+        <v>1112834</v>
       </c>
       <c r="AY71" s="24" t="n">
-        <v>1112834</v>
+        <v>1040053</v>
       </c>
       <c r="AZ71" s="24" t="n">
-        <v>1040053</v>
+        <v>1003099</v>
       </c>
       <c r="BA71" s="24" t="n">
-        <v>1003099</v>
+        <v>1078306</v>
       </c>
       <c r="BB71" s="24" t="n">
-        <v>1076540</v>
+        <v>902707</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11805,11 +11805,11 @@
       <c r="AH78" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AI78" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ78" s="13" t="n">
+      <c r="AI78" s="13" t="n">
         <v>182850</v>
+      </c>
+      <c r="AJ78" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AK78" s="13" t="s">
         <v>57</v>
@@ -11875,124 +11875,124 @@
       </c>
       <c r="D79" s="16"/>
       <c r="E79" s="16" t="n">
-        <v>55499</v>
+        <v>40979</v>
       </c>
       <c r="F79" s="16" t="n">
-        <v>40979</v>
+        <v>196815</v>
       </c>
       <c r="G79" s="16" t="n">
-        <v>196815</v>
+        <v>188732</v>
       </c>
       <c r="H79" s="16" t="n">
-        <v>188732</v>
+        <v>185451</v>
       </c>
       <c r="I79" s="16" t="n">
-        <v>185451</v>
+        <v>189948</v>
       </c>
       <c r="J79" s="16" t="n">
-        <v>189948</v>
+        <v>204827</v>
       </c>
       <c r="K79" s="16" t="n">
-        <v>204827</v>
+        <v>191962</v>
       </c>
       <c r="L79" s="16" t="n">
-        <v>191962</v>
+        <v>207061</v>
       </c>
       <c r="M79" s="16" t="n">
-        <v>207061</v>
+        <v>226969</v>
       </c>
       <c r="N79" s="16" t="n">
-        <v>226969</v>
+        <v>210579</v>
       </c>
       <c r="O79" s="16" t="n">
-        <v>210579</v>
+        <v>228179</v>
       </c>
       <c r="P79" s="16" t="n">
-        <v>228179</v>
+        <v>235387</v>
       </c>
       <c r="Q79" s="16" t="n">
-        <v>235387</v>
+        <v>223560</v>
       </c>
       <c r="R79" s="16" t="n">
-        <v>223560</v>
+        <v>217182</v>
       </c>
       <c r="S79" s="16" t="n">
-        <v>217182</v>
+        <v>234606</v>
       </c>
       <c r="T79" s="16" t="n">
-        <v>234606</v>
+        <v>239734</v>
       </c>
       <c r="U79" s="16" t="n">
-        <v>239734</v>
+        <v>332945</v>
       </c>
       <c r="V79" s="16" t="n">
-        <v>332945</v>
+        <v>354374</v>
       </c>
       <c r="W79" s="16" t="n">
-        <v>354374</v>
+        <v>426572</v>
       </c>
       <c r="X79" s="16" t="n">
-        <v>426572</v>
+        <v>428212</v>
       </c>
       <c r="Y79" s="16" t="n">
-        <v>428212</v>
+        <v>526112</v>
       </c>
       <c r="Z79" s="16" t="n">
-        <v>526112</v>
+        <v>595244</v>
       </c>
       <c r="AA79" s="16" t="n">
-        <v>595244</v>
+        <v>522473</v>
       </c>
       <c r="AB79" s="16" t="n">
-        <v>522473</v>
+        <v>771030</v>
       </c>
       <c r="AC79" s="16" t="n">
-        <v>771030</v>
+        <v>569715</v>
       </c>
       <c r="AD79" s="16" t="n">
-        <v>569715</v>
+        <v>537919</v>
       </c>
       <c r="AE79" s="16" t="n">
-        <v>537919</v>
+        <v>685744</v>
       </c>
       <c r="AF79" s="16" t="n">
-        <v>685744</v>
+        <v>751955</v>
       </c>
       <c r="AG79" s="16" t="n">
-        <v>751955</v>
+        <v>719711</v>
       </c>
       <c r="AH79" s="16" t="n">
-        <v>719711</v>
+        <v>754720</v>
       </c>
       <c r="AI79" s="16" t="n">
-        <v>754720</v>
+        <v>790465</v>
       </c>
       <c r="AJ79" s="16" t="n">
-        <v>790465</v>
+        <v>873669</v>
       </c>
       <c r="AK79" s="16" t="n">
-        <v>873669</v>
+        <v>789449</v>
       </c>
       <c r="AL79" s="16" t="n">
-        <v>789449</v>
+        <v>795835</v>
       </c>
       <c r="AM79" s="16" t="n">
-        <v>795835</v>
+        <v>821673</v>
       </c>
       <c r="AN79" s="16" t="n">
-        <v>821673</v>
-      </c>
-      <c r="AO79" s="16" t="n">
         <v>857690</v>
       </c>
-      <c r="AP79" s="16" t="s">
-        <v>57</v>
+      <c r="AO79" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP79" s="16" t="n">
+        <v>704001</v>
       </c>
       <c r="AQ79" s="16" t="n">
-        <v>704001</v>
-      </c>
-      <c r="AR79" s="16" t="n">
         <v>973290</v>
+      </c>
+      <c r="AR79" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AS79" s="16" t="s">
         <v>57</v>
@@ -12034,154 +12034,154 @@
       </c>
       <c r="D80" s="13"/>
       <c r="E80" s="13" t="n">
-        <v>105724</v>
+        <v>155710</v>
       </c>
       <c r="F80" s="13" t="n">
-        <v>155710</v>
+        <v>182010</v>
       </c>
       <c r="G80" s="13" t="n">
-        <v>182010</v>
+        <v>174124</v>
       </c>
       <c r="H80" s="13" t="n">
-        <v>174124</v>
+        <v>189199</v>
       </c>
       <c r="I80" s="13" t="n">
-        <v>189199</v>
+        <v>178462</v>
       </c>
       <c r="J80" s="13" t="n">
-        <v>178462</v>
+        <v>202326</v>
       </c>
       <c r="K80" s="13" t="n">
-        <v>202326</v>
+        <v>192759</v>
       </c>
       <c r="L80" s="13" t="n">
-        <v>192759</v>
+        <v>182101</v>
       </c>
       <c r="M80" s="13" t="n">
-        <v>182101</v>
+        <v>214726</v>
       </c>
       <c r="N80" s="13" t="n">
-        <v>214726</v>
+        <v>201775</v>
       </c>
       <c r="O80" s="13" t="n">
-        <v>201775</v>
+        <v>199820</v>
       </c>
       <c r="P80" s="13" t="n">
-        <v>199820</v>
+        <v>184021</v>
       </c>
       <c r="Q80" s="13" t="n">
-        <v>184021</v>
+        <v>192254</v>
       </c>
       <c r="R80" s="13" t="n">
-        <v>192254</v>
+        <v>198794</v>
       </c>
       <c r="S80" s="13" t="n">
-        <v>198794</v>
+        <v>321193</v>
       </c>
       <c r="T80" s="13" t="n">
-        <v>321193</v>
+        <v>223126</v>
       </c>
       <c r="U80" s="13" t="n">
-        <v>223126</v>
+        <v>267556</v>
       </c>
       <c r="V80" s="13" t="n">
-        <v>267556</v>
+        <v>290764</v>
       </c>
       <c r="W80" s="13" t="n">
-        <v>290764</v>
+        <v>323335</v>
       </c>
       <c r="X80" s="13" t="n">
-        <v>323335</v>
+        <v>326220</v>
       </c>
       <c r="Y80" s="13" t="n">
-        <v>326220</v>
+        <v>430648</v>
       </c>
       <c r="Z80" s="13" t="n">
-        <v>430648</v>
+        <v>379496</v>
       </c>
       <c r="AA80" s="13" t="n">
-        <v>379496</v>
+        <v>448309</v>
       </c>
       <c r="AB80" s="13" t="n">
-        <v>448309</v>
+        <v>440051</v>
       </c>
       <c r="AC80" s="13" t="n">
-        <v>440051</v>
+        <v>428003</v>
       </c>
       <c r="AD80" s="13" t="n">
-        <v>428003</v>
+        <v>510572</v>
       </c>
       <c r="AE80" s="13" t="n">
-        <v>510572</v>
+        <v>507846</v>
       </c>
       <c r="AF80" s="13" t="n">
-        <v>507846</v>
+        <v>808526</v>
       </c>
       <c r="AG80" s="13" t="n">
-        <v>808526</v>
+        <v>892315</v>
       </c>
       <c r="AH80" s="13" t="n">
-        <v>892315</v>
+        <v>525548</v>
       </c>
       <c r="AI80" s="13" t="n">
-        <v>525548</v>
+        <v>537709</v>
       </c>
       <c r="AJ80" s="13" t="n">
-        <v>537709</v>
+        <v>689336</v>
       </c>
       <c r="AK80" s="13" t="n">
-        <v>689336</v>
+        <v>736553</v>
       </c>
       <c r="AL80" s="13" t="n">
-        <v>736553</v>
+        <v>818453</v>
       </c>
       <c r="AM80" s="13" t="n">
-        <v>818453</v>
+        <v>646662</v>
       </c>
       <c r="AN80" s="13" t="n">
-        <v>646662</v>
+        <v>641726</v>
       </c>
       <c r="AO80" s="13" t="n">
-        <v>641726</v>
+        <v>581868</v>
       </c>
       <c r="AP80" s="13" t="n">
-        <v>581868</v>
+        <v>765195</v>
       </c>
       <c r="AQ80" s="13" t="n">
-        <v>765195</v>
+        <v>660032</v>
       </c>
       <c r="AR80" s="13" t="n">
-        <v>660032</v>
+        <v>652331</v>
       </c>
       <c r="AS80" s="13" t="n">
-        <v>652331</v>
+        <v>713692</v>
       </c>
       <c r="AT80" s="13" t="n">
-        <v>713692</v>
+        <v>692603</v>
       </c>
       <c r="AU80" s="13" t="n">
-        <v>692603</v>
+        <v>652452</v>
       </c>
       <c r="AV80" s="13" t="n">
-        <v>652452</v>
+        <v>689538</v>
       </c>
       <c r="AW80" s="13" t="n">
-        <v>689538</v>
+        <v>816403</v>
       </c>
       <c r="AX80" s="13" t="n">
-        <v>816403</v>
+        <v>848210</v>
       </c>
       <c r="AY80" s="13" t="n">
-        <v>848210</v>
+        <v>820561</v>
       </c>
       <c r="AZ80" s="13" t="n">
-        <v>820561</v>
+        <v>790091</v>
       </c>
       <c r="BA80" s="13" t="n">
-        <v>790091</v>
+        <v>707485</v>
       </c>
       <c r="BB80" s="13" t="n">
-        <v>707485</v>
+        <v>691742</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12193,154 +12193,154 @@
       </c>
       <c r="D81" s="16"/>
       <c r="E81" s="16" t="n">
-        <v>135113</v>
+        <v>401821</v>
       </c>
       <c r="F81" s="16" t="n">
-        <v>401821</v>
+        <v>482798</v>
       </c>
       <c r="G81" s="16" t="n">
-        <v>482798</v>
+        <v>471073</v>
       </c>
       <c r="H81" s="16" t="n">
-        <v>471073</v>
+        <v>444902</v>
       </c>
       <c r="I81" s="16" t="n">
-        <v>444902</v>
+        <v>469319</v>
       </c>
       <c r="J81" s="16" t="n">
-        <v>469319</v>
+        <v>545916</v>
       </c>
       <c r="K81" s="16" t="n">
-        <v>545916</v>
+        <v>591063</v>
       </c>
       <c r="L81" s="16" t="n">
-        <v>591063</v>
+        <v>580562</v>
       </c>
       <c r="M81" s="16" t="n">
-        <v>580562</v>
+        <v>560208</v>
       </c>
       <c r="N81" s="16" t="n">
-        <v>560208</v>
+        <v>557323</v>
       </c>
       <c r="O81" s="16" t="n">
-        <v>557323</v>
+        <v>627995</v>
       </c>
       <c r="P81" s="16" t="n">
-        <v>627995</v>
+        <v>475121</v>
       </c>
       <c r="Q81" s="16" t="n">
-        <v>475121</v>
+        <v>514298</v>
       </c>
       <c r="R81" s="16" t="n">
-        <v>514298</v>
+        <v>539826</v>
       </c>
       <c r="S81" s="16" t="n">
-        <v>539826</v>
+        <v>581352</v>
       </c>
       <c r="T81" s="16" t="n">
-        <v>581352</v>
+        <v>754384</v>
       </c>
       <c r="U81" s="16" t="n">
-        <v>754384</v>
+        <v>778183</v>
       </c>
       <c r="V81" s="16" t="n">
-        <v>778183</v>
+        <v>803728</v>
       </c>
       <c r="W81" s="16" t="n">
-        <v>803728</v>
+        <v>707572</v>
       </c>
       <c r="X81" s="16" t="n">
-        <v>707572</v>
+        <v>856489</v>
       </c>
       <c r="Y81" s="16" t="n">
-        <v>856489</v>
+        <v>1092321</v>
       </c>
       <c r="Z81" s="16" t="n">
-        <v>1092321</v>
+        <v>1172464</v>
       </c>
       <c r="AA81" s="16" t="n">
-        <v>1172464</v>
+        <v>1368294</v>
       </c>
       <c r="AB81" s="16" t="n">
-        <v>1368294</v>
+        <v>1124075</v>
       </c>
       <c r="AC81" s="16" t="n">
-        <v>1124075</v>
+        <v>851070</v>
       </c>
       <c r="AD81" s="16" t="n">
-        <v>851070</v>
+        <v>1047590</v>
       </c>
       <c r="AE81" s="16" t="n">
-        <v>1047590</v>
+        <v>1419731</v>
       </c>
       <c r="AF81" s="16" t="n">
-        <v>1419731</v>
+        <v>1655425</v>
       </c>
       <c r="AG81" s="16" t="n">
-        <v>1655425</v>
+        <v>1898614</v>
       </c>
       <c r="AH81" s="16" t="n">
-        <v>1898614</v>
+        <v>1986259</v>
       </c>
       <c r="AI81" s="16" t="n">
-        <v>1986259</v>
+        <v>1796152</v>
       </c>
       <c r="AJ81" s="16" t="n">
-        <v>1796152</v>
+        <v>1694004</v>
       </c>
       <c r="AK81" s="16" t="n">
-        <v>1694004</v>
+        <v>1697520</v>
       </c>
       <c r="AL81" s="16" t="n">
-        <v>1697520</v>
+        <v>2031599</v>
       </c>
       <c r="AM81" s="16" t="n">
-        <v>2031599</v>
+        <v>1693667</v>
       </c>
       <c r="AN81" s="16" t="n">
-        <v>1693667</v>
+        <v>1603244</v>
       </c>
       <c r="AO81" s="16" t="n">
-        <v>1603244</v>
+        <v>1813705</v>
       </c>
       <c r="AP81" s="16" t="n">
-        <v>1813705</v>
+        <v>2051001</v>
       </c>
       <c r="AQ81" s="16" t="n">
-        <v>2051001</v>
+        <v>2048719</v>
       </c>
       <c r="AR81" s="16" t="n">
-        <v>2048719</v>
+        <v>2089975</v>
       </c>
       <c r="AS81" s="16" t="n">
-        <v>2089975</v>
+        <v>2111196</v>
       </c>
       <c r="AT81" s="16" t="n">
-        <v>2111196</v>
+        <v>2409196</v>
       </c>
       <c r="AU81" s="16" t="n">
-        <v>2409196</v>
+        <v>2702724</v>
       </c>
       <c r="AV81" s="16" t="n">
-        <v>2702724</v>
+        <v>2681023</v>
       </c>
       <c r="AW81" s="16" t="n">
-        <v>2681023</v>
+        <v>2301789</v>
       </c>
       <c r="AX81" s="16" t="n">
-        <v>2301789</v>
+        <v>2281860</v>
       </c>
       <c r="AY81" s="16" t="n">
-        <v>2281860</v>
+        <v>2489680</v>
       </c>
       <c r="AZ81" s="16" t="n">
-        <v>2489680</v>
+        <v>2334942</v>
       </c>
       <c r="BA81" s="16" t="n">
-        <v>2334942</v>
+        <v>2201609</v>
       </c>
       <c r="BB81" s="16" t="n">
-        <v>2197920</v>
+        <v>2200264</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12408,17 +12408,17 @@
       <c r="W82" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="X82" s="13" t="s">
-        <v>57</v>
+      <c r="X82" s="13" t="n">
+        <v>515380</v>
       </c>
       <c r="Y82" s="13" t="n">
-        <v>515380</v>
+        <v>643785</v>
       </c>
       <c r="Z82" s="13" t="n">
-        <v>643785</v>
-      </c>
-      <c r="AA82" s="13" t="n">
         <v>445033</v>
+      </c>
+      <c r="AA82" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AB82" s="13" t="s">
         <v>57</v>
@@ -12511,10 +12511,10 @@
       </c>
       <c r="D83" s="16"/>
       <c r="E83" s="16" t="n">
-        <v>157072</v>
-      </c>
-      <c r="F83" s="16" t="n">
         <v>160540</v>
+      </c>
+      <c r="F83" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="G83" s="16" t="s">
         <v>57</v>
@@ -12672,44 +12672,44 @@
       <c r="E84" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F84" s="13" t="s">
-        <v>57</v>
+      <c r="F84" s="13" t="n">
+        <v>33366</v>
       </c>
       <c r="G84" s="13" t="n">
-        <v>33366</v>
+        <v>31238</v>
       </c>
       <c r="H84" s="13" t="n">
-        <v>31238</v>
+        <v>81487</v>
       </c>
       <c r="I84" s="13" t="n">
-        <v>81487</v>
+        <v>93900</v>
       </c>
       <c r="J84" s="13" t="n">
-        <v>93900</v>
+        <v>125120</v>
       </c>
       <c r="K84" s="13" t="n">
-        <v>125120</v>
+        <v>434258</v>
       </c>
       <c r="L84" s="13" t="n">
-        <v>434258</v>
+        <v>157895</v>
       </c>
       <c r="M84" s="13" t="n">
-        <v>157895</v>
+        <v>138427</v>
       </c>
       <c r="N84" s="13" t="n">
-        <v>138427</v>
+        <v>158898</v>
       </c>
       <c r="O84" s="13" t="n">
-        <v>158898</v>
+        <v>111111</v>
       </c>
       <c r="P84" s="13" t="n">
-        <v>111111</v>
+        <v>0</v>
       </c>
       <c r="Q84" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="R84" s="13" t="n">
-        <v>0</v>
+      <c r="R84" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S84" s="13" t="s">
         <v>57</v>
@@ -12936,47 +12936,47 @@
       <c r="AN85" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AO85" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP85" s="16" t="n">
+      <c r="AO85" s="16" t="n">
         <v>855417</v>
       </c>
+      <c r="AP85" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="AQ85" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AR85" s="16" t="s">
-        <v>57</v>
+      <c r="AR85" s="16" t="n">
+        <v>888027</v>
       </c>
       <c r="AS85" s="16" t="n">
-        <v>888027</v>
+        <v>1116016</v>
       </c>
       <c r="AT85" s="16" t="n">
-        <v>1116016</v>
+        <v>960338</v>
       </c>
       <c r="AU85" s="16" t="n">
-        <v>960338</v>
+        <v>709168</v>
       </c>
       <c r="AV85" s="16" t="n">
-        <v>709168</v>
+        <v>815318</v>
       </c>
       <c r="AW85" s="16" t="n">
-        <v>815318</v>
+        <v>759678</v>
       </c>
       <c r="AX85" s="16" t="n">
-        <v>759678</v>
+        <v>845681</v>
       </c>
       <c r="AY85" s="16" t="n">
-        <v>845681</v>
+        <v>786098</v>
       </c>
       <c r="AZ85" s="16" t="n">
-        <v>786098</v>
+        <v>938039</v>
       </c>
       <c r="BA85" s="16" t="n">
-        <v>938039</v>
+        <v>900861</v>
       </c>
       <c r="BB85" s="16" t="n">
-        <v>900861</v>
+        <v>876840</v>
       </c>
     </row>
   </sheetData>
